--- a/left_hand_Data.xlsx
+++ b/left_hand_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IQ4"/>
+  <dimension ref="A1:GO4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1027,922 +1027,598 @@
       <c r="GO1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="GP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="II1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IQ1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>574.9811401367188</v>
+        <v>443.9422302246094</v>
       </c>
       <c r="C2" t="n">
-        <v>579.4776000976562</v>
+        <v>441.2340087890625</v>
       </c>
       <c r="D2" t="n">
-        <v>579.0919799804688</v>
+        <v>441.1314697265625</v>
       </c>
       <c r="E2" t="n">
-        <v>576.5877685546875</v>
+        <v>441.272705078125</v>
       </c>
       <c r="F2" t="n">
-        <v>570.2203369140625</v>
+        <v>441.3867492675781</v>
       </c>
       <c r="G2" t="n">
-        <v>565.7793579101562</v>
+        <v>441.5668334960938</v>
       </c>
       <c r="H2" t="n">
-        <v>559.9931030273438</v>
+        <v>441.2733459472656</v>
       </c>
       <c r="I2" t="n">
-        <v>556.6428833007812</v>
+        <v>441.133056640625</v>
       </c>
       <c r="J2" t="n">
-        <v>557.0225830078125</v>
+        <v>441.0531005859375</v>
       </c>
       <c r="K2" t="n">
-        <v>555.1253662109375</v>
+        <v>440.9761047363281</v>
       </c>
       <c r="L2" t="n">
-        <v>556.333984375</v>
+        <v>440.8493041992188</v>
       </c>
       <c r="M2" t="n">
-        <v>557.7609252929688</v>
+        <v>440.7485656738281</v>
       </c>
       <c r="N2" t="n">
-        <v>559.2237548828125</v>
+        <v>440.6377563476562</v>
       </c>
       <c r="O2" t="n">
-        <v>560.43701171875</v>
+        <v>440.504150390625</v>
       </c>
       <c r="P2" t="n">
-        <v>560.6559448242188</v>
+        <v>440.35302734375</v>
       </c>
       <c r="Q2" t="n">
-        <v>560.364501953125</v>
+        <v>440.2093811035156</v>
       </c>
       <c r="R2" t="n">
-        <v>558.8009643554688</v>
+        <v>494.878662109375</v>
       </c>
       <c r="S2" t="n">
-        <v>553.63671875</v>
+        <v>492.2342529296875</v>
       </c>
       <c r="T2" t="n">
-        <v>548.9222412109375</v>
+        <v>485.5738830566406</v>
       </c>
       <c r="U2" t="n">
-        <v>544.3264770507812</v>
+        <v>478.4841613769531</v>
       </c>
       <c r="V2" t="n">
-        <v>543.0556640625</v>
+        <v>472.6593627929688</v>
       </c>
       <c r="W2" t="n">
-        <v>537.4169921875</v>
+        <v>471.2369384765625</v>
       </c>
       <c r="X2" t="n">
-        <v>537.0880737304688</v>
+        <v>471.1291809082031</v>
       </c>
       <c r="Y2" t="n">
-        <v>534.6830444335938</v>
+        <v>472.8351135253906</v>
       </c>
       <c r="Z2" t="n">
-        <v>535.686767578125</v>
+        <v>474.6709594726562</v>
       </c>
       <c r="AA2" t="n">
-        <v>538.5120849609375</v>
+        <v>475.4708862304688</v>
       </c>
       <c r="AB2" t="n">
-        <v>540.3167114257812</v>
+        <v>474.9530639648438</v>
       </c>
       <c r="AC2" t="n">
-        <v>541.43701171875</v>
+        <v>474.2174682617188</v>
       </c>
       <c r="AD2" t="n">
-        <v>541.406982421875</v>
+        <v>473.5400085449219</v>
       </c>
       <c r="AE2" t="n">
-        <v>541.85498046875</v>
+        <v>473.8451843261719</v>
       </c>
       <c r="AF2" t="n">
-        <v>541.4884033203125</v>
+        <v>474.1929931640625</v>
       </c>
       <c r="AG2" t="n">
-        <v>540.4020385742188</v>
+        <v>474.7472839355469</v>
       </c>
       <c r="AH2" t="n">
-        <v>539.2254028320312</v>
+        <v>475.432861328125</v>
       </c>
       <c r="AI2" t="n">
-        <v>538.4347534179688</v>
+        <v>476.8676452636719</v>
       </c>
       <c r="AJ2" t="n">
-        <v>537.3174438476562</v>
+        <v>478.1329956054688</v>
       </c>
       <c r="AK2" t="n">
-        <v>536.5216064453125</v>
+        <v>479.5219421386719</v>
       </c>
       <c r="AL2" t="n">
-        <v>536.4476928710938</v>
+        <v>482.5220031738281</v>
       </c>
       <c r="AM2" t="n">
-        <v>536.498779296875</v>
+        <v>479.2716979980469</v>
       </c>
       <c r="AN2" t="n">
-        <v>536.724853515625</v>
+        <v>480.4360656738281</v>
       </c>
       <c r="AO2" t="n">
-        <v>537.4251708984375</v>
+        <v>482.1563415527344</v>
       </c>
       <c r="AP2" t="n">
-        <v>537.4569091796875</v>
+        <v>481.7464599609375</v>
       </c>
       <c r="AQ2" t="n">
-        <v>537.5660400390625</v>
+        <v>481.0578002929688</v>
       </c>
       <c r="AR2" t="n">
-        <v>537.7501831054688</v>
+        <v>484.2437744140625</v>
       </c>
       <c r="AS2" t="n">
-        <v>538.647216796875</v>
+        <v>484.9829406738281</v>
       </c>
       <c r="AT2" t="n">
-        <v>538.9151611328125</v>
+        <v>496.5804443359375</v>
       </c>
       <c r="AU2" t="n">
-        <v>539.5109252929688</v>
+        <v>497.0762329101562</v>
       </c>
       <c r="AV2" t="n">
-        <v>541.1206665039062</v>
+        <v>494.9502563476562</v>
       </c>
       <c r="AW2" t="n">
-        <v>542.6599731445312</v>
+        <v>501.56396484375</v>
       </c>
       <c r="AX2" t="n">
-        <v>544.27490234375</v>
+        <v>501.4165649414062</v>
       </c>
       <c r="AY2" t="n">
-        <v>546.4442138671875</v>
+        <v>506.0333862304688</v>
       </c>
       <c r="AZ2" t="n">
-        <v>548.551025390625</v>
+        <v>516.8119506835938</v>
       </c>
       <c r="BA2" t="n">
-        <v>548.68310546875</v>
+        <v>523.3650512695312</v>
       </c>
       <c r="BB2" t="n">
-        <v>545.6443481445312</v>
+        <v>525.7061767578125</v>
       </c>
       <c r="BC2" t="n">
-        <v>540.0621337890625</v>
+        <v>522.6253662109375</v>
       </c>
       <c r="BD2" t="n">
-        <v>539.5081176757812</v>
+        <v>521.6273803710938</v>
       </c>
       <c r="BE2" t="n">
-        <v>539.8635864257812</v>
+        <v>522.2945556640625</v>
       </c>
       <c r="BF2" t="n">
-        <v>543.3790283203125</v>
+        <v>526.419921875</v>
       </c>
       <c r="BG2" t="n">
-        <v>548.6470336914062</v>
+        <v>527.2840576171875</v>
       </c>
       <c r="BH2" t="n">
-        <v>553.7991943359375</v>
+        <v>526.8515625</v>
       </c>
       <c r="BI2" t="n">
-        <v>557.7147216796875</v>
+        <v>527.5069580078125</v>
       </c>
       <c r="BJ2" t="n">
-        <v>564.3604736328125</v>
+        <v>523.121337890625</v>
       </c>
       <c r="BK2" t="n">
-        <v>573.0126953125</v>
+        <v>511.567138671875</v>
       </c>
       <c r="BL2" t="n">
-        <v>593.11376953125</v>
+        <v>502.251220703125</v>
       </c>
       <c r="BM2" t="n">
-        <v>607.4517211914062</v>
+        <v>503.0009765625</v>
       </c>
       <c r="BN2" t="n">
-        <v>630.0264892578125</v>
+        <v>505.5465698242188</v>
       </c>
       <c r="BO2" t="n">
-        <v>654.099609375</v>
+        <v>493.2194519042969</v>
       </c>
       <c r="BP2" t="n">
-        <v>650.420654296875</v>
+        <v>479.9342041015625</v>
       </c>
       <c r="BQ2" t="n">
-        <v>645.457763671875</v>
+        <v>476.550537109375</v>
       </c>
       <c r="BR2" t="n">
-        <v>648.33203125</v>
+        <v>468.65625</v>
       </c>
       <c r="BS2" t="n">
-        <v>653.042236328125</v>
+        <v>464.5386352539062</v>
       </c>
       <c r="BT2" t="n">
-        <v>648.7747802734375</v>
+        <v>451.036376953125</v>
       </c>
       <c r="BU2" t="n">
-        <v>646.2744750976562</v>
+        <v>442.475341796875</v>
       </c>
       <c r="BV2" t="n">
-        <v>644.7802734375</v>
+        <v>428.5065307617188</v>
       </c>
       <c r="BW2" t="n">
-        <v>645.3051147460938</v>
+        <v>420.1574096679688</v>
       </c>
       <c r="BX2" t="n">
-        <v>644.485107421875</v>
+        <v>418.5647888183594</v>
       </c>
       <c r="BY2" t="n">
-        <v>642.7301635742188</v>
+        <v>418.5739135742188</v>
       </c>
       <c r="BZ2" t="n">
-        <v>633.099853515625</v>
+        <v>415.3431396484375</v>
       </c>
       <c r="CA2" t="n">
-        <v>611.9143676757812</v>
+        <v>409.8767700195312</v>
       </c>
       <c r="CB2" t="n">
-        <v>577.4136962890625</v>
+        <v>420.1532287597656</v>
       </c>
       <c r="CC2" t="n">
-        <v>563.2081909179688</v>
+        <v>416.990234375</v>
       </c>
       <c r="CD2" t="n">
-        <v>534.2484130859375</v>
+        <v>408.8199462890625</v>
       </c>
       <c r="CE2" t="n">
-        <v>516.15966796875</v>
+        <v>418.0457763671875</v>
       </c>
       <c r="CF2" t="n">
-        <v>471.3628845214844</v>
+        <v>417.8263549804688</v>
       </c>
       <c r="CG2" t="n">
-        <v>442.4116821289062</v>
+        <v>416.2550048828125</v>
       </c>
       <c r="CH2" t="n">
-        <v>424.6226806640625</v>
+        <v>402.779296875</v>
       </c>
       <c r="CI2" t="n">
-        <v>402.8012084960938</v>
+        <v>381.9736938476562</v>
       </c>
       <c r="CJ2" t="n">
-        <v>392.4015502929688</v>
+        <v>373.729736328125</v>
       </c>
       <c r="CK2" t="n">
-        <v>391.1410522460938</v>
+        <v>378.9075317382812</v>
       </c>
       <c r="CL2" t="n">
-        <v>389.7869262695312</v>
+        <v>392.9357299804688</v>
       </c>
       <c r="CM2" t="n">
-        <v>389.9677124023438</v>
+        <v>410.9781494140625</v>
       </c>
       <c r="CN2" t="n">
-        <v>389.7839660644531</v>
+        <v>419.5818786621094</v>
       </c>
       <c r="CO2" t="n">
-        <v>389.887939453125</v>
+        <v>423.2319641113281</v>
       </c>
       <c r="CP2" t="n">
-        <v>390.2753295898438</v>
+        <v>415.4934997558594</v>
       </c>
       <c r="CQ2" t="n">
-        <v>390.788818359375</v>
+        <v>406.6982421875</v>
       </c>
       <c r="CR2" t="n">
-        <v>391.226318359375</v>
+        <v>400.8002014160156</v>
       </c>
       <c r="CS2" t="n">
-        <v>392.0762634277344</v>
+        <v>409.6625366210938</v>
       </c>
       <c r="CT2" t="n">
-        <v>392.6626281738281</v>
+        <v>413.6083374023438</v>
       </c>
       <c r="CU2" t="n">
-        <v>392.2667846679688</v>
+        <v>427.166748046875</v>
       </c>
       <c r="CV2" t="n">
-        <v>391.2336730957031</v>
+        <v>446.386474609375</v>
       </c>
       <c r="CW2" t="n">
-        <v>382.71533203125</v>
+        <v>440.9072265625</v>
       </c>
       <c r="CX2" t="n">
-        <v>375.1226501464844</v>
+        <v>439.5611877441406</v>
       </c>
       <c r="CY2" t="n">
-        <v>370.8818054199219</v>
+        <v>444.9747009277344</v>
       </c>
       <c r="CZ2" t="n">
-        <v>370.8499450683594</v>
+        <v>454.2107543945312</v>
       </c>
       <c r="DA2" t="n">
-        <v>370.9332275390625</v>
+        <v>458.8125305175781</v>
       </c>
       <c r="DB2" t="n">
-        <v>371.7493896484375</v>
+        <v>475.1541748046875</v>
       </c>
       <c r="DC2" t="n">
-        <v>376.7772827148438</v>
+        <v>477.9586486816406</v>
       </c>
       <c r="DD2" t="n">
-        <v>381.0000610351562</v>
+        <v>481.7026062011719</v>
       </c>
       <c r="DE2" t="n">
-        <v>385.119384765625</v>
+        <v>485.3777465820312</v>
       </c>
       <c r="DF2" t="n">
-        <v>386.581787109375</v>
+        <v>487.001220703125</v>
       </c>
       <c r="DG2" t="n">
-        <v>386.3364868164062</v>
+        <v>490.6268005371094</v>
       </c>
       <c r="DH2" t="n">
-        <v>386.1554260253906</v>
+        <v>513.3363647460938</v>
       </c>
       <c r="DI2" t="n">
-        <v>386.1184692382812</v>
+        <v>512.5967407226562</v>
       </c>
       <c r="DJ2" t="n">
-        <v>385.9660034179688</v>
+        <v>509.7504272460938</v>
       </c>
       <c r="DK2" t="n">
-        <v>385.9144592285156</v>
+        <v>508.243408203125</v>
       </c>
       <c r="DL2" t="n">
-        <v>385.7463989257812</v>
+        <v>507.111083984375</v>
       </c>
       <c r="DM2" t="n">
-        <v>385.6565856933594</v>
+        <v>506.7757568359375</v>
       </c>
       <c r="DN2" t="n">
-        <v>385.666259765625</v>
+        <v>506.0775146484375</v>
       </c>
       <c r="DO2" t="n">
-        <v>385.8204956054688</v>
+        <v>510.4891662597656</v>
       </c>
       <c r="DP2" t="n">
-        <v>386.0125122070312</v>
+        <v>515.9464721679688</v>
       </c>
       <c r="DQ2" t="n">
-        <v>386.6959228515625</v>
+        <v>498.5950317382812</v>
       </c>
       <c r="DR2" t="n">
-        <v>387.0303649902344</v>
+        <v>489.4746398925781</v>
       </c>
       <c r="DS2" t="n">
-        <v>387.0653686523438</v>
+        <v>480.76611328125</v>
       </c>
       <c r="DT2" t="n">
-        <v>387.4576416015625</v>
+        <v>466.8851318359375</v>
       </c>
       <c r="DU2" t="n">
-        <v>387.576904296875</v>
+        <v>461.0572814941406</v>
       </c>
       <c r="DV2" t="n">
-        <v>387.6715087890625</v>
+        <v>457.3660278320312</v>
       </c>
       <c r="DW2" t="n">
-        <v>387.6643371582031</v>
+        <v>457.3807373046875</v>
       </c>
       <c r="DX2" t="n">
-        <v>387.3375244140625</v>
+        <v>455.9117431640625</v>
       </c>
       <c r="DY2" t="n">
-        <v>384.3607177734375</v>
+        <v>448.971435546875</v>
       </c>
       <c r="DZ2" t="n">
-        <v>381.9849853515625</v>
+        <v>446.4276733398438</v>
       </c>
       <c r="EA2" t="n">
-        <v>379.4349670410156</v>
+        <v>445.9937133789062</v>
       </c>
       <c r="EB2" t="n">
-        <v>377.0836181640625</v>
+        <v>448.6066284179688</v>
       </c>
       <c r="EC2" t="n">
-        <v>377.9747314453125</v>
+        <v>455.6903686523438</v>
       </c>
       <c r="ED2" t="n">
-        <v>378.6408996582031</v>
+        <v>467.2197875976562</v>
       </c>
       <c r="EE2" t="n">
-        <v>379.4423828125</v>
+        <v>477.53515625</v>
       </c>
       <c r="EF2" t="n">
-        <v>381.7784423828125</v>
+        <v>478.8522338867188</v>
       </c>
       <c r="EG2" t="n">
-        <v>384.8524475097656</v>
+        <v>484.8855590820312</v>
       </c>
       <c r="EH2" t="n">
-        <v>387.5877685546875</v>
+        <v>492.0694580078125</v>
       </c>
       <c r="EI2" t="n">
-        <v>389.5397338867188</v>
+        <v>497.7306518554688</v>
       </c>
       <c r="EJ2" t="n">
-        <v>401.0620727539062</v>
+        <v>512.7225341796875</v>
       </c>
       <c r="EK2" t="n">
-        <v>415.1808471679688</v>
+        <v>508.2802734375</v>
       </c>
       <c r="EL2" t="n">
-        <v>450.9829406738281</v>
+        <v>504.837890625</v>
       </c>
       <c r="EM2" t="n">
-        <v>505.837158203125</v>
+        <v>501.1525268554688</v>
       </c>
       <c r="EN2" t="n">
-        <v>574.8483276367188</v>
+        <v>502.7625732421875</v>
       </c>
       <c r="EO2" t="n">
-        <v>586.8049926757812</v>
+        <v>503.54736328125</v>
       </c>
       <c r="EP2" t="n">
-        <v>580.7239990234375</v>
+        <v>498.288818359375</v>
       </c>
       <c r="EQ2" t="n">
-        <v>562.8582763671875</v>
+        <v>494.8617553710938</v>
       </c>
       <c r="ER2" t="n">
-        <v>559.9224243164062</v>
+        <v>495.4752197265625</v>
       </c>
       <c r="ES2" t="n">
-        <v>552.1056518554688</v>
+        <v>498.1734008789062</v>
       </c>
       <c r="ET2" t="n">
-        <v>551.7542114257812</v>
+        <v>518.4031372070312</v>
       </c>
       <c r="EU2" t="n">
-        <v>562.9779663085938</v>
+        <v>540.2803344726562</v>
       </c>
       <c r="EV2" t="n">
-        <v>561.41015625</v>
+        <v>540.9329833984375</v>
       </c>
       <c r="EW2" t="n">
-        <v>564.804443359375</v>
+        <v>531.247802734375</v>
       </c>
       <c r="EX2" t="n">
-        <v>540.0119018554688</v>
+        <v>520.4571533203125</v>
       </c>
       <c r="EY2" t="n">
-        <v>513.1734008789062</v>
+        <v>512.1620483398438</v>
       </c>
       <c r="EZ2" t="n">
-        <v>462.0317993164062</v>
+        <v>497.3192138671875</v>
       </c>
       <c r="FA2" t="n">
-        <v>434.6835327148438</v>
+        <v>487.9396057128906</v>
       </c>
       <c r="FB2" t="n">
-        <v>411.1941528320312</v>
+        <v>481.3629455566406</v>
       </c>
       <c r="FC2" t="n">
-        <v>389.6818237304688</v>
+        <v>333.4288940429688</v>
       </c>
       <c r="FD2" t="n">
-        <v>384.6582641601562</v>
+        <v>333.8400268554688</v>
       </c>
       <c r="FE2" t="n">
-        <v>385.10595703125</v>
+        <v>333.2724609375</v>
       </c>
       <c r="FF2" t="n">
-        <v>385.830322265625</v>
+        <v>332.9881591796875</v>
       </c>
       <c r="FG2" t="n">
-        <v>388.8427734375</v>
+        <v>337.3659057617188</v>
       </c>
       <c r="FH2" t="n">
-        <v>399.7140502929688</v>
+        <v>348.8458251953125</v>
       </c>
       <c r="FI2" t="n">
-        <v>401.401611328125</v>
+        <v>357.34423828125</v>
       </c>
       <c r="FJ2" t="n">
-        <v>401.2962341308594</v>
+        <v>369.7570495605469</v>
       </c>
       <c r="FK2" t="n">
-        <v>403.0286254882812</v>
+        <v>425.2216186523438</v>
       </c>
       <c r="FL2" t="n">
-        <v>408.4983825683594</v>
+        <v>429.9546813964844</v>
       </c>
       <c r="FM2" t="n">
-        <v>409.4085083007812</v>
+        <v>408.72802734375</v>
       </c>
       <c r="FN2" t="n">
-        <v>428.7545776367188</v>
+        <v>422.0905151367188</v>
       </c>
       <c r="FO2" t="n">
-        <v>435.6737670898438</v>
+        <v>429.4702758789062</v>
       </c>
       <c r="FP2" t="n">
-        <v>453.811767578125</v>
+        <v>433.0747680664062</v>
       </c>
       <c r="FQ2" t="n">
-        <v>484.5933227539062</v>
+        <v>442.2806091308594</v>
       </c>
       <c r="FR2" t="n">
-        <v>491.6810302734375</v>
+        <v>446.8494262695312</v>
       </c>
       <c r="FS2" t="n">
-        <v>505.2156982421875</v>
+        <v>453.6904296875</v>
       </c>
       <c r="FT2" t="n">
-        <v>518.724609375</v>
+        <v>459.9582214355469</v>
       </c>
       <c r="FU2" t="n">
-        <v>520.4540405273438</v>
+        <v>465.2905883789062</v>
       </c>
       <c r="FV2" t="n">
-        <v>527.4859619140625</v>
+        <v>467.287353515625</v>
       </c>
       <c r="FW2" t="n">
-        <v>531.9038696289062</v>
+        <v>513.9169921875</v>
       </c>
       <c r="FX2" t="n">
-        <v>532.0568237304688</v>
+        <v>438.0432434082031</v>
       </c>
       <c r="FY2" t="n">
-        <v>528.5595092773438</v>
+        <v>463.3695068359375</v>
       </c>
       <c r="FZ2" t="n">
-        <v>528.6589965820312</v>
+        <v>464.16064453125</v>
       </c>
       <c r="GA2" t="n">
-        <v>521.0316772460938</v>
+        <v>454.1536865234375</v>
       </c>
       <c r="GB2" t="n">
-        <v>504.56005859375</v>
+        <v>445.7406005859375</v>
       </c>
       <c r="GC2" t="n">
-        <v>502.8152770996094</v>
+        <v>436.5442504882812</v>
       </c>
       <c r="GD2" t="n">
-        <v>488.9445190429688</v>
+        <v>420.3777465820312</v>
       </c>
       <c r="GE2" t="n">
-        <v>484.1653442382812</v>
+        <v>394.5403442382812</v>
       </c>
       <c r="GF2" t="n">
-        <v>481.4041748046875</v>
+        <v>394.4943237304688</v>
       </c>
       <c r="GG2" t="n">
-        <v>475.6831665039062</v>
+        <v>408.0818176269531</v>
       </c>
       <c r="GH2" t="n">
-        <v>471.1890869140625</v>
+        <v>408.7628173828125</v>
       </c>
       <c r="GI2" t="n">
-        <v>468.5760803222656</v>
+        <v>400.8774108886719</v>
       </c>
       <c r="GJ2" t="n">
-        <v>457.4714660644531</v>
+        <v>398.3955078125</v>
       </c>
       <c r="GK2" t="n">
-        <v>447.5203857421875</v>
+        <v>398.7215576171875</v>
       </c>
       <c r="GL2" t="n">
-        <v>435.1282348632812</v>
+        <v>402.3646240234375</v>
       </c>
       <c r="GM2" t="n">
-        <v>439.9917297363281</v>
+        <v>405.2523803710938</v>
       </c>
       <c r="GN2" t="n">
-        <v>452.9977722167969</v>
+        <v>403.5527954101562</v>
       </c>
       <c r="GO2" t="n">
-        <v>461.4059143066406</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>448.3449096679688</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>450.1083374023438</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>467.580322265625</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>482.9143981933594</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>469.5490112304688</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>438.9160461425781</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>554.6138305664062</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>492.292236328125</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>557.263671875</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>469.3864440917969</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>473.3310546875</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>470.1056518554688</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>490.4677124023438</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>540.6295776367188</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>549.1776733398438</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>563.5687866210938</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>564.3517456054688</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>579.9362182617188</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>586.7708129882812</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>584.6783447265625</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>577.4081420898438</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>566.6613159179688</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>520.5626831054688</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>496.8433227539062</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>464.3026123046875</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>444.7291870117188</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>439.7979736328125</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>438.1657104492188</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>446.0706176757812</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>458.7492065429688</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>461.5509338378906</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>322.150390625</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>275.7789916992188</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>530.875732421875</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>364.4142456054688</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>600.4151000976562</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>600.1215209960938</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>343.1101989746094</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>329.6900024414062</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>303.0433654785156</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>327.7905578613281</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>300.6842956542969</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>287.8603515625</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>390.2931213378906</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>422.1292419433594</v>
-      </c>
-      <c r="II2" t="n">
-        <v>372.6408386230469</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>373.9161376953125</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>369.2615966796875</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>368.5683898925781</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>367.6175231933594</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>453.2723388671875</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>441.1957092285156</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>372.0349731445312</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>342.4996643066406</v>
+        <v>392.681884765625</v>
       </c>
     </row>
     <row r="3">
@@ -1950,754 +1626,592 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>497.8050537109375</v>
+        <v>555.4437255859375</v>
       </c>
       <c r="C3" t="n">
-        <v>497.4766845703125</v>
+        <v>551.9407348632812</v>
       </c>
       <c r="D3" t="n">
-        <v>494.127685546875</v>
+        <v>550.1165771484375</v>
       </c>
       <c r="E3" t="n">
-        <v>489.1519470214844</v>
+        <v>548.5746459960938</v>
       </c>
       <c r="F3" t="n">
-        <v>483.9112548828125</v>
+        <v>547.5894165039062</v>
       </c>
       <c r="G3" t="n">
-        <v>480.7904357910156</v>
+        <v>546.8240966796875</v>
       </c>
       <c r="H3" t="n">
-        <v>478.7068176269531</v>
+        <v>546.2326049804688</v>
       </c>
       <c r="I3" t="n">
-        <v>476.0662536621094</v>
+        <v>545.7329711914062</v>
       </c>
       <c r="J3" t="n">
-        <v>476.9107971191406</v>
+        <v>545.3049926757812</v>
       </c>
       <c r="K3" t="n">
-        <v>478.9136047363281</v>
+        <v>544.9520263671875</v>
       </c>
       <c r="L3" t="n">
-        <v>478.6278381347656</v>
+        <v>544.6345825195312</v>
       </c>
       <c r="M3" t="n">
-        <v>475.8780212402344</v>
+        <v>544.34375</v>
       </c>
       <c r="N3" t="n">
-        <v>472.1024475097656</v>
+        <v>544.0831909179688</v>
       </c>
       <c r="O3" t="n">
-        <v>468.3419799804688</v>
+        <v>543.8428955078125</v>
       </c>
       <c r="P3" t="n">
-        <v>466.6460876464844</v>
+        <v>543.6155395507812</v>
       </c>
       <c r="Q3" t="n">
-        <v>465.5611877441406</v>
+        <v>543.3822631835938</v>
       </c>
       <c r="R3" t="n">
-        <v>464.8623046875</v>
+        <v>578.0032348632812</v>
       </c>
       <c r="S3" t="n">
-        <v>465.1706848144531</v>
+        <v>576.3607177734375</v>
       </c>
       <c r="T3" t="n">
-        <v>465.9246520996094</v>
+        <v>576.901123046875</v>
       </c>
       <c r="U3" t="n">
-        <v>464.9429321289062</v>
+        <v>576.7570190429688</v>
       </c>
       <c r="V3" t="n">
-        <v>462.8578796386719</v>
+        <v>577.2835083007812</v>
       </c>
       <c r="W3" t="n">
-        <v>461.1308288574219</v>
+        <v>578.0283813476562</v>
       </c>
       <c r="X3" t="n">
-        <v>457.1897277832031</v>
+        <v>578.1549682617188</v>
       </c>
       <c r="Y3" t="n">
-        <v>458.2798461914062</v>
+        <v>577.7867431640625</v>
       </c>
       <c r="Z3" t="n">
-        <v>459.0751953125</v>
+        <v>577.4107666015625</v>
       </c>
       <c r="AA3" t="n">
-        <v>459.2404174804688</v>
+        <v>577.0051879882812</v>
       </c>
       <c r="AB3" t="n">
-        <v>462.4911193847656</v>
+        <v>576.632080078125</v>
       </c>
       <c r="AC3" t="n">
-        <v>466.0707702636719</v>
+        <v>576.2481689453125</v>
       </c>
       <c r="AD3" t="n">
-        <v>465.760498046875</v>
+        <v>575.8516235351562</v>
       </c>
       <c r="AE3" t="n">
-        <v>468.0711669921875</v>
+        <v>575.4498291015625</v>
       </c>
       <c r="AF3" t="n">
-        <v>467.3345642089844</v>
+        <v>575.0712890625</v>
       </c>
       <c r="AG3" t="n">
-        <v>465.7635498046875</v>
+        <v>574.6436157226562</v>
       </c>
       <c r="AH3" t="n">
-        <v>463.1490173339844</v>
+        <v>574.2152099609375</v>
       </c>
       <c r="AI3" t="n">
-        <v>461.6399230957031</v>
+        <v>573.7650146484375</v>
       </c>
       <c r="AJ3" t="n">
-        <v>460.0117797851562</v>
+        <v>573.2835083007812</v>
       </c>
       <c r="AK3" t="n">
-        <v>458.9646606445312</v>
+        <v>572.7757568359375</v>
       </c>
       <c r="AL3" t="n">
-        <v>457.5675048828125</v>
+        <v>571.7713623046875</v>
       </c>
       <c r="AM3" t="n">
-        <v>456.8336791992188</v>
+        <v>571.2490844726562</v>
       </c>
       <c r="AN3" t="n">
-        <v>456.7628479003906</v>
+        <v>570.7203369140625</v>
       </c>
       <c r="AO3" t="n">
-        <v>458.6729431152344</v>
+        <v>570.1026000976562</v>
       </c>
       <c r="AP3" t="n">
-        <v>460.3816833496094</v>
+        <v>568.9906005859375</v>
       </c>
       <c r="AQ3" t="n">
-        <v>461.0479736328125</v>
+        <v>566.6519775390625</v>
       </c>
       <c r="AR3" t="n">
-        <v>461.4008178710938</v>
+        <v>567.283447265625</v>
       </c>
       <c r="AS3" t="n">
-        <v>461.7203369140625</v>
+        <v>568.0687866210938</v>
       </c>
       <c r="AT3" t="n">
-        <v>462.134765625</v>
+        <v>565.5093994140625</v>
       </c>
       <c r="AU3" t="n">
-        <v>462.572265625</v>
+        <v>565.286376953125</v>
       </c>
       <c r="AV3" t="n">
-        <v>465.6256408691406</v>
+        <v>564.9804077148438</v>
       </c>
       <c r="AW3" t="n">
-        <v>468.0963439941406</v>
+        <v>562.4488525390625</v>
       </c>
       <c r="AX3" t="n">
-        <v>469.714599609375</v>
+        <v>563.0355834960938</v>
       </c>
       <c r="AY3" t="n">
-        <v>471.0639953613281</v>
+        <v>560.8353881835938</v>
       </c>
       <c r="AZ3" t="n">
-        <v>472.1795654296875</v>
+        <v>556.5772094726562</v>
       </c>
       <c r="BA3" t="n">
-        <v>473.5535278320312</v>
+        <v>551.380859375</v>
       </c>
       <c r="BB3" t="n">
-        <v>473.9938659667969</v>
+        <v>546.5050659179688</v>
       </c>
       <c r="BC3" t="n">
-        <v>473.8642272949219</v>
+        <v>543.3545532226562</v>
       </c>
       <c r="BD3" t="n">
-        <v>472.6266174316406</v>
+        <v>541.0264282226562</v>
       </c>
       <c r="BE3" t="n">
-        <v>468.864990234375</v>
+        <v>513.9786987304688</v>
       </c>
       <c r="BF3" t="n">
-        <v>467.2155151367188</v>
+        <v>539.0745239257812</v>
       </c>
       <c r="BG3" t="n">
-        <v>465.9291687011719</v>
+        <v>539.152099609375</v>
       </c>
       <c r="BH3" t="n">
-        <v>462.6632995605469</v>
+        <v>537.2196655273438</v>
       </c>
       <c r="BI3" t="n">
-        <v>454.6882629394531</v>
+        <v>536.7276000976562</v>
       </c>
       <c r="BJ3" t="n">
-        <v>441.342041015625</v>
+        <v>515.400146484375</v>
       </c>
       <c r="BK3" t="n">
-        <v>426.1894226074219</v>
+        <v>519.9651489257812</v>
       </c>
       <c r="BL3" t="n">
-        <v>401.4637451171875</v>
+        <v>520.3696899414062</v>
       </c>
       <c r="BM3" t="n">
-        <v>368.6201171875</v>
+        <v>518.40771484375</v>
       </c>
       <c r="BN3" t="n">
-        <v>350.0559997558594</v>
+        <v>518.4697875976562</v>
       </c>
       <c r="BO3" t="n">
-        <v>308.1996459960938</v>
+        <v>519.3502807617188</v>
       </c>
       <c r="BP3" t="n">
-        <v>269.1033630371094</v>
+        <v>522.0684814453125</v>
       </c>
       <c r="BQ3" t="n">
-        <v>240.6138305664062</v>
+        <v>521.9656372070312</v>
       </c>
       <c r="BR3" t="n">
-        <v>218.0939331054688</v>
+        <v>519.4531860351562</v>
       </c>
       <c r="BS3" t="n">
-        <v>198.5323333740234</v>
+        <v>515.9788818359375</v>
       </c>
       <c r="BT3" t="n">
-        <v>183.6124267578125</v>
+        <v>513.8778076171875</v>
       </c>
       <c r="BU3" t="n">
-        <v>170.6717681884766</v>
+        <v>508.7250671386719</v>
       </c>
       <c r="BV3" t="n">
-        <v>156.1608123779297</v>
+        <v>507.0418701171875</v>
       </c>
       <c r="BW3" t="n">
-        <v>148.4095764160156</v>
+        <v>504.9611206054688</v>
       </c>
       <c r="BX3" t="n">
-        <v>143.5981597900391</v>
+        <v>499.0785522460938</v>
       </c>
       <c r="BY3" t="n">
-        <v>145.0996551513672</v>
+        <v>495.2029724121094</v>
       </c>
       <c r="BZ3" t="n">
-        <v>153.7342834472656</v>
+        <v>490.9925537109375</v>
       </c>
       <c r="CA3" t="n">
-        <v>165.7490539550781</v>
+        <v>488.67578125</v>
       </c>
       <c r="CB3" t="n">
-        <v>238.4722137451172</v>
+        <v>501.6436462402344</v>
       </c>
       <c r="CC3" t="n">
-        <v>281.0609436035156</v>
+        <v>499.9430541992188</v>
       </c>
       <c r="CD3" t="n">
-        <v>325.9724426269531</v>
+        <v>503.1152954101562</v>
       </c>
       <c r="CE3" t="n">
-        <v>361.12744140625</v>
+        <v>491.2598876953125</v>
       </c>
       <c r="CF3" t="n">
-        <v>418.3790283203125</v>
+        <v>489.1260375976562</v>
       </c>
       <c r="CG3" t="n">
-        <v>439.02001953125</v>
+        <v>486.7996826171875</v>
       </c>
       <c r="CH3" t="n">
-        <v>453.1026306152344</v>
+        <v>499.817626953125</v>
       </c>
       <c r="CI3" t="n">
-        <v>458.8058776855469</v>
+        <v>514.6332397460938</v>
       </c>
       <c r="CJ3" t="n">
-        <v>453.658935546875</v>
+        <v>518.2218627929688</v>
       </c>
       <c r="CK3" t="n">
-        <v>449.8942565917969</v>
+        <v>513.474365234375</v>
       </c>
       <c r="CL3" t="n">
-        <v>445.93359375</v>
+        <v>506.6357727050781</v>
       </c>
       <c r="CM3" t="n">
-        <v>446.0044860839844</v>
+        <v>489.6910400390625</v>
       </c>
       <c r="CN3" t="n">
-        <v>441.2494812011719</v>
+        <v>478.974365234375</v>
       </c>
       <c r="CO3" t="n">
-        <v>435.2664489746094</v>
+        <v>476.1665954589844</v>
       </c>
       <c r="CP3" t="n">
-        <v>434.2427673339844</v>
+        <v>494.780517578125</v>
       </c>
       <c r="CQ3" t="n">
-        <v>433.8267822265625</v>
+        <v>510.6511840820312</v>
       </c>
       <c r="CR3" t="n">
-        <v>434.7043151855469</v>
+        <v>492.6417846679688</v>
       </c>
       <c r="CS3" t="n">
-        <v>437.1747131347656</v>
+        <v>495.2994995117188</v>
       </c>
       <c r="CT3" t="n">
-        <v>440.4640808105469</v>
+        <v>497.1802673339844</v>
       </c>
       <c r="CU3" t="n">
-        <v>441.2606506347656</v>
+        <v>500.09765625</v>
       </c>
       <c r="CV3" t="n">
-        <v>441.9215087890625</v>
+        <v>497.8140869140625</v>
       </c>
       <c r="CW3" t="n">
-        <v>443.5887145996094</v>
+        <v>501.6605834960938</v>
       </c>
       <c r="CX3" t="n">
-        <v>443.7693176269531</v>
+        <v>501.9276733398438</v>
       </c>
       <c r="CY3" t="n">
-        <v>443.5576477050781</v>
+        <v>501.3253173828125</v>
       </c>
       <c r="CZ3" t="n">
-        <v>444.0217590332031</v>
+        <v>503.2825012207031</v>
       </c>
       <c r="DA3" t="n">
-        <v>444.9554138183594</v>
+        <v>502.8424682617188</v>
       </c>
       <c r="DB3" t="n">
-        <v>446.0028076171875</v>
+        <v>504.313720703125</v>
       </c>
       <c r="DC3" t="n">
-        <v>441.0416870117188</v>
+        <v>504.1228332519531</v>
       </c>
       <c r="DD3" t="n">
-        <v>439.082275390625</v>
+        <v>505.4122314453125</v>
       </c>
       <c r="DE3" t="n">
-        <v>437.9371643066406</v>
+        <v>506.7322082519531</v>
       </c>
       <c r="DF3" t="n">
-        <v>437.7100524902344</v>
+        <v>508.0488891601562</v>
       </c>
       <c r="DG3" t="n">
-        <v>438.62939453125</v>
+        <v>508.9512634277344</v>
       </c>
       <c r="DH3" t="n">
-        <v>438.1824035644531</v>
+        <v>513.0239868164062</v>
       </c>
       <c r="DI3" t="n">
-        <v>438.4214477539062</v>
+        <v>514.7847290039062</v>
       </c>
       <c r="DJ3" t="n">
-        <v>437.5931396484375</v>
+        <v>514.5206298828125</v>
       </c>
       <c r="DK3" t="n">
-        <v>437.5099792480469</v>
+        <v>512.7523193359375</v>
       </c>
       <c r="DL3" t="n">
-        <v>438.5745239257812</v>
+        <v>510.9771423339844</v>
       </c>
       <c r="DM3" t="n">
-        <v>439.4879760742188</v>
+        <v>510.1604614257812</v>
       </c>
       <c r="DN3" t="n">
-        <v>438.8688354492188</v>
+        <v>504.1825561523438</v>
       </c>
       <c r="DO3" t="n">
-        <v>438.6362609863281</v>
+        <v>496.8407897949219</v>
       </c>
       <c r="DP3" t="n">
-        <v>436.3189697265625</v>
+        <v>501.0977478027344</v>
       </c>
       <c r="DQ3" t="n">
-        <v>434.5922241210938</v>
+        <v>492.5790100097656</v>
       </c>
       <c r="DR3" t="n">
-        <v>435.7471008300781</v>
+        <v>485.8842163085938</v>
       </c>
       <c r="DS3" t="n">
-        <v>437.0696411132812</v>
+        <v>484.8152160644531</v>
       </c>
       <c r="DT3" t="n">
-        <v>440.3397827148438</v>
+        <v>475.53369140625</v>
       </c>
       <c r="DU3" t="n">
-        <v>440.4041442871094</v>
+        <v>469.7316589355469</v>
       </c>
       <c r="DV3" t="n">
-        <v>440.1553039550781</v>
+        <v>460.4628601074219</v>
       </c>
       <c r="DW3" t="n">
-        <v>439.6873474121094</v>
+        <v>442.2680358886719</v>
       </c>
       <c r="DX3" t="n">
-        <v>439.1598205566406</v>
+        <v>432.6983032226562</v>
       </c>
       <c r="DY3" t="n">
-        <v>439.1246948242188</v>
+        <v>419.1959838867188</v>
       </c>
       <c r="DZ3" t="n">
-        <v>439.3259582519531</v>
+        <v>415.6358032226562</v>
       </c>
       <c r="EA3" t="n">
-        <v>440.2239074707031</v>
+        <v>413.0359497070312</v>
       </c>
       <c r="EB3" t="n">
-        <v>440.266357421875</v>
+        <v>419.6629028320312</v>
       </c>
       <c r="EC3" t="n">
-        <v>442.3313293457031</v>
+        <v>423.3833923339844</v>
       </c>
       <c r="ED3" t="n">
-        <v>442.6264953613281</v>
+        <v>441.1385498046875</v>
       </c>
       <c r="EE3" t="n">
-        <v>440.3552856445312</v>
+        <v>461.1588439941406</v>
       </c>
       <c r="EF3" t="n">
-        <v>438.0747375488281</v>
+        <v>467.2372131347656</v>
       </c>
       <c r="EG3" t="n">
-        <v>440.6971435546875</v>
+        <v>484.831298828125</v>
       </c>
       <c r="EH3" t="n">
-        <v>441.025390625</v>
+        <v>495.8764953613281</v>
       </c>
       <c r="EI3" t="n">
-        <v>439.263427734375</v>
+        <v>494.1427307128906</v>
       </c>
       <c r="EJ3" t="n">
-        <v>437.7170715332031</v>
+        <v>516.1744384765625</v>
       </c>
       <c r="EK3" t="n">
-        <v>427.1210021972656</v>
+        <v>526.409423828125</v>
       </c>
       <c r="EL3" t="n">
-        <v>409.46533203125</v>
+        <v>529.9959716796875</v>
       </c>
       <c r="EM3" t="n">
-        <v>330.5663146972656</v>
+        <v>533.9953002929688</v>
       </c>
       <c r="EN3" t="n">
-        <v>242.3213500976562</v>
+        <v>534.786376953125</v>
       </c>
       <c r="EO3" t="n">
-        <v>209.0196838378906</v>
+        <v>534.6790161132812</v>
       </c>
       <c r="EP3" t="n">
-        <v>178.5945281982422</v>
+        <v>533.0830688476562</v>
       </c>
       <c r="EQ3" t="n">
-        <v>139.7840270996094</v>
+        <v>532.1439208984375</v>
       </c>
       <c r="ER3" t="n">
-        <v>127.5491485595703</v>
+        <v>532.2442016601562</v>
       </c>
       <c r="ES3" t="n">
-        <v>123.8017120361328</v>
+        <v>531.4242553710938</v>
       </c>
       <c r="ET3" t="n">
-        <v>124.8897323608398</v>
+        <v>538.0628051757812</v>
       </c>
       <c r="EU3" t="n">
-        <v>139.1740417480469</v>
+        <v>535.6085205078125</v>
       </c>
       <c r="EV3" t="n">
-        <v>194.2112884521484</v>
+        <v>530.7093505859375</v>
       </c>
       <c r="EW3" t="n">
-        <v>257.6849365234375</v>
+        <v>518.6407470703125</v>
       </c>
       <c r="EX3" t="n">
-        <v>336.7712097167969</v>
+        <v>509.40966796875</v>
       </c>
       <c r="EY3" t="n">
-        <v>369.1763610839844</v>
+        <v>503.3392639160156</v>
       </c>
       <c r="EZ3" t="n">
-        <v>411.0095520019531</v>
+        <v>477.5850219726562</v>
       </c>
       <c r="FA3" t="n">
-        <v>430.8262634277344</v>
+        <v>453.8673400878906</v>
       </c>
       <c r="FB3" t="n">
-        <v>441.7417297363281</v>
+        <v>446.1908874511719</v>
       </c>
       <c r="FC3" t="n">
-        <v>458.0932312011719</v>
+        <v>576.194091796875</v>
       </c>
       <c r="FD3" t="n">
-        <v>460.0017700195312</v>
+        <v>572.0047607421875</v>
       </c>
       <c r="FE3" t="n">
-        <v>457.7628784179688</v>
+        <v>566.3553466796875</v>
       </c>
       <c r="FF3" t="n">
-        <v>455.6705017089844</v>
+        <v>564.5716552734375</v>
       </c>
       <c r="FG3" t="n">
-        <v>452.1351928710938</v>
+        <v>560.4238891601562</v>
       </c>
       <c r="FH3" t="n">
-        <v>450.3763732910156</v>
+        <v>563.6112670898438</v>
       </c>
       <c r="FI3" t="n">
-        <v>452.5700073242188</v>
+        <v>565.749267578125</v>
       </c>
       <c r="FJ3" t="n">
-        <v>464.2415161132812</v>
+        <v>569.239013671875</v>
       </c>
       <c r="FK3" t="n">
-        <v>468.6698913574219</v>
+        <v>578.3883056640625</v>
       </c>
       <c r="FL3" t="n">
-        <v>461.7513122558594</v>
+        <v>578.2027587890625</v>
       </c>
       <c r="FM3" t="n">
-        <v>460.75146484375</v>
+        <v>574.6365356445312</v>
       </c>
       <c r="FN3" t="n">
-        <v>454.5389709472656</v>
+        <v>575.9015502929688</v>
       </c>
       <c r="FO3" t="n">
-        <v>450.6669921875</v>
+        <v>575.1668090820312</v>
       </c>
       <c r="FP3" t="n">
-        <v>449.1654968261719</v>
+        <v>575.53857421875</v>
       </c>
       <c r="FQ3" t="n">
-        <v>441.8591918945312</v>
+        <v>574.0311889648438</v>
       </c>
       <c r="FR3" t="n">
-        <v>440.8800659179688</v>
+        <v>575.6871948242188</v>
       </c>
       <c r="FS3" t="n">
-        <v>441.89111328125</v>
+        <v>573.6536254882812</v>
       </c>
       <c r="FT3" t="n">
-        <v>440.1425170898438</v>
+        <v>574.0075073242188</v>
       </c>
       <c r="FU3" t="n">
-        <v>441.7959289550781</v>
+        <v>574.3104858398438</v>
       </c>
       <c r="FV3" t="n">
-        <v>450.1038208007812</v>
+        <v>575.1949462890625</v>
       </c>
       <c r="FW3" t="n">
-        <v>457.5245666503906</v>
+        <v>621.6774291992188</v>
       </c>
       <c r="FX3" t="n">
-        <v>460.6097717285156</v>
+        <v>438.5094299316406</v>
       </c>
       <c r="FY3" t="n">
-        <v>457.5157470703125</v>
+        <v>426.7641296386719</v>
       </c>
       <c r="FZ3" t="n">
-        <v>459.6325988769531</v>
+        <v>423.5175476074219</v>
       </c>
       <c r="GA3" t="n">
-        <v>464.9051513671875</v>
+        <v>424.548828125</v>
       </c>
       <c r="GB3" t="n">
-        <v>469.9765625</v>
+        <v>432.4943237304688</v>
       </c>
       <c r="GC3" t="n">
-        <v>470.7854309082031</v>
+        <v>470.3987426757812</v>
       </c>
       <c r="GD3" t="n">
-        <v>472.5955200195312</v>
+        <v>509.7821044921875</v>
       </c>
       <c r="GE3" t="n">
-        <v>472.0208435058594</v>
+        <v>451.5325012207031</v>
       </c>
       <c r="GF3" t="n">
-        <v>477.3692932128906</v>
+        <v>432.3534851074219</v>
       </c>
       <c r="GG3" t="n">
-        <v>480.510986328125</v>
+        <v>417.3468322753906</v>
       </c>
       <c r="GH3" t="n">
-        <v>485.9192810058594</v>
+        <v>429.6325988769531</v>
       </c>
       <c r="GI3" t="n">
-        <v>493.7515563964844</v>
+        <v>423.3291625976562</v>
       </c>
       <c r="GJ3" t="n">
-        <v>498.447021484375</v>
+        <v>421.2661437988281</v>
       </c>
       <c r="GK3" t="n">
-        <v>502.770751953125</v>
+        <v>425.1096801757812</v>
       </c>
       <c r="GL3" t="n">
-        <v>512.68701171875</v>
+        <v>425.0239562988281</v>
       </c>
       <c r="GM3" t="n">
-        <v>514.0950927734375</v>
+        <v>422.7424926757812</v>
       </c>
       <c r="GN3" t="n">
-        <v>528.931884765625</v>
+        <v>421.7903747558594</v>
       </c>
       <c r="GO3" t="n">
-        <v>545.8427734375</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>556.7848510742188</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>572.7193603515625</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>594.9296875</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>626.0563354492188</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>663.8362426757812</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>676.0423583984375</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>746.5319213867188</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>113.5148849487305</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>205.7019500732422</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>131.2709655761719</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>172.5857696533203</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>195.2125854492188</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>240.6519775390625</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>313.5642700195312</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>295.45166015625</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>285.3133850097656</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>292.032958984375</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>288.9094543457031</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>289.8849182128906</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>296.3562316894531</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>289.5918579101562</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>286.2700500488281</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>289.5000305175781</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>293.3390197753906</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>298.0148620605469</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>308.0835266113281</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>303.775390625</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>295.9837341308594</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>276.9243469238281</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>246.4486389160156</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>251.0694427490234</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>359.5042419433594</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>445.87255859375</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>412.0622253417969</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>285.3755493164062</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>841.719482421875</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>846.0708618164062</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>308.8392944335938</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>330.3632507324219</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>374.56103515625</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>387.4425048828125</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>393.5306701660156</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>421.6422729492188</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>436.4716186523438</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>433.8562622070312</v>
-      </c>
-      <c r="II3" t="n">
-        <v>336.6340026855469</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>315.3363342285156</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>313.724365234375</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>312.6565246582031</v>
-      </c>
-      <c r="IM3" t="n">
-        <v>309.6393432617188</v>
-      </c>
-      <c r="IN3" t="n">
-        <v>262.9869079589844</v>
-      </c>
-      <c r="IO3" t="n">
-        <v>251.3093109130859</v>
-      </c>
-      <c r="IP3" t="n">
-        <v>293.7177429199219</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>345.2557983398438</v>
+        <v>424.8880920410156</v>
       </c>
     </row>
     <row r="4">
@@ -2705,754 +2219,592 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>1073.997680664062</v>
+        <v>1027.819458007812</v>
       </c>
       <c r="C4" t="n">
-        <v>1073.46484375</v>
+        <v>1021.419128417969</v>
       </c>
       <c r="D4" t="n">
-        <v>1073.37841796875</v>
+        <v>1021.101806640625</v>
       </c>
       <c r="E4" t="n">
-        <v>1077.201782226562</v>
+        <v>1021.635437011719</v>
       </c>
       <c r="F4" t="n">
-        <v>1082.701904296875</v>
+        <v>1021.750427246094</v>
       </c>
       <c r="G4" t="n">
-        <v>1085.698974609375</v>
+        <v>1021.807495117188</v>
       </c>
       <c r="H4" t="n">
-        <v>1084.812744140625</v>
+        <v>1022.130310058594</v>
       </c>
       <c r="I4" t="n">
-        <v>1081.394775390625</v>
+        <v>1022.422729492188</v>
       </c>
       <c r="J4" t="n">
-        <v>1070.226928710938</v>
+        <v>1022.649841308594</v>
       </c>
       <c r="K4" t="n">
-        <v>1066.807373046875</v>
+        <v>1022.730285644531</v>
       </c>
       <c r="L4" t="n">
-        <v>1063.620239257812</v>
+        <v>1022.806640625</v>
       </c>
       <c r="M4" t="n">
-        <v>1061.543334960938</v>
+        <v>1022.906555175781</v>
       </c>
       <c r="N4" t="n">
-        <v>1059.155029296875</v>
+        <v>1022.947570800781</v>
       </c>
       <c r="O4" t="n">
-        <v>1056.0859375</v>
+        <v>1022.987609863281</v>
       </c>
       <c r="P4" t="n">
-        <v>1056.831176757812</v>
+        <v>1023.023864746094</v>
       </c>
       <c r="Q4" t="n">
-        <v>1059.421508789062</v>
+        <v>1023.087219238281</v>
       </c>
       <c r="R4" t="n">
-        <v>1060.632202148438</v>
+        <v>824.8312377929688</v>
       </c>
       <c r="S4" t="n">
-        <v>1059.882446289062</v>
+        <v>785.5940551757812</v>
       </c>
       <c r="T4" t="n">
-        <v>1058.1826171875</v>
+        <v>787.002197265625</v>
       </c>
       <c r="U4" t="n">
-        <v>1058.150512695312</v>
+        <v>786.3472290039062</v>
       </c>
       <c r="V4" t="n">
-        <v>1057.260375976562</v>
+        <v>792.5174560546875</v>
       </c>
       <c r="W4" t="n">
-        <v>1045.971313476562</v>
+        <v>803.1713256835938</v>
       </c>
       <c r="X4" t="n">
-        <v>1033.89599609375</v>
+        <v>810.96923828125</v>
       </c>
       <c r="Y4" t="n">
-        <v>1035.824829101562</v>
+        <v>811.3056030273438</v>
       </c>
       <c r="Z4" t="n">
-        <v>1031.595947265625</v>
+        <v>812.0299682617188</v>
       </c>
       <c r="AA4" t="n">
-        <v>1017.115661621094</v>
+        <v>811.9657592773438</v>
       </c>
       <c r="AB4" t="n">
-        <v>1007.968200683594</v>
+        <v>811.7534790039062</v>
       </c>
       <c r="AC4" t="n">
-        <v>1001.878662109375</v>
+        <v>811.4884033203125</v>
       </c>
       <c r="AD4" t="n">
-        <v>1002.667419433594</v>
+        <v>811.3644409179688</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000.651428222656</v>
+        <v>811.4552001953125</v>
       </c>
       <c r="AF4" t="n">
-        <v>1003.600830078125</v>
+        <v>812.335693359375</v>
       </c>
       <c r="AG4" t="n">
-        <v>1008.677001953125</v>
+        <v>812.8822021484375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1014.9638671875</v>
+        <v>813.5337524414062</v>
       </c>
       <c r="AI4" t="n">
-        <v>1019.641967773438</v>
+        <v>814.4498291015625</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1025.853759765625</v>
+        <v>815.0331420898438</v>
       </c>
       <c r="AK4" t="n">
-        <v>1030.787109375</v>
+        <v>815.6722412109375</v>
       </c>
       <c r="AL4" t="n">
-        <v>1032.579345703125</v>
+        <v>817.0314331054688</v>
       </c>
       <c r="AM4" t="n">
-        <v>1033.596801757812</v>
+        <v>817.720703125</v>
       </c>
       <c r="AN4" t="n">
-        <v>1034.429809570312</v>
+        <v>818.6171875</v>
       </c>
       <c r="AO4" t="n">
-        <v>1034.069946289062</v>
+        <v>819.68798828125</v>
       </c>
       <c r="AP4" t="n">
-        <v>1034.445190429688</v>
+        <v>820.1389770507812</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1033.563110351562</v>
+        <v>824.9524536132812</v>
       </c>
       <c r="AR4" t="n">
-        <v>1031.74462890625</v>
+        <v>863.0733032226562</v>
       </c>
       <c r="AS4" t="n">
-        <v>1026.996215820312</v>
+        <v>868.2975463867188</v>
       </c>
       <c r="AT4" t="n">
-        <v>1025.6689453125</v>
+        <v>864.0071411132812</v>
       </c>
       <c r="AU4" t="n">
-        <v>1022.264404296875</v>
+        <v>846.5762329101562</v>
       </c>
       <c r="AV4" t="n">
-        <v>1015.377868652344</v>
+        <v>841.8580322265625</v>
       </c>
       <c r="AW4" t="n">
-        <v>1008.906921386719</v>
+        <v>841.6641845703125</v>
       </c>
       <c r="AX4" t="n">
-        <v>1000.548278808594</v>
+        <v>841.0934448242188</v>
       </c>
       <c r="AY4" t="n">
-        <v>988.8065795898438</v>
+        <v>845.8578491210938</v>
       </c>
       <c r="AZ4" t="n">
-        <v>975.3355712890625</v>
+        <v>851.1937866210938</v>
       </c>
       <c r="BA4" t="n">
-        <v>963.3831787109375</v>
+        <v>856.5430297851562</v>
       </c>
       <c r="BB4" t="n">
-        <v>952.18505859375</v>
+        <v>861.7203369140625</v>
       </c>
       <c r="BC4" t="n">
-        <v>944.8839721679688</v>
+        <v>871.2593994140625</v>
       </c>
       <c r="BD4" t="n">
-        <v>932.345703125</v>
+        <v>885.3956298828125</v>
       </c>
       <c r="BE4" t="n">
-        <v>919.59033203125</v>
+        <v>914.579345703125</v>
       </c>
       <c r="BF4" t="n">
-        <v>902.1743774414062</v>
+        <v>893.0721435546875</v>
       </c>
       <c r="BG4" t="n">
-        <v>888.0830078125</v>
+        <v>896.433837890625</v>
       </c>
       <c r="BH4" t="n">
-        <v>873.7789916992188</v>
+        <v>898.571533203125</v>
       </c>
       <c r="BI4" t="n">
-        <v>857.4323120117188</v>
+        <v>899.6296997070312</v>
       </c>
       <c r="BJ4" t="n">
-        <v>836.3344116210938</v>
+        <v>918.4085083007812</v>
       </c>
       <c r="BK4" t="n">
-        <v>820.0159301757812</v>
+        <v>910.9730224609375</v>
       </c>
       <c r="BL4" t="n">
-        <v>806.0171508789062</v>
+        <v>907.7908325195312</v>
       </c>
       <c r="BM4" t="n">
-        <v>806.41162109375</v>
+        <v>888.8693237304688</v>
       </c>
       <c r="BN4" t="n">
-        <v>803.6452026367188</v>
+        <v>893.562744140625</v>
       </c>
       <c r="BO4" t="n">
-        <v>791.8614501953125</v>
+        <v>895.9053344726562</v>
       </c>
       <c r="BP4" t="n">
-        <v>780.2510986328125</v>
+        <v>894.139404296875</v>
       </c>
       <c r="BQ4" t="n">
-        <v>787.8309326171875</v>
+        <v>896.1617431640625</v>
       </c>
       <c r="BR4" t="n">
-        <v>794.5137939453125</v>
+        <v>900.7830200195312</v>
       </c>
       <c r="BS4" t="n">
-        <v>806.9182739257812</v>
+        <v>903.5859985351562</v>
       </c>
       <c r="BT4" t="n">
-        <v>811.1978759765625</v>
+        <v>905.5874633789062</v>
       </c>
       <c r="BU4" t="n">
-        <v>814.2559814453125</v>
+        <v>910.6383666992188</v>
       </c>
       <c r="BV4" t="n">
-        <v>816.0651245117188</v>
+        <v>912.7416381835938</v>
       </c>
       <c r="BW4" t="n">
-        <v>819.6481323242188</v>
+        <v>915.0431518554688</v>
       </c>
       <c r="BX4" t="n">
-        <v>816.1005249023438</v>
+        <v>919.8358154296875</v>
       </c>
       <c r="BY4" t="n">
-        <v>801.5277709960938</v>
+        <v>923.3516845703125</v>
       </c>
       <c r="BZ4" t="n">
-        <v>772.6827392578125</v>
+        <v>927.6387939453125</v>
       </c>
       <c r="CA4" t="n">
-        <v>743.040771484375</v>
+        <v>929.6939697265625</v>
       </c>
       <c r="CB4" t="n">
-        <v>707.3316040039062</v>
+        <v>921.4734497070312</v>
       </c>
       <c r="CC4" t="n">
-        <v>699.028564453125</v>
+        <v>921.8326416015625</v>
       </c>
       <c r="CD4" t="n">
-        <v>698.1339111328125</v>
+        <v>918.7979736328125</v>
       </c>
       <c r="CE4" t="n">
-        <v>703.2222900390625</v>
+        <v>929.7291259765625</v>
       </c>
       <c r="CF4" t="n">
-        <v>726.088623046875</v>
+        <v>936.1826171875</v>
       </c>
       <c r="CG4" t="n">
-        <v>745.5645751953125</v>
+        <v>948.1867065429688</v>
       </c>
       <c r="CH4" t="n">
-        <v>775.12158203125</v>
+        <v>941.5538940429688</v>
       </c>
       <c r="CI4" t="n">
-        <v>816.6965942382812</v>
+        <v>927.3087768554688</v>
       </c>
       <c r="CJ4" t="n">
-        <v>836.5504150390625</v>
+        <v>918.6575927734375</v>
       </c>
       <c r="CK4" t="n">
-        <v>848.7572021484375</v>
+        <v>920.6158447265625</v>
       </c>
       <c r="CL4" t="n">
-        <v>864.957275390625</v>
+        <v>931.6576538085938</v>
       </c>
       <c r="CM4" t="n">
-        <v>867.167236328125</v>
+        <v>972.2986450195312</v>
       </c>
       <c r="CN4" t="n">
-        <v>875.6593017578125</v>
+        <v>1021.373291015625</v>
       </c>
       <c r="CO4" t="n">
-        <v>884.36376953125</v>
+        <v>1042.66552734375</v>
       </c>
       <c r="CP4" t="n">
-        <v>884.6724243164062</v>
+        <v>1006.116577148438</v>
       </c>
       <c r="CQ4" t="n">
-        <v>882.9462280273438</v>
+        <v>964.8253784179688</v>
       </c>
       <c r="CR4" t="n">
-        <v>877.0682373046875</v>
+        <v>975.87744140625</v>
       </c>
       <c r="CS4" t="n">
-        <v>865.6326904296875</v>
+        <v>975.1278686523438</v>
       </c>
       <c r="CT4" t="n">
-        <v>851.1907958984375</v>
+        <v>970.0816650390625</v>
       </c>
       <c r="CU4" t="n">
-        <v>846.14892578125</v>
+        <v>967.331298828125</v>
       </c>
       <c r="CV4" t="n">
-        <v>840.5010375976562</v>
+        <v>974.9270629882812</v>
       </c>
       <c r="CW4" t="n">
-        <v>835.7674560546875</v>
+        <v>974.9432373046875</v>
       </c>
       <c r="CX4" t="n">
-        <v>834.650146484375</v>
+        <v>974.7540893554688</v>
       </c>
       <c r="CY4" t="n">
-        <v>831.9591064453125</v>
+        <v>976.44287109375</v>
       </c>
       <c r="CZ4" t="n">
-        <v>831.4086303710938</v>
+        <v>973.9593505859375</v>
       </c>
       <c r="DA4" t="n">
-        <v>831.6139526367188</v>
+        <v>972.3607177734375</v>
       </c>
       <c r="DB4" t="n">
-        <v>832.3390502929688</v>
+        <v>971.0249633789062</v>
       </c>
       <c r="DC4" t="n">
-        <v>846.784423828125</v>
+        <v>972.0166015625</v>
       </c>
       <c r="DD4" t="n">
-        <v>853.6406860351562</v>
+        <v>972.6471557617188</v>
       </c>
       <c r="DE4" t="n">
-        <v>858.41943359375</v>
+        <v>973.05712890625</v>
       </c>
       <c r="DF4" t="n">
-        <v>859.1367797851562</v>
+        <v>970.9544677734375</v>
       </c>
       <c r="DG4" t="n">
-        <v>856.27587890625</v>
+        <v>969.04736328125</v>
       </c>
       <c r="DH4" t="n">
-        <v>857.3230590820312</v>
+        <v>968.330078125</v>
       </c>
       <c r="DI4" t="n">
-        <v>859.6080322265625</v>
+        <v>971.5909423828125</v>
       </c>
       <c r="DJ4" t="n">
-        <v>862.2870483398438</v>
+        <v>983.4203491210938</v>
       </c>
       <c r="DK4" t="n">
-        <v>863.8081665039062</v>
+        <v>994.0716552734375</v>
       </c>
       <c r="DL4" t="n">
-        <v>864.5486450195312</v>
+        <v>1002.218566894531</v>
       </c>
       <c r="DM4" t="n">
-        <v>863.8253173828125</v>
+        <v>1005.720275878906</v>
       </c>
       <c r="DN4" t="n">
-        <v>864.4886474609375</v>
+        <v>1011.762329101562</v>
       </c>
       <c r="DO4" t="n">
-        <v>864.0684814453125</v>
+        <v>1004.668212890625</v>
       </c>
       <c r="DP4" t="n">
-        <v>866.68701171875</v>
+        <v>973.7913818359375</v>
       </c>
       <c r="DQ4" t="n">
-        <v>868.0884399414062</v>
+        <v>961.081787109375</v>
       </c>
       <c r="DR4" t="n">
-        <v>866.3004150390625</v>
+        <v>955.2913208007812</v>
       </c>
       <c r="DS4" t="n">
-        <v>863.840087890625</v>
+        <v>938.8287963867188</v>
       </c>
       <c r="DT4" t="n">
-        <v>858.4421997070312</v>
+        <v>925.24755859375</v>
       </c>
       <c r="DU4" t="n">
-        <v>857.7149047851562</v>
+        <v>921.2936401367188</v>
       </c>
       <c r="DV4" t="n">
-        <v>856.6168212890625</v>
+        <v>919.6631469726562</v>
       </c>
       <c r="DW4" t="n">
-        <v>856.5935668945312</v>
+        <v>939.1729736328125</v>
       </c>
       <c r="DX4" t="n">
-        <v>856.7699584960938</v>
+        <v>954.321533203125</v>
       </c>
       <c r="DY4" t="n">
-        <v>855.9170532226562</v>
+        <v>981.3482055664062</v>
       </c>
       <c r="DZ4" t="n">
-        <v>854.8477172851562</v>
+        <v>990.8217163085938</v>
       </c>
       <c r="EA4" t="n">
-        <v>852.860595703125</v>
+        <v>991.1614379882812</v>
       </c>
       <c r="EB4" t="n">
-        <v>851.8809204101562</v>
+        <v>994.8272094726562</v>
       </c>
       <c r="EC4" t="n">
-        <v>847.9588623046875</v>
+        <v>998.1856689453125</v>
       </c>
       <c r="ED4" t="n">
-        <v>848.288818359375</v>
+        <v>1002.494750976562</v>
       </c>
       <c r="EE4" t="n">
-        <v>852.7413330078125</v>
+        <v>1005.500915527344</v>
       </c>
       <c r="EF4" t="n">
-        <v>858.7272338867188</v>
+        <v>1006.8056640625</v>
       </c>
       <c r="EG4" t="n">
-        <v>860.096435546875</v>
+        <v>1014.852844238281</v>
       </c>
       <c r="EH4" t="n">
-        <v>864.8341064453125</v>
+        <v>1028.8779296875</v>
       </c>
       <c r="EI4" t="n">
-        <v>868.2210693359375</v>
+        <v>1029.66015625</v>
       </c>
       <c r="EJ4" t="n">
-        <v>858.9454345703125</v>
+        <v>1003.456604003906</v>
       </c>
       <c r="EK4" t="n">
-        <v>841.4570922851562</v>
+        <v>992.9124145507812</v>
       </c>
       <c r="EL4" t="n">
-        <v>821.7835083007812</v>
+        <v>981.6280517578125</v>
       </c>
       <c r="EM4" t="n">
-        <v>799.257080078125</v>
+        <v>987.9847412109375</v>
       </c>
       <c r="EN4" t="n">
-        <v>835.020263671875</v>
+        <v>992.4857177734375</v>
       </c>
       <c r="EO4" t="n">
-        <v>864.5333251953125</v>
+        <v>995.1817016601562</v>
       </c>
       <c r="EP4" t="n">
-        <v>893.8143310546875</v>
+        <v>999.0560913085938</v>
       </c>
       <c r="EQ4" t="n">
-        <v>949.7117309570312</v>
+        <v>1004.535461425781</v>
       </c>
       <c r="ER4" t="n">
-        <v>966.2538452148438</v>
+        <v>1004.102905273438</v>
       </c>
       <c r="ES4" t="n">
-        <v>981.008056640625</v>
+        <v>1004.944213867188</v>
       </c>
       <c r="ET4" t="n">
-        <v>978.837158203125</v>
+        <v>995.834716796875</v>
       </c>
       <c r="EU4" t="n">
-        <v>947.3604736328125</v>
+        <v>1005.888244628906</v>
       </c>
       <c r="EV4" t="n">
-        <v>904.777099609375</v>
+        <v>1009.644470214844</v>
       </c>
       <c r="EW4" t="n">
-        <v>847.85986328125</v>
+        <v>1047.037353515625</v>
       </c>
       <c r="EX4" t="n">
-        <v>798.702392578125</v>
+        <v>1075.59228515625</v>
       </c>
       <c r="EY4" t="n">
-        <v>792.0615234375</v>
+        <v>1089.512939453125</v>
       </c>
       <c r="EZ4" t="n">
-        <v>801.6599731445312</v>
+        <v>1140.7626953125</v>
       </c>
       <c r="FA4" t="n">
-        <v>812.958251953125</v>
+        <v>1147.332275390625</v>
       </c>
       <c r="FB4" t="n">
-        <v>823.1434936523438</v>
+        <v>1133.388671875</v>
       </c>
       <c r="FC4" t="n">
-        <v>841.7628784179688</v>
+        <v>1083.148803710938</v>
       </c>
       <c r="FD4" t="n">
-        <v>846.3258666992188</v>
+        <v>1082.606567382812</v>
       </c>
       <c r="FE4" t="n">
-        <v>844.0891723632812</v>
+        <v>1074.444091796875</v>
       </c>
       <c r="FF4" t="n">
-        <v>843.2257690429688</v>
+        <v>1065.151000976562</v>
       </c>
       <c r="FG4" t="n">
-        <v>845.9285888671875</v>
+        <v>1053.189453125</v>
       </c>
       <c r="FH4" t="n">
-        <v>849.34423828125</v>
+        <v>1033.0966796875</v>
       </c>
       <c r="FI4" t="n">
-        <v>857.323974609375</v>
+        <v>1020.53125</v>
       </c>
       <c r="FJ4" t="n">
-        <v>882.0235595703125</v>
+        <v>1010.009338378906</v>
       </c>
       <c r="FK4" t="n">
-        <v>928.6536865234375</v>
+        <v>962.2808837890625</v>
       </c>
       <c r="FL4" t="n">
-        <v>970.047607421875</v>
+        <v>957.2044677734375</v>
       </c>
       <c r="FM4" t="n">
-        <v>975.6197509765625</v>
+        <v>978.6510009765625</v>
       </c>
       <c r="FN4" t="n">
-        <v>1004.598266601562</v>
+        <v>974.3148803710938</v>
       </c>
       <c r="FO4" t="n">
-        <v>1008.384826660156</v>
+        <v>971.0160522460938</v>
       </c>
       <c r="FP4" t="n">
-        <v>1020.006286621094</v>
+        <v>969.744873046875</v>
       </c>
       <c r="FQ4" t="n">
-        <v>1042.697998046875</v>
+        <v>964.2654418945312</v>
       </c>
       <c r="FR4" t="n">
-        <v>1046.76904296875</v>
+        <v>956.7635498046875</v>
       </c>
       <c r="FS4" t="n">
-        <v>1051.341796875</v>
+        <v>948.9917602539062</v>
       </c>
       <c r="FT4" t="n">
-        <v>1060.14208984375</v>
+        <v>938.7427368164062</v>
       </c>
       <c r="FU4" t="n">
-        <v>1057.255493164062</v>
+        <v>927.2145385742188</v>
       </c>
       <c r="FV4" t="n">
-        <v>1031.8271484375</v>
+        <v>919.2619018554688</v>
       </c>
       <c r="FW4" t="n">
-        <v>1009.561340332031</v>
+        <v>757.4801635742188</v>
       </c>
       <c r="FX4" t="n">
-        <v>985.5704956054688</v>
+        <v>507.8056640625</v>
       </c>
       <c r="FY4" t="n">
-        <v>981.4427490234375</v>
+        <v>498.1797485351562</v>
       </c>
       <c r="FZ4" t="n">
-        <v>971.7119140625</v>
+        <v>474.3968811035156</v>
       </c>
       <c r="GA4" t="n">
-        <v>962.6217041015625</v>
+        <v>418.1691589355469</v>
       </c>
       <c r="GB4" t="n">
-        <v>950.6704711914062</v>
+        <v>388.0819702148438</v>
       </c>
       <c r="GC4" t="n">
-        <v>943.822265625</v>
+        <v>329.4364929199219</v>
       </c>
       <c r="GD4" t="n">
-        <v>924.8916015625</v>
+        <v>309.0644836425781</v>
       </c>
       <c r="GE4" t="n">
-        <v>915.6991577148438</v>
+        <v>298.8850402832031</v>
       </c>
       <c r="GF4" t="n">
-        <v>875.826904296875</v>
+        <v>294.7163391113281</v>
       </c>
       <c r="GG4" t="n">
-        <v>867.9942016601562</v>
+        <v>287.4088134765625</v>
       </c>
       <c r="GH4" t="n">
-        <v>838.5352172851562</v>
+        <v>285.92724609375</v>
       </c>
       <c r="GI4" t="n">
-        <v>804.4261474609375</v>
+        <v>291.192138671875</v>
       </c>
       <c r="GJ4" t="n">
-        <v>771.2084350585938</v>
+        <v>293.5873107910156</v>
       </c>
       <c r="GK4" t="n">
-        <v>737.6470947265625</v>
+        <v>296.8667297363281</v>
       </c>
       <c r="GL4" t="n">
-        <v>697.1154174804688</v>
+        <v>297.3319396972656</v>
       </c>
       <c r="GM4" t="n">
-        <v>660.6080932617188</v>
+        <v>303.3265991210938</v>
       </c>
       <c r="GN4" t="n">
-        <v>605.9605712890625</v>
+        <v>295.4143371582031</v>
       </c>
       <c r="GO4" t="n">
-        <v>544.6065063476562</v>
-      </c>
-      <c r="GP4" t="n">
-        <v>520.9556884765625</v>
-      </c>
-      <c r="GQ4" t="n">
-        <v>479.888916015625</v>
-      </c>
-      <c r="GR4" t="n">
-        <v>426.6504516601562</v>
-      </c>
-      <c r="GS4" t="n">
-        <v>381.3410034179688</v>
-      </c>
-      <c r="GT4" t="n">
-        <v>339.511962890625</v>
-      </c>
-      <c r="GU4" t="n">
-        <v>301.2487487792969</v>
-      </c>
-      <c r="GV4" t="n">
-        <v>249.5822448730469</v>
-      </c>
-      <c r="GW4" t="n">
-        <v>305.6376342773438</v>
-      </c>
-      <c r="GX4" t="n">
-        <v>188.3921203613281</v>
-      </c>
-      <c r="GY4" t="n">
-        <v>406.3031921386719</v>
-      </c>
-      <c r="GZ4" t="n">
-        <v>444.9063415527344</v>
-      </c>
-      <c r="HA4" t="n">
-        <v>451.9437561035156</v>
-      </c>
-      <c r="HB4" t="n">
-        <v>468.3274230957031</v>
-      </c>
-      <c r="HC4" t="n">
-        <v>503.7654113769531</v>
-      </c>
-      <c r="HD4" t="n">
-        <v>530.5194091796875</v>
-      </c>
-      <c r="HE4" t="n">
-        <v>548.856201171875</v>
-      </c>
-      <c r="HF4" t="n">
-        <v>567.2394409179688</v>
-      </c>
-      <c r="HG4" t="n">
-        <v>577.74951171875</v>
-      </c>
-      <c r="HH4" t="n">
-        <v>579.0192260742188</v>
-      </c>
-      <c r="HI4" t="n">
-        <v>578.6847534179688</v>
-      </c>
-      <c r="HJ4" t="n">
-        <v>580.605224609375</v>
-      </c>
-      <c r="HK4" t="n">
-        <v>577.9798583984375</v>
-      </c>
-      <c r="HL4" t="n">
-        <v>553.5919799804688</v>
-      </c>
-      <c r="HM4" t="n">
-        <v>538.9190673828125</v>
-      </c>
-      <c r="HN4" t="n">
-        <v>530.6870727539062</v>
-      </c>
-      <c r="HO4" t="n">
-        <v>519.4036254882812</v>
-      </c>
-      <c r="HP4" t="n">
-        <v>518.6820678710938</v>
-      </c>
-      <c r="HQ4" t="n">
-        <v>521.3394775390625</v>
-      </c>
-      <c r="HR4" t="n">
-        <v>529.0477905273438</v>
-      </c>
-      <c r="HS4" t="n">
-        <v>540.7605590820312</v>
-      </c>
-      <c r="HT4" t="n">
-        <v>554.6310424804688</v>
-      </c>
-      <c r="HU4" t="n">
-        <v>335.8913269042969</v>
-      </c>
-      <c r="HV4" t="n">
-        <v>410.6375427246094</v>
-      </c>
-      <c r="HW4" t="n">
-        <v>271.161865234375</v>
-      </c>
-      <c r="HX4" t="n">
-        <v>557.8706665039062</v>
-      </c>
-      <c r="HY4" t="n">
-        <v>442.1876220703125</v>
-      </c>
-      <c r="HZ4" t="n">
-        <v>440.6893005371094</v>
-      </c>
-      <c r="IA4" t="n">
-        <v>403.2844848632812</v>
-      </c>
-      <c r="IB4" t="n">
-        <v>425.6813049316406</v>
-      </c>
-      <c r="IC4" t="n">
-        <v>417.5694274902344</v>
-      </c>
-      <c r="ID4" t="n">
-        <v>362.3377075195312</v>
-      </c>
-      <c r="IE4" t="n">
-        <v>404.8088989257812</v>
-      </c>
-      <c r="IF4" t="n">
-        <v>410.861572265625</v>
-      </c>
-      <c r="IG4" t="n">
-        <v>280.056396484375</v>
-      </c>
-      <c r="IH4" t="n">
-        <v>322.1426696777344</v>
-      </c>
-      <c r="II4" t="n">
-        <v>354.068359375</v>
-      </c>
-      <c r="IJ4" t="n">
-        <v>378.2332763671875</v>
-      </c>
-      <c r="IK4" t="n">
-        <v>391.8863220214844</v>
-      </c>
-      <c r="IL4" t="n">
-        <v>396.8084411621094</v>
-      </c>
-      <c r="IM4" t="n">
-        <v>404.7104797363281</v>
-      </c>
-      <c r="IN4" t="n">
-        <v>365.0908508300781</v>
-      </c>
-      <c r="IO4" t="n">
-        <v>396.8190612792969</v>
-      </c>
-      <c r="IP4" t="n">
-        <v>425.5380554199219</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>397.8816223144531</v>
+        <v>286.6402893066406</v>
       </c>
     </row>
   </sheetData>

--- a/left_hand_Data.xlsx
+++ b/left_hand_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GO4"/>
+  <dimension ref="A1:JM4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,10 +434,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>START</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="n">
         <v>0</v>
@@ -1025,1786 +1023,2698 @@
         <v>0</v>
       </c>
       <c r="GO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>309.8790893554688</v>
       </c>
       <c r="B2" t="n">
-        <v>443.9422302246094</v>
+        <v>307.0631713867188</v>
       </c>
       <c r="C2" t="n">
-        <v>441.2340087890625</v>
+        <v>307.0874938964844</v>
       </c>
       <c r="D2" t="n">
-        <v>441.1314697265625</v>
+        <v>307.1658325195312</v>
       </c>
       <c r="E2" t="n">
-        <v>441.272705078125</v>
+        <v>307.2952270507812</v>
       </c>
       <c r="F2" t="n">
-        <v>441.3867492675781</v>
+        <v>308.7772216796875</v>
       </c>
       <c r="G2" t="n">
-        <v>441.5668334960938</v>
+        <v>308.72021484375</v>
       </c>
       <c r="H2" t="n">
-        <v>441.2733459472656</v>
+        <v>308.663330078125</v>
       </c>
       <c r="I2" t="n">
-        <v>441.133056640625</v>
+        <v>308.5196838378906</v>
       </c>
       <c r="J2" t="n">
-        <v>441.0531005859375</v>
+        <v>308.4085998535156</v>
       </c>
       <c r="K2" t="n">
-        <v>440.9761047363281</v>
+        <v>308.32177734375</v>
       </c>
       <c r="L2" t="n">
-        <v>440.8493041992188</v>
+        <v>308.2479553222656</v>
       </c>
       <c r="M2" t="n">
-        <v>440.7485656738281</v>
+        <v>307.9763488769531</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6377563476562</v>
+        <v>307.6088562011719</v>
       </c>
       <c r="O2" t="n">
-        <v>440.504150390625</v>
+        <v>303.0348510742188</v>
       </c>
       <c r="P2" t="n">
-        <v>440.35302734375</v>
+        <v>278.9020080566406</v>
       </c>
       <c r="Q2" t="n">
-        <v>440.2093811035156</v>
+        <v>244.0838928222656</v>
       </c>
       <c r="R2" t="n">
-        <v>494.878662109375</v>
+        <v>213.4219512939453</v>
       </c>
       <c r="S2" t="n">
-        <v>492.2342529296875</v>
+        <v>184.1667022705078</v>
       </c>
       <c r="T2" t="n">
-        <v>485.5738830566406</v>
+        <v>160.4324035644531</v>
       </c>
       <c r="U2" t="n">
-        <v>478.4841613769531</v>
+        <v>134.6767578125</v>
       </c>
       <c r="V2" t="n">
-        <v>472.6593627929688</v>
+        <v>104.9459686279297</v>
       </c>
       <c r="W2" t="n">
-        <v>471.2369384765625</v>
+        <v>82.47501373291016</v>
       </c>
       <c r="X2" t="n">
-        <v>471.1291809082031</v>
+        <v>70.43184661865234</v>
       </c>
       <c r="Y2" t="n">
-        <v>472.8351135253906</v>
+        <v>59.35135650634766</v>
       </c>
       <c r="Z2" t="n">
-        <v>474.6709594726562</v>
+        <v>43.27376556396484</v>
       </c>
       <c r="AA2" t="n">
-        <v>475.4708862304688</v>
+        <v>24.76539421081543</v>
       </c>
       <c r="AB2" t="n">
-        <v>474.9530639648438</v>
+        <v>10.44694805145264</v>
       </c>
       <c r="AC2" t="n">
-        <v>474.2174682617188</v>
+        <v>4.206130027770996</v>
       </c>
       <c r="AD2" t="n">
-        <v>473.5400085449219</v>
+        <v>-1.34049391746521</v>
       </c>
       <c r="AE2" t="n">
-        <v>473.8451843261719</v>
+        <v>-6.251097202301025</v>
       </c>
       <c r="AF2" t="n">
-        <v>474.1929931640625</v>
+        <v>-7.373614311218262</v>
       </c>
       <c r="AG2" t="n">
-        <v>474.7472839355469</v>
+        <v>-11.77648544311523</v>
       </c>
       <c r="AH2" t="n">
-        <v>475.432861328125</v>
+        <v>-15.15194129943848</v>
       </c>
       <c r="AI2" t="n">
-        <v>476.8676452636719</v>
+        <v>-15.99014091491699</v>
       </c>
       <c r="AJ2" t="n">
-        <v>478.1329956054688</v>
+        <v>-13.86581325531006</v>
       </c>
       <c r="AK2" t="n">
-        <v>479.5219421386719</v>
+        <v>-3.719437122344971</v>
       </c>
       <c r="AL2" t="n">
-        <v>482.5220031738281</v>
+        <v>25.16887283325195</v>
       </c>
       <c r="AM2" t="n">
-        <v>479.2716979980469</v>
+        <v>55.83280944824219</v>
       </c>
       <c r="AN2" t="n">
-        <v>480.4360656738281</v>
+        <v>92.76338195800781</v>
       </c>
       <c r="AO2" t="n">
-        <v>482.1563415527344</v>
+        <v>126.3958282470703</v>
       </c>
       <c r="AP2" t="n">
-        <v>481.7464599609375</v>
+        <v>177.6756286621094</v>
       </c>
       <c r="AQ2" t="n">
-        <v>481.0578002929688</v>
+        <v>220.4997100830078</v>
       </c>
       <c r="AR2" t="n">
-        <v>484.2437744140625</v>
+        <v>250.572265625</v>
       </c>
       <c r="AS2" t="n">
-        <v>484.9829406738281</v>
+        <v>277.6007385253906</v>
       </c>
       <c r="AT2" t="n">
-        <v>496.5804443359375</v>
+        <v>302.1153564453125</v>
       </c>
       <c r="AU2" t="n">
-        <v>497.0762329101562</v>
+        <v>318.8748168945312</v>
       </c>
       <c r="AV2" t="n">
-        <v>494.9502563476562</v>
+        <v>341.8267211914062</v>
       </c>
       <c r="AW2" t="n">
-        <v>501.56396484375</v>
+        <v>364.9743041992188</v>
       </c>
       <c r="AX2" t="n">
-        <v>501.4165649414062</v>
+        <v>377.6659851074219</v>
       </c>
       <c r="AY2" t="n">
-        <v>506.0333862304688</v>
+        <v>383.1054992675781</v>
       </c>
       <c r="AZ2" t="n">
-        <v>516.8119506835938</v>
+        <v>389.2267456054688</v>
       </c>
       <c r="BA2" t="n">
-        <v>523.3650512695312</v>
+        <v>396.6495361328125</v>
       </c>
       <c r="BB2" t="n">
-        <v>525.7061767578125</v>
+        <v>400.3580017089844</v>
       </c>
       <c r="BC2" t="n">
-        <v>522.6253662109375</v>
+        <v>403.7777709960938</v>
       </c>
       <c r="BD2" t="n">
-        <v>521.6273803710938</v>
+        <v>406.2104797363281</v>
       </c>
       <c r="BE2" t="n">
-        <v>522.2945556640625</v>
+        <v>403.63818359375</v>
       </c>
       <c r="BF2" t="n">
-        <v>526.419921875</v>
+        <v>403.5118103027344</v>
       </c>
       <c r="BG2" t="n">
-        <v>527.2840576171875</v>
+        <v>403.3250122070312</v>
       </c>
       <c r="BH2" t="n">
-        <v>526.8515625</v>
+        <v>404.4879150390625</v>
       </c>
       <c r="BI2" t="n">
-        <v>527.5069580078125</v>
+        <v>405.9957275390625</v>
       </c>
       <c r="BJ2" t="n">
-        <v>523.121337890625</v>
+        <v>406.569580078125</v>
       </c>
       <c r="BK2" t="n">
-        <v>511.567138671875</v>
+        <v>407.2872924804688</v>
       </c>
       <c r="BL2" t="n">
-        <v>502.251220703125</v>
+        <v>404.9033203125</v>
       </c>
       <c r="BM2" t="n">
-        <v>503.0009765625</v>
+        <v>403.69921875</v>
       </c>
       <c r="BN2" t="n">
-        <v>505.5465698242188</v>
+        <v>404.0568237304688</v>
       </c>
       <c r="BO2" t="n">
-        <v>493.2194519042969</v>
+        <v>404.6557006835938</v>
       </c>
       <c r="BP2" t="n">
-        <v>479.9342041015625</v>
+        <v>404.7760314941406</v>
       </c>
       <c r="BQ2" t="n">
-        <v>476.550537109375</v>
+        <v>404.9402465820312</v>
       </c>
       <c r="BR2" t="n">
-        <v>468.65625</v>
+        <v>404.4371032714844</v>
       </c>
       <c r="BS2" t="n">
-        <v>464.5386352539062</v>
+        <v>404.5471496582031</v>
       </c>
       <c r="BT2" t="n">
-        <v>451.036376953125</v>
+        <v>405.4592590332031</v>
       </c>
       <c r="BU2" t="n">
-        <v>442.475341796875</v>
+        <v>407.1422729492188</v>
       </c>
       <c r="BV2" t="n">
-        <v>428.5065307617188</v>
+        <v>409.649658203125</v>
       </c>
       <c r="BW2" t="n">
-        <v>420.1574096679688</v>
+        <v>412.9685974121094</v>
       </c>
       <c r="BX2" t="n">
-        <v>418.5647888183594</v>
+        <v>414.5201110839844</v>
       </c>
       <c r="BY2" t="n">
-        <v>418.5739135742188</v>
+        <v>418.139404296875</v>
       </c>
       <c r="BZ2" t="n">
-        <v>415.3431396484375</v>
+        <v>420.1255798339844</v>
       </c>
       <c r="CA2" t="n">
-        <v>409.8767700195312</v>
+        <v>424.0880737304688</v>
       </c>
       <c r="CB2" t="n">
-        <v>420.1532287597656</v>
+        <v>424.7520751953125</v>
       </c>
       <c r="CC2" t="n">
-        <v>416.990234375</v>
+        <v>425.8027648925781</v>
       </c>
       <c r="CD2" t="n">
-        <v>408.8199462890625</v>
+        <v>427.35302734375</v>
       </c>
       <c r="CE2" t="n">
-        <v>418.0457763671875</v>
+        <v>427.6889038085938</v>
       </c>
       <c r="CF2" t="n">
-        <v>417.8263549804688</v>
+        <v>429.8892822265625</v>
       </c>
       <c r="CG2" t="n">
-        <v>416.2550048828125</v>
+        <v>432.6671752929688</v>
       </c>
       <c r="CH2" t="n">
-        <v>402.779296875</v>
+        <v>432.8897705078125</v>
       </c>
       <c r="CI2" t="n">
-        <v>381.9736938476562</v>
+        <v>433.3351440429688</v>
       </c>
       <c r="CJ2" t="n">
-        <v>373.729736328125</v>
+        <v>432.4004821777344</v>
       </c>
       <c r="CK2" t="n">
-        <v>378.9075317382812</v>
+        <v>431.9925537109375</v>
       </c>
       <c r="CL2" t="n">
-        <v>392.9357299804688</v>
+        <v>431.8001708984375</v>
       </c>
       <c r="CM2" t="n">
-        <v>410.9781494140625</v>
+        <v>432.042724609375</v>
       </c>
       <c r="CN2" t="n">
-        <v>419.5818786621094</v>
+        <v>432.4658813476562</v>
       </c>
       <c r="CO2" t="n">
-        <v>423.2319641113281</v>
+        <v>432.61083984375</v>
       </c>
       <c r="CP2" t="n">
-        <v>415.4934997558594</v>
+        <v>433.4510498046875</v>
       </c>
       <c r="CQ2" t="n">
-        <v>406.6982421875</v>
+        <v>434.0682373046875</v>
       </c>
       <c r="CR2" t="n">
-        <v>400.8002014160156</v>
+        <v>434.2779846191406</v>
       </c>
       <c r="CS2" t="n">
-        <v>409.6625366210938</v>
+        <v>436.9409790039062</v>
       </c>
       <c r="CT2" t="n">
-        <v>413.6083374023438</v>
+        <v>440.4691772460938</v>
       </c>
       <c r="CU2" t="n">
-        <v>427.166748046875</v>
+        <v>443.0057373046875</v>
       </c>
       <c r="CV2" t="n">
-        <v>446.386474609375</v>
+        <v>446.3541259765625</v>
       </c>
       <c r="CW2" t="n">
-        <v>440.9072265625</v>
+        <v>451.9878845214844</v>
       </c>
       <c r="CX2" t="n">
-        <v>439.5611877441406</v>
+        <v>456.0158081054688</v>
       </c>
       <c r="CY2" t="n">
-        <v>444.9747009277344</v>
+        <v>458.5965576171875</v>
       </c>
       <c r="CZ2" t="n">
-        <v>454.2107543945312</v>
+        <v>460.5110168457031</v>
       </c>
       <c r="DA2" t="n">
-        <v>458.8125305175781</v>
+        <v>471.43408203125</v>
       </c>
       <c r="DB2" t="n">
-        <v>475.1541748046875</v>
+        <v>476.2811889648438</v>
       </c>
       <c r="DC2" t="n">
-        <v>477.9586486816406</v>
+        <v>479.9512329101562</v>
       </c>
       <c r="DD2" t="n">
-        <v>481.7026062011719</v>
+        <v>479.85205078125</v>
       </c>
       <c r="DE2" t="n">
-        <v>485.3777465820312</v>
+        <v>481.5940551757812</v>
       </c>
       <c r="DF2" t="n">
-        <v>487.001220703125</v>
+        <v>483.9660949707031</v>
       </c>
       <c r="DG2" t="n">
-        <v>490.6268005371094</v>
+        <v>487.7103271484375</v>
       </c>
       <c r="DH2" t="n">
-        <v>513.3363647460938</v>
+        <v>487.0659790039062</v>
       </c>
       <c r="DI2" t="n">
-        <v>512.5967407226562</v>
+        <v>488.1937866210938</v>
       </c>
       <c r="DJ2" t="n">
-        <v>509.7504272460938</v>
+        <v>488.1820983886719</v>
       </c>
       <c r="DK2" t="n">
-        <v>508.243408203125</v>
+        <v>489.4801025390625</v>
       </c>
       <c r="DL2" t="n">
-        <v>507.111083984375</v>
+        <v>491.0801696777344</v>
       </c>
       <c r="DM2" t="n">
-        <v>506.7757568359375</v>
+        <v>491.6676330566406</v>
       </c>
       <c r="DN2" t="n">
-        <v>506.0775146484375</v>
+        <v>492.3348693847656</v>
       </c>
       <c r="DO2" t="n">
-        <v>510.4891662597656</v>
+        <v>490.6347351074219</v>
       </c>
       <c r="DP2" t="n">
-        <v>515.9464721679688</v>
+        <v>489.1157531738281</v>
       </c>
       <c r="DQ2" t="n">
-        <v>498.5950317382812</v>
+        <v>488.53564453125</v>
       </c>
       <c r="DR2" t="n">
-        <v>489.4746398925781</v>
+        <v>489.1864624023438</v>
       </c>
       <c r="DS2" t="n">
-        <v>480.76611328125</v>
+        <v>489.0172729492188</v>
       </c>
       <c r="DT2" t="n">
-        <v>466.8851318359375</v>
+        <v>488.5328979492188</v>
       </c>
       <c r="DU2" t="n">
-        <v>461.0572814941406</v>
+        <v>488.4679565429688</v>
       </c>
       <c r="DV2" t="n">
-        <v>457.3660278320312</v>
+        <v>488.5333862304688</v>
       </c>
       <c r="DW2" t="n">
-        <v>457.3807373046875</v>
+        <v>488.672119140625</v>
       </c>
       <c r="DX2" t="n">
-        <v>455.9117431640625</v>
+        <v>490.0656127929688</v>
       </c>
       <c r="DY2" t="n">
-        <v>448.971435546875</v>
+        <v>490.1748657226562</v>
       </c>
       <c r="DZ2" t="n">
-        <v>446.4276733398438</v>
+        <v>488.132568359375</v>
       </c>
       <c r="EA2" t="n">
-        <v>445.9937133789062</v>
+        <v>485.8988647460938</v>
       </c>
       <c r="EB2" t="n">
-        <v>448.6066284179688</v>
+        <v>483.9312133789062</v>
       </c>
       <c r="EC2" t="n">
-        <v>455.6903686523438</v>
+        <v>481.188232421875</v>
       </c>
       <c r="ED2" t="n">
-        <v>467.2197875976562</v>
+        <v>477.9520874023438</v>
       </c>
       <c r="EE2" t="n">
-        <v>477.53515625</v>
+        <v>466.7879638671875</v>
       </c>
       <c r="EF2" t="n">
-        <v>478.8522338867188</v>
+        <v>458.0699157714844</v>
       </c>
       <c r="EG2" t="n">
-        <v>484.8855590820312</v>
+        <v>448.4516906738281</v>
       </c>
       <c r="EH2" t="n">
-        <v>492.0694580078125</v>
+        <v>441.6231994628906</v>
       </c>
       <c r="EI2" t="n">
-        <v>497.7306518554688</v>
+        <v>434.4686889648438</v>
       </c>
       <c r="EJ2" t="n">
-        <v>512.7225341796875</v>
+        <v>384.4049072265625</v>
       </c>
       <c r="EK2" t="n">
-        <v>508.2802734375</v>
+        <v>425.9800415039062</v>
       </c>
       <c r="EL2" t="n">
-        <v>504.837890625</v>
+        <v>427.6159057617188</v>
       </c>
       <c r="EM2" t="n">
-        <v>501.1525268554688</v>
+        <v>419.9653930664062</v>
       </c>
       <c r="EN2" t="n">
-        <v>502.7625732421875</v>
+        <v>413.16943359375</v>
       </c>
       <c r="EO2" t="n">
-        <v>503.54736328125</v>
+        <v>409.5997314453125</v>
       </c>
       <c r="EP2" t="n">
-        <v>498.288818359375</v>
+        <v>405.87451171875</v>
       </c>
       <c r="EQ2" t="n">
-        <v>494.8617553710938</v>
+        <v>403.5827026367188</v>
       </c>
       <c r="ER2" t="n">
-        <v>495.4752197265625</v>
+        <v>400.0662231445312</v>
       </c>
       <c r="ES2" t="n">
-        <v>498.1734008789062</v>
+        <v>399.8927001953125</v>
       </c>
       <c r="ET2" t="n">
-        <v>518.4031372070312</v>
+        <v>399.1696166992188</v>
       </c>
       <c r="EU2" t="n">
-        <v>540.2803344726562</v>
+        <v>399.3127136230469</v>
       </c>
       <c r="EV2" t="n">
-        <v>540.9329833984375</v>
+        <v>398.9126281738281</v>
       </c>
       <c r="EW2" t="n">
-        <v>531.247802734375</v>
+        <v>398.7182312011719</v>
       </c>
       <c r="EX2" t="n">
-        <v>520.4571533203125</v>
+        <v>399.262939453125</v>
       </c>
       <c r="EY2" t="n">
-        <v>512.1620483398438</v>
+        <v>400.888916015625</v>
       </c>
       <c r="EZ2" t="n">
-        <v>497.3192138671875</v>
+        <v>403.1807250976562</v>
       </c>
       <c r="FA2" t="n">
-        <v>487.9396057128906</v>
+        <v>405.1831665039062</v>
       </c>
       <c r="FB2" t="n">
-        <v>481.3629455566406</v>
+        <v>404.7180786132812</v>
       </c>
       <c r="FC2" t="n">
-        <v>333.4288940429688</v>
+        <v>404.712890625</v>
       </c>
       <c r="FD2" t="n">
-        <v>333.8400268554688</v>
+        <v>404.486572265625</v>
       </c>
       <c r="FE2" t="n">
-        <v>333.2724609375</v>
+        <v>404.4769897460938</v>
       </c>
       <c r="FF2" t="n">
-        <v>332.9881591796875</v>
+        <v>404.4429931640625</v>
       </c>
       <c r="FG2" t="n">
-        <v>337.3659057617188</v>
+        <v>404.2821655273438</v>
       </c>
       <c r="FH2" t="n">
-        <v>348.8458251953125</v>
+        <v>403.7317504882812</v>
       </c>
       <c r="FI2" t="n">
-        <v>357.34423828125</v>
+        <v>403.3893432617188</v>
       </c>
       <c r="FJ2" t="n">
-        <v>369.7570495605469</v>
+        <v>403.4619750976562</v>
       </c>
       <c r="FK2" t="n">
-        <v>425.2216186523438</v>
+        <v>403.5465698242188</v>
       </c>
       <c r="FL2" t="n">
-        <v>429.9546813964844</v>
+        <v>403.7548522949219</v>
       </c>
       <c r="FM2" t="n">
-        <v>408.72802734375</v>
+        <v>404.5086059570312</v>
       </c>
       <c r="FN2" t="n">
-        <v>422.0905151367188</v>
+        <v>404.4004821777344</v>
       </c>
       <c r="FO2" t="n">
-        <v>429.4702758789062</v>
+        <v>404.3648681640625</v>
       </c>
       <c r="FP2" t="n">
-        <v>433.0747680664062</v>
+        <v>404.681640625</v>
       </c>
       <c r="FQ2" t="n">
-        <v>442.2806091308594</v>
+        <v>404.6918029785156</v>
       </c>
       <c r="FR2" t="n">
-        <v>446.8494262695312</v>
+        <v>404.8026123046875</v>
       </c>
       <c r="FS2" t="n">
-        <v>453.6904296875</v>
+        <v>404.8271179199219</v>
       </c>
       <c r="FT2" t="n">
-        <v>459.9582214355469</v>
+        <v>404.7860717773438</v>
       </c>
       <c r="FU2" t="n">
-        <v>465.2905883789062</v>
+        <v>404.8272705078125</v>
       </c>
       <c r="FV2" t="n">
-        <v>467.287353515625</v>
+        <v>405.0387573242188</v>
       </c>
       <c r="FW2" t="n">
-        <v>513.9169921875</v>
+        <v>404.6419982910156</v>
       </c>
       <c r="FX2" t="n">
-        <v>438.0432434082031</v>
+        <v>400.9949340820312</v>
       </c>
       <c r="FY2" t="n">
-        <v>463.3695068359375</v>
+        <v>398.5705261230469</v>
       </c>
       <c r="FZ2" t="n">
-        <v>464.16064453125</v>
+        <v>397.7119750976562</v>
       </c>
       <c r="GA2" t="n">
-        <v>454.1536865234375</v>
+        <v>398.083251953125</v>
       </c>
       <c r="GB2" t="n">
-        <v>445.7406005859375</v>
+        <v>398.1160278320312</v>
       </c>
       <c r="GC2" t="n">
-        <v>436.5442504882812</v>
+        <v>398.7629699707031</v>
       </c>
       <c r="GD2" t="n">
-        <v>420.3777465820312</v>
+        <v>404.9302368164062</v>
       </c>
       <c r="GE2" t="n">
-        <v>394.5403442382812</v>
+        <v>408.97119140625</v>
       </c>
       <c r="GF2" t="n">
-        <v>394.4943237304688</v>
+        <v>429.1564331054688</v>
       </c>
       <c r="GG2" t="n">
-        <v>408.0818176269531</v>
+        <v>437.4695434570312</v>
       </c>
       <c r="GH2" t="n">
-        <v>408.7628173828125</v>
+        <v>466.0968322753906</v>
       </c>
       <c r="GI2" t="n">
-        <v>400.8774108886719</v>
+        <v>479.9389953613281</v>
       </c>
       <c r="GJ2" t="n">
-        <v>398.3955078125</v>
+        <v>484.6036376953125</v>
       </c>
       <c r="GK2" t="n">
-        <v>398.7215576171875</v>
+        <v>490.1036071777344</v>
       </c>
       <c r="GL2" t="n">
-        <v>402.3646240234375</v>
+        <v>492.4486694335938</v>
       </c>
       <c r="GM2" t="n">
-        <v>405.2523803710938</v>
+        <v>491.9647216796875</v>
       </c>
       <c r="GN2" t="n">
-        <v>403.5527954101562</v>
+        <v>491.7248229980469</v>
       </c>
       <c r="GO2" t="n">
-        <v>392.681884765625</v>
+        <v>490.7591247558594</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>482.8394775390625</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>473.5184020996094</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>461.5764770507812</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>455.490478515625</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>438.225341796875</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>428.987548828125</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>410.7073669433594</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>404.07861328125</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>401.2145690917969</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>395.68994140625</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>391.4435119628906</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>391.757568359375</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>390.84814453125</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>390.7250366210938</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>391.1972045898438</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>389.5126953125</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>388.2080383300781</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>384.682373046875</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>385.0241394042969</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>384.5598754882812</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>382.6179809570312</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>373.5137939453125</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>371.26806640625</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>370.7561950683594</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>370.19189453125</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>371.9322204589844</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>373.9227905273438</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>375.5006713867188</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>377.8947143554688</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>380.945068359375</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>382.9105834960938</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>383.7114868164062</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>384.4343566894531</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>385.178955078125</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>385.27734375</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>376.53173828125</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>372.6372985839844</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>369.7566528320312</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>368.9824829101562</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>371.0394287109375</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>374.7924499511719</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>378.4758911132812</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>381.3496398925781</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>381.5161437988281</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>369.6153259277344</v>
+      </c>
+      <c r="II2" t="n">
+        <v>339.7222900390625</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>290.2847900390625</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>165.2216796875</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>-0.4443619251251221</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>-141.9397735595703</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>-210.9661560058594</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>389.3074951171875</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>348.4989929199219</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>308.9288635253906</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>307.0198364257812</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>328.2128295898438</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>316.6185607910156</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>316.6093444824219</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>350.1715393066406</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>15.95627212524414</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>92.84534454345703</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>119.4493408203125</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>112.9235992431641</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>103.1500701904297</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>33.11010360717773</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>50.26777267456055</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>92.56898498535156</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>105.1849975585938</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>95.64014434814453</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>118.1062316894531</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>129.1509552001953</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>111.957633972168</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>94.829345703125</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>72.23635864257812</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>63.77672576904297</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>60.56168365478516</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>466.0084228515625</v>
       </c>
       <c r="B3" t="n">
-        <v>555.4437255859375</v>
+        <v>507.5095825195312</v>
       </c>
       <c r="C3" t="n">
-        <v>551.9407348632812</v>
+        <v>508.1471557617188</v>
       </c>
       <c r="D3" t="n">
-        <v>550.1165771484375</v>
+        <v>508.8028869628906</v>
       </c>
       <c r="E3" t="n">
-        <v>548.5746459960938</v>
+        <v>509.503662109375</v>
       </c>
       <c r="F3" t="n">
-        <v>547.5894165039062</v>
+        <v>471.160888671875</v>
       </c>
       <c r="G3" t="n">
-        <v>546.8240966796875</v>
+        <v>471.5031127929688</v>
       </c>
       <c r="H3" t="n">
-        <v>546.2326049804688</v>
+        <v>471.7057189941406</v>
       </c>
       <c r="I3" t="n">
-        <v>545.7329711914062</v>
+        <v>471.759033203125</v>
       </c>
       <c r="J3" t="n">
-        <v>545.3049926757812</v>
+        <v>471.6830749511719</v>
       </c>
       <c r="K3" t="n">
-        <v>544.9520263671875</v>
+        <v>471.5674133300781</v>
       </c>
       <c r="L3" t="n">
-        <v>544.6345825195312</v>
+        <v>471.1697082519531</v>
       </c>
       <c r="M3" t="n">
-        <v>544.34375</v>
+        <v>470.5722961425781</v>
       </c>
       <c r="N3" t="n">
-        <v>544.0831909179688</v>
+        <v>470.0869140625</v>
       </c>
       <c r="O3" t="n">
-        <v>543.8428955078125</v>
+        <v>468.5662841796875</v>
       </c>
       <c r="P3" t="n">
-        <v>543.6155395507812</v>
+        <v>460.9033203125</v>
       </c>
       <c r="Q3" t="n">
-        <v>543.3822631835938</v>
+        <v>442.3927001953125</v>
       </c>
       <c r="R3" t="n">
-        <v>578.0032348632812</v>
+        <v>419.1959228515625</v>
       </c>
       <c r="S3" t="n">
-        <v>576.3607177734375</v>
+        <v>401.8944702148438</v>
       </c>
       <c r="T3" t="n">
-        <v>576.901123046875</v>
+        <v>388.7218933105469</v>
       </c>
       <c r="U3" t="n">
-        <v>576.7570190429688</v>
+        <v>380.4360656738281</v>
       </c>
       <c r="V3" t="n">
-        <v>577.2835083007812</v>
+        <v>379.3903198242188</v>
       </c>
       <c r="W3" t="n">
-        <v>578.0283813476562</v>
+        <v>373.8757019042969</v>
       </c>
       <c r="X3" t="n">
-        <v>578.1549682617188</v>
+        <v>369.3731689453125</v>
       </c>
       <c r="Y3" t="n">
-        <v>577.7867431640625</v>
+        <v>365.4555053710938</v>
       </c>
       <c r="Z3" t="n">
-        <v>577.4107666015625</v>
+        <v>352.5155029296875</v>
       </c>
       <c r="AA3" t="n">
-        <v>577.0051879882812</v>
+        <v>355.68798828125</v>
       </c>
       <c r="AB3" t="n">
-        <v>576.632080078125</v>
+        <v>360.4588623046875</v>
       </c>
       <c r="AC3" t="n">
-        <v>576.2481689453125</v>
+        <v>366.5129089355469</v>
       </c>
       <c r="AD3" t="n">
-        <v>575.8516235351562</v>
+        <v>376.3598022460938</v>
       </c>
       <c r="AE3" t="n">
-        <v>575.4498291015625</v>
+        <v>385.9000854492188</v>
       </c>
       <c r="AF3" t="n">
-        <v>575.0712890625</v>
+        <v>390.9358825683594</v>
       </c>
       <c r="AG3" t="n">
-        <v>574.6436157226562</v>
+        <v>389.488037109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>574.2152099609375</v>
+        <v>388.3148803710938</v>
       </c>
       <c r="AI3" t="n">
-        <v>573.7650146484375</v>
+        <v>386.9037780761719</v>
       </c>
       <c r="AJ3" t="n">
-        <v>573.2835083007812</v>
+        <v>383.9597778320312</v>
       </c>
       <c r="AK3" t="n">
-        <v>572.7757568359375</v>
+        <v>376.7300109863281</v>
       </c>
       <c r="AL3" t="n">
-        <v>571.7713623046875</v>
+        <v>361.2365417480469</v>
       </c>
       <c r="AM3" t="n">
-        <v>571.2490844726562</v>
+        <v>360.6244201660156</v>
       </c>
       <c r="AN3" t="n">
-        <v>570.7203369140625</v>
+        <v>370.701904296875</v>
       </c>
       <c r="AO3" t="n">
-        <v>570.1026000976562</v>
+        <v>376.8691101074219</v>
       </c>
       <c r="AP3" t="n">
-        <v>568.9906005859375</v>
+        <v>396.1964111328125</v>
       </c>
       <c r="AQ3" t="n">
-        <v>566.6519775390625</v>
+        <v>411.0999450683594</v>
       </c>
       <c r="AR3" t="n">
-        <v>567.283447265625</v>
+        <v>418.4252624511719</v>
       </c>
       <c r="AS3" t="n">
-        <v>568.0687866210938</v>
+        <v>423.6278076171875</v>
       </c>
       <c r="AT3" t="n">
-        <v>565.5093994140625</v>
+        <v>430.5551147460938</v>
       </c>
       <c r="AU3" t="n">
-        <v>565.286376953125</v>
+        <v>434.4061889648438</v>
       </c>
       <c r="AV3" t="n">
-        <v>564.9804077148438</v>
+        <v>437.9407348632812</v>
       </c>
       <c r="AW3" t="n">
-        <v>562.4488525390625</v>
+        <v>434.3939819335938</v>
       </c>
       <c r="AX3" t="n">
-        <v>563.0355834960938</v>
+        <v>426.9158630371094</v>
       </c>
       <c r="AY3" t="n">
-        <v>560.8353881835938</v>
+        <v>423.9332275390625</v>
       </c>
       <c r="AZ3" t="n">
-        <v>556.5772094726562</v>
+        <v>419.8694763183594</v>
       </c>
       <c r="BA3" t="n">
-        <v>551.380859375</v>
+        <v>416.2186584472656</v>
       </c>
       <c r="BB3" t="n">
-        <v>546.5050659179688</v>
+        <v>412.3680725097656</v>
       </c>
       <c r="BC3" t="n">
-        <v>543.3545532226562</v>
+        <v>406.2755126953125</v>
       </c>
       <c r="BD3" t="n">
-        <v>541.0264282226562</v>
+        <v>401.3072204589844</v>
       </c>
       <c r="BE3" t="n">
-        <v>513.9786987304688</v>
+        <v>400.2815551757812</v>
       </c>
       <c r="BF3" t="n">
-        <v>539.0745239257812</v>
+        <v>396.2633056640625</v>
       </c>
       <c r="BG3" t="n">
-        <v>539.152099609375</v>
+        <v>392.2331237792969</v>
       </c>
       <c r="BH3" t="n">
-        <v>537.2196655273438</v>
+        <v>391.2217712402344</v>
       </c>
       <c r="BI3" t="n">
-        <v>536.7276000976562</v>
+        <v>385.7218017578125</v>
       </c>
       <c r="BJ3" t="n">
-        <v>515.400146484375</v>
+        <v>382.6267700195312</v>
       </c>
       <c r="BK3" t="n">
-        <v>519.9651489257812</v>
+        <v>383.1522521972656</v>
       </c>
       <c r="BL3" t="n">
-        <v>520.3696899414062</v>
+        <v>383.7259521484375</v>
       </c>
       <c r="BM3" t="n">
-        <v>518.40771484375</v>
+        <v>383.8547973632812</v>
       </c>
       <c r="BN3" t="n">
-        <v>518.4697875976562</v>
+        <v>382.0865173339844</v>
       </c>
       <c r="BO3" t="n">
-        <v>519.3502807617188</v>
+        <v>381.9271240234375</v>
       </c>
       <c r="BP3" t="n">
-        <v>522.0684814453125</v>
+        <v>380.634033203125</v>
       </c>
       <c r="BQ3" t="n">
-        <v>521.9656372070312</v>
+        <v>374.2680358886719</v>
       </c>
       <c r="BR3" t="n">
-        <v>519.4531860351562</v>
+        <v>375.8403015136719</v>
       </c>
       <c r="BS3" t="n">
-        <v>515.9788818359375</v>
+        <v>370.0982055664062</v>
       </c>
       <c r="BT3" t="n">
-        <v>513.8778076171875</v>
+        <v>366.5493469238281</v>
       </c>
       <c r="BU3" t="n">
-        <v>508.7250671386719</v>
+        <v>366.8975830078125</v>
       </c>
       <c r="BV3" t="n">
-        <v>507.0418701171875</v>
+        <v>366.1161499023438</v>
       </c>
       <c r="BW3" t="n">
-        <v>504.9611206054688</v>
+        <v>361.7263793945312</v>
       </c>
       <c r="BX3" t="n">
-        <v>499.0785522460938</v>
+        <v>360.0052490234375</v>
       </c>
       <c r="BY3" t="n">
-        <v>495.2029724121094</v>
+        <v>363.2819519042969</v>
       </c>
       <c r="BZ3" t="n">
-        <v>490.9925537109375</v>
+        <v>369.6752319335938</v>
       </c>
       <c r="CA3" t="n">
-        <v>488.67578125</v>
+        <v>371.2060546875</v>
       </c>
       <c r="CB3" t="n">
-        <v>501.6436462402344</v>
+        <v>371.6228637695312</v>
       </c>
       <c r="CC3" t="n">
-        <v>499.9430541992188</v>
+        <v>370.5017700195312</v>
       </c>
       <c r="CD3" t="n">
-        <v>503.1152954101562</v>
+        <v>369.4409484863281</v>
       </c>
       <c r="CE3" t="n">
-        <v>491.2598876953125</v>
+        <v>369.1604309082031</v>
       </c>
       <c r="CF3" t="n">
-        <v>489.1260375976562</v>
+        <v>366.8470458984375</v>
       </c>
       <c r="CG3" t="n">
-        <v>486.7996826171875</v>
+        <v>366.397705078125</v>
       </c>
       <c r="CH3" t="n">
-        <v>499.817626953125</v>
+        <v>365.2600708007812</v>
       </c>
       <c r="CI3" t="n">
-        <v>514.6332397460938</v>
+        <v>364.0486145019531</v>
       </c>
       <c r="CJ3" t="n">
-        <v>518.2218627929688</v>
+        <v>364.2694702148438</v>
       </c>
       <c r="CK3" t="n">
-        <v>513.474365234375</v>
+        <v>363.1711730957031</v>
       </c>
       <c r="CL3" t="n">
-        <v>506.6357727050781</v>
+        <v>364.6766662597656</v>
       </c>
       <c r="CM3" t="n">
-        <v>489.6910400390625</v>
+        <v>365.900146484375</v>
       </c>
       <c r="CN3" t="n">
-        <v>478.974365234375</v>
+        <v>366.9932556152344</v>
       </c>
       <c r="CO3" t="n">
-        <v>476.1665954589844</v>
+        <v>365.8675537109375</v>
       </c>
       <c r="CP3" t="n">
-        <v>494.780517578125</v>
+        <v>366.2380981445312</v>
       </c>
       <c r="CQ3" t="n">
-        <v>510.6511840820312</v>
+        <v>363.7720642089844</v>
       </c>
       <c r="CR3" t="n">
-        <v>492.6417846679688</v>
+        <v>362.6414794921875</v>
       </c>
       <c r="CS3" t="n">
-        <v>495.2994995117188</v>
+        <v>358.8788757324219</v>
       </c>
       <c r="CT3" t="n">
-        <v>497.1802673339844</v>
+        <v>353.2844848632812</v>
       </c>
       <c r="CU3" t="n">
-        <v>500.09765625</v>
+        <v>348.3194580078125</v>
       </c>
       <c r="CV3" t="n">
-        <v>497.8140869140625</v>
+        <v>344.5254821777344</v>
       </c>
       <c r="CW3" t="n">
-        <v>501.6605834960938</v>
+        <v>342.1970520019531</v>
       </c>
       <c r="CX3" t="n">
-        <v>501.9276733398438</v>
+        <v>331.6022644042969</v>
       </c>
       <c r="CY3" t="n">
-        <v>501.3253173828125</v>
+        <v>318.6666259765625</v>
       </c>
       <c r="CZ3" t="n">
-        <v>503.2825012207031</v>
+        <v>312.3628845214844</v>
       </c>
       <c r="DA3" t="n">
-        <v>502.8424682617188</v>
+        <v>300.6721801757812</v>
       </c>
       <c r="DB3" t="n">
-        <v>504.313720703125</v>
+        <v>296.4422912597656</v>
       </c>
       <c r="DC3" t="n">
-        <v>504.1228332519531</v>
+        <v>289.6122436523438</v>
       </c>
       <c r="DD3" t="n">
-        <v>505.4122314453125</v>
+        <v>281.6842956542969</v>
       </c>
       <c r="DE3" t="n">
-        <v>506.7322082519531</v>
+        <v>278.0723571777344</v>
       </c>
       <c r="DF3" t="n">
-        <v>508.0488891601562</v>
+        <v>270.9720764160156</v>
       </c>
       <c r="DG3" t="n">
-        <v>508.9512634277344</v>
+        <v>264.698486328125</v>
       </c>
       <c r="DH3" t="n">
-        <v>513.0239868164062</v>
+        <v>256.0312194824219</v>
       </c>
       <c r="DI3" t="n">
-        <v>514.7847290039062</v>
+        <v>254.7095794677734</v>
       </c>
       <c r="DJ3" t="n">
-        <v>514.5206298828125</v>
+        <v>252.8260803222656</v>
       </c>
       <c r="DK3" t="n">
-        <v>512.7523193359375</v>
+        <v>251.9078369140625</v>
       </c>
       <c r="DL3" t="n">
-        <v>510.9771423339844</v>
+        <v>248.3309631347656</v>
       </c>
       <c r="DM3" t="n">
-        <v>510.1604614257812</v>
+        <v>245.1686706542969</v>
       </c>
       <c r="DN3" t="n">
-        <v>504.1825561523438</v>
+        <v>243.6153869628906</v>
       </c>
       <c r="DO3" t="n">
-        <v>496.8407897949219</v>
+        <v>241.323974609375</v>
       </c>
       <c r="DP3" t="n">
-        <v>501.0977478027344</v>
+        <v>240.7977142333984</v>
       </c>
       <c r="DQ3" t="n">
-        <v>492.5790100097656</v>
+        <v>238.4206695556641</v>
       </c>
       <c r="DR3" t="n">
-        <v>485.8842163085938</v>
+        <v>237.6969451904297</v>
       </c>
       <c r="DS3" t="n">
-        <v>484.8152160644531</v>
+        <v>237.1030731201172</v>
       </c>
       <c r="DT3" t="n">
-        <v>475.53369140625</v>
+        <v>236.4199829101562</v>
       </c>
       <c r="DU3" t="n">
-        <v>469.7316589355469</v>
+        <v>236.5405120849609</v>
       </c>
       <c r="DV3" t="n">
-        <v>460.4628601074219</v>
+        <v>236.6482391357422</v>
       </c>
       <c r="DW3" t="n">
-        <v>442.2680358886719</v>
+        <v>236.6274108886719</v>
       </c>
       <c r="DX3" t="n">
-        <v>432.6983032226562</v>
+        <v>236.7197875976562</v>
       </c>
       <c r="DY3" t="n">
-        <v>419.1959838867188</v>
+        <v>239.1675872802734</v>
       </c>
       <c r="DZ3" t="n">
-        <v>415.6358032226562</v>
+        <v>255.9512634277344</v>
       </c>
       <c r="EA3" t="n">
-        <v>413.0359497070312</v>
+        <v>263.6333618164062</v>
       </c>
       <c r="EB3" t="n">
-        <v>419.6629028320312</v>
+        <v>271.9140930175781</v>
       </c>
       <c r="EC3" t="n">
-        <v>423.3833923339844</v>
+        <v>289.0160522460938</v>
       </c>
       <c r="ED3" t="n">
-        <v>441.1385498046875</v>
+        <v>296.0069274902344</v>
       </c>
       <c r="EE3" t="n">
-        <v>461.1588439941406</v>
+        <v>312.2034301757812</v>
       </c>
       <c r="EF3" t="n">
-        <v>467.2372131347656</v>
+        <v>325.6741638183594</v>
       </c>
       <c r="EG3" t="n">
-        <v>484.831298828125</v>
+        <v>331.6178894042969</v>
       </c>
       <c r="EH3" t="n">
-        <v>495.8764953613281</v>
+        <v>335.9088745117188</v>
       </c>
       <c r="EI3" t="n">
-        <v>494.1427307128906</v>
+        <v>338.0316162109375</v>
       </c>
       <c r="EJ3" t="n">
-        <v>516.1744384765625</v>
+        <v>368.7618408203125</v>
       </c>
       <c r="EK3" t="n">
-        <v>526.409423828125</v>
+        <v>345.450927734375</v>
       </c>
       <c r="EL3" t="n">
-        <v>529.9959716796875</v>
+        <v>343.7125854492188</v>
       </c>
       <c r="EM3" t="n">
-        <v>533.9953002929688</v>
+        <v>355.501220703125</v>
       </c>
       <c r="EN3" t="n">
-        <v>534.786376953125</v>
+        <v>353.4668579101562</v>
       </c>
       <c r="EO3" t="n">
-        <v>534.6790161132812</v>
+        <v>353.8516235351562</v>
       </c>
       <c r="EP3" t="n">
-        <v>533.0830688476562</v>
+        <v>354.3320922851562</v>
       </c>
       <c r="EQ3" t="n">
-        <v>532.1439208984375</v>
+        <v>356.5433349609375</v>
       </c>
       <c r="ER3" t="n">
-        <v>532.2442016601562</v>
+        <v>360.8916931152344</v>
       </c>
       <c r="ES3" t="n">
-        <v>531.4242553710938</v>
+        <v>361.3589477539062</v>
       </c>
       <c r="ET3" t="n">
-        <v>538.0628051757812</v>
+        <v>360.57861328125</v>
       </c>
       <c r="EU3" t="n">
-        <v>535.6085205078125</v>
+        <v>360.4337463378906</v>
       </c>
       <c r="EV3" t="n">
-        <v>530.7093505859375</v>
+        <v>360.6357727050781</v>
       </c>
       <c r="EW3" t="n">
-        <v>518.6407470703125</v>
+        <v>360.5896301269531</v>
       </c>
       <c r="EX3" t="n">
-        <v>509.40966796875</v>
+        <v>360.6700134277344</v>
       </c>
       <c r="EY3" t="n">
-        <v>503.3392639160156</v>
+        <v>361.3764038085938</v>
       </c>
       <c r="EZ3" t="n">
-        <v>477.5850219726562</v>
+        <v>360.4405822753906</v>
       </c>
       <c r="FA3" t="n">
-        <v>453.8673400878906</v>
+        <v>358.8106384277344</v>
       </c>
       <c r="FB3" t="n">
-        <v>446.1908874511719</v>
+        <v>358.6424560546875</v>
       </c>
       <c r="FC3" t="n">
-        <v>576.194091796875</v>
+        <v>358.4130554199219</v>
       </c>
       <c r="FD3" t="n">
-        <v>572.0047607421875</v>
+        <v>358.3213195800781</v>
       </c>
       <c r="FE3" t="n">
-        <v>566.3553466796875</v>
+        <v>357.7576599121094</v>
       </c>
       <c r="FF3" t="n">
-        <v>564.5716552734375</v>
+        <v>358.2487487792969</v>
       </c>
       <c r="FG3" t="n">
-        <v>560.4238891601562</v>
+        <v>358.0941772460938</v>
       </c>
       <c r="FH3" t="n">
-        <v>563.6112670898438</v>
+        <v>356.7644348144531</v>
       </c>
       <c r="FI3" t="n">
-        <v>565.749267578125</v>
+        <v>356.3597412109375</v>
       </c>
       <c r="FJ3" t="n">
-        <v>569.239013671875</v>
+        <v>356.3136901855469</v>
       </c>
       <c r="FK3" t="n">
-        <v>578.3883056640625</v>
+        <v>356.4241027832031</v>
       </c>
       <c r="FL3" t="n">
-        <v>578.2027587890625</v>
+        <v>356.4346008300781</v>
       </c>
       <c r="FM3" t="n">
-        <v>574.6365356445312</v>
+        <v>358.0551452636719</v>
       </c>
       <c r="FN3" t="n">
-        <v>575.9015502929688</v>
+        <v>357.85986328125</v>
       </c>
       <c r="FO3" t="n">
-        <v>575.1668090820312</v>
+        <v>357.8267517089844</v>
       </c>
       <c r="FP3" t="n">
-        <v>575.53857421875</v>
+        <v>358.3900451660156</v>
       </c>
       <c r="FQ3" t="n">
-        <v>574.0311889648438</v>
+        <v>357.4125671386719</v>
       </c>
       <c r="FR3" t="n">
-        <v>575.6871948242188</v>
+        <v>356.9491577148438</v>
       </c>
       <c r="FS3" t="n">
-        <v>573.6536254882812</v>
+        <v>356.9080810546875</v>
       </c>
       <c r="FT3" t="n">
-        <v>574.0075073242188</v>
+        <v>356.7481994628906</v>
       </c>
       <c r="FU3" t="n">
-        <v>574.3104858398438</v>
+        <v>357.2776794433594</v>
       </c>
       <c r="FV3" t="n">
-        <v>575.1949462890625</v>
+        <v>359.0423889160156</v>
       </c>
       <c r="FW3" t="n">
-        <v>621.6774291992188</v>
+        <v>362.2408142089844</v>
       </c>
       <c r="FX3" t="n">
-        <v>438.5094299316406</v>
+        <v>364.2406005859375</v>
       </c>
       <c r="FY3" t="n">
-        <v>426.7641296386719</v>
+        <v>365.7613220214844</v>
       </c>
       <c r="FZ3" t="n">
-        <v>423.5175476074219</v>
+        <v>364.8993530273438</v>
       </c>
       <c r="GA3" t="n">
-        <v>424.548828125</v>
+        <v>363.3420104980469</v>
       </c>
       <c r="GB3" t="n">
-        <v>432.4943237304688</v>
+        <v>362.9467468261719</v>
       </c>
       <c r="GC3" t="n">
-        <v>470.3987426757812</v>
+        <v>362.4260559082031</v>
       </c>
       <c r="GD3" t="n">
-        <v>509.7821044921875</v>
+        <v>353.47119140625</v>
       </c>
       <c r="GE3" t="n">
-        <v>451.5325012207031</v>
+        <v>348.7716979980469</v>
       </c>
       <c r="GF3" t="n">
-        <v>432.3534851074219</v>
+        <v>338.9575500488281</v>
       </c>
       <c r="GG3" t="n">
-        <v>417.3468322753906</v>
+        <v>334.7404479980469</v>
       </c>
       <c r="GH3" t="n">
-        <v>429.6325988769531</v>
+        <v>324.2479553222656</v>
       </c>
       <c r="GI3" t="n">
-        <v>423.3291625976562</v>
+        <v>308.1814575195312</v>
       </c>
       <c r="GJ3" t="n">
-        <v>421.2661437988281</v>
+        <v>300.4213256835938</v>
       </c>
       <c r="GK3" t="n">
-        <v>425.1096801757812</v>
+        <v>286.1926879882812</v>
       </c>
       <c r="GL3" t="n">
-        <v>425.0239562988281</v>
+        <v>277.1285400390625</v>
       </c>
       <c r="GM3" t="n">
-        <v>422.7424926757812</v>
+        <v>275.56884765625</v>
       </c>
       <c r="GN3" t="n">
-        <v>421.7903747558594</v>
+        <v>276.8039245605469</v>
       </c>
       <c r="GO3" t="n">
-        <v>424.8880920410156</v>
+        <v>281.8599853515625</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>299.4674377441406</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>310.89306640625</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>324.6458740234375</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>329.2158813476562</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>339.4201965332031</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>343.1386413574219</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>348.2752685546875</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>355.3411560058594</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>361.1750183105469</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>367.0176391601562</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>367.7743835449219</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>366.8633117675781</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>365.0507507324219</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>366.4907531738281</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>367.2418212890625</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>370.3674621582031</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>372.2275390625</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>378.4762878417969</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>382.0226135253906</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>383.4747924804688</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>384.5227661132812</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>381.9995727539062</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>381.9006958007812</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>384.2125854492188</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>385.449462890625</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>380.688720703125</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>380.0396728515625</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>384.9627685546875</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>388.3036804199219</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>395.4065246582031</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>399.3623352050781</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>399.3576049804688</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>399.7646484375</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>393.8673400878906</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>392.2526245117188</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>392.0635070800781</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>394.586181640625</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>391.6472473144531</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>386.2743225097656</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>388.2918701171875</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>392.7045288085938</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>395.576904296875</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>393.8186645507812</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>394.038818359375</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>399.5462951660156</v>
+      </c>
+      <c r="II3" t="n">
+        <v>398.7646179199219</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>398.1218872070312</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>385.5049133300781</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>512.2313232421875</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>620.390380859375</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>615.091796875</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>765.155517578125</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>777.2255859375</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>104.5366744995117</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>94.38120269775391</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>100.6162338256836</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>86.38687896728516</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>75.13102722167969</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>407.5437927246094</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>467.5598449707031</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>507.1268920898438</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>576.0254516601562</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>521.773681640625</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>442.092529296875</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>460.0232238769531</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>482.2310791015625</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>478.0247192382812</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>480.8968811035156</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>507.9706115722656</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>474.5353698730469</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>456.6810913085938</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>470.2957763671875</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>474.0827026367188</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>473.4953918457031</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>466.8919982910156</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>474.0216979980469</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>663.9998168945312</v>
       </c>
       <c r="B4" t="n">
-        <v>1027.819458007812</v>
+        <v>632.2990112304688</v>
       </c>
       <c r="C4" t="n">
-        <v>1021.419128417969</v>
+        <v>631.6089477539062</v>
       </c>
       <c r="D4" t="n">
-        <v>1021.101806640625</v>
+        <v>630.907958984375</v>
       </c>
       <c r="E4" t="n">
-        <v>1021.635437011719</v>
+        <v>630.6154174804688</v>
       </c>
       <c r="F4" t="n">
-        <v>1021.750427246094</v>
+        <v>660.5428466796875</v>
       </c>
       <c r="G4" t="n">
-        <v>1021.807495117188</v>
+        <v>660.4143676757812</v>
       </c>
       <c r="H4" t="n">
-        <v>1022.130310058594</v>
+        <v>660.42626953125</v>
       </c>
       <c r="I4" t="n">
-        <v>1022.422729492188</v>
+        <v>660.7625122070312</v>
       </c>
       <c r="J4" t="n">
-        <v>1022.649841308594</v>
+        <v>661.162353515625</v>
       </c>
       <c r="K4" t="n">
-        <v>1022.730285644531</v>
+        <v>661.6446533203125</v>
       </c>
       <c r="L4" t="n">
-        <v>1022.806640625</v>
+        <v>662.189697265625</v>
       </c>
       <c r="M4" t="n">
-        <v>1022.906555175781</v>
+        <v>661.6544799804688</v>
       </c>
       <c r="N4" t="n">
-        <v>1022.947570800781</v>
+        <v>660.6286010742188</v>
       </c>
       <c r="O4" t="n">
-        <v>1022.987609863281</v>
+        <v>655.140869140625</v>
       </c>
       <c r="P4" t="n">
-        <v>1023.023864746094</v>
+        <v>639.5843505859375</v>
       </c>
       <c r="Q4" t="n">
-        <v>1023.087219238281</v>
+        <v>619.6022338867188</v>
       </c>
       <c r="R4" t="n">
-        <v>824.8312377929688</v>
+        <v>596.1779174804688</v>
       </c>
       <c r="S4" t="n">
-        <v>785.5940551757812</v>
+        <v>573.4647827148438</v>
       </c>
       <c r="T4" t="n">
-        <v>787.002197265625</v>
+        <v>545.5406494140625</v>
       </c>
       <c r="U4" t="n">
-        <v>786.3472290039062</v>
+        <v>524.7741088867188</v>
       </c>
       <c r="V4" t="n">
-        <v>792.5174560546875</v>
+        <v>507.2947692871094</v>
       </c>
       <c r="W4" t="n">
-        <v>803.1713256835938</v>
+        <v>488.8547973632812</v>
       </c>
       <c r="X4" t="n">
-        <v>810.96923828125</v>
+        <v>468.7952575683594</v>
       </c>
       <c r="Y4" t="n">
-        <v>811.3056030273438</v>
+        <v>456.7235717773438</v>
       </c>
       <c r="Z4" t="n">
-        <v>812.0299682617188</v>
+        <v>448.4893188476562</v>
       </c>
       <c r="AA4" t="n">
-        <v>811.9657592773438</v>
+        <v>443.3899841308594</v>
       </c>
       <c r="AB4" t="n">
-        <v>811.7534790039062</v>
+        <v>443.8792724609375</v>
       </c>
       <c r="AC4" t="n">
-        <v>811.4884033203125</v>
+        <v>440.3421630859375</v>
       </c>
       <c r="AD4" t="n">
-        <v>811.3644409179688</v>
+        <v>426.0691223144531</v>
       </c>
       <c r="AE4" t="n">
-        <v>811.4552001953125</v>
+        <v>400.2178344726562</v>
       </c>
       <c r="AF4" t="n">
-        <v>812.335693359375</v>
+        <v>388.5373229980469</v>
       </c>
       <c r="AG4" t="n">
-        <v>812.8822021484375</v>
+        <v>385.6106872558594</v>
       </c>
       <c r="AH4" t="n">
-        <v>813.5337524414062</v>
+        <v>384.6731567382812</v>
       </c>
       <c r="AI4" t="n">
-        <v>814.4498291015625</v>
+        <v>384.35546875</v>
       </c>
       <c r="AJ4" t="n">
-        <v>815.0331420898438</v>
+        <v>387.5637512207031</v>
       </c>
       <c r="AK4" t="n">
-        <v>815.6722412109375</v>
+        <v>401.0150756835938</v>
       </c>
       <c r="AL4" t="n">
-        <v>817.0314331054688</v>
+        <v>441.6033020019531</v>
       </c>
       <c r="AM4" t="n">
-        <v>817.720703125</v>
+        <v>473.4685668945312</v>
       </c>
       <c r="AN4" t="n">
-        <v>818.6171875</v>
+        <v>518.2534790039062</v>
       </c>
       <c r="AO4" t="n">
-        <v>819.68798828125</v>
+        <v>555.8154907226562</v>
       </c>
       <c r="AP4" t="n">
-        <v>820.1389770507812</v>
+        <v>570.5785522460938</v>
       </c>
       <c r="AQ4" t="n">
-        <v>824.9524536132812</v>
+        <v>599.4740600585938</v>
       </c>
       <c r="AR4" t="n">
-        <v>863.0733032226562</v>
+        <v>653.2294311523438</v>
       </c>
       <c r="AS4" t="n">
-        <v>868.2975463867188</v>
+        <v>706.6790771484375</v>
       </c>
       <c r="AT4" t="n">
-        <v>864.0071411132812</v>
+        <v>753.8135375976562</v>
       </c>
       <c r="AU4" t="n">
-        <v>846.5762329101562</v>
+        <v>775.6593017578125</v>
       </c>
       <c r="AV4" t="n">
-        <v>841.8580322265625</v>
+        <v>823.9549560546875</v>
       </c>
       <c r="AW4" t="n">
-        <v>841.6641845703125</v>
+        <v>870.0595092773438</v>
       </c>
       <c r="AX4" t="n">
-        <v>841.0934448242188</v>
+        <v>917.4434204101562</v>
       </c>
       <c r="AY4" t="n">
-        <v>845.8578491210938</v>
+        <v>981.4860229492188</v>
       </c>
       <c r="AZ4" t="n">
-        <v>851.1937866210938</v>
+        <v>1039.271484375</v>
       </c>
       <c r="BA4" t="n">
-        <v>856.5430297851562</v>
+        <v>1087.379516601562</v>
       </c>
       <c r="BB4" t="n">
-        <v>861.7203369140625</v>
+        <v>1146.5869140625</v>
       </c>
       <c r="BC4" t="n">
-        <v>871.2593994140625</v>
+        <v>1185.315673828125</v>
       </c>
       <c r="BD4" t="n">
-        <v>885.3956298828125</v>
+        <v>1238.072021484375</v>
       </c>
       <c r="BE4" t="n">
-        <v>914.579345703125</v>
+        <v>1254.458251953125</v>
       </c>
       <c r="BF4" t="n">
-        <v>893.0721435546875</v>
+        <v>1278.837768554688</v>
       </c>
       <c r="BG4" t="n">
-        <v>896.433837890625</v>
+        <v>1302.893920898438</v>
       </c>
       <c r="BH4" t="n">
-        <v>898.571533203125</v>
+        <v>1309.983154296875</v>
       </c>
       <c r="BI4" t="n">
-        <v>899.6296997070312</v>
+        <v>1305.712646484375</v>
       </c>
       <c r="BJ4" t="n">
-        <v>918.4085083007812</v>
+        <v>1307.867919921875</v>
       </c>
       <c r="BK4" t="n">
-        <v>910.9730224609375</v>
+        <v>1314.517944335938</v>
       </c>
       <c r="BL4" t="n">
-        <v>907.7908325195312</v>
+        <v>1328.076416015625</v>
       </c>
       <c r="BM4" t="n">
-        <v>888.8693237304688</v>
+        <v>1331.31298828125</v>
       </c>
       <c r="BN4" t="n">
-        <v>893.562744140625</v>
+        <v>1320.5986328125</v>
       </c>
       <c r="BO4" t="n">
-        <v>895.9053344726562</v>
+        <v>1306.889526367188</v>
       </c>
       <c r="BP4" t="n">
-        <v>894.139404296875</v>
+        <v>1299.489868164062</v>
       </c>
       <c r="BQ4" t="n">
-        <v>896.1617431640625</v>
+        <v>1294.869873046875</v>
       </c>
       <c r="BR4" t="n">
-        <v>900.7830200195312</v>
+        <v>1305.30517578125</v>
       </c>
       <c r="BS4" t="n">
-        <v>903.5859985351562</v>
+        <v>1310.2001953125</v>
       </c>
       <c r="BT4" t="n">
-        <v>905.5874633789062</v>
+        <v>1322.364868164062</v>
       </c>
       <c r="BU4" t="n">
-        <v>910.6383666992188</v>
+        <v>1352.57373046875</v>
       </c>
       <c r="BV4" t="n">
-        <v>912.7416381835938</v>
+        <v>1380.028686523438</v>
       </c>
       <c r="BW4" t="n">
-        <v>915.0431518554688</v>
+        <v>1413.77294921875</v>
       </c>
       <c r="BX4" t="n">
-        <v>919.8358154296875</v>
+        <v>1442.5615234375</v>
       </c>
       <c r="BY4" t="n">
-        <v>923.3516845703125</v>
+        <v>1469.338134765625</v>
       </c>
       <c r="BZ4" t="n">
-        <v>927.6387939453125</v>
+        <v>1514.494262695312</v>
       </c>
       <c r="CA4" t="n">
-        <v>929.6939697265625</v>
+        <v>1560.301391601562</v>
       </c>
       <c r="CB4" t="n">
-        <v>921.4734497070312</v>
+        <v>1606.465698242188</v>
       </c>
       <c r="CC4" t="n">
-        <v>921.8326416015625</v>
+        <v>1650.363037109375</v>
       </c>
       <c r="CD4" t="n">
-        <v>918.7979736328125</v>
+        <v>1703.201904296875</v>
       </c>
       <c r="CE4" t="n">
-        <v>929.7291259765625</v>
+        <v>1746.529296875</v>
       </c>
       <c r="CF4" t="n">
-        <v>936.1826171875</v>
+        <v>1792.744506835938</v>
       </c>
       <c r="CG4" t="n">
-        <v>948.1867065429688</v>
+        <v>1816.709716796875</v>
       </c>
       <c r="CH4" t="n">
-        <v>941.5538940429688</v>
+        <v>1837.0634765625</v>
       </c>
       <c r="CI4" t="n">
-        <v>927.3087768554688</v>
+        <v>1850.503173828125</v>
       </c>
       <c r="CJ4" t="n">
-        <v>918.6575927734375</v>
+        <v>1871.9365234375</v>
       </c>
       <c r="CK4" t="n">
-        <v>920.6158447265625</v>
+        <v>1876.646606445312</v>
       </c>
       <c r="CL4" t="n">
-        <v>931.6576538085938</v>
+        <v>1888.922973632812</v>
       </c>
       <c r="CM4" t="n">
-        <v>972.2986450195312</v>
+        <v>1892.669799804688</v>
       </c>
       <c r="CN4" t="n">
-        <v>1021.373291015625</v>
+        <v>1882.752563476562</v>
       </c>
       <c r="CO4" t="n">
-        <v>1042.66552734375</v>
+        <v>1866.697998046875</v>
       </c>
       <c r="CP4" t="n">
-        <v>1006.116577148438</v>
+        <v>1847.860473632812</v>
       </c>
       <c r="CQ4" t="n">
-        <v>964.8253784179688</v>
+        <v>1818.689086914062</v>
       </c>
       <c r="CR4" t="n">
-        <v>975.87744140625</v>
+        <v>1810.696533203125</v>
       </c>
       <c r="CS4" t="n">
-        <v>975.1278686523438</v>
+        <v>1784.140869140625</v>
       </c>
       <c r="CT4" t="n">
-        <v>970.0816650390625</v>
+        <v>1761.958862304688</v>
       </c>
       <c r="CU4" t="n">
-        <v>967.331298828125</v>
+        <v>1748.851196289062</v>
       </c>
       <c r="CV4" t="n">
-        <v>974.9270629882812</v>
+        <v>1737.287109375</v>
       </c>
       <c r="CW4" t="n">
-        <v>974.9432373046875</v>
+        <v>1735.74609375</v>
       </c>
       <c r="CX4" t="n">
-        <v>974.7540893554688</v>
+        <v>1721.3603515625</v>
       </c>
       <c r="CY4" t="n">
-        <v>976.44287109375</v>
+        <v>1707.202270507812</v>
       </c>
       <c r="CZ4" t="n">
-        <v>973.9593505859375</v>
+        <v>1701.162231445312</v>
       </c>
       <c r="DA4" t="n">
-        <v>972.3607177734375</v>
+        <v>1733.75830078125</v>
       </c>
       <c r="DB4" t="n">
-        <v>971.0249633789062</v>
+        <v>1750.38671875</v>
       </c>
       <c r="DC4" t="n">
-        <v>972.0166015625</v>
+        <v>1768.833984375</v>
       </c>
       <c r="DD4" t="n">
-        <v>972.6471557617188</v>
+        <v>1776.8701171875</v>
       </c>
       <c r="DE4" t="n">
-        <v>973.05712890625</v>
+        <v>1795.74072265625</v>
       </c>
       <c r="DF4" t="n">
-        <v>970.9544677734375</v>
+        <v>1807.417602539062</v>
       </c>
       <c r="DG4" t="n">
-        <v>969.04736328125</v>
+        <v>1832.893798828125</v>
       </c>
       <c r="DH4" t="n">
-        <v>968.330078125</v>
+        <v>1865.373168945312</v>
       </c>
       <c r="DI4" t="n">
-        <v>971.5909423828125</v>
+        <v>1888.023681640625</v>
       </c>
       <c r="DJ4" t="n">
-        <v>983.4203491210938</v>
+        <v>1909.273071289062</v>
       </c>
       <c r="DK4" t="n">
-        <v>994.0716552734375</v>
+        <v>1920.065063476562</v>
       </c>
       <c r="DL4" t="n">
-        <v>1002.218566894531</v>
+        <v>1928.499633789062</v>
       </c>
       <c r="DM4" t="n">
-        <v>1005.720275878906</v>
+        <v>1936.137939453125</v>
       </c>
       <c r="DN4" t="n">
-        <v>1011.762329101562</v>
+        <v>1942.619506835938</v>
       </c>
       <c r="DO4" t="n">
-        <v>1004.668212890625</v>
+        <v>1963.810668945312</v>
       </c>
       <c r="DP4" t="n">
-        <v>973.7913818359375</v>
+        <v>1960.822143554688</v>
       </c>
       <c r="DQ4" t="n">
-        <v>961.081787109375</v>
+        <v>1974.34716796875</v>
       </c>
       <c r="DR4" t="n">
-        <v>955.2913208007812</v>
+        <v>1989.697387695312</v>
       </c>
       <c r="DS4" t="n">
-        <v>938.8287963867188</v>
+        <v>1989.267578125</v>
       </c>
       <c r="DT4" t="n">
-        <v>925.24755859375</v>
+        <v>1990.944580078125</v>
       </c>
       <c r="DU4" t="n">
-        <v>921.2936401367188</v>
+        <v>1990.179565429688</v>
       </c>
       <c r="DV4" t="n">
-        <v>919.6631469726562</v>
+        <v>1989.24560546875</v>
       </c>
       <c r="DW4" t="n">
-        <v>939.1729736328125</v>
+        <v>1984.877075195312</v>
       </c>
       <c r="DX4" t="n">
-        <v>954.321533203125</v>
+        <v>1982.80224609375</v>
       </c>
       <c r="DY4" t="n">
-        <v>981.3482055664062</v>
+        <v>1963.19873046875</v>
       </c>
       <c r="DZ4" t="n">
-        <v>990.8217163085938</v>
+        <v>1938.089111328125</v>
       </c>
       <c r="EA4" t="n">
-        <v>991.1614379882812</v>
+        <v>1926.366088867188</v>
       </c>
       <c r="EB4" t="n">
-        <v>994.8272094726562</v>
+        <v>1907.076416015625</v>
       </c>
       <c r="EC4" t="n">
-        <v>998.1856689453125</v>
+        <v>1906.811889648438</v>
       </c>
       <c r="ED4" t="n">
-        <v>1002.494750976562</v>
+        <v>1906.16162109375</v>
       </c>
       <c r="EE4" t="n">
-        <v>1005.500915527344</v>
+        <v>1870.118774414062</v>
       </c>
       <c r="EF4" t="n">
-        <v>1006.8056640625</v>
+        <v>1851.4326171875</v>
       </c>
       <c r="EG4" t="n">
-        <v>1014.852844238281</v>
+        <v>1857.65576171875</v>
       </c>
       <c r="EH4" t="n">
-        <v>1028.8779296875</v>
+        <v>1852.694580078125</v>
       </c>
       <c r="EI4" t="n">
-        <v>1029.66015625</v>
+        <v>1857.386840820312</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1003.456604003906</v>
+        <v>1940.053833007812</v>
       </c>
       <c r="EK4" t="n">
-        <v>992.9124145507812</v>
+        <v>1849.90185546875</v>
       </c>
       <c r="EL4" t="n">
-        <v>981.6280517578125</v>
+        <v>1857.461791992188</v>
       </c>
       <c r="EM4" t="n">
-        <v>987.9847412109375</v>
+        <v>1869.83154296875</v>
       </c>
       <c r="EN4" t="n">
-        <v>992.4857177734375</v>
+        <v>1899.58740234375</v>
       </c>
       <c r="EO4" t="n">
-        <v>995.1817016601562</v>
+        <v>1904.714721679688</v>
       </c>
       <c r="EP4" t="n">
-        <v>999.0560913085938</v>
+        <v>1912.024658203125</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1004.535461425781</v>
+        <v>1915.533569335938</v>
       </c>
       <c r="ER4" t="n">
-        <v>1004.102905273438</v>
+        <v>1917.807983398438</v>
       </c>
       <c r="ES4" t="n">
-        <v>1004.944213867188</v>
+        <v>1916.067504882812</v>
       </c>
       <c r="ET4" t="n">
-        <v>995.834716796875</v>
+        <v>1909.055419921875</v>
       </c>
       <c r="EU4" t="n">
-        <v>1005.888244628906</v>
+        <v>1902.40576171875</v>
       </c>
       <c r="EV4" t="n">
-        <v>1009.644470214844</v>
+        <v>1900.183471679688</v>
       </c>
       <c r="EW4" t="n">
-        <v>1047.037353515625</v>
+        <v>1896.000854492188</v>
       </c>
       <c r="EX4" t="n">
-        <v>1075.59228515625</v>
+        <v>1895.372192382812</v>
       </c>
       <c r="EY4" t="n">
-        <v>1089.512939453125</v>
+        <v>1892.011474609375</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1140.7626953125</v>
+        <v>1892.603759765625</v>
       </c>
       <c r="FA4" t="n">
-        <v>1147.332275390625</v>
+        <v>1889.714599609375</v>
       </c>
       <c r="FB4" t="n">
-        <v>1133.388671875</v>
+        <v>1889.017944335938</v>
       </c>
       <c r="FC4" t="n">
-        <v>1083.148803710938</v>
+        <v>1888.90966796875</v>
       </c>
       <c r="FD4" t="n">
-        <v>1082.606567382812</v>
+        <v>1892.218994140625</v>
       </c>
       <c r="FE4" t="n">
-        <v>1074.444091796875</v>
+        <v>1894.473388671875</v>
       </c>
       <c r="FF4" t="n">
-        <v>1065.151000976562</v>
+        <v>1894.50732421875</v>
       </c>
       <c r="FG4" t="n">
-        <v>1053.189453125</v>
+        <v>1896.47509765625</v>
       </c>
       <c r="FH4" t="n">
-        <v>1033.0966796875</v>
+        <v>1904.06103515625</v>
       </c>
       <c r="FI4" t="n">
-        <v>1020.53125</v>
+        <v>1907.995849609375</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1010.009338378906</v>
+        <v>1909.743286132812</v>
       </c>
       <c r="FK4" t="n">
-        <v>962.2808837890625</v>
+        <v>1912.40380859375</v>
       </c>
       <c r="FL4" t="n">
-        <v>957.2044677734375</v>
+        <v>1914.224975585938</v>
       </c>
       <c r="FM4" t="n">
-        <v>978.6510009765625</v>
+        <v>1912.0908203125</v>
       </c>
       <c r="FN4" t="n">
-        <v>974.3148803710938</v>
+        <v>1913.669677734375</v>
       </c>
       <c r="FO4" t="n">
-        <v>971.0160522460938</v>
+        <v>1916.102416992188</v>
       </c>
       <c r="FP4" t="n">
-        <v>969.744873046875</v>
+        <v>1911.823974609375</v>
       </c>
       <c r="FQ4" t="n">
-        <v>964.2654418945312</v>
+        <v>1911.208618164062</v>
       </c>
       <c r="FR4" t="n">
-        <v>956.7635498046875</v>
+        <v>1910.120483398438</v>
       </c>
       <c r="FS4" t="n">
-        <v>948.9917602539062</v>
+        <v>1910.400146484375</v>
       </c>
       <c r="FT4" t="n">
-        <v>938.7427368164062</v>
+        <v>1911.010498046875</v>
       </c>
       <c r="FU4" t="n">
-        <v>927.2145385742188</v>
+        <v>1909.726440429688</v>
       </c>
       <c r="FV4" t="n">
-        <v>919.2619018554688</v>
+        <v>1904.65087890625</v>
       </c>
       <c r="FW4" t="n">
-        <v>757.4801635742188</v>
+        <v>1888.0224609375</v>
       </c>
       <c r="FX4" t="n">
-        <v>507.8056640625</v>
+        <v>1885.904663085938</v>
       </c>
       <c r="FY4" t="n">
-        <v>498.1797485351562</v>
+        <v>1882.595581054688</v>
       </c>
       <c r="FZ4" t="n">
-        <v>474.3968811035156</v>
+        <v>1881.474243164062</v>
       </c>
       <c r="GA4" t="n">
-        <v>418.1691589355469</v>
+        <v>1882.952270507812</v>
       </c>
       <c r="GB4" t="n">
-        <v>388.0819702148438</v>
+        <v>1885.51171875</v>
       </c>
       <c r="GC4" t="n">
-        <v>329.4364929199219</v>
+        <v>1887.498291015625</v>
       </c>
       <c r="GD4" t="n">
-        <v>309.0644836425781</v>
+        <v>1880.699951171875</v>
       </c>
       <c r="GE4" t="n">
-        <v>298.8850402832031</v>
+        <v>1875.692138671875</v>
       </c>
       <c r="GF4" t="n">
-        <v>294.7163391113281</v>
+        <v>1851.6416015625</v>
       </c>
       <c r="GG4" t="n">
-        <v>287.4088134765625</v>
+        <v>1833.499267578125</v>
       </c>
       <c r="GH4" t="n">
-        <v>285.92724609375</v>
+        <v>1814.552978515625</v>
       </c>
       <c r="GI4" t="n">
-        <v>291.192138671875</v>
+        <v>1830.19970703125</v>
       </c>
       <c r="GJ4" t="n">
-        <v>293.5873107910156</v>
+        <v>1841.386108398438</v>
       </c>
       <c r="GK4" t="n">
-        <v>296.8667297363281</v>
+        <v>1856.2890625</v>
       </c>
       <c r="GL4" t="n">
-        <v>297.3319396972656</v>
+        <v>1857.838012695312</v>
       </c>
       <c r="GM4" t="n">
-        <v>303.3265991210938</v>
+        <v>1862.765625</v>
       </c>
       <c r="GN4" t="n">
-        <v>295.4143371582031</v>
+        <v>1861.1943359375</v>
       </c>
       <c r="GO4" t="n">
-        <v>286.6402893066406</v>
+        <v>1859.625122070312</v>
+      </c>
+      <c r="GP4" t="n">
+        <v>1867.751220703125</v>
+      </c>
+      <c r="GQ4" t="n">
+        <v>1865.462280273438</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>1845.359008789062</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>1840.120483398438</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>1854.862182617188</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>1858.209350585938</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>1888.802001953125</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>1906.354736328125</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>1908.017211914062</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>1907.961791992188</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>1908.436157226562</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>1907.315673828125</v>
+      </c>
+      <c r="HB4" t="n">
+        <v>1901.437133789062</v>
+      </c>
+      <c r="HC4" t="n">
+        <v>1876.66845703125</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>1856.21875</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>1790.40625</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>1765.84228515625</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>1703.826293945312</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>1662.82373046875</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>1594.938354492188</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>1556.233154296875</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>1491.440551757812</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>1423.626831054688</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>1364.854736328125</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>1342.542236328125</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>1296.211059570312</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>1256.40087890625</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>1232.493774414062</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>1218.688842773438</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>1217.320434570312</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>1235.786376953125</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>1235.431030273438</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>1230.799438476562</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>1209.484741210938</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>1169.71826171875</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>1114.888305664062</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>1058.625</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>1010.760925292969</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>920.634033203125</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>891.9061889648438</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>836.6341552734375</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>768.1004028320312</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>694.022705078125</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>615.5421752929688</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>512.5042114257812</v>
+      </c>
+      <c r="II4" t="n">
+        <v>426.1628112792969</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>357.2375183105469</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>298.4743041992188</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>210.9528198242188</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>179.1644744873047</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>183.5200500488281</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>542.4772338867188</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>582.4598388671875</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>559.014892578125</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>529.377197265625</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>519.7489624023438</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>535.3983764648438</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>579.8794555664062</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>1032.7783203125</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>228.8690490722656</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>231.7512054443359</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>241.1961212158203</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>250.0852966308594</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>263.7377014160156</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>260.9841613769531</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>269.4733581542969</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>286.2929382324219</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>290.9207153320312</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>281.2372741699219</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>285.4869384765625</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>292.2025146484375</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>287.1506652832031</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>286.4959106445312</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>278.0521240234375</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>264.9006042480469</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>262.2976684570312</v>
       </c>
     </row>
   </sheetData>

--- a/left_hand_Data.xlsx
+++ b/left_hand_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JM4"/>
+  <dimension ref="A1:GQ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,2690 +1031,1802 @@
       <c r="GQ1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="GR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="II1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>309.8790893554688</v>
+        <v>574.781982421875</v>
       </c>
       <c r="B2" t="n">
-        <v>307.0631713867188</v>
+        <v>580.483642578125</v>
       </c>
       <c r="C2" t="n">
-        <v>307.0874938964844</v>
+        <v>584.718505859375</v>
       </c>
       <c r="D2" t="n">
-        <v>307.1658325195312</v>
+        <v>586.2371215820312</v>
       </c>
       <c r="E2" t="n">
-        <v>307.2952270507812</v>
+        <v>583.5765991210938</v>
       </c>
       <c r="F2" t="n">
-        <v>308.7772216796875</v>
+        <v>582.447509765625</v>
       </c>
       <c r="G2" t="n">
-        <v>308.72021484375</v>
+        <v>579.7711791992188</v>
       </c>
       <c r="H2" t="n">
-        <v>308.663330078125</v>
+        <v>579.0585327148438</v>
       </c>
       <c r="I2" t="n">
-        <v>308.5196838378906</v>
+        <v>578.425537109375</v>
       </c>
       <c r="J2" t="n">
-        <v>308.4085998535156</v>
+        <v>577.1747436523438</v>
       </c>
       <c r="K2" t="n">
-        <v>308.32177734375</v>
+        <v>578.4660034179688</v>
       </c>
       <c r="L2" t="n">
-        <v>308.2479553222656</v>
+        <v>583.6254272460938</v>
       </c>
       <c r="M2" t="n">
-        <v>307.9763488769531</v>
+        <v>589.5647583007812</v>
       </c>
       <c r="N2" t="n">
-        <v>307.6088562011719</v>
+        <v>568.5305786132812</v>
       </c>
       <c r="O2" t="n">
-        <v>303.0348510742188</v>
+        <v>566.064208984375</v>
       </c>
       <c r="P2" t="n">
-        <v>278.9020080566406</v>
+        <v>556.8043212890625</v>
       </c>
       <c r="Q2" t="n">
-        <v>244.0838928222656</v>
+        <v>544.6290283203125</v>
       </c>
       <c r="R2" t="n">
-        <v>213.4219512939453</v>
+        <v>544.5758666992188</v>
       </c>
       <c r="S2" t="n">
-        <v>184.1667022705078</v>
+        <v>496.8917236328125</v>
       </c>
       <c r="T2" t="n">
-        <v>160.4324035644531</v>
+        <v>480.5199584960938</v>
       </c>
       <c r="U2" t="n">
-        <v>134.6767578125</v>
+        <v>478.324951171875</v>
       </c>
       <c r="V2" t="n">
-        <v>104.9459686279297</v>
+        <v>480.0225219726562</v>
       </c>
       <c r="W2" t="n">
-        <v>82.47501373291016</v>
+        <v>472.7818298339844</v>
       </c>
       <c r="X2" t="n">
-        <v>70.43184661865234</v>
+        <v>455.1954650878906</v>
       </c>
       <c r="Y2" t="n">
-        <v>59.35135650634766</v>
+        <v>445.0999450683594</v>
       </c>
       <c r="Z2" t="n">
-        <v>43.27376556396484</v>
+        <v>438.9076232910156</v>
       </c>
       <c r="AA2" t="n">
-        <v>24.76539421081543</v>
+        <v>439.5817260742188</v>
       </c>
       <c r="AB2" t="n">
-        <v>10.44694805145264</v>
+        <v>439.5009765625</v>
       </c>
       <c r="AC2" t="n">
-        <v>4.206130027770996</v>
+        <v>438.3917846679688</v>
       </c>
       <c r="AD2" t="n">
-        <v>-1.34049391746521</v>
+        <v>438.6433715820312</v>
       </c>
       <c r="AE2" t="n">
-        <v>-6.251097202301025</v>
+        <v>440.48095703125</v>
       </c>
       <c r="AF2" t="n">
-        <v>-7.373614311218262</v>
+        <v>439.7823486328125</v>
       </c>
       <c r="AG2" t="n">
-        <v>-11.77648544311523</v>
+        <v>438.9942016601562</v>
       </c>
       <c r="AH2" t="n">
-        <v>-15.15194129943848</v>
+        <v>439.3031616210938</v>
       </c>
       <c r="AI2" t="n">
-        <v>-15.99014091491699</v>
+        <v>439.6866455078125</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-13.86581325531006</v>
+        <v>440.583251953125</v>
       </c>
       <c r="AK2" t="n">
-        <v>-3.719437122344971</v>
+        <v>443.3121032714844</v>
       </c>
       <c r="AL2" t="n">
-        <v>25.16887283325195</v>
+        <v>440.904052734375</v>
       </c>
       <c r="AM2" t="n">
-        <v>55.83280944824219</v>
+        <v>436.0650024414062</v>
       </c>
       <c r="AN2" t="n">
-        <v>92.76338195800781</v>
+        <v>428.7520141601562</v>
       </c>
       <c r="AO2" t="n">
-        <v>126.3958282470703</v>
+        <v>436.1946411132812</v>
       </c>
       <c r="AP2" t="n">
-        <v>177.6756286621094</v>
+        <v>447.4042358398438</v>
       </c>
       <c r="AQ2" t="n">
-        <v>220.4997100830078</v>
+        <v>447.5418090820312</v>
       </c>
       <c r="AR2" t="n">
-        <v>250.572265625</v>
+        <v>443.0263671875</v>
       </c>
       <c r="AS2" t="n">
-        <v>277.6007385253906</v>
+        <v>458.0185546875</v>
       </c>
       <c r="AT2" t="n">
-        <v>302.1153564453125</v>
+        <v>456.7621459960938</v>
       </c>
       <c r="AU2" t="n">
-        <v>318.8748168945312</v>
+        <v>431.8870849609375</v>
       </c>
       <c r="AV2" t="n">
-        <v>341.8267211914062</v>
+        <v>411.8016967773438</v>
       </c>
       <c r="AW2" t="n">
-        <v>364.9743041992188</v>
+        <v>398.8964233398438</v>
       </c>
       <c r="AX2" t="n">
-        <v>377.6659851074219</v>
+        <v>393.6210327148438</v>
       </c>
       <c r="AY2" t="n">
-        <v>383.1054992675781</v>
+        <v>384.6228637695312</v>
       </c>
       <c r="AZ2" t="n">
-        <v>389.2267456054688</v>
+        <v>373.3108215332031</v>
       </c>
       <c r="BA2" t="n">
-        <v>396.6495361328125</v>
+        <v>377.2367553710938</v>
       </c>
       <c r="BB2" t="n">
-        <v>400.3580017089844</v>
+        <v>376.6718139648438</v>
       </c>
       <c r="BC2" t="n">
-        <v>403.7777709960938</v>
+        <v>368.84423828125</v>
       </c>
       <c r="BD2" t="n">
-        <v>406.2104797363281</v>
+        <v>364.8606872558594</v>
       </c>
       <c r="BE2" t="n">
-        <v>403.63818359375</v>
+        <v>362.0148315429688</v>
       </c>
       <c r="BF2" t="n">
-        <v>403.5118103027344</v>
+        <v>359.11083984375</v>
       </c>
       <c r="BG2" t="n">
-        <v>403.3250122070312</v>
+        <v>356.9260864257812</v>
       </c>
       <c r="BH2" t="n">
-        <v>404.4879150390625</v>
+        <v>351.7227783203125</v>
       </c>
       <c r="BI2" t="n">
-        <v>405.9957275390625</v>
+        <v>347.4129028320312</v>
       </c>
       <c r="BJ2" t="n">
-        <v>406.569580078125</v>
+        <v>344.1515502929688</v>
       </c>
       <c r="BK2" t="n">
-        <v>407.2872924804688</v>
+        <v>343.4090576171875</v>
       </c>
       <c r="BL2" t="n">
-        <v>404.9033203125</v>
+        <v>343.612060546875</v>
       </c>
       <c r="BM2" t="n">
-        <v>403.69921875</v>
+        <v>345.1520385742188</v>
       </c>
       <c r="BN2" t="n">
-        <v>404.0568237304688</v>
+        <v>359.3743286132812</v>
       </c>
       <c r="BO2" t="n">
-        <v>404.6557006835938</v>
+        <v>378.0604858398438</v>
       </c>
       <c r="BP2" t="n">
-        <v>404.7760314941406</v>
+        <v>393.6939086914062</v>
       </c>
       <c r="BQ2" t="n">
-        <v>404.9402465820312</v>
+        <v>407.5478515625</v>
       </c>
       <c r="BR2" t="n">
-        <v>404.4371032714844</v>
+        <v>418.6372680664062</v>
       </c>
       <c r="BS2" t="n">
-        <v>404.5471496582031</v>
+        <v>425.0011901855469</v>
       </c>
       <c r="BT2" t="n">
-        <v>405.4592590332031</v>
+        <v>424.5269165039062</v>
       </c>
       <c r="BU2" t="n">
-        <v>407.1422729492188</v>
+        <v>420.6304931640625</v>
       </c>
       <c r="BV2" t="n">
-        <v>409.649658203125</v>
+        <v>414.5910949707031</v>
       </c>
       <c r="BW2" t="n">
-        <v>412.9685974121094</v>
+        <v>410.3734741210938</v>
       </c>
       <c r="BX2" t="n">
-        <v>414.5201110839844</v>
+        <v>404.9046020507812</v>
       </c>
       <c r="BY2" t="n">
-        <v>418.139404296875</v>
+        <v>400.7029418945312</v>
       </c>
       <c r="BZ2" t="n">
-        <v>420.1255798339844</v>
+        <v>398.1713256835938</v>
       </c>
       <c r="CA2" t="n">
-        <v>424.0880737304688</v>
+        <v>391.98095703125</v>
       </c>
       <c r="CB2" t="n">
-        <v>424.7520751953125</v>
+        <v>381.9995422363281</v>
       </c>
       <c r="CC2" t="n">
-        <v>425.8027648925781</v>
+        <v>372.280517578125</v>
       </c>
       <c r="CD2" t="n">
-        <v>427.35302734375</v>
+        <v>363.6889343261719</v>
       </c>
       <c r="CE2" t="n">
-        <v>427.6889038085938</v>
+        <v>355.6837768554688</v>
       </c>
       <c r="CF2" t="n">
-        <v>429.8892822265625</v>
+        <v>349.54833984375</v>
       </c>
       <c r="CG2" t="n">
-        <v>432.6671752929688</v>
+        <v>345.112548828125</v>
       </c>
       <c r="CH2" t="n">
-        <v>432.8897705078125</v>
+        <v>337.1080932617188</v>
       </c>
       <c r="CI2" t="n">
-        <v>433.3351440429688</v>
+        <v>330.4598693847656</v>
       </c>
       <c r="CJ2" t="n">
-        <v>432.4004821777344</v>
+        <v>326.7604064941406</v>
       </c>
       <c r="CK2" t="n">
-        <v>431.9925537109375</v>
+        <v>321.7950744628906</v>
       </c>
       <c r="CL2" t="n">
-        <v>431.8001708984375</v>
+        <v>318.3408203125</v>
       </c>
       <c r="CM2" t="n">
-        <v>432.042724609375</v>
+        <v>317.2716979980469</v>
       </c>
       <c r="CN2" t="n">
-        <v>432.4658813476562</v>
+        <v>317.5284729003906</v>
       </c>
       <c r="CO2" t="n">
-        <v>432.61083984375</v>
+        <v>317.7467346191406</v>
       </c>
       <c r="CP2" t="n">
-        <v>433.4510498046875</v>
+        <v>318.0973815917969</v>
       </c>
       <c r="CQ2" t="n">
-        <v>434.0682373046875</v>
+        <v>318.3721618652344</v>
       </c>
       <c r="CR2" t="n">
-        <v>434.2779846191406</v>
+        <v>324.0009155273438</v>
       </c>
       <c r="CS2" t="n">
-        <v>436.9409790039062</v>
+        <v>333.2651977539062</v>
       </c>
       <c r="CT2" t="n">
-        <v>440.4691772460938</v>
+        <v>341.4047546386719</v>
       </c>
       <c r="CU2" t="n">
-        <v>443.0057373046875</v>
+        <v>344.5810546875</v>
       </c>
       <c r="CV2" t="n">
-        <v>446.3541259765625</v>
+        <v>347.4129638671875</v>
       </c>
       <c r="CW2" t="n">
-        <v>451.9878845214844</v>
+        <v>346.5802001953125</v>
       </c>
       <c r="CX2" t="n">
-        <v>456.0158081054688</v>
+        <v>346.2528686523438</v>
       </c>
       <c r="CY2" t="n">
-        <v>458.5965576171875</v>
+        <v>344.2730102539062</v>
       </c>
       <c r="CZ2" t="n">
-        <v>460.5110168457031</v>
+        <v>336.6604614257812</v>
       </c>
       <c r="DA2" t="n">
-        <v>471.43408203125</v>
+        <v>325.1356506347656</v>
       </c>
       <c r="DB2" t="n">
-        <v>476.2811889648438</v>
+        <v>313.0100402832031</v>
       </c>
       <c r="DC2" t="n">
-        <v>479.9512329101562</v>
+        <v>305.0263366699219</v>
       </c>
       <c r="DD2" t="n">
-        <v>479.85205078125</v>
+        <v>298.1998596191406</v>
       </c>
       <c r="DE2" t="n">
-        <v>481.5940551757812</v>
+        <v>296.6671752929688</v>
       </c>
       <c r="DF2" t="n">
-        <v>483.9660949707031</v>
+        <v>292.5208435058594</v>
       </c>
       <c r="DG2" t="n">
-        <v>487.7103271484375</v>
+        <v>291.4718933105469</v>
       </c>
       <c r="DH2" t="n">
-        <v>487.0659790039062</v>
+        <v>294.29345703125</v>
       </c>
       <c r="DI2" t="n">
-        <v>488.1937866210938</v>
+        <v>299.4987487792969</v>
       </c>
       <c r="DJ2" t="n">
-        <v>488.1820983886719</v>
+        <v>309.47216796875</v>
       </c>
       <c r="DK2" t="n">
-        <v>489.4801025390625</v>
+        <v>321.0776062011719</v>
       </c>
       <c r="DL2" t="n">
-        <v>491.0801696777344</v>
+        <v>347.5742797851562</v>
       </c>
       <c r="DM2" t="n">
-        <v>491.6676330566406</v>
+        <v>366.3182983398438</v>
       </c>
       <c r="DN2" t="n">
-        <v>492.3348693847656</v>
+        <v>380.5889587402344</v>
       </c>
       <c r="DO2" t="n">
-        <v>490.6347351074219</v>
+        <v>393.7322387695312</v>
       </c>
       <c r="DP2" t="n">
-        <v>489.1157531738281</v>
+        <v>416.1262817382812</v>
       </c>
       <c r="DQ2" t="n">
-        <v>488.53564453125</v>
+        <v>426.3604125976562</v>
       </c>
       <c r="DR2" t="n">
-        <v>489.1864624023438</v>
+        <v>435.8924560546875</v>
       </c>
       <c r="DS2" t="n">
-        <v>489.0172729492188</v>
+        <v>459.0718078613281</v>
       </c>
       <c r="DT2" t="n">
-        <v>488.5328979492188</v>
+        <v>467.3174438476562</v>
       </c>
       <c r="DU2" t="n">
-        <v>488.4679565429688</v>
+        <v>479.775634765625</v>
       </c>
       <c r="DV2" t="n">
-        <v>488.5333862304688</v>
+        <v>498.6041870117188</v>
       </c>
       <c r="DW2" t="n">
-        <v>488.672119140625</v>
+        <v>510.4102172851562</v>
       </c>
       <c r="DX2" t="n">
-        <v>490.0656127929688</v>
+        <v>514.2771606445312</v>
       </c>
       <c r="DY2" t="n">
-        <v>490.1748657226562</v>
+        <v>522.0450439453125</v>
       </c>
       <c r="DZ2" t="n">
-        <v>488.132568359375</v>
+        <v>527.794921875</v>
       </c>
       <c r="EA2" t="n">
-        <v>485.8988647460938</v>
+        <v>526.4762573242188</v>
       </c>
       <c r="EB2" t="n">
-        <v>483.9312133789062</v>
+        <v>530.546630859375</v>
       </c>
       <c r="EC2" t="n">
-        <v>481.188232421875</v>
+        <v>531.6887817382812</v>
       </c>
       <c r="ED2" t="n">
-        <v>477.9520874023438</v>
+        <v>529.822265625</v>
       </c>
       <c r="EE2" t="n">
-        <v>466.7879638671875</v>
+        <v>531.1875610351562</v>
       </c>
       <c r="EF2" t="n">
-        <v>458.0699157714844</v>
+        <v>529.6585693359375</v>
       </c>
       <c r="EG2" t="n">
-        <v>448.4516906738281</v>
+        <v>526.31103515625</v>
       </c>
       <c r="EH2" t="n">
-        <v>441.6231994628906</v>
+        <v>525.910888671875</v>
       </c>
       <c r="EI2" t="n">
-        <v>434.4686889648438</v>
+        <v>521.2560424804688</v>
       </c>
       <c r="EJ2" t="n">
-        <v>384.4049072265625</v>
+        <v>513.4125366210938</v>
       </c>
       <c r="EK2" t="n">
-        <v>425.9800415039062</v>
+        <v>507.6974487304688</v>
       </c>
       <c r="EL2" t="n">
-        <v>427.6159057617188</v>
+        <v>502.82177734375</v>
       </c>
       <c r="EM2" t="n">
-        <v>419.9653930664062</v>
+        <v>494.5021057128906</v>
       </c>
       <c r="EN2" t="n">
-        <v>413.16943359375</v>
+        <v>487.2866821289062</v>
       </c>
       <c r="EO2" t="n">
-        <v>409.5997314453125</v>
+        <v>477.2641296386719</v>
       </c>
       <c r="EP2" t="n">
-        <v>405.87451171875</v>
+        <v>477.7113037109375</v>
       </c>
       <c r="EQ2" t="n">
-        <v>403.5827026367188</v>
+        <v>465.810791015625</v>
       </c>
       <c r="ER2" t="n">
-        <v>400.0662231445312</v>
+        <v>463.9884033203125</v>
       </c>
       <c r="ES2" t="n">
-        <v>399.8927001953125</v>
+        <v>452.101318359375</v>
       </c>
       <c r="ET2" t="n">
-        <v>399.1696166992188</v>
+        <v>447.1023864746094</v>
       </c>
       <c r="EU2" t="n">
-        <v>399.3127136230469</v>
+        <v>440.8072204589844</v>
       </c>
       <c r="EV2" t="n">
-        <v>398.9126281738281</v>
+        <v>436.8800659179688</v>
       </c>
       <c r="EW2" t="n">
-        <v>398.7182312011719</v>
+        <v>430.5211791992188</v>
       </c>
       <c r="EX2" t="n">
-        <v>399.262939453125</v>
+        <v>427.5446166992188</v>
       </c>
       <c r="EY2" t="n">
-        <v>400.888916015625</v>
+        <v>427.5383911132812</v>
       </c>
       <c r="EZ2" t="n">
-        <v>403.1807250976562</v>
+        <v>431.7925415039062</v>
       </c>
       <c r="FA2" t="n">
-        <v>405.1831665039062</v>
+        <v>436.4315185546875</v>
       </c>
       <c r="FB2" t="n">
-        <v>404.7180786132812</v>
+        <v>446.8903198242188</v>
       </c>
       <c r="FC2" t="n">
-        <v>404.712890625</v>
+        <v>458.9603271484375</v>
       </c>
       <c r="FD2" t="n">
-        <v>404.486572265625</v>
+        <v>469.3184814453125</v>
       </c>
       <c r="FE2" t="n">
-        <v>404.4769897460938</v>
+        <v>476.9134826660156</v>
       </c>
       <c r="FF2" t="n">
-        <v>404.4429931640625</v>
+        <v>480.8740539550781</v>
       </c>
       <c r="FG2" t="n">
-        <v>404.2821655273438</v>
+        <v>482.46875</v>
       </c>
       <c r="FH2" t="n">
-        <v>403.7317504882812</v>
+        <v>487.0670776367188</v>
       </c>
       <c r="FI2" t="n">
-        <v>403.3893432617188</v>
+        <v>494.3842163085938</v>
       </c>
       <c r="FJ2" t="n">
-        <v>403.4619750976562</v>
+        <v>545.4617309570312</v>
       </c>
       <c r="FK2" t="n">
-        <v>403.5465698242188</v>
+        <v>564.0385131835938</v>
       </c>
       <c r="FL2" t="n">
-        <v>403.7548522949219</v>
+        <v>555.6595458984375</v>
       </c>
       <c r="FM2" t="n">
-        <v>404.5086059570312</v>
+        <v>551.3781127929688</v>
       </c>
       <c r="FN2" t="n">
-        <v>404.4004821777344</v>
+        <v>544.9473876953125</v>
       </c>
       <c r="FO2" t="n">
-        <v>404.3648681640625</v>
+        <v>549.7894897460938</v>
       </c>
       <c r="FP2" t="n">
-        <v>404.681640625</v>
+        <v>490.9180297851562</v>
       </c>
       <c r="FQ2" t="n">
-        <v>404.6918029785156</v>
+        <v>478.1245727539062</v>
       </c>
       <c r="FR2" t="n">
-        <v>404.8026123046875</v>
+        <v>420.1087036132812</v>
       </c>
       <c r="FS2" t="n">
-        <v>404.8271179199219</v>
+        <v>453.9733276367188</v>
       </c>
       <c r="FT2" t="n">
-        <v>404.7860717773438</v>
+        <v>485.9684753417969</v>
       </c>
       <c r="FU2" t="n">
-        <v>404.8272705078125</v>
+        <v>488.8824462890625</v>
       </c>
       <c r="FV2" t="n">
-        <v>405.0387573242188</v>
+        <v>516.2615966796875</v>
       </c>
       <c r="FW2" t="n">
-        <v>404.6419982910156</v>
+        <v>516.9625244140625</v>
       </c>
       <c r="FX2" t="n">
-        <v>400.9949340820312</v>
+        <v>519.3240356445312</v>
       </c>
       <c r="FY2" t="n">
-        <v>398.5705261230469</v>
+        <v>531.845458984375</v>
       </c>
       <c r="FZ2" t="n">
-        <v>397.7119750976562</v>
+        <v>562.1007690429688</v>
       </c>
       <c r="GA2" t="n">
-        <v>398.083251953125</v>
+        <v>548.2760009765625</v>
       </c>
       <c r="GB2" t="n">
-        <v>398.1160278320312</v>
+        <v>478.8249206542969</v>
       </c>
       <c r="GC2" t="n">
-        <v>398.7629699707031</v>
+        <v>475.70458984375</v>
       </c>
       <c r="GD2" t="n">
-        <v>404.9302368164062</v>
+        <v>449.560546875</v>
       </c>
       <c r="GE2" t="n">
-        <v>408.97119140625</v>
+        <v>439.8080749511719</v>
       </c>
       <c r="GF2" t="n">
-        <v>429.1564331054688</v>
+        <v>422.036865234375</v>
       </c>
       <c r="GG2" t="n">
-        <v>437.4695434570312</v>
+        <v>375.6935424804688</v>
       </c>
       <c r="GH2" t="n">
-        <v>466.0968322753906</v>
+        <v>354.7802734375</v>
       </c>
       <c r="GI2" t="n">
-        <v>479.9389953613281</v>
+        <v>317.4342041015625</v>
       </c>
       <c r="GJ2" t="n">
-        <v>484.6036376953125</v>
+        <v>248.0382537841797</v>
       </c>
       <c r="GK2" t="n">
-        <v>490.1036071777344</v>
+        <v>267.9378051757812</v>
       </c>
       <c r="GL2" t="n">
-        <v>492.4486694335938</v>
+        <v>241.1903991699219</v>
       </c>
       <c r="GM2" t="n">
-        <v>491.9647216796875</v>
+        <v>221.8989868164062</v>
       </c>
       <c r="GN2" t="n">
-        <v>491.7248229980469</v>
+        <v>182.4727020263672</v>
       </c>
       <c r="GO2" t="n">
-        <v>490.7591247558594</v>
+        <v>188.8695678710938</v>
       </c>
       <c r="GP2" t="n">
-        <v>482.8394775390625</v>
+        <v>193.2132720947266</v>
       </c>
       <c r="GQ2" t="n">
-        <v>473.5184020996094</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>461.5764770507812</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>455.490478515625</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>438.225341796875</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>428.987548828125</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>410.7073669433594</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>404.07861328125</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>401.2145690917969</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>395.68994140625</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>391.4435119628906</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>391.757568359375</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>390.84814453125</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>390.7250366210938</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>391.1972045898438</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>389.5126953125</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>388.2080383300781</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>384.682373046875</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>385.0241394042969</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>384.5598754882812</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>382.6179809570312</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>373.5137939453125</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>371.26806640625</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>370.7561950683594</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>370.19189453125</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>371.9322204589844</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>373.9227905273438</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>375.5006713867188</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>377.8947143554688</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>380.945068359375</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>382.9105834960938</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>383.7114868164062</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>384.4343566894531</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>385.178955078125</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>385.27734375</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>376.53173828125</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>372.6372985839844</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>369.7566528320312</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>368.9824829101562</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>371.0394287109375</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>374.7924499511719</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>378.4758911132812</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>381.3496398925781</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>381.5161437988281</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>369.6153259277344</v>
-      </c>
-      <c r="II2" t="n">
-        <v>339.7222900390625</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>290.2847900390625</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>165.2216796875</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>-0.4443619251251221</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>-141.9397735595703</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>-210.9661560058594</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>389.3074951171875</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>348.4989929199219</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>308.9288635253906</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>307.0198364257812</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>328.2128295898438</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>316.6185607910156</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>316.6093444824219</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>350.1715393066406</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>15.95627212524414</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>92.84534454345703</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>119.4493408203125</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>112.9235992431641</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>103.1500701904297</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>33.11010360717773</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>50.26777267456055</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>92.56898498535156</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>105.1849975585938</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>95.64014434814453</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>118.1062316894531</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>129.1509552001953</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>111.957633972168</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>94.829345703125</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>72.23635864257812</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>63.77672576904297</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>60.56168365478516</v>
+        <v>215.8097229003906</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>466.0084228515625</v>
+        <v>403.962646484375</v>
       </c>
       <c r="B3" t="n">
-        <v>507.5095825195312</v>
+        <v>410.7280883789062</v>
       </c>
       <c r="C3" t="n">
-        <v>508.1471557617188</v>
+        <v>411.8955383300781</v>
       </c>
       <c r="D3" t="n">
-        <v>508.8028869628906</v>
+        <v>413.7968139648438</v>
       </c>
       <c r="E3" t="n">
-        <v>509.503662109375</v>
+        <v>418.4120788574219</v>
       </c>
       <c r="F3" t="n">
-        <v>471.160888671875</v>
+        <v>420.2751159667969</v>
       </c>
       <c r="G3" t="n">
-        <v>471.5031127929688</v>
+        <v>420.2715148925781</v>
       </c>
       <c r="H3" t="n">
-        <v>471.7057189941406</v>
+        <v>420.8517761230469</v>
       </c>
       <c r="I3" t="n">
-        <v>471.759033203125</v>
+        <v>419.3013916015625</v>
       </c>
       <c r="J3" t="n">
-        <v>471.6830749511719</v>
+        <v>415.4481811523438</v>
       </c>
       <c r="K3" t="n">
-        <v>471.5674133300781</v>
+        <v>412.25927734375</v>
       </c>
       <c r="L3" t="n">
-        <v>471.1697082519531</v>
+        <v>404.4180297851562</v>
       </c>
       <c r="M3" t="n">
-        <v>470.5722961425781</v>
+        <v>392.2419128417969</v>
       </c>
       <c r="N3" t="n">
-        <v>470.0869140625</v>
+        <v>390.2633056640625</v>
       </c>
       <c r="O3" t="n">
-        <v>468.5662841796875</v>
+        <v>372.8467712402344</v>
       </c>
       <c r="P3" t="n">
-        <v>460.9033203125</v>
+        <v>362.9188232421875</v>
       </c>
       <c r="Q3" t="n">
-        <v>442.3927001953125</v>
+        <v>361.0133972167969</v>
       </c>
       <c r="R3" t="n">
-        <v>419.1959228515625</v>
+        <v>350.3142395019531</v>
       </c>
       <c r="S3" t="n">
-        <v>401.8944702148438</v>
+        <v>361.99853515625</v>
       </c>
       <c r="T3" t="n">
-        <v>388.7218933105469</v>
+        <v>354.6549377441406</v>
       </c>
       <c r="U3" t="n">
-        <v>380.4360656738281</v>
+        <v>347.3163146972656</v>
       </c>
       <c r="V3" t="n">
-        <v>379.3903198242188</v>
+        <v>342.5775756835938</v>
       </c>
       <c r="W3" t="n">
-        <v>373.8757019042969</v>
+        <v>339.8851928710938</v>
       </c>
       <c r="X3" t="n">
-        <v>369.3731689453125</v>
+        <v>336.8060607910156</v>
       </c>
       <c r="Y3" t="n">
-        <v>365.4555053710938</v>
+        <v>332.1632995605469</v>
       </c>
       <c r="Z3" t="n">
-        <v>352.5155029296875</v>
+        <v>321.883056640625</v>
       </c>
       <c r="AA3" t="n">
-        <v>355.68798828125</v>
+        <v>311.4345397949219</v>
       </c>
       <c r="AB3" t="n">
-        <v>360.4588623046875</v>
+        <v>295.391845703125</v>
       </c>
       <c r="AC3" t="n">
-        <v>366.5129089355469</v>
+        <v>287.9397583007812</v>
       </c>
       <c r="AD3" t="n">
-        <v>376.3598022460938</v>
+        <v>286.5063781738281</v>
       </c>
       <c r="AE3" t="n">
-        <v>385.9000854492188</v>
+        <v>284.2224426269531</v>
       </c>
       <c r="AF3" t="n">
-        <v>390.9358825683594</v>
+        <v>281.203369140625</v>
       </c>
       <c r="AG3" t="n">
-        <v>389.488037109375</v>
+        <v>279.8880920410156</v>
       </c>
       <c r="AH3" t="n">
-        <v>388.3148803710938</v>
+        <v>279.9845275878906</v>
       </c>
       <c r="AI3" t="n">
-        <v>386.9037780761719</v>
+        <v>281.4547424316406</v>
       </c>
       <c r="AJ3" t="n">
-        <v>383.9597778320312</v>
+        <v>281.3050842285156</v>
       </c>
       <c r="AK3" t="n">
-        <v>376.7300109863281</v>
+        <v>282.1339721679688</v>
       </c>
       <c r="AL3" t="n">
-        <v>361.2365417480469</v>
+        <v>282.6398620605469</v>
       </c>
       <c r="AM3" t="n">
-        <v>360.6244201660156</v>
+        <v>284.5907897949219</v>
       </c>
       <c r="AN3" t="n">
-        <v>370.701904296875</v>
+        <v>287.5981140136719</v>
       </c>
       <c r="AO3" t="n">
-        <v>376.8691101074219</v>
+        <v>298.4529418945312</v>
       </c>
       <c r="AP3" t="n">
-        <v>396.1964111328125</v>
+        <v>307.9931945800781</v>
       </c>
       <c r="AQ3" t="n">
-        <v>411.0999450683594</v>
+        <v>321.7594909667969</v>
       </c>
       <c r="AR3" t="n">
-        <v>418.4252624511719</v>
+        <v>329.4113464355469</v>
       </c>
       <c r="AS3" t="n">
-        <v>423.6278076171875</v>
+        <v>336.8125915527344</v>
       </c>
       <c r="AT3" t="n">
-        <v>430.5551147460938</v>
+        <v>338.56689453125</v>
       </c>
       <c r="AU3" t="n">
-        <v>434.4061889648438</v>
+        <v>336.8362731933594</v>
       </c>
       <c r="AV3" t="n">
-        <v>437.9407348632812</v>
+        <v>334.2770690917969</v>
       </c>
       <c r="AW3" t="n">
-        <v>434.3939819335938</v>
+        <v>337.227783203125</v>
       </c>
       <c r="AX3" t="n">
-        <v>426.9158630371094</v>
+        <v>337.6553344726562</v>
       </c>
       <c r="AY3" t="n">
-        <v>423.9332275390625</v>
+        <v>339.2879028320312</v>
       </c>
       <c r="AZ3" t="n">
-        <v>419.8694763183594</v>
+        <v>338.41259765625</v>
       </c>
       <c r="BA3" t="n">
-        <v>416.2186584472656</v>
+        <v>338.3156127929688</v>
       </c>
       <c r="BB3" t="n">
-        <v>412.3680725097656</v>
+        <v>341.7115783691406</v>
       </c>
       <c r="BC3" t="n">
-        <v>406.2755126953125</v>
+        <v>345.9425048828125</v>
       </c>
       <c r="BD3" t="n">
-        <v>401.3072204589844</v>
+        <v>347.7010192871094</v>
       </c>
       <c r="BE3" t="n">
-        <v>400.2815551757812</v>
+        <v>347.2757568359375</v>
       </c>
       <c r="BF3" t="n">
-        <v>396.2633056640625</v>
+        <v>345.6694946289062</v>
       </c>
       <c r="BG3" t="n">
-        <v>392.2331237792969</v>
+        <v>344.6220092773438</v>
       </c>
       <c r="BH3" t="n">
-        <v>391.2217712402344</v>
+        <v>344.7676696777344</v>
       </c>
       <c r="BI3" t="n">
-        <v>385.7218017578125</v>
+        <v>342.6545104980469</v>
       </c>
       <c r="BJ3" t="n">
-        <v>382.6267700195312</v>
+        <v>342.5352783203125</v>
       </c>
       <c r="BK3" t="n">
-        <v>383.1522521972656</v>
+        <v>342.555908203125</v>
       </c>
       <c r="BL3" t="n">
-        <v>383.7259521484375</v>
+        <v>340.1735534667969</v>
       </c>
       <c r="BM3" t="n">
-        <v>383.8547973632812</v>
+        <v>337.2417297363281</v>
       </c>
       <c r="BN3" t="n">
-        <v>382.0865173339844</v>
+        <v>328.6299743652344</v>
       </c>
       <c r="BO3" t="n">
-        <v>381.9271240234375</v>
+        <v>312.9913635253906</v>
       </c>
       <c r="BP3" t="n">
-        <v>380.634033203125</v>
+        <v>301.2122192382812</v>
       </c>
       <c r="BQ3" t="n">
-        <v>374.2680358886719</v>
+        <v>284.4753723144531</v>
       </c>
       <c r="BR3" t="n">
-        <v>375.8403015136719</v>
+        <v>266.6690368652344</v>
       </c>
       <c r="BS3" t="n">
-        <v>370.0982055664062</v>
+        <v>242.2042236328125</v>
       </c>
       <c r="BT3" t="n">
-        <v>366.5493469238281</v>
+        <v>218.8135681152344</v>
       </c>
       <c r="BU3" t="n">
-        <v>366.8975830078125</v>
+        <v>197.5762481689453</v>
       </c>
       <c r="BV3" t="n">
-        <v>366.1161499023438</v>
+        <v>182.8159637451172</v>
       </c>
       <c r="BW3" t="n">
-        <v>361.7263793945312</v>
+        <v>174.7222442626953</v>
       </c>
       <c r="BX3" t="n">
-        <v>360.0052490234375</v>
+        <v>175.5570373535156</v>
       </c>
       <c r="BY3" t="n">
-        <v>363.2819519042969</v>
+        <v>178.9174652099609</v>
       </c>
       <c r="BZ3" t="n">
-        <v>369.6752319335938</v>
+        <v>190.0076446533203</v>
       </c>
       <c r="CA3" t="n">
-        <v>371.2060546875</v>
+        <v>208.2822265625</v>
       </c>
       <c r="CB3" t="n">
-        <v>371.6228637695312</v>
+        <v>231.7158966064453</v>
       </c>
       <c r="CC3" t="n">
-        <v>370.5017700195312</v>
+        <v>245.9064331054688</v>
       </c>
       <c r="CD3" t="n">
-        <v>369.4409484863281</v>
+        <v>264.3319702148438</v>
       </c>
       <c r="CE3" t="n">
-        <v>369.1604309082031</v>
+        <v>281.6471252441406</v>
       </c>
       <c r="CF3" t="n">
-        <v>366.8470458984375</v>
+        <v>296.6288757324219</v>
       </c>
       <c r="CG3" t="n">
-        <v>366.397705078125</v>
+        <v>313.0719299316406</v>
       </c>
       <c r="CH3" t="n">
-        <v>365.2600708007812</v>
+        <v>325.9681396484375</v>
       </c>
       <c r="CI3" t="n">
-        <v>364.0486145019531</v>
+        <v>335.9575500488281</v>
       </c>
       <c r="CJ3" t="n">
-        <v>364.2694702148438</v>
+        <v>341.9660034179688</v>
       </c>
       <c r="CK3" t="n">
-        <v>363.1711730957031</v>
+        <v>345.7872314453125</v>
       </c>
       <c r="CL3" t="n">
-        <v>364.6766662597656</v>
+        <v>348.0333251953125</v>
       </c>
       <c r="CM3" t="n">
-        <v>365.900146484375</v>
+        <v>349.1410522460938</v>
       </c>
       <c r="CN3" t="n">
-        <v>366.9932556152344</v>
+        <v>349.744140625</v>
       </c>
       <c r="CO3" t="n">
-        <v>365.8675537109375</v>
+        <v>350.2075500488281</v>
       </c>
       <c r="CP3" t="n">
-        <v>366.2380981445312</v>
+        <v>352.21435546875</v>
       </c>
       <c r="CQ3" t="n">
-        <v>363.7720642089844</v>
+        <v>351.6575317382812</v>
       </c>
       <c r="CR3" t="n">
-        <v>362.6414794921875</v>
+        <v>348.5039978027344</v>
       </c>
       <c r="CS3" t="n">
-        <v>358.8788757324219</v>
+        <v>344.4637145996094</v>
       </c>
       <c r="CT3" t="n">
-        <v>353.2844848632812</v>
+        <v>330.6492614746094</v>
       </c>
       <c r="CU3" t="n">
-        <v>348.3194580078125</v>
+        <v>316.8608703613281</v>
       </c>
       <c r="CV3" t="n">
-        <v>344.5254821777344</v>
+        <v>303.2277221679688</v>
       </c>
       <c r="CW3" t="n">
-        <v>342.1970520019531</v>
+        <v>288.2176513671875</v>
       </c>
       <c r="CX3" t="n">
-        <v>331.6022644042969</v>
+        <v>275.818359375</v>
       </c>
       <c r="CY3" t="n">
-        <v>318.6666259765625</v>
+        <v>261.5486145019531</v>
       </c>
       <c r="CZ3" t="n">
-        <v>312.3628845214844</v>
+        <v>249.2351837158203</v>
       </c>
       <c r="DA3" t="n">
-        <v>300.6721801757812</v>
+        <v>236.0081329345703</v>
       </c>
       <c r="DB3" t="n">
-        <v>296.4422912597656</v>
+        <v>223.9133758544922</v>
       </c>
       <c r="DC3" t="n">
-        <v>289.6122436523438</v>
+        <v>218.5792083740234</v>
       </c>
       <c r="DD3" t="n">
-        <v>281.6842956542969</v>
+        <v>222.8085632324219</v>
       </c>
       <c r="DE3" t="n">
-        <v>278.0723571777344</v>
+        <v>230.404296875</v>
       </c>
       <c r="DF3" t="n">
-        <v>270.9720764160156</v>
+        <v>238.554931640625</v>
       </c>
       <c r="DG3" t="n">
-        <v>264.698486328125</v>
+        <v>249.6526336669922</v>
       </c>
       <c r="DH3" t="n">
-        <v>256.0312194824219</v>
+        <v>263.9168701171875</v>
       </c>
       <c r="DI3" t="n">
-        <v>254.7095794677734</v>
+        <v>279.0298767089844</v>
       </c>
       <c r="DJ3" t="n">
-        <v>252.8260803222656</v>
+        <v>292.0656127929688</v>
       </c>
       <c r="DK3" t="n">
-        <v>251.9078369140625</v>
+        <v>314.1816711425781</v>
       </c>
       <c r="DL3" t="n">
-        <v>248.3309631347656</v>
+        <v>348.0283508300781</v>
       </c>
       <c r="DM3" t="n">
-        <v>245.1686706542969</v>
+        <v>354.7631225585938</v>
       </c>
       <c r="DN3" t="n">
-        <v>243.6153869628906</v>
+        <v>363.3697509765625</v>
       </c>
       <c r="DO3" t="n">
-        <v>241.323974609375</v>
+        <v>368.7276306152344</v>
       </c>
       <c r="DP3" t="n">
-        <v>240.7977142333984</v>
+        <v>368.1795654296875</v>
       </c>
       <c r="DQ3" t="n">
-        <v>238.4206695556641</v>
+        <v>365.5935668945312</v>
       </c>
       <c r="DR3" t="n">
-        <v>237.6969451904297</v>
+        <v>363.3190002441406</v>
       </c>
       <c r="DS3" t="n">
-        <v>237.1030731201172</v>
+        <v>360.5535278320312</v>
       </c>
       <c r="DT3" t="n">
-        <v>236.4199829101562</v>
+        <v>359.9194030761719</v>
       </c>
       <c r="DU3" t="n">
-        <v>236.5405120849609</v>
+        <v>359.1954040527344</v>
       </c>
       <c r="DV3" t="n">
-        <v>236.6482391357422</v>
+        <v>358.0303344726562</v>
       </c>
       <c r="DW3" t="n">
-        <v>236.6274108886719</v>
+        <v>353.0518493652344</v>
       </c>
       <c r="DX3" t="n">
-        <v>236.7197875976562</v>
+        <v>349.8317260742188</v>
       </c>
       <c r="DY3" t="n">
-        <v>239.1675872802734</v>
+        <v>347.3265075683594</v>
       </c>
       <c r="DZ3" t="n">
-        <v>255.9512634277344</v>
+        <v>350.8115844726562</v>
       </c>
       <c r="EA3" t="n">
-        <v>263.6333618164062</v>
+        <v>352.9146423339844</v>
       </c>
       <c r="EB3" t="n">
-        <v>271.9140930175781</v>
+        <v>355.3607482910156</v>
       </c>
       <c r="EC3" t="n">
-        <v>289.0160522460938</v>
+        <v>356.0597229003906</v>
       </c>
       <c r="ED3" t="n">
-        <v>296.0069274902344</v>
+        <v>358.4103698730469</v>
       </c>
       <c r="EE3" t="n">
-        <v>312.2034301757812</v>
+        <v>359.1812133789062</v>
       </c>
       <c r="EF3" t="n">
-        <v>325.6741638183594</v>
+        <v>360.8766479492188</v>
       </c>
       <c r="EG3" t="n">
-        <v>331.6178894042969</v>
+        <v>366.3827514648438</v>
       </c>
       <c r="EH3" t="n">
-        <v>335.9088745117188</v>
+        <v>372.3881530761719</v>
       </c>
       <c r="EI3" t="n">
-        <v>338.0316162109375</v>
+        <v>374.348388671875</v>
       </c>
       <c r="EJ3" t="n">
-        <v>368.7618408203125</v>
+        <v>374.4558410644531</v>
       </c>
       <c r="EK3" t="n">
-        <v>345.450927734375</v>
+        <v>378.0450744628906</v>
       </c>
       <c r="EL3" t="n">
-        <v>343.7125854492188</v>
+        <v>381.4835815429688</v>
       </c>
       <c r="EM3" t="n">
-        <v>355.501220703125</v>
+        <v>375.877197265625</v>
       </c>
       <c r="EN3" t="n">
-        <v>353.4668579101562</v>
+        <v>374.3793640136719</v>
       </c>
       <c r="EO3" t="n">
-        <v>353.8516235351562</v>
+        <v>372.9466247558594</v>
       </c>
       <c r="EP3" t="n">
-        <v>354.3320922851562</v>
+        <v>374.4184875488281</v>
       </c>
       <c r="EQ3" t="n">
-        <v>356.5433349609375</v>
+        <v>371.0010070800781</v>
       </c>
       <c r="ER3" t="n">
-        <v>360.8916931152344</v>
+        <v>375.3588256835938</v>
       </c>
       <c r="ES3" t="n">
-        <v>361.3589477539062</v>
+        <v>373.76611328125</v>
       </c>
       <c r="ET3" t="n">
-        <v>360.57861328125</v>
+        <v>378.030517578125</v>
       </c>
       <c r="EU3" t="n">
-        <v>360.4337463378906</v>
+        <v>384.7858581542969</v>
       </c>
       <c r="EV3" t="n">
-        <v>360.6357727050781</v>
+        <v>391.5278015136719</v>
       </c>
       <c r="EW3" t="n">
-        <v>360.5896301269531</v>
+        <v>401.888916015625</v>
       </c>
       <c r="EX3" t="n">
-        <v>360.6700134277344</v>
+        <v>403.7240295410156</v>
       </c>
       <c r="EY3" t="n">
-        <v>361.3764038085938</v>
+        <v>413.6252136230469</v>
       </c>
       <c r="EZ3" t="n">
-        <v>360.4405822753906</v>
+        <v>421.7937622070312</v>
       </c>
       <c r="FA3" t="n">
-        <v>358.8106384277344</v>
+        <v>428.2569885253906</v>
       </c>
       <c r="FB3" t="n">
-        <v>358.6424560546875</v>
+        <v>434.0958557128906</v>
       </c>
       <c r="FC3" t="n">
-        <v>358.4130554199219</v>
+        <v>446.0989685058594</v>
       </c>
       <c r="FD3" t="n">
-        <v>358.3213195800781</v>
+        <v>458.1694946289062</v>
       </c>
       <c r="FE3" t="n">
-        <v>357.7576599121094</v>
+        <v>469.1298522949219</v>
       </c>
       <c r="FF3" t="n">
-        <v>358.2487487792969</v>
+        <v>483.2918395996094</v>
       </c>
       <c r="FG3" t="n">
-        <v>358.0941772460938</v>
+        <v>493.5037841796875</v>
       </c>
       <c r="FH3" t="n">
-        <v>356.7644348144531</v>
+        <v>504.8219604492188</v>
       </c>
       <c r="FI3" t="n">
-        <v>356.3597412109375</v>
+        <v>505.459716796875</v>
       </c>
       <c r="FJ3" t="n">
-        <v>356.3136901855469</v>
+        <v>525.3153076171875</v>
       </c>
       <c r="FK3" t="n">
-        <v>356.4241027832031</v>
+        <v>535.7002563476562</v>
       </c>
       <c r="FL3" t="n">
-        <v>356.4346008300781</v>
+        <v>536.8411254882812</v>
       </c>
       <c r="FM3" t="n">
-        <v>358.0551452636719</v>
+        <v>530.1495971679688</v>
       </c>
       <c r="FN3" t="n">
-        <v>357.85986328125</v>
+        <v>528.5857543945312</v>
       </c>
       <c r="FO3" t="n">
-        <v>357.8267517089844</v>
+        <v>515.2903442382812</v>
       </c>
       <c r="FP3" t="n">
-        <v>358.3900451660156</v>
+        <v>464.8446044921875</v>
       </c>
       <c r="FQ3" t="n">
-        <v>357.4125671386719</v>
+        <v>366.9188537597656</v>
       </c>
       <c r="FR3" t="n">
-        <v>356.9491577148438</v>
+        <v>474.1095275878906</v>
       </c>
       <c r="FS3" t="n">
-        <v>356.9080810546875</v>
+        <v>501.4986572265625</v>
       </c>
       <c r="FT3" t="n">
-        <v>356.7481994628906</v>
+        <v>501.1029663085938</v>
       </c>
       <c r="FU3" t="n">
-        <v>357.2776794433594</v>
+        <v>533.588623046875</v>
       </c>
       <c r="FV3" t="n">
-        <v>359.0423889160156</v>
+        <v>521.5565795898438</v>
       </c>
       <c r="FW3" t="n">
-        <v>362.2408142089844</v>
+        <v>525.1199951171875</v>
       </c>
       <c r="FX3" t="n">
-        <v>364.2406005859375</v>
+        <v>518.0602416992188</v>
       </c>
       <c r="FY3" t="n">
-        <v>365.7613220214844</v>
+        <v>509.1671142578125</v>
       </c>
       <c r="FZ3" t="n">
-        <v>364.8993530273438</v>
+        <v>473.3670043945312</v>
       </c>
       <c r="GA3" t="n">
-        <v>363.3420104980469</v>
+        <v>418.5792846679688</v>
       </c>
       <c r="GB3" t="n">
-        <v>362.9467468261719</v>
+        <v>400.7671508789062</v>
       </c>
       <c r="GC3" t="n">
-        <v>362.4260559082031</v>
+        <v>411.5965881347656</v>
       </c>
       <c r="GD3" t="n">
-        <v>353.47119140625</v>
+        <v>394.5034790039062</v>
       </c>
       <c r="GE3" t="n">
-        <v>348.7716979980469</v>
+        <v>400.8677673339844</v>
       </c>
       <c r="GF3" t="n">
-        <v>338.9575500488281</v>
+        <v>407.006591796875</v>
       </c>
       <c r="GG3" t="n">
-        <v>334.7404479980469</v>
+        <v>414.3103332519531</v>
       </c>
       <c r="GH3" t="n">
-        <v>324.2479553222656</v>
+        <v>421.8842163085938</v>
       </c>
       <c r="GI3" t="n">
-        <v>308.1814575195312</v>
+        <v>452.7246704101562</v>
       </c>
       <c r="GJ3" t="n">
-        <v>300.4213256835938</v>
+        <v>448.6709289550781</v>
       </c>
       <c r="GK3" t="n">
-        <v>286.1926879882812</v>
+        <v>473.8104248046875</v>
       </c>
       <c r="GL3" t="n">
-        <v>277.1285400390625</v>
+        <v>472.5751647949219</v>
       </c>
       <c r="GM3" t="n">
-        <v>275.56884765625</v>
+        <v>469.3158874511719</v>
       </c>
       <c r="GN3" t="n">
-        <v>276.8039245605469</v>
+        <v>451.5567932128906</v>
       </c>
       <c r="GO3" t="n">
-        <v>281.8599853515625</v>
+        <v>451.7942504882812</v>
       </c>
       <c r="GP3" t="n">
-        <v>299.4674377441406</v>
+        <v>460.2517395019531</v>
       </c>
       <c r="GQ3" t="n">
-        <v>310.89306640625</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>324.6458740234375</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>329.2158813476562</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>339.4201965332031</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>343.1386413574219</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>348.2752685546875</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>355.3411560058594</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>361.1750183105469</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>367.0176391601562</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>367.7743835449219</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>366.8633117675781</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>365.0507507324219</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>366.4907531738281</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>367.2418212890625</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>370.3674621582031</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>372.2275390625</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>378.4762878417969</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>382.0226135253906</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>383.4747924804688</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>384.5227661132812</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>381.9995727539062</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>381.9006958007812</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>384.2125854492188</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>385.449462890625</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>380.688720703125</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>380.0396728515625</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>384.9627685546875</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>388.3036804199219</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>395.4065246582031</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>399.3623352050781</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>399.3576049804688</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>399.7646484375</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>393.8673400878906</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>392.2526245117188</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>392.0635070800781</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>394.586181640625</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>391.6472473144531</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>386.2743225097656</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>388.2918701171875</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>392.7045288085938</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>395.576904296875</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>393.8186645507812</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>394.038818359375</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>399.5462951660156</v>
-      </c>
-      <c r="II3" t="n">
-        <v>398.7646179199219</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>398.1218872070312</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>385.5049133300781</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>512.2313232421875</v>
-      </c>
-      <c r="IM3" t="n">
-        <v>620.390380859375</v>
-      </c>
-      <c r="IN3" t="n">
-        <v>615.091796875</v>
-      </c>
-      <c r="IO3" t="n">
-        <v>765.155517578125</v>
-      </c>
-      <c r="IP3" t="n">
-        <v>777.2255859375</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>104.5366744995117</v>
-      </c>
-      <c r="IR3" t="n">
-        <v>94.38120269775391</v>
-      </c>
-      <c r="IS3" t="n">
-        <v>100.6162338256836</v>
-      </c>
-      <c r="IT3" t="n">
-        <v>86.38687896728516</v>
-      </c>
-      <c r="IU3" t="n">
-        <v>75.13102722167969</v>
-      </c>
-      <c r="IV3" t="n">
-        <v>407.5437927246094</v>
-      </c>
-      <c r="IW3" t="n">
-        <v>467.5598449707031</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>507.1268920898438</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>576.0254516601562</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>521.773681640625</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>442.092529296875</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>460.0232238769531</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>482.2310791015625</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>478.0247192382812</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>480.8968811035156</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>507.9706115722656</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>474.5353698730469</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>456.6810913085938</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>470.2957763671875</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>474.0827026367188</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>473.4953918457031</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>466.8919982910156</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>474.0216979980469</v>
+        <v>465.9359436035156</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>663.9998168945312</v>
+        <v>1002.462036132812</v>
       </c>
       <c r="B4" t="n">
-        <v>632.2990112304688</v>
+        <v>990.4422607421875</v>
       </c>
       <c r="C4" t="n">
-        <v>631.6089477539062</v>
+        <v>988.96142578125</v>
       </c>
       <c r="D4" t="n">
-        <v>630.907958984375</v>
+        <v>998.3116455078125</v>
       </c>
       <c r="E4" t="n">
-        <v>630.6154174804688</v>
+        <v>1012.290405273438</v>
       </c>
       <c r="F4" t="n">
-        <v>660.5428466796875</v>
+        <v>1016.4658203125</v>
       </c>
       <c r="G4" t="n">
-        <v>660.4143676757812</v>
+        <v>1026.890625</v>
       </c>
       <c r="H4" t="n">
-        <v>660.42626953125</v>
+        <v>1032.791137695312</v>
       </c>
       <c r="I4" t="n">
-        <v>660.7625122070312</v>
+        <v>1035.029296875</v>
       </c>
       <c r="J4" t="n">
-        <v>661.162353515625</v>
+        <v>1041.451049804688</v>
       </c>
       <c r="K4" t="n">
-        <v>661.6446533203125</v>
+        <v>1049.6611328125</v>
       </c>
       <c r="L4" t="n">
-        <v>662.189697265625</v>
+        <v>1059.93310546875</v>
       </c>
       <c r="M4" t="n">
-        <v>661.6544799804688</v>
+        <v>1074.494262695312</v>
       </c>
       <c r="N4" t="n">
-        <v>660.6286010742188</v>
+        <v>1060.599609375</v>
       </c>
       <c r="O4" t="n">
-        <v>655.140869140625</v>
+        <v>1083.319213867188</v>
       </c>
       <c r="P4" t="n">
-        <v>639.5843505859375</v>
+        <v>1090.554565429688</v>
       </c>
       <c r="Q4" t="n">
-        <v>619.6022338867188</v>
+        <v>1084.594360351562</v>
       </c>
       <c r="R4" t="n">
-        <v>596.1779174804688</v>
+        <v>1110.067504882812</v>
       </c>
       <c r="S4" t="n">
-        <v>573.4647827148438</v>
+        <v>1125.24560546875</v>
       </c>
       <c r="T4" t="n">
-        <v>545.5406494140625</v>
+        <v>1121.815185546875</v>
       </c>
       <c r="U4" t="n">
-        <v>524.7741088867188</v>
+        <v>1108.699096679688</v>
       </c>
       <c r="V4" t="n">
-        <v>507.2947692871094</v>
+        <v>1097.7646484375</v>
       </c>
       <c r="W4" t="n">
-        <v>488.8547973632812</v>
+        <v>1110.646240234375</v>
       </c>
       <c r="X4" t="n">
-        <v>468.7952575683594</v>
+        <v>1115.554931640625</v>
       </c>
       <c r="Y4" t="n">
-        <v>456.7235717773438</v>
+        <v>1117.681762695312</v>
       </c>
       <c r="Z4" t="n">
-        <v>448.4893188476562</v>
+        <v>1128.27978515625</v>
       </c>
       <c r="AA4" t="n">
-        <v>443.3899841308594</v>
+        <v>1132.370727539062</v>
       </c>
       <c r="AB4" t="n">
-        <v>443.8792724609375</v>
+        <v>1126.63525390625</v>
       </c>
       <c r="AC4" t="n">
-        <v>440.3421630859375</v>
+        <v>1126.787719726562</v>
       </c>
       <c r="AD4" t="n">
-        <v>426.0691223144531</v>
+        <v>1133.377075195312</v>
       </c>
       <c r="AE4" t="n">
-        <v>400.2178344726562</v>
+        <v>1136.221801757812</v>
       </c>
       <c r="AF4" t="n">
-        <v>388.5373229980469</v>
+        <v>1138.810913085938</v>
       </c>
       <c r="AG4" t="n">
-        <v>385.6106872558594</v>
+        <v>1135.642822265625</v>
       </c>
       <c r="AH4" t="n">
-        <v>384.6731567382812</v>
+        <v>1137.1123046875</v>
       </c>
       <c r="AI4" t="n">
-        <v>384.35546875</v>
+        <v>1136.009765625</v>
       </c>
       <c r="AJ4" t="n">
-        <v>387.5637512207031</v>
+        <v>1135.202514648438</v>
       </c>
       <c r="AK4" t="n">
-        <v>401.0150756835938</v>
+        <v>1132.095703125</v>
       </c>
       <c r="AL4" t="n">
-        <v>441.6033020019531</v>
+        <v>1133.328369140625</v>
       </c>
       <c r="AM4" t="n">
-        <v>473.4685668945312</v>
+        <v>1135.193603515625</v>
       </c>
       <c r="AN4" t="n">
-        <v>518.2534790039062</v>
+        <v>1143.416015625</v>
       </c>
       <c r="AO4" t="n">
-        <v>555.8154907226562</v>
+        <v>1156.661499023438</v>
       </c>
       <c r="AP4" t="n">
-        <v>570.5785522460938</v>
+        <v>1133.89501953125</v>
       </c>
       <c r="AQ4" t="n">
-        <v>599.4740600585938</v>
+        <v>1093.754638671875</v>
       </c>
       <c r="AR4" t="n">
-        <v>653.2294311523438</v>
+        <v>1063.913818359375</v>
       </c>
       <c r="AS4" t="n">
-        <v>706.6790771484375</v>
+        <v>1012.274047851562</v>
       </c>
       <c r="AT4" t="n">
-        <v>753.8135375976562</v>
+        <v>977.097900390625</v>
       </c>
       <c r="AU4" t="n">
-        <v>775.6593017578125</v>
+        <v>979.408447265625</v>
       </c>
       <c r="AV4" t="n">
-        <v>823.9549560546875</v>
+        <v>976.1749267578125</v>
       </c>
       <c r="AW4" t="n">
-        <v>870.0595092773438</v>
+        <v>971.0991821289062</v>
       </c>
       <c r="AX4" t="n">
-        <v>917.4434204101562</v>
+        <v>970.28759765625</v>
       </c>
       <c r="AY4" t="n">
-        <v>981.4860229492188</v>
+        <v>979.372314453125</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1039.271484375</v>
+        <v>980.1763916015625</v>
       </c>
       <c r="BA4" t="n">
-        <v>1087.379516601562</v>
+        <v>984.2176513671875</v>
       </c>
       <c r="BB4" t="n">
-        <v>1146.5869140625</v>
+        <v>994.271484375</v>
       </c>
       <c r="BC4" t="n">
-        <v>1185.315673828125</v>
+        <v>1006.475280761719</v>
       </c>
       <c r="BD4" t="n">
-        <v>1238.072021484375</v>
+        <v>1022.243896484375</v>
       </c>
       <c r="BE4" t="n">
-        <v>1254.458251953125</v>
+        <v>1039.27978515625</v>
       </c>
       <c r="BF4" t="n">
-        <v>1278.837768554688</v>
+        <v>1059.557373046875</v>
       </c>
       <c r="BG4" t="n">
-        <v>1302.893920898438</v>
+        <v>1080.291381835938</v>
       </c>
       <c r="BH4" t="n">
-        <v>1309.983154296875</v>
+        <v>1094.680908203125</v>
       </c>
       <c r="BI4" t="n">
-        <v>1305.712646484375</v>
+        <v>1113.142944335938</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1307.867919921875</v>
+        <v>1122.697631835938</v>
       </c>
       <c r="BK4" t="n">
-        <v>1314.517944335938</v>
+        <v>1127.446044921875</v>
       </c>
       <c r="BL4" t="n">
-        <v>1328.076416015625</v>
+        <v>1130.718872070312</v>
       </c>
       <c r="BM4" t="n">
-        <v>1331.31298828125</v>
+        <v>1130.958618164062</v>
       </c>
       <c r="BN4" t="n">
-        <v>1320.5986328125</v>
+        <v>1124.013305664062</v>
       </c>
       <c r="BO4" t="n">
-        <v>1306.889526367188</v>
+        <v>1107.31298828125</v>
       </c>
       <c r="BP4" t="n">
-        <v>1299.489868164062</v>
+        <v>1068.511108398438</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1294.869873046875</v>
+        <v>1034.599731445312</v>
       </c>
       <c r="BR4" t="n">
-        <v>1305.30517578125</v>
+        <v>1009.833984375</v>
       </c>
       <c r="BS4" t="n">
-        <v>1310.2001953125</v>
+        <v>1007.814758300781</v>
       </c>
       <c r="BT4" t="n">
-        <v>1322.364868164062</v>
+        <v>999.7384033203125</v>
       </c>
       <c r="BU4" t="n">
-        <v>1352.57373046875</v>
+        <v>997.4148559570312</v>
       </c>
       <c r="BV4" t="n">
-        <v>1380.028686523438</v>
+        <v>1001.447875976562</v>
       </c>
       <c r="BW4" t="n">
-        <v>1413.77294921875</v>
+        <v>1003.262390136719</v>
       </c>
       <c r="BX4" t="n">
-        <v>1442.5615234375</v>
+        <v>998.01953125</v>
       </c>
       <c r="BY4" t="n">
-        <v>1469.338134765625</v>
+        <v>992.2235107421875</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1514.494262695312</v>
+        <v>982.67578125</v>
       </c>
       <c r="CA4" t="n">
-        <v>1560.301391601562</v>
+        <v>973.3834838867188</v>
       </c>
       <c r="CB4" t="n">
-        <v>1606.465698242188</v>
+        <v>974.3223876953125</v>
       </c>
       <c r="CC4" t="n">
-        <v>1650.363037109375</v>
+        <v>980.340576171875</v>
       </c>
       <c r="CD4" t="n">
-        <v>1703.201904296875</v>
+        <v>991.4618530273438</v>
       </c>
       <c r="CE4" t="n">
-        <v>1746.529296875</v>
+        <v>1000.712280273438</v>
       </c>
       <c r="CF4" t="n">
-        <v>1792.744506835938</v>
+        <v>1022.306457519531</v>
       </c>
       <c r="CG4" t="n">
-        <v>1816.709716796875</v>
+        <v>1046.538330078125</v>
       </c>
       <c r="CH4" t="n">
-        <v>1837.0634765625</v>
+        <v>1072.733764648438</v>
       </c>
       <c r="CI4" t="n">
-        <v>1850.503173828125</v>
+        <v>1099.495483398438</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1871.9365234375</v>
+        <v>1121.139404296875</v>
       </c>
       <c r="CK4" t="n">
-        <v>1876.646606445312</v>
+        <v>1137.345825195312</v>
       </c>
       <c r="CL4" t="n">
-        <v>1888.922973632812</v>
+        <v>1167.986938476562</v>
       </c>
       <c r="CM4" t="n">
-        <v>1892.669799804688</v>
+        <v>1181.798461914062</v>
       </c>
       <c r="CN4" t="n">
-        <v>1882.752563476562</v>
+        <v>1188.67431640625</v>
       </c>
       <c r="CO4" t="n">
-        <v>1866.697998046875</v>
+        <v>1191.146728515625</v>
       </c>
       <c r="CP4" t="n">
-        <v>1847.860473632812</v>
+        <v>1187.318969726562</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1818.689086914062</v>
+        <v>1185.984008789062</v>
       </c>
       <c r="CR4" t="n">
-        <v>1810.696533203125</v>
+        <v>1168.993530273438</v>
       </c>
       <c r="CS4" t="n">
-        <v>1784.140869140625</v>
+        <v>1141.758056640625</v>
       </c>
       <c r="CT4" t="n">
-        <v>1761.958862304688</v>
+        <v>1097.43505859375</v>
       </c>
       <c r="CU4" t="n">
-        <v>1748.851196289062</v>
+        <v>1061.557006835938</v>
       </c>
       <c r="CV4" t="n">
-        <v>1737.287109375</v>
+        <v>1038.840698242188</v>
       </c>
       <c r="CW4" t="n">
-        <v>1735.74609375</v>
+        <v>1017.577880859375</v>
       </c>
       <c r="CX4" t="n">
-        <v>1721.3603515625</v>
+        <v>1005.445007324219</v>
       </c>
       <c r="CY4" t="n">
-        <v>1707.202270507812</v>
+        <v>997.9815063476562</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1701.162231445312</v>
+        <v>996.89599609375</v>
       </c>
       <c r="DA4" t="n">
-        <v>1733.75830078125</v>
+        <v>953.733154296875</v>
       </c>
       <c r="DB4" t="n">
-        <v>1750.38671875</v>
+        <v>911.0159301757812</v>
       </c>
       <c r="DC4" t="n">
-        <v>1768.833984375</v>
+        <v>893.3153686523438</v>
       </c>
       <c r="DD4" t="n">
-        <v>1776.8701171875</v>
+        <v>943.8092651367188</v>
       </c>
       <c r="DE4" t="n">
-        <v>1795.74072265625</v>
+        <v>991.3347778320312</v>
       </c>
       <c r="DF4" t="n">
-        <v>1807.417602539062</v>
+        <v>1002.104064941406</v>
       </c>
       <c r="DG4" t="n">
-        <v>1832.893798828125</v>
+        <v>1002.23828125</v>
       </c>
       <c r="DH4" t="n">
-        <v>1865.373168945312</v>
+        <v>1002.127807617188</v>
       </c>
       <c r="DI4" t="n">
-        <v>1888.023681640625</v>
+        <v>1003.594787597656</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1909.273071289062</v>
+        <v>1004.710327148438</v>
       </c>
       <c r="DK4" t="n">
-        <v>1920.065063476562</v>
+        <v>1012.204223632812</v>
       </c>
       <c r="DL4" t="n">
-        <v>1928.499633789062</v>
+        <v>1030.121948242188</v>
       </c>
       <c r="DM4" t="n">
-        <v>1936.137939453125</v>
+        <v>1046.627319335938</v>
       </c>
       <c r="DN4" t="n">
-        <v>1942.619506835938</v>
+        <v>1049.316528320312</v>
       </c>
       <c r="DO4" t="n">
-        <v>1963.810668945312</v>
+        <v>1054.057373046875</v>
       </c>
       <c r="DP4" t="n">
-        <v>1960.822143554688</v>
+        <v>1092.099975585938</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1974.34716796875</v>
+        <v>1109.068359375</v>
       </c>
       <c r="DR4" t="n">
-        <v>1989.697387695312</v>
+        <v>1120.53369140625</v>
       </c>
       <c r="DS4" t="n">
-        <v>1989.267578125</v>
+        <v>1142.714477539062</v>
       </c>
       <c r="DT4" t="n">
-        <v>1990.944580078125</v>
+        <v>1145.253051757812</v>
       </c>
       <c r="DU4" t="n">
-        <v>1990.179565429688</v>
+        <v>1151.65283203125</v>
       </c>
       <c r="DV4" t="n">
-        <v>1989.24560546875</v>
+        <v>1155.368896484375</v>
       </c>
       <c r="DW4" t="n">
-        <v>1984.877075195312</v>
+        <v>1151.46044921875</v>
       </c>
       <c r="DX4" t="n">
-        <v>1982.80224609375</v>
+        <v>1154.244384765625</v>
       </c>
       <c r="DY4" t="n">
-        <v>1963.19873046875</v>
+        <v>1156.836303710938</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1938.089111328125</v>
+        <v>1153.136352539062</v>
       </c>
       <c r="EA4" t="n">
-        <v>1926.366088867188</v>
+        <v>1162.7451171875</v>
       </c>
       <c r="EB4" t="n">
-        <v>1907.076416015625</v>
+        <v>1157.4619140625</v>
       </c>
       <c r="EC4" t="n">
-        <v>1906.811889648438</v>
+        <v>1155.553588867188</v>
       </c>
       <c r="ED4" t="n">
-        <v>1906.16162109375</v>
+        <v>1157.552978515625</v>
       </c>
       <c r="EE4" t="n">
-        <v>1870.118774414062</v>
+        <v>1154.35595703125</v>
       </c>
       <c r="EF4" t="n">
-        <v>1851.4326171875</v>
+        <v>1154.072143554688</v>
       </c>
       <c r="EG4" t="n">
-        <v>1857.65576171875</v>
+        <v>1143.029174804688</v>
       </c>
       <c r="EH4" t="n">
-        <v>1852.694580078125</v>
+        <v>1125.736206054688</v>
       </c>
       <c r="EI4" t="n">
-        <v>1857.386840820312</v>
+        <v>1115.9541015625</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1940.053833007812</v>
+        <v>1113.002319335938</v>
       </c>
       <c r="EK4" t="n">
-        <v>1849.90185546875</v>
+        <v>1117.821044921875</v>
       </c>
       <c r="EL4" t="n">
-        <v>1857.461791992188</v>
+        <v>1119.374755859375</v>
       </c>
       <c r="EM4" t="n">
-        <v>1869.83154296875</v>
+        <v>1121.213623046875</v>
       </c>
       <c r="EN4" t="n">
-        <v>1899.58740234375</v>
+        <v>1121.63427734375</v>
       </c>
       <c r="EO4" t="n">
-        <v>1904.714721679688</v>
+        <v>1121.83251953125</v>
       </c>
       <c r="EP4" t="n">
-        <v>1912.024658203125</v>
+        <v>1112.593139648438</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1915.533569335938</v>
+        <v>1115.785888671875</v>
       </c>
       <c r="ER4" t="n">
-        <v>1917.807983398438</v>
+        <v>1104.484375</v>
       </c>
       <c r="ES4" t="n">
-        <v>1916.067504882812</v>
+        <v>1081.22607421875</v>
       </c>
       <c r="ET4" t="n">
-        <v>1909.055419921875</v>
+        <v>1063.121215820312</v>
       </c>
       <c r="EU4" t="n">
-        <v>1902.40576171875</v>
+        <v>1049.249877929688</v>
       </c>
       <c r="EV4" t="n">
-        <v>1900.183471679688</v>
+        <v>1012.918029785156</v>
       </c>
       <c r="EW4" t="n">
-        <v>1896.000854492188</v>
+        <v>966.5806274414062</v>
       </c>
       <c r="EX4" t="n">
-        <v>1895.372192382812</v>
+        <v>941.3311157226562</v>
       </c>
       <c r="EY4" t="n">
-        <v>1892.011474609375</v>
+        <v>901.6217041015625</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1892.603759765625</v>
+        <v>842.98583984375</v>
       </c>
       <c r="FA4" t="n">
-        <v>1889.714599609375</v>
+        <v>804.7431640625</v>
       </c>
       <c r="FB4" t="n">
-        <v>1889.017944335938</v>
+        <v>771.2512817382812</v>
       </c>
       <c r="FC4" t="n">
-        <v>1888.90966796875</v>
+        <v>714.6956787109375</v>
       </c>
       <c r="FD4" t="n">
-        <v>1892.218994140625</v>
+        <v>670.2982177734375</v>
       </c>
       <c r="FE4" t="n">
-        <v>1894.473388671875</v>
+        <v>638.024169921875</v>
       </c>
       <c r="FF4" t="n">
-        <v>1894.50732421875</v>
+        <v>605.3895263671875</v>
       </c>
       <c r="FG4" t="n">
-        <v>1896.47509765625</v>
+        <v>584.1790771484375</v>
       </c>
       <c r="FH4" t="n">
-        <v>1904.06103515625</v>
+        <v>564.2122192382812</v>
       </c>
       <c r="FI4" t="n">
-        <v>1907.995849609375</v>
+        <v>554.736083984375</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1909.743286132812</v>
+        <v>512.7019653320312</v>
       </c>
       <c r="FK4" t="n">
-        <v>1912.40380859375</v>
+        <v>501.8272399902344</v>
       </c>
       <c r="FL4" t="n">
-        <v>1914.224975585938</v>
+        <v>507.6631774902344</v>
       </c>
       <c r="FM4" t="n">
-        <v>1912.0908203125</v>
+        <v>511.0960693359375</v>
       </c>
       <c r="FN4" t="n">
-        <v>1913.669677734375</v>
+        <v>506.6283874511719</v>
       </c>
       <c r="FO4" t="n">
-        <v>1916.102416992188</v>
+        <v>511.6524963378906</v>
       </c>
       <c r="FP4" t="n">
-        <v>1911.823974609375</v>
+        <v>441.4269714355469</v>
       </c>
       <c r="FQ4" t="n">
-        <v>1911.208618164062</v>
+        <v>456.7878723144531</v>
       </c>
       <c r="FR4" t="n">
-        <v>1910.120483398438</v>
+        <v>505.9919128417969</v>
       </c>
       <c r="FS4" t="n">
-        <v>1910.400146484375</v>
+        <v>544.1190185546875</v>
       </c>
       <c r="FT4" t="n">
-        <v>1911.010498046875</v>
+        <v>551.8074951171875</v>
       </c>
       <c r="FU4" t="n">
-        <v>1909.726440429688</v>
+        <v>520.55419921875</v>
       </c>
       <c r="FV4" t="n">
-        <v>1904.65087890625</v>
+        <v>492.9422302246094</v>
       </c>
       <c r="FW4" t="n">
-        <v>1888.0224609375</v>
+        <v>485.5077514648438</v>
       </c>
       <c r="FX4" t="n">
-        <v>1885.904663085938</v>
+        <v>472.5809936523438</v>
       </c>
       <c r="FY4" t="n">
-        <v>1882.595581054688</v>
+        <v>451.72900390625</v>
       </c>
       <c r="FZ4" t="n">
-        <v>1881.474243164062</v>
+        <v>446.02880859375</v>
       </c>
       <c r="GA4" t="n">
-        <v>1882.952270507812</v>
+        <v>437.6194458007812</v>
       </c>
       <c r="GB4" t="n">
-        <v>1885.51171875</v>
+        <v>456.0350646972656</v>
       </c>
       <c r="GC4" t="n">
-        <v>1887.498291015625</v>
+        <v>420.772705078125</v>
       </c>
       <c r="GD4" t="n">
-        <v>1880.699951171875</v>
+        <v>398.7787170410156</v>
       </c>
       <c r="GE4" t="n">
-        <v>1875.692138671875</v>
+        <v>368.3988342285156</v>
       </c>
       <c r="GF4" t="n">
-        <v>1851.6416015625</v>
+        <v>342.9724426269531</v>
       </c>
       <c r="GG4" t="n">
-        <v>1833.499267578125</v>
+        <v>293.8013305664062</v>
       </c>
       <c r="GH4" t="n">
-        <v>1814.552978515625</v>
+        <v>280.9682312011719</v>
       </c>
       <c r="GI4" t="n">
-        <v>1830.19970703125</v>
+        <v>234.3172149658203</v>
       </c>
       <c r="GJ4" t="n">
-        <v>1841.386108398438</v>
+        <v>217.5781097412109</v>
       </c>
       <c r="GK4" t="n">
-        <v>1856.2890625</v>
+        <v>213.9270935058594</v>
       </c>
       <c r="GL4" t="n">
-        <v>1857.838012695312</v>
+        <v>208.2518157958984</v>
       </c>
       <c r="GM4" t="n">
-        <v>1862.765625</v>
+        <v>208.8348236083984</v>
       </c>
       <c r="GN4" t="n">
-        <v>1861.1943359375</v>
+        <v>218.4544372558594</v>
       </c>
       <c r="GO4" t="n">
-        <v>1859.625122070312</v>
+        <v>220.9793243408203</v>
       </c>
       <c r="GP4" t="n">
-        <v>1867.751220703125</v>
+        <v>218.4780883789062</v>
       </c>
       <c r="GQ4" t="n">
-        <v>1865.462280273438</v>
-      </c>
-      <c r="GR4" t="n">
-        <v>1845.359008789062</v>
-      </c>
-      <c r="GS4" t="n">
-        <v>1840.120483398438</v>
-      </c>
-      <c r="GT4" t="n">
-        <v>1854.862182617188</v>
-      </c>
-      <c r="GU4" t="n">
-        <v>1858.209350585938</v>
-      </c>
-      <c r="GV4" t="n">
-        <v>1888.802001953125</v>
-      </c>
-      <c r="GW4" t="n">
-        <v>1906.354736328125</v>
-      </c>
-      <c r="GX4" t="n">
-        <v>1908.017211914062</v>
-      </c>
-      <c r="GY4" t="n">
-        <v>1907.961791992188</v>
-      </c>
-      <c r="GZ4" t="n">
-        <v>1908.436157226562</v>
-      </c>
-      <c r="HA4" t="n">
-        <v>1907.315673828125</v>
-      </c>
-      <c r="HB4" t="n">
-        <v>1901.437133789062</v>
-      </c>
-      <c r="HC4" t="n">
-        <v>1876.66845703125</v>
-      </c>
-      <c r="HD4" t="n">
-        <v>1856.21875</v>
-      </c>
-      <c r="HE4" t="n">
-        <v>1790.40625</v>
-      </c>
-      <c r="HF4" t="n">
-        <v>1765.84228515625</v>
-      </c>
-      <c r="HG4" t="n">
-        <v>1703.826293945312</v>
-      </c>
-      <c r="HH4" t="n">
-        <v>1662.82373046875</v>
-      </c>
-      <c r="HI4" t="n">
-        <v>1594.938354492188</v>
-      </c>
-      <c r="HJ4" t="n">
-        <v>1556.233154296875</v>
-      </c>
-      <c r="HK4" t="n">
-        <v>1491.440551757812</v>
-      </c>
-      <c r="HL4" t="n">
-        <v>1423.626831054688</v>
-      </c>
-      <c r="HM4" t="n">
-        <v>1364.854736328125</v>
-      </c>
-      <c r="HN4" t="n">
-        <v>1342.542236328125</v>
-      </c>
-      <c r="HO4" t="n">
-        <v>1296.211059570312</v>
-      </c>
-      <c r="HP4" t="n">
-        <v>1256.40087890625</v>
-      </c>
-      <c r="HQ4" t="n">
-        <v>1232.493774414062</v>
-      </c>
-      <c r="HR4" t="n">
-        <v>1218.688842773438</v>
-      </c>
-      <c r="HS4" t="n">
-        <v>1217.320434570312</v>
-      </c>
-      <c r="HT4" t="n">
-        <v>1235.786376953125</v>
-      </c>
-      <c r="HU4" t="n">
-        <v>1235.431030273438</v>
-      </c>
-      <c r="HV4" t="n">
-        <v>1230.799438476562</v>
-      </c>
-      <c r="HW4" t="n">
-        <v>1209.484741210938</v>
-      </c>
-      <c r="HX4" t="n">
-        <v>1169.71826171875</v>
-      </c>
-      <c r="HY4" t="n">
-        <v>1114.888305664062</v>
-      </c>
-      <c r="HZ4" t="n">
-        <v>1058.625</v>
-      </c>
-      <c r="IA4" t="n">
-        <v>1010.760925292969</v>
-      </c>
-      <c r="IB4" t="n">
-        <v>920.634033203125</v>
-      </c>
-      <c r="IC4" t="n">
-        <v>891.9061889648438</v>
-      </c>
-      <c r="ID4" t="n">
-        <v>836.6341552734375</v>
-      </c>
-      <c r="IE4" t="n">
-        <v>768.1004028320312</v>
-      </c>
-      <c r="IF4" t="n">
-        <v>694.022705078125</v>
-      </c>
-      <c r="IG4" t="n">
-        <v>615.5421752929688</v>
-      </c>
-      <c r="IH4" t="n">
-        <v>512.5042114257812</v>
-      </c>
-      <c r="II4" t="n">
-        <v>426.1628112792969</v>
-      </c>
-      <c r="IJ4" t="n">
-        <v>357.2375183105469</v>
-      </c>
-      <c r="IK4" t="n">
-        <v>298.4743041992188</v>
-      </c>
-      <c r="IL4" t="n">
-        <v>210.9528198242188</v>
-      </c>
-      <c r="IM4" t="n">
-        <v>179.1644744873047</v>
-      </c>
-      <c r="IN4" t="n">
-        <v>183.5200500488281</v>
-      </c>
-      <c r="IO4" t="n">
-        <v>542.4772338867188</v>
-      </c>
-      <c r="IP4" t="n">
-        <v>582.4598388671875</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>559.014892578125</v>
-      </c>
-      <c r="IR4" t="n">
-        <v>529.377197265625</v>
-      </c>
-      <c r="IS4" t="n">
-        <v>519.7489624023438</v>
-      </c>
-      <c r="IT4" t="n">
-        <v>535.3983764648438</v>
-      </c>
-      <c r="IU4" t="n">
-        <v>579.8794555664062</v>
-      </c>
-      <c r="IV4" t="n">
-        <v>1032.7783203125</v>
-      </c>
-      <c r="IW4" t="n">
-        <v>228.8690490722656</v>
-      </c>
-      <c r="IX4" t="n">
-        <v>231.7512054443359</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>241.1961212158203</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>250.0852966308594</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>263.7377014160156</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>260.9841613769531</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>269.4733581542969</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>286.2929382324219</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>290.9207153320312</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>281.2372741699219</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>285.4869384765625</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>292.2025146484375</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>287.1506652832031</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>286.4959106445312</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>278.0521240234375</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>264.9006042480469</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>262.2976684570312</v>
+        <v>219.9861145019531</v>
       </c>
     </row>
   </sheetData>

--- a/left_hand_Data.xlsx
+++ b/left_hand_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GQ4"/>
+  <dimension ref="A1:LD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,1802 +1031,3206 @@
       <c r="GQ1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="GR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>574.781982421875</v>
+        <v>541.807861328125</v>
       </c>
       <c r="B2" t="n">
-        <v>580.483642578125</v>
+        <v>541.8536376953125</v>
       </c>
       <c r="C2" t="n">
-        <v>584.718505859375</v>
+        <v>530.2738647460938</v>
       </c>
       <c r="D2" t="n">
-        <v>586.2371215820312</v>
+        <v>500.6500244140625</v>
       </c>
       <c r="E2" t="n">
-        <v>583.5765991210938</v>
+        <v>480.6224365234375</v>
       </c>
       <c r="F2" t="n">
-        <v>582.447509765625</v>
+        <v>466.2420043945312</v>
       </c>
       <c r="G2" t="n">
-        <v>579.7711791992188</v>
+        <v>451.5260314941406</v>
       </c>
       <c r="H2" t="n">
-        <v>579.0585327148438</v>
+        <v>438.6026000976562</v>
       </c>
       <c r="I2" t="n">
-        <v>578.425537109375</v>
+        <v>429.4185791015625</v>
       </c>
       <c r="J2" t="n">
-        <v>577.1747436523438</v>
+        <v>424.0332641601562</v>
       </c>
       <c r="K2" t="n">
-        <v>578.4660034179688</v>
+        <v>424.1576843261719</v>
       </c>
       <c r="L2" t="n">
-        <v>583.6254272460938</v>
+        <v>425.4189453125</v>
       </c>
       <c r="M2" t="n">
-        <v>589.5647583007812</v>
+        <v>422.6620788574219</v>
       </c>
       <c r="N2" t="n">
-        <v>568.5305786132812</v>
+        <v>420.7838439941406</v>
       </c>
       <c r="O2" t="n">
-        <v>566.064208984375</v>
+        <v>419.0668334960938</v>
       </c>
       <c r="P2" t="n">
-        <v>556.8043212890625</v>
+        <v>417.109130859375</v>
       </c>
       <c r="Q2" t="n">
-        <v>544.6290283203125</v>
+        <v>416.0315551757812</v>
       </c>
       <c r="R2" t="n">
-        <v>544.5758666992188</v>
+        <v>416.7987670898438</v>
       </c>
       <c r="S2" t="n">
-        <v>496.8917236328125</v>
+        <v>417.2888793945312</v>
       </c>
       <c r="T2" t="n">
-        <v>480.5199584960938</v>
+        <v>417.1329040527344</v>
       </c>
       <c r="U2" t="n">
-        <v>478.324951171875</v>
+        <v>416.4334411621094</v>
       </c>
       <c r="V2" t="n">
-        <v>480.0225219726562</v>
+        <v>414.9286193847656</v>
       </c>
       <c r="W2" t="n">
-        <v>472.7818298339844</v>
+        <v>414.44140625</v>
       </c>
       <c r="X2" t="n">
-        <v>455.1954650878906</v>
+        <v>413.3119201660156</v>
       </c>
       <c r="Y2" t="n">
-        <v>445.0999450683594</v>
+        <v>408.4796752929688</v>
       </c>
       <c r="Z2" t="n">
-        <v>438.9076232910156</v>
+        <v>403.002197265625</v>
       </c>
       <c r="AA2" t="n">
-        <v>439.5817260742188</v>
+        <v>396.9422912597656</v>
       </c>
       <c r="AB2" t="n">
-        <v>439.5009765625</v>
+        <v>392.5322265625</v>
       </c>
       <c r="AC2" t="n">
-        <v>438.3917846679688</v>
+        <v>386.9144287109375</v>
       </c>
       <c r="AD2" t="n">
-        <v>438.6433715820312</v>
+        <v>381.648193359375</v>
       </c>
       <c r="AE2" t="n">
-        <v>440.48095703125</v>
+        <v>376.7211303710938</v>
       </c>
       <c r="AF2" t="n">
-        <v>439.7823486328125</v>
+        <v>372.3310852050781</v>
       </c>
       <c r="AG2" t="n">
-        <v>438.9942016601562</v>
+        <v>368.338134765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>439.3031616210938</v>
+        <v>362.4689025878906</v>
       </c>
       <c r="AI2" t="n">
-        <v>439.6866455078125</v>
+        <v>358.3533020019531</v>
       </c>
       <c r="AJ2" t="n">
-        <v>440.583251953125</v>
+        <v>355.1871337890625</v>
       </c>
       <c r="AK2" t="n">
-        <v>443.3121032714844</v>
+        <v>351.6012878417969</v>
       </c>
       <c r="AL2" t="n">
-        <v>440.904052734375</v>
+        <v>346.4708251953125</v>
       </c>
       <c r="AM2" t="n">
-        <v>436.0650024414062</v>
+        <v>348.5042724609375</v>
       </c>
       <c r="AN2" t="n">
-        <v>428.7520141601562</v>
+        <v>344.0238952636719</v>
       </c>
       <c r="AO2" t="n">
-        <v>436.1946411132812</v>
+        <v>338.6719970703125</v>
       </c>
       <c r="AP2" t="n">
-        <v>447.4042358398438</v>
+        <v>333.3682556152344</v>
       </c>
       <c r="AQ2" t="n">
-        <v>447.5418090820312</v>
+        <v>330.0372314453125</v>
       </c>
       <c r="AR2" t="n">
-        <v>443.0263671875</v>
+        <v>329.9225463867188</v>
       </c>
       <c r="AS2" t="n">
-        <v>458.0185546875</v>
+        <v>330.9667358398438</v>
       </c>
       <c r="AT2" t="n">
-        <v>456.7621459960938</v>
+        <v>332.6608276367188</v>
       </c>
       <c r="AU2" t="n">
-        <v>431.8870849609375</v>
+        <v>331.9817810058594</v>
       </c>
       <c r="AV2" t="n">
-        <v>411.8016967773438</v>
+        <v>331.775634765625</v>
       </c>
       <c r="AW2" t="n">
-        <v>398.8964233398438</v>
+        <v>331.161865234375</v>
       </c>
       <c r="AX2" t="n">
-        <v>393.6210327148438</v>
+        <v>330.7240295410156</v>
       </c>
       <c r="AY2" t="n">
-        <v>384.6228637695312</v>
+        <v>331.0750732421875</v>
       </c>
       <c r="AZ2" t="n">
-        <v>373.3108215332031</v>
+        <v>329.9654541015625</v>
       </c>
       <c r="BA2" t="n">
-        <v>377.2367553710938</v>
+        <v>328.7813720703125</v>
       </c>
       <c r="BB2" t="n">
-        <v>376.6718139648438</v>
+        <v>328.1719665527344</v>
       </c>
       <c r="BC2" t="n">
-        <v>368.84423828125</v>
+        <v>326.8628234863281</v>
       </c>
       <c r="BD2" t="n">
-        <v>364.8606872558594</v>
+        <v>326.0783081054688</v>
       </c>
       <c r="BE2" t="n">
-        <v>362.0148315429688</v>
+        <v>326.3009643554688</v>
       </c>
       <c r="BF2" t="n">
-        <v>359.11083984375</v>
+        <v>327.3183898925781</v>
       </c>
       <c r="BG2" t="n">
-        <v>356.9260864257812</v>
+        <v>326.0601501464844</v>
       </c>
       <c r="BH2" t="n">
-        <v>351.7227783203125</v>
+        <v>325.632568359375</v>
       </c>
       <c r="BI2" t="n">
-        <v>347.4129028320312</v>
+        <v>331.0050659179688</v>
       </c>
       <c r="BJ2" t="n">
-        <v>344.1515502929688</v>
+        <v>336.5829772949219</v>
       </c>
       <c r="BK2" t="n">
-        <v>343.4090576171875</v>
+        <v>338.3972473144531</v>
       </c>
       <c r="BL2" t="n">
-        <v>343.612060546875</v>
+        <v>348.4563598632812</v>
       </c>
       <c r="BM2" t="n">
-        <v>345.1520385742188</v>
+        <v>366.50537109375</v>
       </c>
       <c r="BN2" t="n">
-        <v>359.3743286132812</v>
+        <v>377.703369140625</v>
       </c>
       <c r="BO2" t="n">
-        <v>378.0604858398438</v>
+        <v>384.3526611328125</v>
       </c>
       <c r="BP2" t="n">
-        <v>393.6939086914062</v>
+        <v>390.990234375</v>
       </c>
       <c r="BQ2" t="n">
-        <v>407.5478515625</v>
+        <v>398.9224548339844</v>
       </c>
       <c r="BR2" t="n">
-        <v>418.6372680664062</v>
+        <v>405.3873291015625</v>
       </c>
       <c r="BS2" t="n">
-        <v>425.0011901855469</v>
+        <v>408.7444763183594</v>
       </c>
       <c r="BT2" t="n">
-        <v>424.5269165039062</v>
+        <v>410.8397827148438</v>
       </c>
       <c r="BU2" t="n">
-        <v>420.6304931640625</v>
+        <v>413.6596069335938</v>
       </c>
       <c r="BV2" t="n">
-        <v>414.5910949707031</v>
+        <v>418.7060852050781</v>
       </c>
       <c r="BW2" t="n">
-        <v>410.3734741210938</v>
+        <v>422.2666015625</v>
       </c>
       <c r="BX2" t="n">
-        <v>404.9046020507812</v>
+        <v>423.6033630371094</v>
       </c>
       <c r="BY2" t="n">
-        <v>400.7029418945312</v>
+        <v>424.1183471679688</v>
       </c>
       <c r="BZ2" t="n">
-        <v>398.1713256835938</v>
+        <v>424.2137145996094</v>
       </c>
       <c r="CA2" t="n">
-        <v>391.98095703125</v>
+        <v>424.0794372558594</v>
       </c>
       <c r="CB2" t="n">
-        <v>381.9995422363281</v>
+        <v>423.9454956054688</v>
       </c>
       <c r="CC2" t="n">
-        <v>372.280517578125</v>
+        <v>424.1750793457031</v>
       </c>
       <c r="CD2" t="n">
-        <v>363.6889343261719</v>
+        <v>424.234375</v>
       </c>
       <c r="CE2" t="n">
-        <v>355.6837768554688</v>
+        <v>424.532470703125</v>
       </c>
       <c r="CF2" t="n">
-        <v>349.54833984375</v>
+        <v>424.5183715820312</v>
       </c>
       <c r="CG2" t="n">
-        <v>345.112548828125</v>
+        <v>423.4723510742188</v>
       </c>
       <c r="CH2" t="n">
-        <v>337.1080932617188</v>
+        <v>419.592529296875</v>
       </c>
       <c r="CI2" t="n">
-        <v>330.4598693847656</v>
+        <v>413.97412109375</v>
       </c>
       <c r="CJ2" t="n">
-        <v>326.7604064941406</v>
+        <v>407.1823120117188</v>
       </c>
       <c r="CK2" t="n">
-        <v>321.7950744628906</v>
+        <v>402.1038818359375</v>
       </c>
       <c r="CL2" t="n">
-        <v>318.3408203125</v>
+        <v>396.4752807617188</v>
       </c>
       <c r="CM2" t="n">
-        <v>317.2716979980469</v>
+        <v>387.3412780761719</v>
       </c>
       <c r="CN2" t="n">
-        <v>317.5284729003906</v>
+        <v>377.5845336914062</v>
       </c>
       <c r="CO2" t="n">
-        <v>317.7467346191406</v>
+        <v>374.0435180664062</v>
       </c>
       <c r="CP2" t="n">
-        <v>318.0973815917969</v>
+        <v>369.33935546875</v>
       </c>
       <c r="CQ2" t="n">
-        <v>318.3721618652344</v>
+        <v>370.276123046875</v>
       </c>
       <c r="CR2" t="n">
-        <v>324.0009155273438</v>
+        <v>368.955322265625</v>
       </c>
       <c r="CS2" t="n">
-        <v>333.2651977539062</v>
+        <v>353.2391662597656</v>
       </c>
       <c r="CT2" t="n">
-        <v>341.4047546386719</v>
+        <v>342.17626953125</v>
       </c>
       <c r="CU2" t="n">
-        <v>344.5810546875</v>
+        <v>338.6224060058594</v>
       </c>
       <c r="CV2" t="n">
-        <v>347.4129638671875</v>
+        <v>335.4226989746094</v>
       </c>
       <c r="CW2" t="n">
-        <v>346.5802001953125</v>
+        <v>334.638916015625</v>
       </c>
       <c r="CX2" t="n">
-        <v>346.2528686523438</v>
+        <v>327.3425903320312</v>
       </c>
       <c r="CY2" t="n">
-        <v>344.2730102539062</v>
+        <v>324.7445678710938</v>
       </c>
       <c r="CZ2" t="n">
-        <v>336.6604614257812</v>
+        <v>323.51416015625</v>
       </c>
       <c r="DA2" t="n">
-        <v>325.1356506347656</v>
+        <v>325.9233093261719</v>
       </c>
       <c r="DB2" t="n">
-        <v>313.0100402832031</v>
+        <v>323.948486328125</v>
       </c>
       <c r="DC2" t="n">
-        <v>305.0263366699219</v>
+        <v>321.6032409667969</v>
       </c>
       <c r="DD2" t="n">
-        <v>298.1998596191406</v>
+        <v>322.583251953125</v>
       </c>
       <c r="DE2" t="n">
-        <v>296.6671752929688</v>
+        <v>322.1691589355469</v>
       </c>
       <c r="DF2" t="n">
-        <v>292.5208435058594</v>
+        <v>321.7647705078125</v>
       </c>
       <c r="DG2" t="n">
-        <v>291.4718933105469</v>
+        <v>321.5470581054688</v>
       </c>
       <c r="DH2" t="n">
-        <v>294.29345703125</v>
+        <v>321.3646850585938</v>
       </c>
       <c r="DI2" t="n">
-        <v>299.4987487792969</v>
+        <v>322.0183715820312</v>
       </c>
       <c r="DJ2" t="n">
-        <v>309.47216796875</v>
+        <v>331.7650756835938</v>
       </c>
       <c r="DK2" t="n">
-        <v>321.0776062011719</v>
+        <v>353.6175842285156</v>
       </c>
       <c r="DL2" t="n">
-        <v>347.5742797851562</v>
+        <v>369.294189453125</v>
       </c>
       <c r="DM2" t="n">
-        <v>366.3182983398438</v>
+        <v>377.3662109375</v>
       </c>
       <c r="DN2" t="n">
-        <v>380.5889587402344</v>
+        <v>392.0865478515625</v>
       </c>
       <c r="DO2" t="n">
-        <v>393.7322387695312</v>
+        <v>397.8529357910156</v>
       </c>
       <c r="DP2" t="n">
-        <v>416.1262817382812</v>
+        <v>401.0668640136719</v>
       </c>
       <c r="DQ2" t="n">
-        <v>426.3604125976562</v>
+        <v>404.5669860839844</v>
       </c>
       <c r="DR2" t="n">
-        <v>435.8924560546875</v>
+        <v>407.1367797851562</v>
       </c>
       <c r="DS2" t="n">
-        <v>459.0718078613281</v>
+        <v>409.4346923828125</v>
       </c>
       <c r="DT2" t="n">
-        <v>467.3174438476562</v>
+        <v>416.0443115234375</v>
       </c>
       <c r="DU2" t="n">
-        <v>479.775634765625</v>
+        <v>418.5031127929688</v>
       </c>
       <c r="DV2" t="n">
-        <v>498.6041870117188</v>
+        <v>419.1103515625</v>
       </c>
       <c r="DW2" t="n">
-        <v>510.4102172851562</v>
+        <v>419.1446533203125</v>
       </c>
       <c r="DX2" t="n">
-        <v>514.2771606445312</v>
+        <v>418.8302001953125</v>
       </c>
       <c r="DY2" t="n">
-        <v>522.0450439453125</v>
+        <v>418.06005859375</v>
       </c>
       <c r="DZ2" t="n">
-        <v>527.794921875</v>
+        <v>417.2235107421875</v>
       </c>
       <c r="EA2" t="n">
-        <v>526.4762573242188</v>
+        <v>414.9995422363281</v>
       </c>
       <c r="EB2" t="n">
-        <v>530.546630859375</v>
+        <v>412.6147766113281</v>
       </c>
       <c r="EC2" t="n">
-        <v>531.6887817382812</v>
+        <v>409.1037292480469</v>
       </c>
       <c r="ED2" t="n">
-        <v>529.822265625</v>
+        <v>403.1352233886719</v>
       </c>
       <c r="EE2" t="n">
-        <v>531.1875610351562</v>
+        <v>398.65869140625</v>
       </c>
       <c r="EF2" t="n">
-        <v>529.6585693359375</v>
+        <v>382.9951782226562</v>
       </c>
       <c r="EG2" t="n">
-        <v>526.31103515625</v>
+        <v>382.960693359375</v>
       </c>
       <c r="EH2" t="n">
-        <v>525.910888671875</v>
+        <v>381.4868774414062</v>
       </c>
       <c r="EI2" t="n">
-        <v>521.2560424804688</v>
+        <v>372.3961791992188</v>
       </c>
       <c r="EJ2" t="n">
-        <v>513.4125366210938</v>
+        <v>370.0219421386719</v>
       </c>
       <c r="EK2" t="n">
-        <v>507.6974487304688</v>
+        <v>364.0962524414062</v>
       </c>
       <c r="EL2" t="n">
-        <v>502.82177734375</v>
+        <v>359.9133605957031</v>
       </c>
       <c r="EM2" t="n">
-        <v>494.5021057128906</v>
+        <v>341.0177001953125</v>
       </c>
       <c r="EN2" t="n">
-        <v>487.2866821289062</v>
+        <v>337.1944580078125</v>
       </c>
       <c r="EO2" t="n">
-        <v>477.2641296386719</v>
+        <v>336.9005737304688</v>
       </c>
       <c r="EP2" t="n">
-        <v>477.7113037109375</v>
+        <v>334.9432678222656</v>
       </c>
       <c r="EQ2" t="n">
-        <v>465.810791015625</v>
+        <v>322.00244140625</v>
       </c>
       <c r="ER2" t="n">
-        <v>463.9884033203125</v>
+        <v>318.3809509277344</v>
       </c>
       <c r="ES2" t="n">
-        <v>452.101318359375</v>
+        <v>319.2219543457031</v>
       </c>
       <c r="ET2" t="n">
-        <v>447.1023864746094</v>
+        <v>316.7756652832031</v>
       </c>
       <c r="EU2" t="n">
-        <v>440.8072204589844</v>
+        <v>316.9305725097656</v>
       </c>
       <c r="EV2" t="n">
-        <v>436.8800659179688</v>
+        <v>317.8764953613281</v>
       </c>
       <c r="EW2" t="n">
-        <v>430.5211791992188</v>
+        <v>320.3433532714844</v>
       </c>
       <c r="EX2" t="n">
-        <v>427.5446166992188</v>
+        <v>338.0758666992188</v>
       </c>
       <c r="EY2" t="n">
-        <v>427.5383911132812</v>
+        <v>340.5032348632812</v>
       </c>
       <c r="EZ2" t="n">
-        <v>431.7925415039062</v>
+        <v>340.3677673339844</v>
       </c>
       <c r="FA2" t="n">
-        <v>436.4315185546875</v>
+        <v>361.2316284179688</v>
       </c>
       <c r="FB2" t="n">
-        <v>446.8903198242188</v>
+        <v>368.2927856445312</v>
       </c>
       <c r="FC2" t="n">
-        <v>458.9603271484375</v>
+        <v>377.5558166503906</v>
       </c>
       <c r="FD2" t="n">
-        <v>469.3184814453125</v>
+        <v>398.5396118164062</v>
       </c>
       <c r="FE2" t="n">
-        <v>476.9134826660156</v>
+        <v>402.4219055175781</v>
       </c>
       <c r="FF2" t="n">
-        <v>480.8740539550781</v>
+        <v>404.2255859375</v>
       </c>
       <c r="FG2" t="n">
-        <v>482.46875</v>
+        <v>408.162353515625</v>
       </c>
       <c r="FH2" t="n">
-        <v>487.0670776367188</v>
+        <v>409.8119506835938</v>
       </c>
       <c r="FI2" t="n">
-        <v>494.3842163085938</v>
+        <v>409.4219360351562</v>
       </c>
       <c r="FJ2" t="n">
-        <v>545.4617309570312</v>
+        <v>410.429443359375</v>
       </c>
       <c r="FK2" t="n">
-        <v>564.0385131835938</v>
+        <v>410.1888732910156</v>
       </c>
       <c r="FL2" t="n">
-        <v>555.6595458984375</v>
+        <v>409.7081909179688</v>
       </c>
       <c r="FM2" t="n">
-        <v>551.3781127929688</v>
+        <v>409.5350646972656</v>
       </c>
       <c r="FN2" t="n">
-        <v>544.9473876953125</v>
+        <v>408.8047790527344</v>
       </c>
       <c r="FO2" t="n">
-        <v>549.7894897460938</v>
+        <v>408.7821960449219</v>
       </c>
       <c r="FP2" t="n">
-        <v>490.9180297851562</v>
+        <v>405.3543395996094</v>
       </c>
       <c r="FQ2" t="n">
-        <v>478.1245727539062</v>
+        <v>399.7416687011719</v>
       </c>
       <c r="FR2" t="n">
-        <v>420.1087036132812</v>
+        <v>384.1606140136719</v>
       </c>
       <c r="FS2" t="n">
-        <v>453.9733276367188</v>
+        <v>384.0014343261719</v>
       </c>
       <c r="FT2" t="n">
-        <v>485.9684753417969</v>
+        <v>370.2418823242188</v>
       </c>
       <c r="FU2" t="n">
-        <v>488.8824462890625</v>
+        <v>364.9907836914062</v>
       </c>
       <c r="FV2" t="n">
-        <v>516.2615966796875</v>
+        <v>358.7022094726562</v>
       </c>
       <c r="FW2" t="n">
-        <v>516.9625244140625</v>
+        <v>355.2434692382812</v>
       </c>
       <c r="FX2" t="n">
-        <v>519.3240356445312</v>
+        <v>347.2192993164062</v>
       </c>
       <c r="FY2" t="n">
-        <v>531.845458984375</v>
+        <v>340.1668701171875</v>
       </c>
       <c r="FZ2" t="n">
-        <v>562.1007690429688</v>
+        <v>332.8796081542969</v>
       </c>
       <c r="GA2" t="n">
-        <v>548.2760009765625</v>
+        <v>325.9064331054688</v>
       </c>
       <c r="GB2" t="n">
-        <v>478.8249206542969</v>
+        <v>317.3443908691406</v>
       </c>
       <c r="GC2" t="n">
-        <v>475.70458984375</v>
+        <v>314.5463256835938</v>
       </c>
       <c r="GD2" t="n">
-        <v>449.560546875</v>
+        <v>316.3431396484375</v>
       </c>
       <c r="GE2" t="n">
-        <v>439.8080749511719</v>
+        <v>317.8893737792969</v>
       </c>
       <c r="GF2" t="n">
-        <v>422.036865234375</v>
+        <v>317.7807922363281</v>
       </c>
       <c r="GG2" t="n">
-        <v>375.6935424804688</v>
+        <v>317.9349060058594</v>
       </c>
       <c r="GH2" t="n">
-        <v>354.7802734375</v>
+        <v>318.1224670410156</v>
       </c>
       <c r="GI2" t="n">
-        <v>317.4342041015625</v>
+        <v>317.4569702148438</v>
       </c>
       <c r="GJ2" t="n">
-        <v>248.0382537841797</v>
+        <v>333.1571960449219</v>
       </c>
       <c r="GK2" t="n">
-        <v>267.9378051757812</v>
+        <v>347.0020141601562</v>
       </c>
       <c r="GL2" t="n">
-        <v>241.1903991699219</v>
+        <v>351.8595886230469</v>
       </c>
       <c r="GM2" t="n">
-        <v>221.8989868164062</v>
+        <v>366.5960083007812</v>
       </c>
       <c r="GN2" t="n">
-        <v>182.4727020263672</v>
+        <v>375.6646728515625</v>
       </c>
       <c r="GO2" t="n">
-        <v>188.8695678710938</v>
+        <v>387.7378845214844</v>
       </c>
       <c r="GP2" t="n">
-        <v>193.2132720947266</v>
+        <v>402.7568969726562</v>
       </c>
       <c r="GQ2" t="n">
-        <v>215.8097229003906</v>
+        <v>410.0916137695312</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>411.922607421875</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>413.459716796875</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>414.4818725585938</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>414.6722106933594</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>413.95263671875</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>411.4815673828125</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>407.4834899902344</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>397.6482543945312</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>389.8604125976562</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>376.9026184082031</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>372.4103088378906</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>363.381591796875</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>354.4232482910156</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>342.052490234375</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>338.5370483398438</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>321.9146423339844</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>315.969482421875</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>314.6490478515625</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>315.1643371582031</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>316.1891174316406</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>317.4272155761719</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>317.4892883300781</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>316.810546875</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>315.60986328125</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>331.4381713867188</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>338.2794189453125</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>334.6669006347656</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>358.6298217773438</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>370.1147766113281</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>379.4611206054688</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>397.7601928710938</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>405.3624267578125</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>407.362548828125</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>409.5135498046875</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>411.5906066894531</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>411.1709289550781</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>410.8639221191406</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>411.6607055664062</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>409.4962158203125</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>408.3922119140625</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>402.8253173828125</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>396.0628662109375</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>388.0545043945312</v>
+      </c>
+      <c r="II2" t="n">
+        <v>381.1365356445312</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>364.4433288574219</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>364.0787048339844</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>356.5845336914062</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>340.9411926269531</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>338.3137512207031</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>326.2481689453125</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>324.2476806640625</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>315.3911743164062</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>316.8502197265625</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>325.49609375</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>322.2183227539062</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>331.0821838378906</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>334.3150634765625</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>345.2217407226562</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>362.3298645019531</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>383.4247436523438</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>398.4503784179688</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>407.79833984375</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>411.6321411132812</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>416.538330078125</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>416.6479797363281</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>415.1733093261719</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>416.662109375</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>415.787841796875</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>412.6876220703125</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>407.8904418945312</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>405.1791687011719</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>398.8305969238281</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>390.13427734375</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>380.2174072265625</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>365.8272705078125</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>357.8773193359375</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>353.764892578125</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>334.5416564941406</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>333.658935546875</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>332.6268920898438</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>317.0729675292969</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>316.3400573730469</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>316.547607421875</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>316.0565490722656</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>315.2368469238281</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>315.8712463378906</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>315.6201782226562</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>310.3604125976562</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>313.3571472167969</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>314.669189453125</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>345.1304321289062</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>352.8517150878906</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>363.5919189453125</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>374.58837890625</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>375.1287841796875</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>374.6111450195312</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>372.4784851074219</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>373.8479919433594</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>373.9034729003906</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>376.1791687011719</v>
+      </c>
+      <c r="KN2" t="n">
+        <v>381.482666015625</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>389.4003295898438</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>396.8609313964844</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>403.0696105957031</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>401.0316162109375</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>401.6582641601562</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>406.8912048339844</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>420.2857055664062</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>431.87841796875</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>449.307373046875</v>
+      </c>
+      <c r="KX2" t="n">
+        <v>471.3921813964844</v>
+      </c>
+      <c r="KY2" t="n">
+        <v>496.5042724609375</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>543.3101806640625</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>579.8160400390625</v>
+      </c>
+      <c r="LB2" t="n">
+        <v>586.9223022460938</v>
+      </c>
+      <c r="LC2" t="n">
+        <v>587.978759765625</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>592.5245971679688</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>403.962646484375</v>
+        <v>408.4508056640625</v>
       </c>
       <c r="B3" t="n">
-        <v>410.7280883789062</v>
+        <v>399.1651916503906</v>
       </c>
       <c r="C3" t="n">
-        <v>411.8955383300781</v>
+        <v>384.6342163085938</v>
       </c>
       <c r="D3" t="n">
-        <v>413.7968139648438</v>
+        <v>374.8823852539062</v>
       </c>
       <c r="E3" t="n">
-        <v>418.4120788574219</v>
+        <v>373.7920837402344</v>
       </c>
       <c r="F3" t="n">
-        <v>420.2751159667969</v>
+        <v>376.9520568847656</v>
       </c>
       <c r="G3" t="n">
-        <v>420.2715148925781</v>
+        <v>383.89111328125</v>
       </c>
       <c r="H3" t="n">
-        <v>420.8517761230469</v>
+        <v>393.9854431152344</v>
       </c>
       <c r="I3" t="n">
-        <v>419.3013916015625</v>
+        <v>403.5998840332031</v>
       </c>
       <c r="J3" t="n">
-        <v>415.4481811523438</v>
+        <v>405.2852172851562</v>
       </c>
       <c r="K3" t="n">
-        <v>412.25927734375</v>
+        <v>408.1444702148438</v>
       </c>
       <c r="L3" t="n">
-        <v>404.4180297851562</v>
+        <v>409.5617065429688</v>
       </c>
       <c r="M3" t="n">
-        <v>392.2419128417969</v>
+        <v>413.5843200683594</v>
       </c>
       <c r="N3" t="n">
-        <v>390.2633056640625</v>
+        <v>415.012451171875</v>
       </c>
       <c r="O3" t="n">
-        <v>372.8467712402344</v>
+        <v>411.2615966796875</v>
       </c>
       <c r="P3" t="n">
-        <v>362.9188232421875</v>
+        <v>407.6561279296875</v>
       </c>
       <c r="Q3" t="n">
-        <v>361.0133972167969</v>
+        <v>403.5570373535156</v>
       </c>
       <c r="R3" t="n">
-        <v>350.3142395019531</v>
+        <v>397.5186462402344</v>
       </c>
       <c r="S3" t="n">
-        <v>361.99853515625</v>
+        <v>392.3490295410156</v>
       </c>
       <c r="T3" t="n">
-        <v>354.6549377441406</v>
+        <v>387.1799926757812</v>
       </c>
       <c r="U3" t="n">
-        <v>347.3163146972656</v>
+        <v>383.6765441894531</v>
       </c>
       <c r="V3" t="n">
-        <v>342.5775756835938</v>
+        <v>381.5446472167969</v>
       </c>
       <c r="W3" t="n">
-        <v>339.8851928710938</v>
+        <v>382.4664001464844</v>
       </c>
       <c r="X3" t="n">
-        <v>336.8060607910156</v>
+        <v>383.5654907226562</v>
       </c>
       <c r="Y3" t="n">
-        <v>332.1632995605469</v>
+        <v>384.0693969726562</v>
       </c>
       <c r="Z3" t="n">
-        <v>321.883056640625</v>
+        <v>386.5250244140625</v>
       </c>
       <c r="AA3" t="n">
-        <v>311.4345397949219</v>
+        <v>388.1303405761719</v>
       </c>
       <c r="AB3" t="n">
-        <v>295.391845703125</v>
+        <v>389.0570983886719</v>
       </c>
       <c r="AC3" t="n">
-        <v>287.9397583007812</v>
+        <v>385.9949340820312</v>
       </c>
       <c r="AD3" t="n">
-        <v>286.5063781738281</v>
+        <v>385.3450927734375</v>
       </c>
       <c r="AE3" t="n">
-        <v>284.2224426269531</v>
+        <v>382.9019470214844</v>
       </c>
       <c r="AF3" t="n">
-        <v>281.203369140625</v>
+        <v>382.3178100585938</v>
       </c>
       <c r="AG3" t="n">
-        <v>279.8880920410156</v>
+        <v>382.4915466308594</v>
       </c>
       <c r="AH3" t="n">
-        <v>279.9845275878906</v>
+        <v>376.3208923339844</v>
       </c>
       <c r="AI3" t="n">
-        <v>281.4547424316406</v>
+        <v>364.7705383300781</v>
       </c>
       <c r="AJ3" t="n">
-        <v>281.3050842285156</v>
+        <v>361.6376037597656</v>
       </c>
       <c r="AK3" t="n">
-        <v>282.1339721679688</v>
+        <v>356.9463195800781</v>
       </c>
       <c r="AL3" t="n">
-        <v>282.6398620605469</v>
+        <v>350.1692810058594</v>
       </c>
       <c r="AM3" t="n">
-        <v>284.5907897949219</v>
+        <v>346.4972839355469</v>
       </c>
       <c r="AN3" t="n">
-        <v>287.5981140136719</v>
+        <v>342.5863342285156</v>
       </c>
       <c r="AO3" t="n">
-        <v>298.4529418945312</v>
+        <v>329.1477966308594</v>
       </c>
       <c r="AP3" t="n">
-        <v>307.9931945800781</v>
+        <v>318.1561279296875</v>
       </c>
       <c r="AQ3" t="n">
-        <v>321.7594909667969</v>
+        <v>309.817138671875</v>
       </c>
       <c r="AR3" t="n">
-        <v>329.4113464355469</v>
+        <v>304.8275756835938</v>
       </c>
       <c r="AS3" t="n">
-        <v>336.8125915527344</v>
+        <v>302.1412658691406</v>
       </c>
       <c r="AT3" t="n">
-        <v>338.56689453125</v>
+        <v>297.5114135742188</v>
       </c>
       <c r="AU3" t="n">
-        <v>336.8362731933594</v>
+        <v>298.6202392578125</v>
       </c>
       <c r="AV3" t="n">
-        <v>334.2770690917969</v>
+        <v>298.1804504394531</v>
       </c>
       <c r="AW3" t="n">
-        <v>337.227783203125</v>
+        <v>297.46044921875</v>
       </c>
       <c r="AX3" t="n">
-        <v>337.6553344726562</v>
+        <v>296.9214782714844</v>
       </c>
       <c r="AY3" t="n">
-        <v>339.2879028320312</v>
+        <v>297.0612182617188</v>
       </c>
       <c r="AZ3" t="n">
-        <v>338.41259765625</v>
+        <v>296.4890747070312</v>
       </c>
       <c r="BA3" t="n">
-        <v>338.3156127929688</v>
+        <v>295.8048095703125</v>
       </c>
       <c r="BB3" t="n">
-        <v>341.7115783691406</v>
+        <v>295.9906311035156</v>
       </c>
       <c r="BC3" t="n">
-        <v>345.9425048828125</v>
+        <v>295.8536376953125</v>
       </c>
       <c r="BD3" t="n">
-        <v>347.7010192871094</v>
+        <v>295.3130187988281</v>
       </c>
       <c r="BE3" t="n">
-        <v>347.2757568359375</v>
+        <v>294.8026123046875</v>
       </c>
       <c r="BF3" t="n">
-        <v>345.6694946289062</v>
+        <v>294.771728515625</v>
       </c>
       <c r="BG3" t="n">
-        <v>344.6220092773438</v>
+        <v>294.1951599121094</v>
       </c>
       <c r="BH3" t="n">
-        <v>344.7676696777344</v>
+        <v>293.7664794921875</v>
       </c>
       <c r="BI3" t="n">
-        <v>342.6545104980469</v>
+        <v>291.6830749511719</v>
       </c>
       <c r="BJ3" t="n">
-        <v>342.5352783203125</v>
+        <v>290.9187316894531</v>
       </c>
       <c r="BK3" t="n">
-        <v>342.555908203125</v>
+        <v>285.4735412597656</v>
       </c>
       <c r="BL3" t="n">
-        <v>340.1735534667969</v>
+        <v>277.7289123535156</v>
       </c>
       <c r="BM3" t="n">
-        <v>337.2417297363281</v>
+        <v>281.0395202636719</v>
       </c>
       <c r="BN3" t="n">
-        <v>328.6299743652344</v>
+        <v>276.322998046875</v>
       </c>
       <c r="BO3" t="n">
-        <v>312.9913635253906</v>
+        <v>280.3233337402344</v>
       </c>
       <c r="BP3" t="n">
-        <v>301.2122192382812</v>
+        <v>306.9272155761719</v>
       </c>
       <c r="BQ3" t="n">
-        <v>284.4753723144531</v>
+        <v>301.9039306640625</v>
       </c>
       <c r="BR3" t="n">
-        <v>266.6690368652344</v>
+        <v>296.7789916992188</v>
       </c>
       <c r="BS3" t="n">
-        <v>242.2042236328125</v>
+        <v>297.6039733886719</v>
       </c>
       <c r="BT3" t="n">
-        <v>218.8135681152344</v>
+        <v>298.6477355957031</v>
       </c>
       <c r="BU3" t="n">
-        <v>197.5762481689453</v>
+        <v>298.708984375</v>
       </c>
       <c r="BV3" t="n">
-        <v>182.8159637451172</v>
+        <v>297.3404235839844</v>
       </c>
       <c r="BW3" t="n">
-        <v>174.7222442626953</v>
+        <v>298.2918395996094</v>
       </c>
       <c r="BX3" t="n">
-        <v>175.5570373535156</v>
+        <v>299.6189270019531</v>
       </c>
       <c r="BY3" t="n">
-        <v>178.9174652099609</v>
+        <v>299.956298828125</v>
       </c>
       <c r="BZ3" t="n">
-        <v>190.0076446533203</v>
+        <v>299.9646911621094</v>
       </c>
       <c r="CA3" t="n">
-        <v>208.2822265625</v>
+        <v>299.9716491699219</v>
       </c>
       <c r="CB3" t="n">
-        <v>231.7158966064453</v>
+        <v>300.0444030761719</v>
       </c>
       <c r="CC3" t="n">
-        <v>245.9064331054688</v>
+        <v>299.9207763671875</v>
       </c>
       <c r="CD3" t="n">
-        <v>264.3319702148438</v>
+        <v>299.8200378417969</v>
       </c>
       <c r="CE3" t="n">
-        <v>281.6471252441406</v>
+        <v>299.6454162597656</v>
       </c>
       <c r="CF3" t="n">
-        <v>296.6288757324219</v>
+        <v>299.4826965332031</v>
       </c>
       <c r="CG3" t="n">
-        <v>313.0719299316406</v>
+        <v>299.3390808105469</v>
       </c>
       <c r="CH3" t="n">
-        <v>325.9681396484375</v>
+        <v>299.4463195800781</v>
       </c>
       <c r="CI3" t="n">
-        <v>335.9575500488281</v>
+        <v>301.037109375</v>
       </c>
       <c r="CJ3" t="n">
-        <v>341.9660034179688</v>
+        <v>302.0068054199219</v>
       </c>
       <c r="CK3" t="n">
-        <v>345.7872314453125</v>
+        <v>302.5529174804688</v>
       </c>
       <c r="CL3" t="n">
-        <v>348.0333251953125</v>
+        <v>301.8435363769531</v>
       </c>
       <c r="CM3" t="n">
-        <v>349.1410522460938</v>
+        <v>305.9783935546875</v>
       </c>
       <c r="CN3" t="n">
-        <v>349.744140625</v>
+        <v>312.6286926269531</v>
       </c>
       <c r="CO3" t="n">
-        <v>350.2075500488281</v>
+        <v>294.3764953613281</v>
       </c>
       <c r="CP3" t="n">
-        <v>352.21435546875</v>
+        <v>281.3422241210938</v>
       </c>
       <c r="CQ3" t="n">
-        <v>351.6575317382812</v>
+        <v>288.2676086425781</v>
       </c>
       <c r="CR3" t="n">
-        <v>348.5039978027344</v>
+        <v>286.6344604492188</v>
       </c>
       <c r="CS3" t="n">
-        <v>344.4637145996094</v>
+        <v>279.7978820800781</v>
       </c>
       <c r="CT3" t="n">
-        <v>330.6492614746094</v>
+        <v>281.7157287597656</v>
       </c>
       <c r="CU3" t="n">
-        <v>316.8608703613281</v>
+        <v>276.6935119628906</v>
       </c>
       <c r="CV3" t="n">
-        <v>303.2277221679688</v>
+        <v>280.4621887207031</v>
       </c>
       <c r="CW3" t="n">
-        <v>288.2176513671875</v>
+        <v>291.3322448730469</v>
       </c>
       <c r="CX3" t="n">
-        <v>275.818359375</v>
+        <v>292.0598754882812</v>
       </c>
       <c r="CY3" t="n">
-        <v>261.5486145019531</v>
+        <v>291.9111022949219</v>
       </c>
       <c r="CZ3" t="n">
-        <v>249.2351837158203</v>
+        <v>293.6296691894531</v>
       </c>
       <c r="DA3" t="n">
-        <v>236.0081329345703</v>
+        <v>293.7098999023438</v>
       </c>
       <c r="DB3" t="n">
-        <v>223.9133758544922</v>
+        <v>294.1676940917969</v>
       </c>
       <c r="DC3" t="n">
-        <v>218.5792083740234</v>
+        <v>294.3441162109375</v>
       </c>
       <c r="DD3" t="n">
-        <v>222.8085632324219</v>
+        <v>293.7376708984375</v>
       </c>
       <c r="DE3" t="n">
-        <v>230.404296875</v>
+        <v>294.0079956054688</v>
       </c>
       <c r="DF3" t="n">
-        <v>238.554931640625</v>
+        <v>294.2957763671875</v>
       </c>
       <c r="DG3" t="n">
-        <v>249.6526336669922</v>
+        <v>294.5945129394531</v>
       </c>
       <c r="DH3" t="n">
-        <v>263.9168701171875</v>
+        <v>294.6546936035156</v>
       </c>
       <c r="DI3" t="n">
-        <v>279.0298767089844</v>
+        <v>292.7736511230469</v>
       </c>
       <c r="DJ3" t="n">
-        <v>292.0656127929688</v>
+        <v>286.4903564453125</v>
       </c>
       <c r="DK3" t="n">
-        <v>314.1816711425781</v>
+        <v>281.3958740234375</v>
       </c>
       <c r="DL3" t="n">
-        <v>348.0283508300781</v>
+        <v>282.5733947753906</v>
       </c>
       <c r="DM3" t="n">
-        <v>354.7631225585938</v>
+        <v>291.4757385253906</v>
       </c>
       <c r="DN3" t="n">
-        <v>363.3697509765625</v>
+        <v>302.4544067382812</v>
       </c>
       <c r="DO3" t="n">
-        <v>368.7276306152344</v>
+        <v>302.4969482421875</v>
       </c>
       <c r="DP3" t="n">
-        <v>368.1795654296875</v>
+        <v>302.3373718261719</v>
       </c>
       <c r="DQ3" t="n">
-        <v>365.5935668945312</v>
+        <v>302.0870971679688</v>
       </c>
       <c r="DR3" t="n">
-        <v>363.3190002441406</v>
+        <v>301.9036560058594</v>
       </c>
       <c r="DS3" t="n">
-        <v>360.5535278320312</v>
+        <v>302.3782348632812</v>
       </c>
       <c r="DT3" t="n">
-        <v>359.9194030761719</v>
+        <v>302.1986083984375</v>
       </c>
       <c r="DU3" t="n">
-        <v>359.1954040527344</v>
+        <v>302.7843627929688</v>
       </c>
       <c r="DV3" t="n">
-        <v>358.0303344726562</v>
+        <v>302.4979248046875</v>
       </c>
       <c r="DW3" t="n">
-        <v>353.0518493652344</v>
+        <v>302.2719421386719</v>
       </c>
       <c r="DX3" t="n">
-        <v>349.8317260742188</v>
+        <v>302.0919494628906</v>
       </c>
       <c r="DY3" t="n">
-        <v>347.3265075683594</v>
+        <v>301.8237915039062</v>
       </c>
       <c r="DZ3" t="n">
-        <v>350.8115844726562</v>
+        <v>301.53271484375</v>
       </c>
       <c r="EA3" t="n">
-        <v>352.9146423339844</v>
+        <v>300.65234375</v>
       </c>
       <c r="EB3" t="n">
-        <v>355.3607482910156</v>
+        <v>299.771728515625</v>
       </c>
       <c r="EC3" t="n">
-        <v>356.0597229003906</v>
+        <v>299.0094604492188</v>
       </c>
       <c r="ED3" t="n">
-        <v>358.4103698730469</v>
+        <v>299.0075378417969</v>
       </c>
       <c r="EE3" t="n">
-        <v>359.1812133789062</v>
+        <v>299.3069763183594</v>
       </c>
       <c r="EF3" t="n">
-        <v>360.8766479492188</v>
+        <v>311.1954040527344</v>
       </c>
       <c r="EG3" t="n">
-        <v>366.3827514648438</v>
+        <v>307.212158203125</v>
       </c>
       <c r="EH3" t="n">
-        <v>372.3881530761719</v>
+        <v>298.1900329589844</v>
       </c>
       <c r="EI3" t="n">
-        <v>374.348388671875</v>
+        <v>291.8441467285156</v>
       </c>
       <c r="EJ3" t="n">
-        <v>374.4558410644531</v>
+        <v>287.2263488769531</v>
       </c>
       <c r="EK3" t="n">
-        <v>378.0450744628906</v>
+        <v>277.8172302246094</v>
       </c>
       <c r="EL3" t="n">
-        <v>381.4835815429688</v>
+        <v>276.2747802734375</v>
       </c>
       <c r="EM3" t="n">
-        <v>375.877197265625</v>
+        <v>272.8725891113281</v>
       </c>
       <c r="EN3" t="n">
-        <v>374.3793640136719</v>
+        <v>272.3264770507812</v>
       </c>
       <c r="EO3" t="n">
-        <v>372.9466247558594</v>
+        <v>284.5900573730469</v>
       </c>
       <c r="EP3" t="n">
-        <v>374.4184875488281</v>
+        <v>292.0023498535156</v>
       </c>
       <c r="EQ3" t="n">
-        <v>371.0010070800781</v>
+        <v>296.0895080566406</v>
       </c>
       <c r="ER3" t="n">
-        <v>375.3588256835938</v>
+        <v>297.3534851074219</v>
       </c>
       <c r="ES3" t="n">
-        <v>373.76611328125</v>
+        <v>297.8097839355469</v>
       </c>
       <c r="ET3" t="n">
-        <v>378.030517578125</v>
+        <v>298.4022521972656</v>
       </c>
       <c r="EU3" t="n">
-        <v>384.7858581542969</v>
+        <v>298.3242797851562</v>
       </c>
       <c r="EV3" t="n">
-        <v>391.5278015136719</v>
+        <v>297.8218383789062</v>
       </c>
       <c r="EW3" t="n">
-        <v>401.888916015625</v>
+        <v>296.6293640136719</v>
       </c>
       <c r="EX3" t="n">
-        <v>403.7240295410156</v>
+        <v>288.9814453125</v>
       </c>
       <c r="EY3" t="n">
-        <v>413.6252136230469</v>
+        <v>281.9498291015625</v>
       </c>
       <c r="EZ3" t="n">
-        <v>421.7937622070312</v>
+        <v>281.352783203125</v>
       </c>
       <c r="FA3" t="n">
-        <v>428.2569885253906</v>
+        <v>279.428466796875</v>
       </c>
       <c r="FB3" t="n">
-        <v>434.0958557128906</v>
+        <v>291.7015075683594</v>
       </c>
       <c r="FC3" t="n">
-        <v>446.0989685058594</v>
+        <v>317.0997009277344</v>
       </c>
       <c r="FD3" t="n">
-        <v>458.1694946289062</v>
+        <v>311.3870239257812</v>
       </c>
       <c r="FE3" t="n">
-        <v>469.1298522949219</v>
+        <v>303.8163757324219</v>
       </c>
       <c r="FF3" t="n">
-        <v>483.2918395996094</v>
+        <v>303.7762145996094</v>
       </c>
       <c r="FG3" t="n">
-        <v>493.5037841796875</v>
+        <v>304.2392883300781</v>
       </c>
       <c r="FH3" t="n">
-        <v>504.8219604492188</v>
+        <v>304.1871337890625</v>
       </c>
       <c r="FI3" t="n">
-        <v>505.459716796875</v>
+        <v>303.6721801757812</v>
       </c>
       <c r="FJ3" t="n">
-        <v>525.3153076171875</v>
+        <v>303.0499267578125</v>
       </c>
       <c r="FK3" t="n">
-        <v>535.7002563476562</v>
+        <v>303.12890625</v>
       </c>
       <c r="FL3" t="n">
-        <v>536.8411254882812</v>
+        <v>303.4247131347656</v>
       </c>
       <c r="FM3" t="n">
-        <v>530.1495971679688</v>
+        <v>303.6618347167969</v>
       </c>
       <c r="FN3" t="n">
-        <v>528.5857543945312</v>
+        <v>304.5760803222656</v>
       </c>
       <c r="FO3" t="n">
-        <v>515.2903442382812</v>
+        <v>304.6175231933594</v>
       </c>
       <c r="FP3" t="n">
-        <v>464.8446044921875</v>
+        <v>304.5225219726562</v>
       </c>
       <c r="FQ3" t="n">
-        <v>366.9188537597656</v>
+        <v>304.2959594726562</v>
       </c>
       <c r="FR3" t="n">
-        <v>474.1095275878906</v>
+        <v>308.9671936035156</v>
       </c>
       <c r="FS3" t="n">
-        <v>501.4986572265625</v>
+        <v>306.8681640625</v>
       </c>
       <c r="FT3" t="n">
-        <v>501.1029663085938</v>
+        <v>308.5126647949219</v>
       </c>
       <c r="FU3" t="n">
-        <v>533.588623046875</v>
+        <v>284.1775207519531</v>
       </c>
       <c r="FV3" t="n">
-        <v>521.5565795898438</v>
+        <v>277.574462890625</v>
       </c>
       <c r="FW3" t="n">
-        <v>525.1199951171875</v>
+        <v>278.114501953125</v>
       </c>
       <c r="FX3" t="n">
-        <v>518.0602416992188</v>
+        <v>280.0607604980469</v>
       </c>
       <c r="FY3" t="n">
-        <v>509.1671142578125</v>
+        <v>278.8523559570312</v>
       </c>
       <c r="FZ3" t="n">
-        <v>473.3670043945312</v>
+        <v>285.2770385742188</v>
       </c>
       <c r="GA3" t="n">
-        <v>418.5792846679688</v>
+        <v>293.4587707519531</v>
       </c>
       <c r="GB3" t="n">
-        <v>400.7671508789062</v>
+        <v>291.6163940429688</v>
       </c>
       <c r="GC3" t="n">
-        <v>411.5965881347656</v>
+        <v>295.208984375</v>
       </c>
       <c r="GD3" t="n">
-        <v>394.5034790039062</v>
+        <v>296.3832397460938</v>
       </c>
       <c r="GE3" t="n">
-        <v>400.8677673339844</v>
+        <v>296.9637756347656</v>
       </c>
       <c r="GF3" t="n">
-        <v>407.006591796875</v>
+        <v>296.9610900878906</v>
       </c>
       <c r="GG3" t="n">
-        <v>414.3103332519531</v>
+        <v>296.9569091796875</v>
       </c>
       <c r="GH3" t="n">
-        <v>421.8842163085938</v>
+        <v>297.0457458496094</v>
       </c>
       <c r="GI3" t="n">
-        <v>452.7246704101562</v>
+        <v>296.0491333007812</v>
       </c>
       <c r="GJ3" t="n">
-        <v>448.6709289550781</v>
+        <v>291.0159301757812</v>
       </c>
       <c r="GK3" t="n">
-        <v>473.8104248046875</v>
+        <v>282.6900939941406</v>
       </c>
       <c r="GL3" t="n">
-        <v>472.5751647949219</v>
+        <v>280.3912963867188</v>
       </c>
       <c r="GM3" t="n">
-        <v>469.3158874511719</v>
+        <v>285.7185363769531</v>
       </c>
       <c r="GN3" t="n">
-        <v>451.5567932128906</v>
+        <v>300.5872192382812</v>
       </c>
       <c r="GO3" t="n">
-        <v>451.7942504882812</v>
+        <v>328.1961669921875</v>
       </c>
       <c r="GP3" t="n">
-        <v>460.2517395019531</v>
+        <v>303.0646667480469</v>
       </c>
       <c r="GQ3" t="n">
-        <v>465.9359436035156</v>
+        <v>301.9102783203125</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>301.943359375</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>303.1533813476562</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>304.9653015136719</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>305.5191040039062</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>305.442138671875</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>305.5748901367188</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>304.385009765625</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>304.3672485351562</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>303.9767150878906</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>307.3492736816406</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>296.5475158691406</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>276.5915222167969</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>283.5022888183594</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>284.9807434082031</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>279.181640625</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>292.9870910644531</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>297.4090881347656</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>297.0408325195312</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>297.0602722167969</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>296.7235412597656</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>295.4102172851562</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>295.3177185058594</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>295.4149169921875</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>295.4405822753906</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>292.3204956054688</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>284.0775146484375</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>288.9307250976562</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>278.1685791015625</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>295.889404296875</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>302.8774108886719</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>306.25537109375</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>301.257568359375</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>301.507080078125</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>302.4661560058594</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>302.812744140625</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>302.7245483398438</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>302.455078125</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>302.2167053222656</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>303.6368713378906</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>303.5670471191406</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>303.0848999023438</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>303.0258483886719</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>302.7574768066406</v>
+      </c>
+      <c r="II3" t="n">
+        <v>302.9396362304688</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>296.2863159179688</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>276.2083435058594</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>276.7604675292969</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>277.5339050292969</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>287.4148559570312</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>299.00048828125</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>306.3812866210938</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>296.131103515625</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>289.1827392578125</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>293.5826416015625</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>293.6617126464844</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>295.2877502441406</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>282.9988098144531</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>274.2169799804688</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>276.498046875</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>311.6251831054688</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>300.4281616210938</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>299.2449035644531</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>299.9654235839844</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>299.8248291015625</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>300.7048950195312</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>301.6225280761719</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>301.1907653808594</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>301.0218200683594</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>300.5926818847656</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>301.7973327636719</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>300.9670715332031</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>301.7723388671875</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>301.1230163574219</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>301.2821044921875</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>299.6716918945312</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>283.3706970214844</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>281.471923828125</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>283.2735290527344</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>299.068115234375</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>298.8779602050781</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>301.3818664550781</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>300.5887451171875</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>300.1430969238281</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>300.0098876953125</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>299.8587951660156</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>300.224853515625</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>300.3453979492188</v>
+      </c>
+      <c r="KA3" t="n">
+        <v>302.2267456054688</v>
+      </c>
+      <c r="KB3" t="n">
+        <v>304.6164855957031</v>
+      </c>
+      <c r="KC3" t="n">
+        <v>312.7539672851562</v>
+      </c>
+      <c r="KD3" t="n">
+        <v>360.92919921875</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>371.6916198730469</v>
+      </c>
+      <c r="KF3" t="n">
+        <v>385.5819091796875</v>
+      </c>
+      <c r="KG3" t="n">
+        <v>386.7745361328125</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>381.3788757324219</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>379.368408203125</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>375.680908203125</v>
+      </c>
+      <c r="KK3" t="n">
+        <v>376.9886169433594</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>391.322509765625</v>
+      </c>
+      <c r="KM3" t="n">
+        <v>399.5917358398438</v>
+      </c>
+      <c r="KN3" t="n">
+        <v>412.13720703125</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>412.6180419921875</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>408.8249206542969</v>
+      </c>
+      <c r="KQ3" t="n">
+        <v>398.0760803222656</v>
+      </c>
+      <c r="KR3" t="n">
+        <v>380.0107116699219</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>356.5030517578125</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>347.3045654296875</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>344.7241821289062</v>
+      </c>
+      <c r="KV3" t="n">
+        <v>356.2636108398438</v>
+      </c>
+      <c r="KW3" t="n">
+        <v>357.7538146972656</v>
+      </c>
+      <c r="KX3" t="n">
+        <v>366.9071960449219</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>397.1727294921875</v>
+      </c>
+      <c r="KZ3" t="n">
+        <v>414.6837463378906</v>
+      </c>
+      <c r="LA3" t="n">
+        <v>468.2577819824219</v>
+      </c>
+      <c r="LB3" t="n">
+        <v>483.8756103515625</v>
+      </c>
+      <c r="LC3" t="n">
+        <v>485.5003051757812</v>
+      </c>
+      <c r="LD3" t="n">
+        <v>495.3786926269531</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1002.462036132812</v>
+        <v>397.7721862792969</v>
       </c>
       <c r="B4" t="n">
-        <v>990.4422607421875</v>
+        <v>436.3253173828125</v>
       </c>
       <c r="C4" t="n">
-        <v>988.96142578125</v>
+        <v>477.7939147949219</v>
       </c>
       <c r="D4" t="n">
-        <v>998.3116455078125</v>
+        <v>518.6740112304688</v>
       </c>
       <c r="E4" t="n">
-        <v>1012.290405273438</v>
+        <v>563.8724365234375</v>
       </c>
       <c r="F4" t="n">
-        <v>1016.4658203125</v>
+        <v>623.5825805664062</v>
       </c>
       <c r="G4" t="n">
-        <v>1026.890625</v>
+        <v>685.4103393554688</v>
       </c>
       <c r="H4" t="n">
-        <v>1032.791137695312</v>
+        <v>749.837646484375</v>
       </c>
       <c r="I4" t="n">
-        <v>1035.029296875</v>
+        <v>816.6734619140625</v>
       </c>
       <c r="J4" t="n">
-        <v>1041.451049804688</v>
+        <v>888.1683349609375</v>
       </c>
       <c r="K4" t="n">
-        <v>1049.6611328125</v>
+        <v>954.12646484375</v>
       </c>
       <c r="L4" t="n">
-        <v>1059.93310546875</v>
+        <v>1026.567260742188</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.494262695312</v>
+        <v>1085.949340820312</v>
       </c>
       <c r="N4" t="n">
-        <v>1060.599609375</v>
+        <v>1144.000122070312</v>
       </c>
       <c r="O4" t="n">
-        <v>1083.319213867188</v>
+        <v>1206.601318359375</v>
       </c>
       <c r="P4" t="n">
-        <v>1090.554565429688</v>
+        <v>1265.681884765625</v>
       </c>
       <c r="Q4" t="n">
-        <v>1084.594360351562</v>
+        <v>1317.909790039062</v>
       </c>
       <c r="R4" t="n">
-        <v>1110.067504882812</v>
+        <v>1382.224609375</v>
       </c>
       <c r="S4" t="n">
-        <v>1125.24560546875</v>
+        <v>1431.144897460938</v>
       </c>
       <c r="T4" t="n">
-        <v>1121.815185546875</v>
+        <v>1467.331176757812</v>
       </c>
       <c r="U4" t="n">
-        <v>1108.699096679688</v>
+        <v>1516.302001953125</v>
       </c>
       <c r="V4" t="n">
-        <v>1097.7646484375</v>
+        <v>1546.207397460938</v>
       </c>
       <c r="W4" t="n">
-        <v>1110.646240234375</v>
+        <v>1561.228515625</v>
       </c>
       <c r="X4" t="n">
-        <v>1115.554931640625</v>
+        <v>1568.883911132812</v>
       </c>
       <c r="Y4" t="n">
-        <v>1117.681762695312</v>
+        <v>1583.75830078125</v>
       </c>
       <c r="Z4" t="n">
-        <v>1128.27978515625</v>
+        <v>1600.671630859375</v>
       </c>
       <c r="AA4" t="n">
-        <v>1132.370727539062</v>
+        <v>1614.29296875</v>
       </c>
       <c r="AB4" t="n">
-        <v>1126.63525390625</v>
+        <v>1618.159301757812</v>
       </c>
       <c r="AC4" t="n">
-        <v>1126.787719726562</v>
+        <v>1626.444458007812</v>
       </c>
       <c r="AD4" t="n">
-        <v>1133.377075195312</v>
+        <v>1641.803100585938</v>
       </c>
       <c r="AE4" t="n">
-        <v>1136.221801757812</v>
+        <v>1662.823974609375</v>
       </c>
       <c r="AF4" t="n">
-        <v>1138.810913085938</v>
+        <v>1675.719604492188</v>
       </c>
       <c r="AG4" t="n">
-        <v>1135.642822265625</v>
+        <v>1682.66259765625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1137.1123046875</v>
+        <v>1689.225219726562</v>
       </c>
       <c r="AI4" t="n">
-        <v>1136.009765625</v>
+        <v>1705.18798828125</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1135.202514648438</v>
+        <v>1711.98046875</v>
       </c>
       <c r="AK4" t="n">
-        <v>1132.095703125</v>
+        <v>1720.249755859375</v>
       </c>
       <c r="AL4" t="n">
-        <v>1133.328369140625</v>
+        <v>1718.758544921875</v>
       </c>
       <c r="AM4" t="n">
-        <v>1135.193603515625</v>
+        <v>1724.500244140625</v>
       </c>
       <c r="AN4" t="n">
-        <v>1143.416015625</v>
+        <v>1722.656005859375</v>
       </c>
       <c r="AO4" t="n">
-        <v>1156.661499023438</v>
+        <v>1729.033935546875</v>
       </c>
       <c r="AP4" t="n">
-        <v>1133.89501953125</v>
+        <v>1743.916625976562</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1093.754638671875</v>
+        <v>1754.30615234375</v>
       </c>
       <c r="AR4" t="n">
-        <v>1063.913818359375</v>
+        <v>1759.379150390625</v>
       </c>
       <c r="AS4" t="n">
-        <v>1012.274047851562</v>
+        <v>1760.969116210938</v>
       </c>
       <c r="AT4" t="n">
-        <v>977.097900390625</v>
+        <v>1765.893676757812</v>
       </c>
       <c r="AU4" t="n">
-        <v>979.408447265625</v>
+        <v>1770.296142578125</v>
       </c>
       <c r="AV4" t="n">
-        <v>976.1749267578125</v>
+        <v>1775.455322265625</v>
       </c>
       <c r="AW4" t="n">
-        <v>971.0991821289062</v>
+        <v>1783.493041992188</v>
       </c>
       <c r="AX4" t="n">
-        <v>970.28759765625</v>
+        <v>1790.099365234375</v>
       </c>
       <c r="AY4" t="n">
-        <v>979.372314453125</v>
+        <v>1791.797119140625</v>
       </c>
       <c r="AZ4" t="n">
-        <v>980.1763916015625</v>
+        <v>1797.013671875</v>
       </c>
       <c r="BA4" t="n">
-        <v>984.2176513671875</v>
+        <v>1803.52392578125</v>
       </c>
       <c r="BB4" t="n">
-        <v>994.271484375</v>
+        <v>1802.631225585938</v>
       </c>
       <c r="BC4" t="n">
-        <v>1006.475280761719</v>
+        <v>1805.2978515625</v>
       </c>
       <c r="BD4" t="n">
-        <v>1022.243896484375</v>
+        <v>1804.383911132812</v>
       </c>
       <c r="BE4" t="n">
-        <v>1039.27978515625</v>
+        <v>1806.780883789062</v>
       </c>
       <c r="BF4" t="n">
-        <v>1059.557373046875</v>
+        <v>1815.215209960938</v>
       </c>
       <c r="BG4" t="n">
-        <v>1080.291381835938</v>
+        <v>1821.14013671875</v>
       </c>
       <c r="BH4" t="n">
-        <v>1094.680908203125</v>
+        <v>1828.56884765625</v>
       </c>
       <c r="BI4" t="n">
-        <v>1113.142944335938</v>
+        <v>1819.400634765625</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1122.697631835938</v>
+        <v>1802.3154296875</v>
       </c>
       <c r="BK4" t="n">
-        <v>1127.446044921875</v>
+        <v>1805.839111328125</v>
       </c>
       <c r="BL4" t="n">
-        <v>1130.718872070312</v>
+        <v>1800.466552734375</v>
       </c>
       <c r="BM4" t="n">
-        <v>1130.958618164062</v>
+        <v>1793.102905273438</v>
       </c>
       <c r="BN4" t="n">
-        <v>1124.013305664062</v>
+        <v>1807.451416015625</v>
       </c>
       <c r="BO4" t="n">
-        <v>1107.31298828125</v>
+        <v>1804.5390625</v>
       </c>
       <c r="BP4" t="n">
-        <v>1068.511108398438</v>
+        <v>1797.3544921875</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1034.599731445312</v>
+        <v>1831.581909179688</v>
       </c>
       <c r="BR4" t="n">
-        <v>1009.833984375</v>
+        <v>1856.325927734375</v>
       </c>
       <c r="BS4" t="n">
-        <v>1007.814758300781</v>
+        <v>1868.1103515625</v>
       </c>
       <c r="BT4" t="n">
-        <v>999.7384033203125</v>
+        <v>1879.41455078125</v>
       </c>
       <c r="BU4" t="n">
-        <v>997.4148559570312</v>
+        <v>1884.338623046875</v>
       </c>
       <c r="BV4" t="n">
-        <v>1001.447875976562</v>
+        <v>1914.015014648438</v>
       </c>
       <c r="BW4" t="n">
-        <v>1003.262390136719</v>
+        <v>1939.890869140625</v>
       </c>
       <c r="BX4" t="n">
-        <v>998.01953125</v>
+        <v>1953.180908203125</v>
       </c>
       <c r="BY4" t="n">
-        <v>992.2235107421875</v>
+        <v>1957.020629882812</v>
       </c>
       <c r="BZ4" t="n">
-        <v>982.67578125</v>
+        <v>1957.446166992188</v>
       </c>
       <c r="CA4" t="n">
-        <v>973.3834838867188</v>
+        <v>1955.039306640625</v>
       </c>
       <c r="CB4" t="n">
-        <v>974.3223876953125</v>
+        <v>1953.126831054688</v>
       </c>
       <c r="CC4" t="n">
-        <v>980.340576171875</v>
+        <v>1952.556396484375</v>
       </c>
       <c r="CD4" t="n">
-        <v>991.4618530273438</v>
+        <v>1952.20361328125</v>
       </c>
       <c r="CE4" t="n">
-        <v>1000.712280273438</v>
+        <v>1950.191650390625</v>
       </c>
       <c r="CF4" t="n">
-        <v>1022.306457519531</v>
+        <v>1947.910522460938</v>
       </c>
       <c r="CG4" t="n">
-        <v>1046.538330078125</v>
+        <v>1942.691040039062</v>
       </c>
       <c r="CH4" t="n">
-        <v>1072.733764648438</v>
+        <v>1920.12939453125</v>
       </c>
       <c r="CI4" t="n">
-        <v>1099.495483398438</v>
+        <v>1892.482055664062</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1121.139404296875</v>
+        <v>1870.4326171875</v>
       </c>
       <c r="CK4" t="n">
-        <v>1137.345825195312</v>
+        <v>1854.886352539062</v>
       </c>
       <c r="CL4" t="n">
-        <v>1167.986938476562</v>
+        <v>1840.858276367188</v>
       </c>
       <c r="CM4" t="n">
-        <v>1181.798461914062</v>
+        <v>1828.185668945312</v>
       </c>
       <c r="CN4" t="n">
-        <v>1188.67431640625</v>
+        <v>1811.819946289062</v>
       </c>
       <c r="CO4" t="n">
-        <v>1191.146728515625</v>
+        <v>1798.459594726562</v>
       </c>
       <c r="CP4" t="n">
-        <v>1187.318969726562</v>
+        <v>1804.252563476562</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1185.984008789062</v>
+        <v>1784.375610351562</v>
       </c>
       <c r="CR4" t="n">
-        <v>1168.993530273438</v>
+        <v>1772.281860351562</v>
       </c>
       <c r="CS4" t="n">
-        <v>1141.758056640625</v>
+        <v>1773.347045898438</v>
       </c>
       <c r="CT4" t="n">
-        <v>1097.43505859375</v>
+        <v>1784.271118164062</v>
       </c>
       <c r="CU4" t="n">
-        <v>1061.557006835938</v>
+        <v>1790.976318359375</v>
       </c>
       <c r="CV4" t="n">
-        <v>1038.840698242188</v>
+        <v>1814.04345703125</v>
       </c>
       <c r="CW4" t="n">
-        <v>1017.577880859375</v>
+        <v>1809.55615234375</v>
       </c>
       <c r="CX4" t="n">
-        <v>1005.445007324219</v>
+        <v>1823.0478515625</v>
       </c>
       <c r="CY4" t="n">
-        <v>997.9815063476562</v>
+        <v>1832.518676757812</v>
       </c>
       <c r="CZ4" t="n">
-        <v>996.89599609375</v>
+        <v>1839.411376953125</v>
       </c>
       <c r="DA4" t="n">
-        <v>953.733154296875</v>
+        <v>1829.447143554688</v>
       </c>
       <c r="DB4" t="n">
-        <v>911.0159301757812</v>
+        <v>1829.276733398438</v>
       </c>
       <c r="DC4" t="n">
-        <v>893.3153686523438</v>
+        <v>1830.95361328125</v>
       </c>
       <c r="DD4" t="n">
-        <v>943.8092651367188</v>
+        <v>1826.242919921875</v>
       </c>
       <c r="DE4" t="n">
-        <v>991.3347778320312</v>
+        <v>1824.631958007812</v>
       </c>
       <c r="DF4" t="n">
-        <v>1002.104064941406</v>
+        <v>1824.179443359375</v>
       </c>
       <c r="DG4" t="n">
-        <v>1002.23828125</v>
+        <v>1822.814697265625</v>
       </c>
       <c r="DH4" t="n">
-        <v>1002.127807617188</v>
+        <v>1821.535888671875</v>
       </c>
       <c r="DI4" t="n">
-        <v>1003.594787597656</v>
+        <v>1824.9208984375</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1004.710327148438</v>
+        <v>1811.014404296875</v>
       </c>
       <c r="DK4" t="n">
-        <v>1012.204223632812</v>
+        <v>1760.886596679688</v>
       </c>
       <c r="DL4" t="n">
-        <v>1030.121948242188</v>
+        <v>1775.535888671875</v>
       </c>
       <c r="DM4" t="n">
-        <v>1046.627319335938</v>
+        <v>1797.263427734375</v>
       </c>
       <c r="DN4" t="n">
-        <v>1049.316528320312</v>
+        <v>1810.286376953125</v>
       </c>
       <c r="DO4" t="n">
-        <v>1054.057373046875</v>
+        <v>1822.235107421875</v>
       </c>
       <c r="DP4" t="n">
-        <v>1092.099975585938</v>
+        <v>1835.012573242188</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1109.068359375</v>
+        <v>1853.1884765625</v>
       </c>
       <c r="DR4" t="n">
-        <v>1120.53369140625</v>
+        <v>1864.60791015625</v>
       </c>
       <c r="DS4" t="n">
-        <v>1142.714477539062</v>
+        <v>1868.954956054688</v>
       </c>
       <c r="DT4" t="n">
-        <v>1145.253051757812</v>
+        <v>1881.270141601562</v>
       </c>
       <c r="DU4" t="n">
-        <v>1151.65283203125</v>
+        <v>1883.867309570312</v>
       </c>
       <c r="DV4" t="n">
-        <v>1155.368896484375</v>
+        <v>1883.873291015625</v>
       </c>
       <c r="DW4" t="n">
-        <v>1151.46044921875</v>
+        <v>1882.757690429688</v>
       </c>
       <c r="DX4" t="n">
-        <v>1154.244384765625</v>
+        <v>1881.904296875</v>
       </c>
       <c r="DY4" t="n">
-        <v>1156.836303710938</v>
+        <v>1878.550537109375</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1153.136352539062</v>
+        <v>1876.414794921875</v>
       </c>
       <c r="EA4" t="n">
-        <v>1162.7451171875</v>
+        <v>1870.315307617188</v>
       </c>
       <c r="EB4" t="n">
-        <v>1157.4619140625</v>
+        <v>1863.759399414062</v>
       </c>
       <c r="EC4" t="n">
-        <v>1155.553588867188</v>
+        <v>1855.05810546875</v>
       </c>
       <c r="ED4" t="n">
-        <v>1157.552978515625</v>
+        <v>1844.580078125</v>
       </c>
       <c r="EE4" t="n">
-        <v>1154.35595703125</v>
+        <v>1837.827392578125</v>
       </c>
       <c r="EF4" t="n">
-        <v>1154.072143554688</v>
+        <v>1807.938842773438</v>
       </c>
       <c r="EG4" t="n">
-        <v>1143.029174804688</v>
+        <v>1810.597534179688</v>
       </c>
       <c r="EH4" t="n">
-        <v>1125.736206054688</v>
+        <v>1814.400268554688</v>
       </c>
       <c r="EI4" t="n">
-        <v>1115.9541015625</v>
+        <v>1787.755859375</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1113.002319335938</v>
+        <v>1781.8828125</v>
       </c>
       <c r="EK4" t="n">
-        <v>1117.821044921875</v>
+        <v>1798.141845703125</v>
       </c>
       <c r="EL4" t="n">
-        <v>1119.374755859375</v>
+        <v>1800.19775390625</v>
       </c>
       <c r="EM4" t="n">
-        <v>1121.213623046875</v>
+        <v>1794.800903320312</v>
       </c>
       <c r="EN4" t="n">
-        <v>1121.63427734375</v>
+        <v>1810.449829101562</v>
       </c>
       <c r="EO4" t="n">
-        <v>1121.83251953125</v>
+        <v>1808.043701171875</v>
       </c>
       <c r="EP4" t="n">
-        <v>1112.593139648438</v>
+        <v>1797.39208984375</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1115.785888671875</v>
+        <v>1808.488525390625</v>
       </c>
       <c r="ER4" t="n">
-        <v>1104.484375</v>
+        <v>1827.620361328125</v>
       </c>
       <c r="ES4" t="n">
-        <v>1081.22607421875</v>
+        <v>1827.422607421875</v>
       </c>
       <c r="ET4" t="n">
-        <v>1063.121215820312</v>
+        <v>1828.721557617188</v>
       </c>
       <c r="EU4" t="n">
-        <v>1049.249877929688</v>
+        <v>1823.575439453125</v>
       </c>
       <c r="EV4" t="n">
-        <v>1012.918029785156</v>
+        <v>1820.344970703125</v>
       </c>
       <c r="EW4" t="n">
-        <v>966.5806274414062</v>
+        <v>1808.70751953125</v>
       </c>
       <c r="EX4" t="n">
-        <v>941.3311157226562</v>
+        <v>1782.80712890625</v>
       </c>
       <c r="EY4" t="n">
-        <v>901.6217041015625</v>
+        <v>1790.937744140625</v>
       </c>
       <c r="EZ4" t="n">
-        <v>842.98583984375</v>
+        <v>1768.420166015625</v>
       </c>
       <c r="FA4" t="n">
-        <v>804.7431640625</v>
+        <v>1785.364013671875</v>
       </c>
       <c r="FB4" t="n">
-        <v>771.2512817382812</v>
+        <v>1783.50341796875</v>
       </c>
       <c r="FC4" t="n">
-        <v>714.6956787109375</v>
+        <v>1777.481079101562</v>
       </c>
       <c r="FD4" t="n">
-        <v>670.2982177734375</v>
+        <v>1802.698120117188</v>
       </c>
       <c r="FE4" t="n">
-        <v>638.024169921875</v>
+        <v>1825.6865234375</v>
       </c>
       <c r="FF4" t="n">
-        <v>605.3895263671875</v>
+        <v>1835.639282226562</v>
       </c>
       <c r="FG4" t="n">
-        <v>584.1790771484375</v>
+        <v>1850.00830078125</v>
       </c>
       <c r="FH4" t="n">
-        <v>564.2122192382812</v>
+        <v>1856.226684570312</v>
       </c>
       <c r="FI4" t="n">
-        <v>554.736083984375</v>
+        <v>1858.96728515625</v>
       </c>
       <c r="FJ4" t="n">
-        <v>512.7019653320312</v>
+        <v>1869.059814453125</v>
       </c>
       <c r="FK4" t="n">
-        <v>501.8272399902344</v>
+        <v>1869.532348632812</v>
       </c>
       <c r="FL4" t="n">
-        <v>507.6631774902344</v>
+        <v>1868.933837890625</v>
       </c>
       <c r="FM4" t="n">
-        <v>511.0960693359375</v>
+        <v>1866.7314453125</v>
       </c>
       <c r="FN4" t="n">
-        <v>506.6283874511719</v>
+        <v>1855.537719726562</v>
       </c>
       <c r="FO4" t="n">
-        <v>511.6524963378906</v>
+        <v>1851.65625</v>
       </c>
       <c r="FP4" t="n">
-        <v>441.4269714355469</v>
+        <v>1835.945678710938</v>
       </c>
       <c r="FQ4" t="n">
-        <v>456.7878723144531</v>
+        <v>1823.328857421875</v>
       </c>
       <c r="FR4" t="n">
-        <v>505.9919128417969</v>
+        <v>1797.671997070312</v>
       </c>
       <c r="FS4" t="n">
-        <v>544.1190185546875</v>
+        <v>1799.787109375</v>
       </c>
       <c r="FT4" t="n">
-        <v>551.8074951171875</v>
+        <v>1786.37109375</v>
       </c>
       <c r="FU4" t="n">
-        <v>520.55419921875</v>
+        <v>1775.939697265625</v>
       </c>
       <c r="FV4" t="n">
-        <v>492.9422302246094</v>
+        <v>1794.271118164062</v>
       </c>
       <c r="FW4" t="n">
-        <v>485.5077514648438</v>
+        <v>1788.552856445312</v>
       </c>
       <c r="FX4" t="n">
-        <v>472.5809936523438</v>
+        <v>1782.245971679688</v>
       </c>
       <c r="FY4" t="n">
-        <v>451.72900390625</v>
+        <v>1793.434326171875</v>
       </c>
       <c r="FZ4" t="n">
-        <v>446.02880859375</v>
+        <v>1803.46142578125</v>
       </c>
       <c r="GA4" t="n">
-        <v>437.6194458007812</v>
+        <v>1803.308837890625</v>
       </c>
       <c r="GB4" t="n">
-        <v>456.0350646972656</v>
+        <v>1827.750732421875</v>
       </c>
       <c r="GC4" t="n">
-        <v>420.772705078125</v>
+        <v>1832.123901367188</v>
       </c>
       <c r="GD4" t="n">
-        <v>398.7787170410156</v>
+        <v>1822.848266601562</v>
       </c>
       <c r="GE4" t="n">
-        <v>368.3988342285156</v>
+        <v>1819.531494140625</v>
       </c>
       <c r="GF4" t="n">
-        <v>342.9724426269531</v>
+        <v>1818.699462890625</v>
       </c>
       <c r="GG4" t="n">
-        <v>293.8013305664062</v>
+        <v>1817.957397460938</v>
       </c>
       <c r="GH4" t="n">
-        <v>280.9682312011719</v>
+        <v>1817.363647460938</v>
       </c>
       <c r="GI4" t="n">
-        <v>234.3172149658203</v>
+        <v>1815.999389648438</v>
       </c>
       <c r="GJ4" t="n">
-        <v>217.5781097412109</v>
+        <v>1780.0830078125</v>
       </c>
       <c r="GK4" t="n">
-        <v>213.9270935058594</v>
+        <v>1771.404418945312</v>
       </c>
       <c r="GL4" t="n">
-        <v>208.2518157958984</v>
+        <v>1765.031005859375</v>
       </c>
       <c r="GM4" t="n">
-        <v>208.8348236083984</v>
+        <v>1781.192016601562</v>
       </c>
       <c r="GN4" t="n">
-        <v>218.4544372558594</v>
+        <v>1786.145751953125</v>
       </c>
       <c r="GO4" t="n">
-        <v>220.9793243408203</v>
+        <v>1779.160034179688</v>
       </c>
       <c r="GP4" t="n">
-        <v>218.4780883789062</v>
+        <v>1827.945922851562</v>
       </c>
       <c r="GQ4" t="n">
-        <v>219.9861145019531</v>
+        <v>1851.907104492188</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>1863.775634765625</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>1886.502807617188</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>1892.03076171875</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>1891.495483398438</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>1889.922485351562</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>1875.250244140625</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>1849.83203125</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>1820.853759765625</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>1799.098876953125</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>1774.497314453125</v>
+      </c>
+      <c r="HB4" t="n">
+        <v>1774.994018554688</v>
+      </c>
+      <c r="HC4" t="n">
+        <v>1783.8857421875</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>1764.989013671875</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>1774.378540039062</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>1792.46533203125</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>1795.729248046875</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>1812.188720703125</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>1831.5927734375</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>1823.585693359375</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>1815.20849609375</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>1802.56884765625</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>1801.462280273438</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>1802.12939453125</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>1803.288330078125</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>1770.178588867188</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>1781.60302734375</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>1781.226806640625</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>1797.697265625</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>1760.795166015625</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>1788.052124023438</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>1813.465576171875</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>1845.575439453125</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>1859.743408203125</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>1883.440185546875</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>1899.674560546875</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>1894.58056640625</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>1891.0302734375</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>1888.002807617188</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>1873.104736328125</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>1862.58984375</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>1845.926025390625</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>1828.079833984375</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>1818.526977539062</v>
+      </c>
+      <c r="II4" t="n">
+        <v>1812.449340820312</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>1773.7451171875</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>1809.629272460938</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>1783.7421875</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>1776.185302734375</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>1792.38720703125</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>1726.745483398438</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>1715.226318359375</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>1760.91162109375</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>1779.914672851562</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>1808.315307617188</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>1811.53857421875</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>1779.3828125</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>1795.740356445312</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>1766.775756835938</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>1790.561645507812</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>1766.889404296875</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>1812.76806640625</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>1848.44677734375</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>1868.97998046875</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>1902.203002929688</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>1915.593383789062</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>1908.597290039062</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>1907.80029296875</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>1903.037963867188</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>1876.30615234375</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>1852.6279296875</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>1850.549560546875</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>1835.393676757812</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>1819.51416015625</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>1802.038696289062</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>1792.255859375</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>1768.57080078125</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>1777.696655273438</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>1768.197631835938</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>1777.491455078125</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>1782.662231445312</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>1814.1904296875</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>1808.955688476562</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>1804.943237304688</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>1803.786743164062</v>
+      </c>
+      <c r="JX4" t="n">
+        <v>1801.33203125</v>
+      </c>
+      <c r="JY4" t="n">
+        <v>1800.079833984375</v>
+      </c>
+      <c r="JZ4" t="n">
+        <v>1794.919677734375</v>
+      </c>
+      <c r="KA4" t="n">
+        <v>1780.050903320312</v>
+      </c>
+      <c r="KB4" t="n">
+        <v>1767.795288085938</v>
+      </c>
+      <c r="KC4" t="n">
+        <v>1753.320190429688</v>
+      </c>
+      <c r="KD4" t="n">
+        <v>1704.466918945312</v>
+      </c>
+      <c r="KE4" t="n">
+        <v>1726.28173828125</v>
+      </c>
+      <c r="KF4" t="n">
+        <v>1771.42822265625</v>
+      </c>
+      <c r="KG4" t="n">
+        <v>1917.174682617188</v>
+      </c>
+      <c r="KH4" t="n">
+        <v>1998.787963867188</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>2007.946411132812</v>
+      </c>
+      <c r="KJ4" t="n">
+        <v>2030.117797851562</v>
+      </c>
+      <c r="KK4" t="n">
+        <v>1986.196166992188</v>
+      </c>
+      <c r="KL4" t="n">
+        <v>1849.576782226562</v>
+      </c>
+      <c r="KM4" t="n">
+        <v>1747.605346679688</v>
+      </c>
+      <c r="KN4" t="n">
+        <v>1605.711303710938</v>
+      </c>
+      <c r="KO4" t="n">
+        <v>1382.971435546875</v>
+      </c>
+      <c r="KP4" t="n">
+        <v>1244.14599609375</v>
+      </c>
+      <c r="KQ4" t="n">
+        <v>1115.1708984375</v>
+      </c>
+      <c r="KR4" t="n">
+        <v>1012.918395996094</v>
+      </c>
+      <c r="KS4" t="n">
+        <v>918.3045654296875</v>
+      </c>
+      <c r="KT4" t="n">
+        <v>851.106201171875</v>
+      </c>
+      <c r="KU4" t="n">
+        <v>732.2072143554688</v>
+      </c>
+      <c r="KV4" t="n">
+        <v>646.3539428710938</v>
+      </c>
+      <c r="KW4" t="n">
+        <v>571.0709838867188</v>
+      </c>
+      <c r="KX4" t="n">
+        <v>478.6685180664062</v>
+      </c>
+      <c r="KY4" t="n">
+        <v>429.4335327148438</v>
+      </c>
+      <c r="KZ4" t="n">
+        <v>391.4810485839844</v>
+      </c>
+      <c r="LA4" t="n">
+        <v>354.0681762695312</v>
+      </c>
+      <c r="LB4" t="n">
+        <v>344.379638671875</v>
+      </c>
+      <c r="LC4" t="n">
+        <v>343.4631652832031</v>
+      </c>
+      <c r="LD4" t="n">
+        <v>342.7660827636719</v>
       </c>
     </row>
   </sheetData>

--- a/left_hand_Data.xlsx
+++ b/left_hand_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:LD4"/>
+  <dimension ref="A1:MF4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1382,2855 +1382,3191 @@
       <c r="LD1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="LE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>541.807861328125</v>
+        <v>474.7036437988281</v>
       </c>
       <c r="B2" t="n">
-        <v>541.8536376953125</v>
+        <v>471.24951171875</v>
       </c>
       <c r="C2" t="n">
-        <v>530.2738647460938</v>
+        <v>464.4641723632812</v>
       </c>
       <c r="D2" t="n">
-        <v>500.6500244140625</v>
+        <v>459.2559509277344</v>
       </c>
       <c r="E2" t="n">
-        <v>480.6224365234375</v>
+        <v>452.4617919921875</v>
       </c>
       <c r="F2" t="n">
-        <v>466.2420043945312</v>
+        <v>442.7042236328125</v>
       </c>
       <c r="G2" t="n">
-        <v>451.5260314941406</v>
+        <v>430.0923461914062</v>
       </c>
       <c r="H2" t="n">
-        <v>438.6026000976562</v>
+        <v>422.6918334960938</v>
       </c>
       <c r="I2" t="n">
-        <v>429.4185791015625</v>
+        <v>412.7201538085938</v>
       </c>
       <c r="J2" t="n">
-        <v>424.0332641601562</v>
+        <v>408.3604736328125</v>
       </c>
       <c r="K2" t="n">
-        <v>424.1576843261719</v>
+        <v>402.3814697265625</v>
       </c>
       <c r="L2" t="n">
-        <v>425.4189453125</v>
+        <v>397.988037109375</v>
       </c>
       <c r="M2" t="n">
-        <v>422.6620788574219</v>
+        <v>393.9294738769531</v>
       </c>
       <c r="N2" t="n">
-        <v>420.7838439941406</v>
+        <v>393.6963500976562</v>
       </c>
       <c r="O2" t="n">
-        <v>419.0668334960938</v>
+        <v>393.5230712890625</v>
       </c>
       <c r="P2" t="n">
-        <v>417.109130859375</v>
+        <v>392.1990356445312</v>
       </c>
       <c r="Q2" t="n">
-        <v>416.0315551757812</v>
+        <v>389.8706665039062</v>
       </c>
       <c r="R2" t="n">
-        <v>416.7987670898438</v>
+        <v>388.3971557617188</v>
       </c>
       <c r="S2" t="n">
-        <v>417.2888793945312</v>
+        <v>386.2864685058594</v>
       </c>
       <c r="T2" t="n">
-        <v>417.1329040527344</v>
+        <v>384.5905151367188</v>
       </c>
       <c r="U2" t="n">
-        <v>416.4334411621094</v>
+        <v>383.0338134765625</v>
       </c>
       <c r="V2" t="n">
-        <v>414.9286193847656</v>
+        <v>381.4720153808594</v>
       </c>
       <c r="W2" t="n">
-        <v>414.44140625</v>
+        <v>380.5058288574219</v>
       </c>
       <c r="X2" t="n">
-        <v>413.3119201660156</v>
+        <v>379.53759765625</v>
       </c>
       <c r="Y2" t="n">
-        <v>408.4796752929688</v>
+        <v>380.002197265625</v>
       </c>
       <c r="Z2" t="n">
-        <v>403.002197265625</v>
+        <v>382.9573974609375</v>
       </c>
       <c r="AA2" t="n">
-        <v>396.9422912597656</v>
+        <v>382.7384948730469</v>
       </c>
       <c r="AB2" t="n">
-        <v>392.5322265625</v>
+        <v>381.006103515625</v>
       </c>
       <c r="AC2" t="n">
-        <v>386.9144287109375</v>
+        <v>379.1492309570312</v>
       </c>
       <c r="AD2" t="n">
-        <v>381.648193359375</v>
+        <v>377.5311889648438</v>
       </c>
       <c r="AE2" t="n">
-        <v>376.7211303710938</v>
+        <v>377.0037536621094</v>
       </c>
       <c r="AF2" t="n">
-        <v>372.3310852050781</v>
+        <v>376.3099975585938</v>
       </c>
       <c r="AG2" t="n">
-        <v>368.338134765625</v>
+        <v>376.5628662109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>362.4689025878906</v>
+        <v>378.4164123535156</v>
       </c>
       <c r="AI2" t="n">
-        <v>358.3533020019531</v>
+        <v>381.4679565429688</v>
       </c>
       <c r="AJ2" t="n">
-        <v>355.1871337890625</v>
+        <v>384.3148803710938</v>
       </c>
       <c r="AK2" t="n">
-        <v>351.6012878417969</v>
+        <v>384.826416015625</v>
       </c>
       <c r="AL2" t="n">
-        <v>346.4708251953125</v>
+        <v>383.7630615234375</v>
       </c>
       <c r="AM2" t="n">
-        <v>348.5042724609375</v>
+        <v>382.5200805664062</v>
       </c>
       <c r="AN2" t="n">
-        <v>344.0238952636719</v>
+        <v>381.7025756835938</v>
       </c>
       <c r="AO2" t="n">
-        <v>338.6719970703125</v>
+        <v>380.7801513671875</v>
       </c>
       <c r="AP2" t="n">
-        <v>333.3682556152344</v>
+        <v>379.1556396484375</v>
       </c>
       <c r="AQ2" t="n">
-        <v>330.0372314453125</v>
+        <v>375.6272583007812</v>
       </c>
       <c r="AR2" t="n">
-        <v>329.9225463867188</v>
+        <v>371.249755859375</v>
       </c>
       <c r="AS2" t="n">
-        <v>330.9667358398438</v>
+        <v>369.3867492675781</v>
       </c>
       <c r="AT2" t="n">
-        <v>332.6608276367188</v>
+        <v>365.7531433105469</v>
       </c>
       <c r="AU2" t="n">
-        <v>331.9817810058594</v>
+        <v>360.2745971679688</v>
       </c>
       <c r="AV2" t="n">
-        <v>331.775634765625</v>
+        <v>357.1672973632812</v>
       </c>
       <c r="AW2" t="n">
-        <v>331.161865234375</v>
+        <v>355.8497314453125</v>
       </c>
       <c r="AX2" t="n">
-        <v>330.7240295410156</v>
+        <v>352.9874877929688</v>
       </c>
       <c r="AY2" t="n">
-        <v>331.0750732421875</v>
+        <v>351.2200317382812</v>
       </c>
       <c r="AZ2" t="n">
-        <v>329.9654541015625</v>
+        <v>345.2761535644531</v>
       </c>
       <c r="BA2" t="n">
-        <v>328.7813720703125</v>
+        <v>340.4111328125</v>
       </c>
       <c r="BB2" t="n">
-        <v>328.1719665527344</v>
+        <v>339.8521118164062</v>
       </c>
       <c r="BC2" t="n">
-        <v>326.8628234863281</v>
+        <v>337.4713745117188</v>
       </c>
       <c r="BD2" t="n">
-        <v>326.0783081054688</v>
+        <v>336.5216674804688</v>
       </c>
       <c r="BE2" t="n">
-        <v>326.3009643554688</v>
+        <v>335.12109375</v>
       </c>
       <c r="BF2" t="n">
-        <v>327.3183898925781</v>
+        <v>332.6819152832031</v>
       </c>
       <c r="BG2" t="n">
-        <v>326.0601501464844</v>
+        <v>330.6807861328125</v>
       </c>
       <c r="BH2" t="n">
-        <v>325.632568359375</v>
+        <v>332.824462890625</v>
       </c>
       <c r="BI2" t="n">
-        <v>331.0050659179688</v>
+        <v>334.6051635742188</v>
       </c>
       <c r="BJ2" t="n">
-        <v>336.5829772949219</v>
+        <v>332.6227111816406</v>
       </c>
       <c r="BK2" t="n">
-        <v>338.3972473144531</v>
+        <v>335.9119262695312</v>
       </c>
       <c r="BL2" t="n">
-        <v>348.4563598632812</v>
+        <v>341.37255859375</v>
       </c>
       <c r="BM2" t="n">
-        <v>366.50537109375</v>
+        <v>343.8749389648438</v>
       </c>
       <c r="BN2" t="n">
-        <v>377.703369140625</v>
+        <v>346.6534423828125</v>
       </c>
       <c r="BO2" t="n">
-        <v>384.3526611328125</v>
+        <v>342.3600769042969</v>
       </c>
       <c r="BP2" t="n">
-        <v>390.990234375</v>
+        <v>342.0578308105469</v>
       </c>
       <c r="BQ2" t="n">
-        <v>398.9224548339844</v>
+        <v>343.7789916992188</v>
       </c>
       <c r="BR2" t="n">
-        <v>405.3873291015625</v>
+        <v>346.7081298828125</v>
       </c>
       <c r="BS2" t="n">
-        <v>408.7444763183594</v>
+        <v>347.022216796875</v>
       </c>
       <c r="BT2" t="n">
-        <v>410.8397827148438</v>
+        <v>345.4107971191406</v>
       </c>
       <c r="BU2" t="n">
-        <v>413.6596069335938</v>
+        <v>343.9301147460938</v>
       </c>
       <c r="BV2" t="n">
-        <v>418.7060852050781</v>
+        <v>341.8241577148438</v>
       </c>
       <c r="BW2" t="n">
-        <v>422.2666015625</v>
+        <v>342.614990234375</v>
       </c>
       <c r="BX2" t="n">
-        <v>423.6033630371094</v>
+        <v>342.8823547363281</v>
       </c>
       <c r="BY2" t="n">
-        <v>424.1183471679688</v>
+        <v>340.1315612792969</v>
       </c>
       <c r="BZ2" t="n">
-        <v>424.2137145996094</v>
+        <v>341.1231689453125</v>
       </c>
       <c r="CA2" t="n">
-        <v>424.0794372558594</v>
+        <v>339.6951904296875</v>
       </c>
       <c r="CB2" t="n">
-        <v>423.9454956054688</v>
+        <v>335.5404052734375</v>
       </c>
       <c r="CC2" t="n">
-        <v>424.1750793457031</v>
+        <v>332.1766967773438</v>
       </c>
       <c r="CD2" t="n">
-        <v>424.234375</v>
+        <v>331.459716796875</v>
       </c>
       <c r="CE2" t="n">
-        <v>424.532470703125</v>
+        <v>329.637451171875</v>
       </c>
       <c r="CF2" t="n">
-        <v>424.5183715820312</v>
+        <v>326.7864990234375</v>
       </c>
       <c r="CG2" t="n">
-        <v>423.4723510742188</v>
+        <v>324.2817993164062</v>
       </c>
       <c r="CH2" t="n">
-        <v>419.592529296875</v>
+        <v>325.56494140625</v>
       </c>
       <c r="CI2" t="n">
-        <v>413.97412109375</v>
+        <v>324.42724609375</v>
       </c>
       <c r="CJ2" t="n">
-        <v>407.1823120117188</v>
+        <v>322.7244262695312</v>
       </c>
       <c r="CK2" t="n">
-        <v>402.1038818359375</v>
+        <v>322.3945617675781</v>
       </c>
       <c r="CL2" t="n">
-        <v>396.4752807617188</v>
+        <v>322.0185852050781</v>
       </c>
       <c r="CM2" t="n">
-        <v>387.3412780761719</v>
+        <v>321.655517578125</v>
       </c>
       <c r="CN2" t="n">
-        <v>377.5845336914062</v>
+        <v>321.7274475097656</v>
       </c>
       <c r="CO2" t="n">
-        <v>374.0435180664062</v>
+        <v>322.2033081054688</v>
       </c>
       <c r="CP2" t="n">
-        <v>369.33935546875</v>
+        <v>322.2346801757812</v>
       </c>
       <c r="CQ2" t="n">
-        <v>370.276123046875</v>
+        <v>322.32763671875</v>
       </c>
       <c r="CR2" t="n">
-        <v>368.955322265625</v>
+        <v>322.4521484375</v>
       </c>
       <c r="CS2" t="n">
-        <v>353.2391662597656</v>
+        <v>323.2984008789062</v>
       </c>
       <c r="CT2" t="n">
-        <v>342.17626953125</v>
+        <v>323.4457702636719</v>
       </c>
       <c r="CU2" t="n">
-        <v>338.6224060058594</v>
+        <v>324.052490234375</v>
       </c>
       <c r="CV2" t="n">
-        <v>335.4226989746094</v>
+        <v>323.7203674316406</v>
       </c>
       <c r="CW2" t="n">
-        <v>334.638916015625</v>
+        <v>326.0144348144531</v>
       </c>
       <c r="CX2" t="n">
-        <v>327.3425903320312</v>
+        <v>326.863037109375</v>
       </c>
       <c r="CY2" t="n">
-        <v>324.7445678710938</v>
+        <v>326.8439025878906</v>
       </c>
       <c r="CZ2" t="n">
-        <v>323.51416015625</v>
+        <v>327.1082153320312</v>
       </c>
       <c r="DA2" t="n">
-        <v>325.9233093261719</v>
+        <v>327.5591430664062</v>
       </c>
       <c r="DB2" t="n">
-        <v>323.948486328125</v>
+        <v>327.9967041015625</v>
       </c>
       <c r="DC2" t="n">
-        <v>321.6032409667969</v>
+        <v>329.0371704101562</v>
       </c>
       <c r="DD2" t="n">
-        <v>322.583251953125</v>
+        <v>341.7781982421875</v>
       </c>
       <c r="DE2" t="n">
-        <v>322.1691589355469</v>
+        <v>340.8765869140625</v>
       </c>
       <c r="DF2" t="n">
-        <v>321.7647705078125</v>
+        <v>340.157958984375</v>
       </c>
       <c r="DG2" t="n">
-        <v>321.5470581054688</v>
+        <v>341.545166015625</v>
       </c>
       <c r="DH2" t="n">
-        <v>321.3646850585938</v>
+        <v>353.6524658203125</v>
       </c>
       <c r="DI2" t="n">
-        <v>322.0183715820312</v>
+        <v>383.74658203125</v>
       </c>
       <c r="DJ2" t="n">
-        <v>331.7650756835938</v>
+        <v>388.9648742675781</v>
       </c>
       <c r="DK2" t="n">
-        <v>353.6175842285156</v>
+        <v>391.685302734375</v>
       </c>
       <c r="DL2" t="n">
-        <v>369.294189453125</v>
+        <v>393.4825134277344</v>
       </c>
       <c r="DM2" t="n">
-        <v>377.3662109375</v>
+        <v>397.175537109375</v>
       </c>
       <c r="DN2" t="n">
-        <v>392.0865478515625</v>
+        <v>396.3159790039062</v>
       </c>
       <c r="DO2" t="n">
-        <v>397.8529357910156</v>
+        <v>396.46630859375</v>
       </c>
       <c r="DP2" t="n">
-        <v>401.0668640136719</v>
+        <v>396.7422180175781</v>
       </c>
       <c r="DQ2" t="n">
-        <v>404.5669860839844</v>
+        <v>397.1065063476562</v>
       </c>
       <c r="DR2" t="n">
-        <v>407.1367797851562</v>
+        <v>397.1258239746094</v>
       </c>
       <c r="DS2" t="n">
-        <v>409.4346923828125</v>
+        <v>397.6290893554688</v>
       </c>
       <c r="DT2" t="n">
-        <v>416.0443115234375</v>
+        <v>397.5086975097656</v>
       </c>
       <c r="DU2" t="n">
-        <v>418.5031127929688</v>
+        <v>397.3847045898438</v>
       </c>
       <c r="DV2" t="n">
-        <v>419.1103515625</v>
+        <v>397.2765502929688</v>
       </c>
       <c r="DW2" t="n">
-        <v>419.1446533203125</v>
+        <v>396.6022338867188</v>
       </c>
       <c r="DX2" t="n">
-        <v>418.8302001953125</v>
+        <v>394.0533752441406</v>
       </c>
       <c r="DY2" t="n">
-        <v>418.06005859375</v>
+        <v>387.3755187988281</v>
       </c>
       <c r="DZ2" t="n">
-        <v>417.2235107421875</v>
+        <v>366.9911193847656</v>
       </c>
       <c r="EA2" t="n">
-        <v>414.9995422363281</v>
+        <v>358.1701965332031</v>
       </c>
       <c r="EB2" t="n">
-        <v>412.6147766113281</v>
+        <v>344.8858337402344</v>
       </c>
       <c r="EC2" t="n">
-        <v>409.1037292480469</v>
+        <v>337.7593383789062</v>
       </c>
       <c r="ED2" t="n">
-        <v>403.1352233886719</v>
+        <v>334.1651000976562</v>
       </c>
       <c r="EE2" t="n">
-        <v>398.65869140625</v>
+        <v>340.8912658691406</v>
       </c>
       <c r="EF2" t="n">
-        <v>382.9951782226562</v>
+        <v>339.275146484375</v>
       </c>
       <c r="EG2" t="n">
-        <v>382.960693359375</v>
+        <v>335.6445922851562</v>
       </c>
       <c r="EH2" t="n">
-        <v>381.4868774414062</v>
+        <v>335.760009765625</v>
       </c>
       <c r="EI2" t="n">
-        <v>372.3961791992188</v>
+        <v>336.2294311523438</v>
       </c>
       <c r="EJ2" t="n">
-        <v>370.0219421386719</v>
+        <v>333.6580200195312</v>
       </c>
       <c r="EK2" t="n">
-        <v>364.0962524414062</v>
+        <v>334.1619873046875</v>
       </c>
       <c r="EL2" t="n">
-        <v>359.9133605957031</v>
+        <v>332.613037109375</v>
       </c>
       <c r="EM2" t="n">
-        <v>341.0177001953125</v>
+        <v>334.7079162597656</v>
       </c>
       <c r="EN2" t="n">
-        <v>337.1944580078125</v>
+        <v>336.1016235351562</v>
       </c>
       <c r="EO2" t="n">
-        <v>336.9005737304688</v>
+        <v>346.1994934082031</v>
       </c>
       <c r="EP2" t="n">
-        <v>334.9432678222656</v>
+        <v>376.2265625</v>
       </c>
       <c r="EQ2" t="n">
-        <v>322.00244140625</v>
+        <v>394.2748413085938</v>
       </c>
       <c r="ER2" t="n">
-        <v>318.3809509277344</v>
+        <v>400.5364685058594</v>
       </c>
       <c r="ES2" t="n">
-        <v>319.2219543457031</v>
+        <v>402.6719360351562</v>
       </c>
       <c r="ET2" t="n">
-        <v>316.7756652832031</v>
+        <v>407.076171875</v>
       </c>
       <c r="EU2" t="n">
-        <v>316.9305725097656</v>
+        <v>410.7459106445312</v>
       </c>
       <c r="EV2" t="n">
-        <v>317.8764953613281</v>
+        <v>410.6405334472656</v>
       </c>
       <c r="EW2" t="n">
-        <v>320.3433532714844</v>
+        <v>410.7422180175781</v>
       </c>
       <c r="EX2" t="n">
-        <v>338.0758666992188</v>
+        <v>410.9964599609375</v>
       </c>
       <c r="EY2" t="n">
-        <v>340.5032348632812</v>
+        <v>410.9168090820312</v>
       </c>
       <c r="EZ2" t="n">
-        <v>340.3677673339844</v>
+        <v>410.7572021484375</v>
       </c>
       <c r="FA2" t="n">
-        <v>361.2316284179688</v>
+        <v>410.5570678710938</v>
       </c>
       <c r="FB2" t="n">
-        <v>368.2927856445312</v>
+        <v>409.9663696289062</v>
       </c>
       <c r="FC2" t="n">
-        <v>377.5558166503906</v>
+        <v>407.0689697265625</v>
       </c>
       <c r="FD2" t="n">
-        <v>398.5396118164062</v>
+        <v>403.8392333984375</v>
       </c>
       <c r="FE2" t="n">
-        <v>402.4219055175781</v>
+        <v>394.7918395996094</v>
       </c>
       <c r="FF2" t="n">
-        <v>404.2255859375</v>
+        <v>390.847900390625</v>
       </c>
       <c r="FG2" t="n">
-        <v>408.162353515625</v>
+        <v>389.736083984375</v>
       </c>
       <c r="FH2" t="n">
-        <v>409.8119506835938</v>
+        <v>372.37841796875</v>
       </c>
       <c r="FI2" t="n">
-        <v>409.4219360351562</v>
+        <v>347.1655578613281</v>
       </c>
       <c r="FJ2" t="n">
-        <v>410.429443359375</v>
+        <v>339.7166748046875</v>
       </c>
       <c r="FK2" t="n">
-        <v>410.1888732910156</v>
+        <v>334.3510437011719</v>
       </c>
       <c r="FL2" t="n">
-        <v>409.7081909179688</v>
+        <v>336.6689453125</v>
       </c>
       <c r="FM2" t="n">
-        <v>409.5350646972656</v>
+        <v>335.3922729492188</v>
       </c>
       <c r="FN2" t="n">
-        <v>408.8047790527344</v>
+        <v>335.944580078125</v>
       </c>
       <c r="FO2" t="n">
-        <v>408.7821960449219</v>
+        <v>334.7463989257812</v>
       </c>
       <c r="FP2" t="n">
-        <v>405.3543395996094</v>
+        <v>335.4959411621094</v>
       </c>
       <c r="FQ2" t="n">
-        <v>399.7416687011719</v>
+        <v>338.9930419921875</v>
       </c>
       <c r="FR2" t="n">
-        <v>384.1606140136719</v>
+        <v>351.4414672851562</v>
       </c>
       <c r="FS2" t="n">
-        <v>384.0014343261719</v>
+        <v>394.8479614257812</v>
       </c>
       <c r="FT2" t="n">
-        <v>370.2418823242188</v>
+        <v>412.8181457519531</v>
       </c>
       <c r="FU2" t="n">
-        <v>364.9907836914062</v>
+        <v>409.1536865234375</v>
       </c>
       <c r="FV2" t="n">
-        <v>358.7022094726562</v>
+        <v>410.0024108886719</v>
       </c>
       <c r="FW2" t="n">
-        <v>355.2434692382812</v>
+        <v>411.8009948730469</v>
       </c>
       <c r="FX2" t="n">
-        <v>347.2192993164062</v>
+        <v>412.5018615722656</v>
       </c>
       <c r="FY2" t="n">
-        <v>340.1668701171875</v>
+        <v>412.3146057128906</v>
       </c>
       <c r="FZ2" t="n">
-        <v>332.8796081542969</v>
+        <v>411.554931640625</v>
       </c>
       <c r="GA2" t="n">
-        <v>325.9064331054688</v>
+        <v>411.8851928710938</v>
       </c>
       <c r="GB2" t="n">
-        <v>317.3443908691406</v>
+        <v>411.7298889160156</v>
       </c>
       <c r="GC2" t="n">
-        <v>314.5463256835938</v>
+        <v>411.8292236328125</v>
       </c>
       <c r="GD2" t="n">
-        <v>316.3431396484375</v>
+        <v>411.4490356445312</v>
       </c>
       <c r="GE2" t="n">
-        <v>317.8893737792969</v>
+        <v>410.4768676757812</v>
       </c>
       <c r="GF2" t="n">
-        <v>317.7807922363281</v>
+        <v>407.6114501953125</v>
       </c>
       <c r="GG2" t="n">
-        <v>317.9349060058594</v>
+        <v>397.3208923339844</v>
       </c>
       <c r="GH2" t="n">
-        <v>318.1224670410156</v>
+        <v>385.6492309570312</v>
       </c>
       <c r="GI2" t="n">
-        <v>317.4569702148438</v>
+        <v>352.5410461425781</v>
       </c>
       <c r="GJ2" t="n">
-        <v>333.1571960449219</v>
+        <v>342.1444091796875</v>
       </c>
       <c r="GK2" t="n">
-        <v>347.0020141601562</v>
+        <v>334.2718505859375</v>
       </c>
       <c r="GL2" t="n">
-        <v>351.8595886230469</v>
+        <v>336.9183959960938</v>
       </c>
       <c r="GM2" t="n">
-        <v>366.5960083007812</v>
+        <v>333.5928039550781</v>
       </c>
       <c r="GN2" t="n">
-        <v>375.6646728515625</v>
+        <v>331.700927734375</v>
       </c>
       <c r="GO2" t="n">
-        <v>387.7378845214844</v>
+        <v>331.9967956542969</v>
       </c>
       <c r="GP2" t="n">
-        <v>402.7568969726562</v>
+        <v>332.0577697753906</v>
       </c>
       <c r="GQ2" t="n">
-        <v>410.0916137695312</v>
+        <v>331.5127868652344</v>
       </c>
       <c r="GR2" t="n">
-        <v>411.922607421875</v>
+        <v>331.054443359375</v>
       </c>
       <c r="GS2" t="n">
-        <v>413.459716796875</v>
+        <v>333.0925903320312</v>
       </c>
       <c r="GT2" t="n">
-        <v>414.4818725585938</v>
+        <v>348.62353515625</v>
       </c>
       <c r="GU2" t="n">
-        <v>414.6722106933594</v>
+        <v>363.3971557617188</v>
       </c>
       <c r="GV2" t="n">
-        <v>413.95263671875</v>
+        <v>395.8911437988281</v>
       </c>
       <c r="GW2" t="n">
-        <v>411.4815673828125</v>
+        <v>407.765625</v>
       </c>
       <c r="GX2" t="n">
-        <v>407.4834899902344</v>
+        <v>403.9962158203125</v>
       </c>
       <c r="GY2" t="n">
-        <v>397.6482543945312</v>
+        <v>409.9308776855469</v>
       </c>
       <c r="GZ2" t="n">
-        <v>389.8604125976562</v>
+        <v>411.043212890625</v>
       </c>
       <c r="HA2" t="n">
-        <v>376.9026184082031</v>
+        <v>410.954345703125</v>
       </c>
       <c r="HB2" t="n">
-        <v>372.4103088378906</v>
+        <v>410.25341796875</v>
       </c>
       <c r="HC2" t="n">
-        <v>363.381591796875</v>
+        <v>412.0080261230469</v>
       </c>
       <c r="HD2" t="n">
-        <v>354.4232482910156</v>
+        <v>412.0603637695312</v>
       </c>
       <c r="HE2" t="n">
-        <v>342.052490234375</v>
+        <v>411.5787048339844</v>
       </c>
       <c r="HF2" t="n">
-        <v>338.5370483398438</v>
+        <v>411.5935974121094</v>
       </c>
       <c r="HG2" t="n">
-        <v>321.9146423339844</v>
+        <v>411.5293884277344</v>
       </c>
       <c r="HH2" t="n">
-        <v>315.969482421875</v>
+        <v>411.0744934082031</v>
       </c>
       <c r="HI2" t="n">
-        <v>314.6490478515625</v>
+        <v>407.8984985351562</v>
       </c>
       <c r="HJ2" t="n">
-        <v>315.1643371582031</v>
+        <v>401.2258911132812</v>
       </c>
       <c r="HK2" t="n">
-        <v>316.1891174316406</v>
+        <v>395.5055236816406</v>
       </c>
       <c r="HL2" t="n">
-        <v>317.4272155761719</v>
+        <v>385.3064270019531</v>
       </c>
       <c r="HM2" t="n">
-        <v>317.4892883300781</v>
+        <v>336.5875244140625</v>
       </c>
       <c r="HN2" t="n">
-        <v>316.810546875</v>
+        <v>334.6664428710938</v>
       </c>
       <c r="HO2" t="n">
-        <v>315.60986328125</v>
+        <v>324.7635192871094</v>
       </c>
       <c r="HP2" t="n">
-        <v>331.4381713867188</v>
+        <v>328.8098449707031</v>
       </c>
       <c r="HQ2" t="n">
-        <v>338.2794189453125</v>
+        <v>335.8120422363281</v>
       </c>
       <c r="HR2" t="n">
-        <v>334.6669006347656</v>
+        <v>332.7626037597656</v>
       </c>
       <c r="HS2" t="n">
-        <v>358.6298217773438</v>
+        <v>333.143798828125</v>
       </c>
       <c r="HT2" t="n">
-        <v>370.1147766113281</v>
+        <v>338.5802612304688</v>
       </c>
       <c r="HU2" t="n">
-        <v>379.4611206054688</v>
+        <v>328.2654113769531</v>
       </c>
       <c r="HV2" t="n">
-        <v>397.7601928710938</v>
+        <v>344.3217163085938</v>
       </c>
       <c r="HW2" t="n">
-        <v>405.3624267578125</v>
+        <v>396.9092407226562</v>
       </c>
       <c r="HX2" t="n">
-        <v>407.362548828125</v>
+        <v>407.818359375</v>
       </c>
       <c r="HY2" t="n">
-        <v>409.5135498046875</v>
+        <v>411.847900390625</v>
       </c>
       <c r="HZ2" t="n">
-        <v>411.5906066894531</v>
+        <v>408.2173156738281</v>
       </c>
       <c r="IA2" t="n">
-        <v>411.1709289550781</v>
+        <v>409.8824768066406</v>
       </c>
       <c r="IB2" t="n">
-        <v>410.8639221191406</v>
+        <v>410.2244873046875</v>
       </c>
       <c r="IC2" t="n">
-        <v>411.6607055664062</v>
+        <v>410.6826782226562</v>
       </c>
       <c r="ID2" t="n">
-        <v>409.4962158203125</v>
+        <v>410.4119262695312</v>
       </c>
       <c r="IE2" t="n">
-        <v>408.3922119140625</v>
+        <v>409.6368713378906</v>
       </c>
       <c r="IF2" t="n">
-        <v>402.8253173828125</v>
+        <v>409.0401916503906</v>
       </c>
       <c r="IG2" t="n">
-        <v>396.0628662109375</v>
+        <v>410.6004638671875</v>
       </c>
       <c r="IH2" t="n">
-        <v>388.0545043945312</v>
+        <v>411.1578063964844</v>
       </c>
       <c r="II2" t="n">
-        <v>381.1365356445312</v>
+        <v>403.760498046875</v>
       </c>
       <c r="IJ2" t="n">
-        <v>364.4433288574219</v>
+        <v>393.9962768554688</v>
       </c>
       <c r="IK2" t="n">
-        <v>364.0787048339844</v>
+        <v>363.9697875976562</v>
       </c>
       <c r="IL2" t="n">
-        <v>356.5845336914062</v>
+        <v>321.5451354980469</v>
       </c>
       <c r="IM2" t="n">
-        <v>340.9411926269531</v>
+        <v>340.653564453125</v>
       </c>
       <c r="IN2" t="n">
-        <v>338.3137512207031</v>
+        <v>333.5611572265625</v>
       </c>
       <c r="IO2" t="n">
-        <v>326.2481689453125</v>
+        <v>327.06640625</v>
       </c>
       <c r="IP2" t="n">
-        <v>324.2476806640625</v>
+        <v>328.2003784179688</v>
       </c>
       <c r="IQ2" t="n">
-        <v>315.3911743164062</v>
+        <v>333.1224060058594</v>
       </c>
       <c r="IR2" t="n">
-        <v>316.8502197265625</v>
+        <v>337.3707580566406</v>
       </c>
       <c r="IS2" t="n">
-        <v>325.49609375</v>
+        <v>330.3768615722656</v>
       </c>
       <c r="IT2" t="n">
-        <v>322.2183227539062</v>
+        <v>397.8482666015625</v>
       </c>
       <c r="IU2" t="n">
-        <v>331.0821838378906</v>
+        <v>400.5486450195312</v>
       </c>
       <c r="IV2" t="n">
-        <v>334.3150634765625</v>
+        <v>411.19921875</v>
       </c>
       <c r="IW2" t="n">
-        <v>345.2217407226562</v>
+        <v>411.3377685546875</v>
       </c>
       <c r="IX2" t="n">
-        <v>362.3298645019531</v>
+        <v>408.2872009277344</v>
       </c>
       <c r="IY2" t="n">
-        <v>383.4247436523438</v>
+        <v>408.9450073242188</v>
       </c>
       <c r="IZ2" t="n">
-        <v>398.4503784179688</v>
+        <v>409.3854370117188</v>
       </c>
       <c r="JA2" t="n">
-        <v>407.79833984375</v>
+        <v>409.3186645507812</v>
       </c>
       <c r="JB2" t="n">
-        <v>411.6321411132812</v>
+        <v>408.6299133300781</v>
       </c>
       <c r="JC2" t="n">
-        <v>416.538330078125</v>
+        <v>407.1817016601562</v>
       </c>
       <c r="JD2" t="n">
-        <v>416.6479797363281</v>
+        <v>400.2427673339844</v>
       </c>
       <c r="JE2" t="n">
-        <v>415.1733093261719</v>
+        <v>387.4419555664062</v>
       </c>
       <c r="JF2" t="n">
-        <v>416.662109375</v>
+        <v>326.2348022460938</v>
       </c>
       <c r="JG2" t="n">
-        <v>415.787841796875</v>
+        <v>333.2376708984375</v>
       </c>
       <c r="JH2" t="n">
-        <v>412.6876220703125</v>
+        <v>328.6644897460938</v>
       </c>
       <c r="JI2" t="n">
-        <v>407.8904418945312</v>
+        <v>327.064208984375</v>
       </c>
       <c r="JJ2" t="n">
-        <v>405.1791687011719</v>
+        <v>330.8609619140625</v>
       </c>
       <c r="JK2" t="n">
-        <v>398.8305969238281</v>
+        <v>327.8952026367188</v>
       </c>
       <c r="JL2" t="n">
-        <v>390.13427734375</v>
+        <v>332.2484130859375</v>
       </c>
       <c r="JM2" t="n">
-        <v>380.2174072265625</v>
+        <v>331.3692626953125</v>
       </c>
       <c r="JN2" t="n">
-        <v>365.8272705078125</v>
+        <v>388.1800537109375</v>
       </c>
       <c r="JO2" t="n">
-        <v>357.8773193359375</v>
+        <v>402.0591735839844</v>
       </c>
       <c r="JP2" t="n">
-        <v>353.764892578125</v>
+        <v>409.9932556152344</v>
       </c>
       <c r="JQ2" t="n">
-        <v>334.5416564941406</v>
+        <v>412.5619812011719</v>
       </c>
       <c r="JR2" t="n">
-        <v>333.658935546875</v>
+        <v>410.2953491210938</v>
       </c>
       <c r="JS2" t="n">
-        <v>332.6268920898438</v>
+        <v>409.3553161621094</v>
       </c>
       <c r="JT2" t="n">
-        <v>317.0729675292969</v>
+        <v>409.5946655273438</v>
       </c>
       <c r="JU2" t="n">
-        <v>316.3400573730469</v>
+        <v>409.6919250488281</v>
       </c>
       <c r="JV2" t="n">
-        <v>316.547607421875</v>
+        <v>410.8853759765625</v>
       </c>
       <c r="JW2" t="n">
-        <v>316.0565490722656</v>
+        <v>410.8292236328125</v>
       </c>
       <c r="JX2" t="n">
-        <v>315.2368469238281</v>
+        <v>410.4530334472656</v>
       </c>
       <c r="JY2" t="n">
-        <v>315.8712463378906</v>
+        <v>409.8183898925781</v>
       </c>
       <c r="JZ2" t="n">
-        <v>315.6201782226562</v>
+        <v>410.3235168457031</v>
       </c>
       <c r="KA2" t="n">
-        <v>310.3604125976562</v>
+        <v>411.6348571777344</v>
       </c>
       <c r="KB2" t="n">
-        <v>313.3571472167969</v>
+        <v>413.4826049804688</v>
       </c>
       <c r="KC2" t="n">
-        <v>314.669189453125</v>
+        <v>410.9797668457031</v>
       </c>
       <c r="KD2" t="n">
-        <v>345.1304321289062</v>
+        <v>406.1560363769531</v>
       </c>
       <c r="KE2" t="n">
-        <v>352.8517150878906</v>
+        <v>391.3795776367188</v>
       </c>
       <c r="KF2" t="n">
-        <v>363.5919189453125</v>
+        <v>363.6444702148438</v>
       </c>
       <c r="KG2" t="n">
-        <v>374.58837890625</v>
+        <v>353.7478942871094</v>
       </c>
       <c r="KH2" t="n">
-        <v>375.1287841796875</v>
+        <v>336.0036010742188</v>
       </c>
       <c r="KI2" t="n">
-        <v>374.6111450195312</v>
+        <v>337.6603393554688</v>
       </c>
       <c r="KJ2" t="n">
-        <v>372.4784851074219</v>
+        <v>340.9801940917969</v>
       </c>
       <c r="KK2" t="n">
-        <v>373.8479919433594</v>
+        <v>338.8422241210938</v>
       </c>
       <c r="KL2" t="n">
-        <v>373.9034729003906</v>
+        <v>333.5164794921875</v>
       </c>
       <c r="KM2" t="n">
-        <v>376.1791687011719</v>
+        <v>351.8905944824219</v>
       </c>
       <c r="KN2" t="n">
-        <v>381.482666015625</v>
+        <v>353.8810424804688</v>
       </c>
       <c r="KO2" t="n">
-        <v>389.4003295898438</v>
+        <v>360.9146728515625</v>
       </c>
       <c r="KP2" t="n">
-        <v>396.8609313964844</v>
+        <v>370.3548583984375</v>
       </c>
       <c r="KQ2" t="n">
-        <v>403.0696105957031</v>
+        <v>376.0281982421875</v>
       </c>
       <c r="KR2" t="n">
-        <v>401.0316162109375</v>
+        <v>375.7437438964844</v>
       </c>
       <c r="KS2" t="n">
-        <v>401.6582641601562</v>
+        <v>379.3663940429688</v>
       </c>
       <c r="KT2" t="n">
-        <v>406.8912048339844</v>
+        <v>384.1738586425781</v>
       </c>
       <c r="KU2" t="n">
-        <v>420.2857055664062</v>
+        <v>389.5276184082031</v>
       </c>
       <c r="KV2" t="n">
-        <v>431.87841796875</v>
+        <v>391.6256103515625</v>
       </c>
       <c r="KW2" t="n">
-        <v>449.307373046875</v>
+        <v>389.225830078125</v>
       </c>
       <c r="KX2" t="n">
-        <v>471.3921813964844</v>
+        <v>387.767578125</v>
       </c>
       <c r="KY2" t="n">
-        <v>496.5042724609375</v>
+        <v>382.2204895019531</v>
       </c>
       <c r="KZ2" t="n">
-        <v>543.3101806640625</v>
+        <v>382.1275024414062</v>
       </c>
       <c r="LA2" t="n">
-        <v>579.8160400390625</v>
+        <v>385.1532287597656</v>
       </c>
       <c r="LB2" t="n">
-        <v>586.9223022460938</v>
+        <v>392.7791137695312</v>
       </c>
       <c r="LC2" t="n">
-        <v>587.978759765625</v>
+        <v>419.9714965820312</v>
       </c>
       <c r="LD2" t="n">
-        <v>592.5245971679688</v>
+        <v>449.4393310546875</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>480.2242431640625</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>529.80517578125</v>
+      </c>
+      <c r="LG2" t="n">
+        <v>567.9990234375</v>
+      </c>
+      <c r="LH2" t="n">
+        <v>608.4594116210938</v>
+      </c>
+      <c r="LI2" t="n">
+        <v>772.2402954101562</v>
+      </c>
+      <c r="LJ2" t="n">
+        <v>387.1152954101562</v>
+      </c>
+      <c r="LK2" t="n">
+        <v>349.6578674316406</v>
+      </c>
+      <c r="LL2" t="n">
+        <v>265.5341491699219</v>
+      </c>
+      <c r="LM2" t="n">
+        <v>319.1227416992188</v>
+      </c>
+      <c r="LN2" t="n">
+        <v>435.5974731445312</v>
+      </c>
+      <c r="LO2" t="n">
+        <v>564.9468994140625</v>
+      </c>
+      <c r="LP2" t="n">
+        <v>496.1076049804688</v>
+      </c>
+      <c r="LQ2" t="n">
+        <v>467.8704528808594</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>603.8372192382812</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>576.405029296875</v>
+      </c>
+      <c r="LT2" t="n">
+        <v>609.3421630859375</v>
+      </c>
+      <c r="LU2" t="n">
+        <v>620.5433349609375</v>
+      </c>
+      <c r="LV2" t="n">
+        <v>619.1016235351562</v>
+      </c>
+      <c r="LW2" t="n">
+        <v>619.398681640625</v>
+      </c>
+      <c r="LX2" t="n">
+        <v>623.7682495117188</v>
+      </c>
+      <c r="LY2" t="n">
+        <v>624.0665893554688</v>
+      </c>
+      <c r="LZ2" t="n">
+        <v>638.5634765625</v>
+      </c>
+      <c r="MA2" t="n">
+        <v>651.8294677734375</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>503.4005432128906</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>488.4003295898438</v>
+      </c>
+      <c r="MD2" t="n">
+        <v>474.6915893554688</v>
+      </c>
+      <c r="ME2" t="n">
+        <v>491.3544006347656</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>498.4201049804688</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>408.4508056640625</v>
+        <v>459.7057189941406</v>
       </c>
       <c r="B3" t="n">
-        <v>399.1651916503906</v>
+        <v>451.9288940429688</v>
       </c>
       <c r="C3" t="n">
-        <v>384.6342163085938</v>
+        <v>441.7989501953125</v>
       </c>
       <c r="D3" t="n">
-        <v>374.8823852539062</v>
+        <v>432.7690734863281</v>
       </c>
       <c r="E3" t="n">
-        <v>373.7920837402344</v>
+        <v>425.0699157714844</v>
       </c>
       <c r="F3" t="n">
-        <v>376.9520568847656</v>
+        <v>420.458251953125</v>
       </c>
       <c r="G3" t="n">
-        <v>383.89111328125</v>
+        <v>419.8463745117188</v>
       </c>
       <c r="H3" t="n">
-        <v>393.9854431152344</v>
+        <v>418.29150390625</v>
       </c>
       <c r="I3" t="n">
-        <v>403.5998840332031</v>
+        <v>416.4397888183594</v>
       </c>
       <c r="J3" t="n">
-        <v>405.2852172851562</v>
+        <v>413.0849914550781</v>
       </c>
       <c r="K3" t="n">
-        <v>408.1444702148438</v>
+        <v>409.2297058105469</v>
       </c>
       <c r="L3" t="n">
-        <v>409.5617065429688</v>
+        <v>404.7658996582031</v>
       </c>
       <c r="M3" t="n">
-        <v>413.5843200683594</v>
+        <v>397.8031616210938</v>
       </c>
       <c r="N3" t="n">
-        <v>415.012451171875</v>
+        <v>388.6267700195312</v>
       </c>
       <c r="O3" t="n">
-        <v>411.2615966796875</v>
+        <v>383.4194946289062</v>
       </c>
       <c r="P3" t="n">
-        <v>407.6561279296875</v>
+        <v>377.9782409667969</v>
       </c>
       <c r="Q3" t="n">
-        <v>403.5570373535156</v>
+        <v>375.32373046875</v>
       </c>
       <c r="R3" t="n">
-        <v>397.5186462402344</v>
+        <v>372.0166320800781</v>
       </c>
       <c r="S3" t="n">
-        <v>392.3490295410156</v>
+        <v>368.8404846191406</v>
       </c>
       <c r="T3" t="n">
-        <v>387.1799926757812</v>
+        <v>367.4144287109375</v>
       </c>
       <c r="U3" t="n">
-        <v>383.6765441894531</v>
+        <v>366.9990844726562</v>
       </c>
       <c r="V3" t="n">
-        <v>381.5446472167969</v>
+        <v>367.4304504394531</v>
       </c>
       <c r="W3" t="n">
-        <v>382.4664001464844</v>
+        <v>368.8054504394531</v>
       </c>
       <c r="X3" t="n">
-        <v>383.5654907226562</v>
+        <v>366.6003112792969</v>
       </c>
       <c r="Y3" t="n">
-        <v>384.0693969726562</v>
+        <v>362.7100830078125</v>
       </c>
       <c r="Z3" t="n">
-        <v>386.5250244140625</v>
+        <v>361.4361572265625</v>
       </c>
       <c r="AA3" t="n">
-        <v>388.1303405761719</v>
+        <v>359.9918518066406</v>
       </c>
       <c r="AB3" t="n">
-        <v>389.0570983886719</v>
+        <v>358.463134765625</v>
       </c>
       <c r="AC3" t="n">
-        <v>385.9949340820312</v>
+        <v>354.6109619140625</v>
       </c>
       <c r="AD3" t="n">
-        <v>385.3450927734375</v>
+        <v>351.3067932128906</v>
       </c>
       <c r="AE3" t="n">
-        <v>382.9019470214844</v>
+        <v>349.9099731445312</v>
       </c>
       <c r="AF3" t="n">
-        <v>382.3178100585938</v>
+        <v>345.7862243652344</v>
       </c>
       <c r="AG3" t="n">
-        <v>382.4915466308594</v>
+        <v>339.7815246582031</v>
       </c>
       <c r="AH3" t="n">
-        <v>376.3208923339844</v>
+        <v>331.8873596191406</v>
       </c>
       <c r="AI3" t="n">
-        <v>364.7705383300781</v>
+        <v>329.050537109375</v>
       </c>
       <c r="AJ3" t="n">
-        <v>361.6376037597656</v>
+        <v>323.6710815429688</v>
       </c>
       <c r="AK3" t="n">
-        <v>356.9463195800781</v>
+        <v>321.6226806640625</v>
       </c>
       <c r="AL3" t="n">
-        <v>350.1692810058594</v>
+        <v>318.820068359375</v>
       </c>
       <c r="AM3" t="n">
-        <v>346.4972839355469</v>
+        <v>316.2077941894531</v>
       </c>
       <c r="AN3" t="n">
-        <v>342.5863342285156</v>
+        <v>315.3448791503906</v>
       </c>
       <c r="AO3" t="n">
-        <v>329.1477966308594</v>
+        <v>315.51123046875</v>
       </c>
       <c r="AP3" t="n">
-        <v>318.1561279296875</v>
+        <v>316.9708862304688</v>
       </c>
       <c r="AQ3" t="n">
-        <v>309.817138671875</v>
+        <v>318.5118103027344</v>
       </c>
       <c r="AR3" t="n">
-        <v>304.8275756835938</v>
+        <v>317.4916687011719</v>
       </c>
       <c r="AS3" t="n">
-        <v>302.1412658691406</v>
+        <v>315.0181274414062</v>
       </c>
       <c r="AT3" t="n">
-        <v>297.5114135742188</v>
+        <v>316.1426086425781</v>
       </c>
       <c r="AU3" t="n">
-        <v>298.6202392578125</v>
+        <v>312.0436706542969</v>
       </c>
       <c r="AV3" t="n">
-        <v>298.1804504394531</v>
+        <v>312.9563293457031</v>
       </c>
       <c r="AW3" t="n">
-        <v>297.46044921875</v>
+        <v>309.2182312011719</v>
       </c>
       <c r="AX3" t="n">
-        <v>296.9214782714844</v>
+        <v>306.9944458007812</v>
       </c>
       <c r="AY3" t="n">
-        <v>297.0612182617188</v>
+        <v>309.8493041992188</v>
       </c>
       <c r="AZ3" t="n">
-        <v>296.4890747070312</v>
+        <v>314.1979675292969</v>
       </c>
       <c r="BA3" t="n">
-        <v>295.8048095703125</v>
+        <v>313.0181579589844</v>
       </c>
       <c r="BB3" t="n">
-        <v>295.9906311035156</v>
+        <v>308.1713256835938</v>
       </c>
       <c r="BC3" t="n">
-        <v>295.8536376953125</v>
+        <v>306.1072082519531</v>
       </c>
       <c r="BD3" t="n">
-        <v>295.3130187988281</v>
+        <v>304.1978759765625</v>
       </c>
       <c r="BE3" t="n">
-        <v>294.8026123046875</v>
+        <v>301.5227661132812</v>
       </c>
       <c r="BF3" t="n">
-        <v>294.771728515625</v>
+        <v>301.9721069335938</v>
       </c>
       <c r="BG3" t="n">
-        <v>294.1951599121094</v>
+        <v>302.8459777832031</v>
       </c>
       <c r="BH3" t="n">
-        <v>293.7664794921875</v>
+        <v>300.9881896972656</v>
       </c>
       <c r="BI3" t="n">
-        <v>291.6830749511719</v>
+        <v>302.1517028808594</v>
       </c>
       <c r="BJ3" t="n">
-        <v>290.9187316894531</v>
+        <v>303.46923828125</v>
       </c>
       <c r="BK3" t="n">
-        <v>285.4735412597656</v>
+        <v>298.6952209472656</v>
       </c>
       <c r="BL3" t="n">
-        <v>277.7289123535156</v>
+        <v>296.1402893066406</v>
       </c>
       <c r="BM3" t="n">
-        <v>281.0395202636719</v>
+        <v>294.8153686523438</v>
       </c>
       <c r="BN3" t="n">
-        <v>276.322998046875</v>
+        <v>293.2379455566406</v>
       </c>
       <c r="BO3" t="n">
-        <v>280.3233337402344</v>
+        <v>296.1226806640625</v>
       </c>
       <c r="BP3" t="n">
-        <v>306.9272155761719</v>
+        <v>299.071044921875</v>
       </c>
       <c r="BQ3" t="n">
-        <v>301.9039306640625</v>
+        <v>295.9432678222656</v>
       </c>
       <c r="BR3" t="n">
-        <v>296.7789916992188</v>
+        <v>294.7033081054688</v>
       </c>
       <c r="BS3" t="n">
-        <v>297.6039733886719</v>
+        <v>293.0647888183594</v>
       </c>
       <c r="BT3" t="n">
-        <v>298.6477355957031</v>
+        <v>290.0782165527344</v>
       </c>
       <c r="BU3" t="n">
-        <v>298.708984375</v>
+        <v>288.7821960449219</v>
       </c>
       <c r="BV3" t="n">
-        <v>297.3404235839844</v>
+        <v>288.2389831542969</v>
       </c>
       <c r="BW3" t="n">
-        <v>298.2918395996094</v>
+        <v>286.0347290039062</v>
       </c>
       <c r="BX3" t="n">
-        <v>299.6189270019531</v>
+        <v>284.80419921875</v>
       </c>
       <c r="BY3" t="n">
-        <v>299.956298828125</v>
+        <v>285.8814392089844</v>
       </c>
       <c r="BZ3" t="n">
-        <v>299.9646911621094</v>
+        <v>282.55029296875</v>
       </c>
       <c r="CA3" t="n">
-        <v>299.9716491699219</v>
+        <v>283.0453186035156</v>
       </c>
       <c r="CB3" t="n">
-        <v>300.0444030761719</v>
+        <v>281.6097717285156</v>
       </c>
       <c r="CC3" t="n">
-        <v>299.9207763671875</v>
+        <v>278.0862731933594</v>
       </c>
       <c r="CD3" t="n">
-        <v>299.8200378417969</v>
+        <v>273.4929504394531</v>
       </c>
       <c r="CE3" t="n">
-        <v>299.6454162597656</v>
+        <v>273.8573913574219</v>
       </c>
       <c r="CF3" t="n">
-        <v>299.4826965332031</v>
+        <v>274.6308288574219</v>
       </c>
       <c r="CG3" t="n">
-        <v>299.3390808105469</v>
+        <v>274.4616088867188</v>
       </c>
       <c r="CH3" t="n">
-        <v>299.4463195800781</v>
+        <v>270.7920532226562</v>
       </c>
       <c r="CI3" t="n">
-        <v>301.037109375</v>
+        <v>271.8596801757812</v>
       </c>
       <c r="CJ3" t="n">
-        <v>302.0068054199219</v>
+        <v>273.1776428222656</v>
       </c>
       <c r="CK3" t="n">
-        <v>302.5529174804688</v>
+        <v>268.200439453125</v>
       </c>
       <c r="CL3" t="n">
-        <v>301.8435363769531</v>
+        <v>272.0268249511719</v>
       </c>
       <c r="CM3" t="n">
-        <v>305.9783935546875</v>
+        <v>270.3232116699219</v>
       </c>
       <c r="CN3" t="n">
-        <v>312.6286926269531</v>
+        <v>269.4227294921875</v>
       </c>
       <c r="CO3" t="n">
-        <v>294.3764953613281</v>
+        <v>268.6177978515625</v>
       </c>
       <c r="CP3" t="n">
-        <v>281.3422241210938</v>
+        <v>269.4949645996094</v>
       </c>
       <c r="CQ3" t="n">
-        <v>288.2676086425781</v>
+        <v>269.4060668945312</v>
       </c>
       <c r="CR3" t="n">
-        <v>286.6344604492188</v>
+        <v>269.3701171875</v>
       </c>
       <c r="CS3" t="n">
-        <v>279.7978820800781</v>
+        <v>268.9014587402344</v>
       </c>
       <c r="CT3" t="n">
-        <v>281.7157287597656</v>
+        <v>268.5978088378906</v>
       </c>
       <c r="CU3" t="n">
-        <v>276.6935119628906</v>
+        <v>267.728271484375</v>
       </c>
       <c r="CV3" t="n">
-        <v>280.4621887207031</v>
+        <v>267.36572265625</v>
       </c>
       <c r="CW3" t="n">
-        <v>291.3322448730469</v>
+        <v>265.2840270996094</v>
       </c>
       <c r="CX3" t="n">
-        <v>292.0598754882812</v>
+        <v>265.0209655761719</v>
       </c>
       <c r="CY3" t="n">
-        <v>291.9111022949219</v>
+        <v>264.2186279296875</v>
       </c>
       <c r="CZ3" t="n">
-        <v>293.6296691894531</v>
+        <v>264.4470825195312</v>
       </c>
       <c r="DA3" t="n">
-        <v>293.7098999023438</v>
+        <v>264.4261169433594</v>
       </c>
       <c r="DB3" t="n">
-        <v>294.1676940917969</v>
+        <v>264.2152099609375</v>
       </c>
       <c r="DC3" t="n">
-        <v>294.3441162109375</v>
+        <v>264.064453125</v>
       </c>
       <c r="DD3" t="n">
-        <v>293.7376708984375</v>
+        <v>264.4452209472656</v>
       </c>
       <c r="DE3" t="n">
-        <v>294.0079956054688</v>
+        <v>271.9436950683594</v>
       </c>
       <c r="DF3" t="n">
-        <v>294.2957763671875</v>
+        <v>287.4332275390625</v>
       </c>
       <c r="DG3" t="n">
-        <v>294.5945129394531</v>
+        <v>286.6195068359375</v>
       </c>
       <c r="DH3" t="n">
-        <v>294.6546936035156</v>
+        <v>288.5016784667969</v>
       </c>
       <c r="DI3" t="n">
-        <v>292.7736511230469</v>
+        <v>275.1730346679688</v>
       </c>
       <c r="DJ3" t="n">
-        <v>286.4903564453125</v>
+        <v>265.8492431640625</v>
       </c>
       <c r="DK3" t="n">
-        <v>281.3958740234375</v>
+        <v>264.0054931640625</v>
       </c>
       <c r="DL3" t="n">
-        <v>282.5733947753906</v>
+        <v>264.0411376953125</v>
       </c>
       <c r="DM3" t="n">
-        <v>291.4757385253906</v>
+        <v>263.8570556640625</v>
       </c>
       <c r="DN3" t="n">
-        <v>302.4544067382812</v>
+        <v>263.930908203125</v>
       </c>
       <c r="DO3" t="n">
-        <v>302.4969482421875</v>
+        <v>263.8868713378906</v>
       </c>
       <c r="DP3" t="n">
-        <v>302.3373718261719</v>
+        <v>263.8763427734375</v>
       </c>
       <c r="DQ3" t="n">
-        <v>302.0870971679688</v>
+        <v>263.8172912597656</v>
       </c>
       <c r="DR3" t="n">
-        <v>301.9036560058594</v>
+        <v>263.87939453125</v>
       </c>
       <c r="DS3" t="n">
-        <v>302.3782348632812</v>
+        <v>263.6955261230469</v>
       </c>
       <c r="DT3" t="n">
-        <v>302.1986083984375</v>
+        <v>263.7264099121094</v>
       </c>
       <c r="DU3" t="n">
-        <v>302.7843627929688</v>
+        <v>263.7286682128906</v>
       </c>
       <c r="DV3" t="n">
-        <v>302.4979248046875</v>
+        <v>263.6887512207031</v>
       </c>
       <c r="DW3" t="n">
-        <v>302.2719421386719</v>
+        <v>263.5937194824219</v>
       </c>
       <c r="DX3" t="n">
-        <v>302.0919494628906</v>
+        <v>263.8328247070312</v>
       </c>
       <c r="DY3" t="n">
-        <v>301.8237915039062</v>
+        <v>264.1858215332031</v>
       </c>
       <c r="DZ3" t="n">
-        <v>301.53271484375</v>
+        <v>280.7597045898438</v>
       </c>
       <c r="EA3" t="n">
-        <v>300.65234375</v>
+        <v>295.0189514160156</v>
       </c>
       <c r="EB3" t="n">
-        <v>299.771728515625</v>
+        <v>293.0072631835938</v>
       </c>
       <c r="EC3" t="n">
-        <v>299.0094604492188</v>
+        <v>291.8937683105469</v>
       </c>
       <c r="ED3" t="n">
-        <v>299.0075378417969</v>
+        <v>293.6981506347656</v>
       </c>
       <c r="EE3" t="n">
-        <v>299.3069763183594</v>
+        <v>288.8616027832031</v>
       </c>
       <c r="EF3" t="n">
-        <v>311.1954040527344</v>
+        <v>282.3403625488281</v>
       </c>
       <c r="EG3" t="n">
-        <v>307.212158203125</v>
+        <v>281.5777282714844</v>
       </c>
       <c r="EH3" t="n">
-        <v>298.1900329589844</v>
+        <v>277.3655700683594</v>
       </c>
       <c r="EI3" t="n">
-        <v>291.8441467285156</v>
+        <v>281.5193176269531</v>
       </c>
       <c r="EJ3" t="n">
-        <v>287.2263488769531</v>
+        <v>279.9549560546875</v>
       </c>
       <c r="EK3" t="n">
-        <v>277.8172302246094</v>
+        <v>280.6261596679688</v>
       </c>
       <c r="EL3" t="n">
-        <v>276.2747802734375</v>
+        <v>284.9173583984375</v>
       </c>
       <c r="EM3" t="n">
-        <v>272.8725891113281</v>
+        <v>300.4494323730469</v>
       </c>
       <c r="EN3" t="n">
-        <v>272.3264770507812</v>
+        <v>297.9482116699219</v>
       </c>
       <c r="EO3" t="n">
-        <v>284.5900573730469</v>
+        <v>296.0227966308594</v>
       </c>
       <c r="EP3" t="n">
-        <v>292.0023498535156</v>
+        <v>291.8673400878906</v>
       </c>
       <c r="EQ3" t="n">
-        <v>296.0895080566406</v>
+        <v>268.9945678710938</v>
       </c>
       <c r="ER3" t="n">
-        <v>297.3534851074219</v>
+        <v>261.7434997558594</v>
       </c>
       <c r="ES3" t="n">
-        <v>297.8097839355469</v>
+        <v>260.8320007324219</v>
       </c>
       <c r="ET3" t="n">
-        <v>298.4022521972656</v>
+        <v>258.5271911621094</v>
       </c>
       <c r="EU3" t="n">
-        <v>298.3242797851562</v>
+        <v>257.1050720214844</v>
       </c>
       <c r="EV3" t="n">
-        <v>297.8218383789062</v>
+        <v>256.0621032714844</v>
       </c>
       <c r="EW3" t="n">
-        <v>296.6293640136719</v>
+        <v>256.1317749023438</v>
       </c>
       <c r="EX3" t="n">
-        <v>288.9814453125</v>
+        <v>256.2112121582031</v>
       </c>
       <c r="EY3" t="n">
-        <v>281.9498291015625</v>
+        <v>256.3054809570312</v>
       </c>
       <c r="EZ3" t="n">
-        <v>281.352783203125</v>
+        <v>256.2662658691406</v>
       </c>
       <c r="FA3" t="n">
-        <v>279.428466796875</v>
+        <v>256.2256164550781</v>
       </c>
       <c r="FB3" t="n">
-        <v>291.7015075683594</v>
+        <v>256.1432495117188</v>
       </c>
       <c r="FC3" t="n">
-        <v>317.0997009277344</v>
+        <v>255.7646026611328</v>
       </c>
       <c r="FD3" t="n">
-        <v>311.3870239257812</v>
+        <v>255.8840789794922</v>
       </c>
       <c r="FE3" t="n">
-        <v>303.8163757324219</v>
+        <v>256.970703125</v>
       </c>
       <c r="FF3" t="n">
-        <v>303.7762145996094</v>
+        <v>258.06884765625</v>
       </c>
       <c r="FG3" t="n">
-        <v>304.2392883300781</v>
+        <v>260.0023498535156</v>
       </c>
       <c r="FH3" t="n">
-        <v>304.1871337890625</v>
+        <v>273.668212890625</v>
       </c>
       <c r="FI3" t="n">
-        <v>303.6721801757812</v>
+        <v>293.4358825683594</v>
       </c>
       <c r="FJ3" t="n">
-        <v>303.0499267578125</v>
+        <v>302.4874267578125</v>
       </c>
       <c r="FK3" t="n">
-        <v>303.12890625</v>
+        <v>301.0048828125</v>
       </c>
       <c r="FL3" t="n">
-        <v>303.4247131347656</v>
+        <v>289.0513000488281</v>
       </c>
       <c r="FM3" t="n">
-        <v>303.6618347167969</v>
+        <v>292.6256713867188</v>
       </c>
       <c r="FN3" t="n">
-        <v>304.5760803222656</v>
+        <v>288.2757263183594</v>
       </c>
       <c r="FO3" t="n">
-        <v>304.6175231933594</v>
+        <v>289.7332763671875</v>
       </c>
       <c r="FP3" t="n">
-        <v>304.5225219726562</v>
+        <v>292.6203002929688</v>
       </c>
       <c r="FQ3" t="n">
-        <v>304.2959594726562</v>
+        <v>295.2646789550781</v>
       </c>
       <c r="FR3" t="n">
-        <v>308.9671936035156</v>
+        <v>306.11083984375</v>
       </c>
       <c r="FS3" t="n">
-        <v>306.8681640625</v>
+        <v>269.2370300292969</v>
       </c>
       <c r="FT3" t="n">
-        <v>308.5126647949219</v>
+        <v>261.6149291992188</v>
       </c>
       <c r="FU3" t="n">
-        <v>284.1775207519531</v>
+        <v>258.1622924804688</v>
       </c>
       <c r="FV3" t="n">
-        <v>277.574462890625</v>
+        <v>256.9523620605469</v>
       </c>
       <c r="FW3" t="n">
-        <v>278.114501953125</v>
+        <v>255.8290100097656</v>
       </c>
       <c r="FX3" t="n">
-        <v>280.0607604980469</v>
+        <v>256.2528686523438</v>
       </c>
       <c r="FY3" t="n">
-        <v>278.8523559570312</v>
+        <v>256.1798706054688</v>
       </c>
       <c r="FZ3" t="n">
-        <v>285.2770385742188</v>
+        <v>256.0344543457031</v>
       </c>
       <c r="GA3" t="n">
-        <v>293.4587707519531</v>
+        <v>255.7880096435547</v>
       </c>
       <c r="GB3" t="n">
-        <v>291.6163940429688</v>
+        <v>255.8081512451172</v>
       </c>
       <c r="GC3" t="n">
-        <v>295.208984375</v>
+        <v>256.0491638183594</v>
       </c>
       <c r="GD3" t="n">
-        <v>296.3832397460938</v>
+        <v>256.7332153320312</v>
       </c>
       <c r="GE3" t="n">
-        <v>296.9637756347656</v>
+        <v>257.2797241210938</v>
       </c>
       <c r="GF3" t="n">
-        <v>296.9610900878906</v>
+        <v>258.4834899902344</v>
       </c>
       <c r="GG3" t="n">
-        <v>296.9569091796875</v>
+        <v>262.9035339355469</v>
       </c>
       <c r="GH3" t="n">
-        <v>297.0457458496094</v>
+        <v>263.0040588378906</v>
       </c>
       <c r="GI3" t="n">
-        <v>296.0491333007812</v>
+        <v>272.0581359863281</v>
       </c>
       <c r="GJ3" t="n">
-        <v>291.0159301757812</v>
+        <v>291.5837097167969</v>
       </c>
       <c r="GK3" t="n">
-        <v>282.6900939941406</v>
+        <v>278.6524353027344</v>
       </c>
       <c r="GL3" t="n">
-        <v>280.3912963867188</v>
+        <v>265.7685852050781</v>
       </c>
       <c r="GM3" t="n">
-        <v>285.7185363769531</v>
+        <v>264.1235961914062</v>
       </c>
       <c r="GN3" t="n">
-        <v>300.5872192382812</v>
+        <v>263.0860595703125</v>
       </c>
       <c r="GO3" t="n">
-        <v>328.1961669921875</v>
+        <v>263.7737426757812</v>
       </c>
       <c r="GP3" t="n">
-        <v>303.0646667480469</v>
+        <v>264.3513488769531</v>
       </c>
       <c r="GQ3" t="n">
-        <v>301.9102783203125</v>
+        <v>264.8844909667969</v>
       </c>
       <c r="GR3" t="n">
-        <v>301.943359375</v>
+        <v>264.9001159667969</v>
       </c>
       <c r="GS3" t="n">
-        <v>303.1533813476562</v>
+        <v>268.4068603515625</v>
       </c>
       <c r="GT3" t="n">
-        <v>304.9653015136719</v>
+        <v>291.2018127441406</v>
       </c>
       <c r="GU3" t="n">
-        <v>305.5191040039062</v>
+        <v>296.95556640625</v>
       </c>
       <c r="GV3" t="n">
-        <v>305.442138671875</v>
+        <v>268.0111389160156</v>
       </c>
       <c r="GW3" t="n">
-        <v>305.5748901367188</v>
+        <v>262.4110717773438</v>
       </c>
       <c r="GX3" t="n">
-        <v>304.385009765625</v>
+        <v>261.805419921875</v>
       </c>
       <c r="GY3" t="n">
-        <v>304.3672485351562</v>
+        <v>260.9742431640625</v>
       </c>
       <c r="GZ3" t="n">
-        <v>303.9767150878906</v>
+        <v>257.7103881835938</v>
       </c>
       <c r="HA3" t="n">
-        <v>307.3492736816406</v>
+        <v>255.4219360351562</v>
       </c>
       <c r="HB3" t="n">
-        <v>296.5475158691406</v>
+        <v>255.5081481933594</v>
       </c>
       <c r="HC3" t="n">
-        <v>276.5915222167969</v>
+        <v>255.2122344970703</v>
       </c>
       <c r="HD3" t="n">
-        <v>283.5022888183594</v>
+        <v>255.2896423339844</v>
       </c>
       <c r="HE3" t="n">
-        <v>284.9807434082031</v>
+        <v>255.4737243652344</v>
       </c>
       <c r="HF3" t="n">
-        <v>279.181640625</v>
+        <v>255.5736694335938</v>
       </c>
       <c r="HG3" t="n">
-        <v>292.9870910644531</v>
+        <v>255.7481842041016</v>
       </c>
       <c r="HH3" t="n">
-        <v>297.4090881347656</v>
+        <v>256.0664978027344</v>
       </c>
       <c r="HI3" t="n">
-        <v>297.0408325195312</v>
+        <v>256.7935485839844</v>
       </c>
       <c r="HJ3" t="n">
-        <v>297.0602722167969</v>
+        <v>257.9425964355469</v>
       </c>
       <c r="HK3" t="n">
-        <v>296.7235412597656</v>
+        <v>261.5289916992188</v>
       </c>
       <c r="HL3" t="n">
-        <v>295.4102172851562</v>
+        <v>263.7945556640625</v>
       </c>
       <c r="HM3" t="n">
-        <v>295.3177185058594</v>
+        <v>269.9466857910156</v>
       </c>
       <c r="HN3" t="n">
-        <v>295.4149169921875</v>
+        <v>275.2264404296875</v>
       </c>
       <c r="HO3" t="n">
-        <v>295.4405822753906</v>
+        <v>271.027099609375</v>
       </c>
       <c r="HP3" t="n">
-        <v>292.3204956054688</v>
+        <v>267.5998840332031</v>
       </c>
       <c r="HQ3" t="n">
-        <v>284.0775146484375</v>
+        <v>263.4894409179688</v>
       </c>
       <c r="HR3" t="n">
-        <v>288.9307250976562</v>
+        <v>264.3385314941406</v>
       </c>
       <c r="HS3" t="n">
-        <v>278.1685791015625</v>
+        <v>265.0709228515625</v>
       </c>
       <c r="HT3" t="n">
-        <v>295.889404296875</v>
+        <v>263.9217834472656</v>
       </c>
       <c r="HU3" t="n">
-        <v>302.8774108886719</v>
+        <v>269.3428955078125</v>
       </c>
       <c r="HV3" t="n">
-        <v>306.25537109375</v>
+        <v>291.6278686523438</v>
       </c>
       <c r="HW3" t="n">
-        <v>301.257568359375</v>
+        <v>264.2404479980469</v>
       </c>
       <c r="HX3" t="n">
-        <v>301.507080078125</v>
+        <v>263.0955200195312</v>
       </c>
       <c r="HY3" t="n">
-        <v>302.4661560058594</v>
+        <v>256.4152526855469</v>
       </c>
       <c r="HZ3" t="n">
-        <v>302.812744140625</v>
+        <v>256.2598876953125</v>
       </c>
       <c r="IA3" t="n">
-        <v>302.7245483398438</v>
+        <v>256.0782470703125</v>
       </c>
       <c r="IB3" t="n">
-        <v>302.455078125</v>
+        <v>256.6304931640625</v>
       </c>
       <c r="IC3" t="n">
-        <v>302.2167053222656</v>
+        <v>256.6477966308594</v>
       </c>
       <c r="ID3" t="n">
-        <v>303.6368713378906</v>
+        <v>256.5166931152344</v>
       </c>
       <c r="IE3" t="n">
-        <v>303.5670471191406</v>
+        <v>256.6368103027344</v>
       </c>
       <c r="IF3" t="n">
-        <v>303.0848999023438</v>
+        <v>256.7641906738281</v>
       </c>
       <c r="IG3" t="n">
-        <v>303.0258483886719</v>
+        <v>256.6635437011719</v>
       </c>
       <c r="IH3" t="n">
-        <v>302.7574768066406</v>
+        <v>256.9764709472656</v>
       </c>
       <c r="II3" t="n">
-        <v>302.9396362304688</v>
+        <v>257.9816589355469</v>
       </c>
       <c r="IJ3" t="n">
-        <v>296.2863159179688</v>
+        <v>265.887939453125</v>
       </c>
       <c r="IK3" t="n">
-        <v>276.2083435058594</v>
+        <v>285.2857971191406</v>
       </c>
       <c r="IL3" t="n">
-        <v>276.7604675292969</v>
+        <v>286.9678344726562</v>
       </c>
       <c r="IM3" t="n">
-        <v>277.5339050292969</v>
+        <v>271.7437438964844</v>
       </c>
       <c r="IN3" t="n">
-        <v>287.4148559570312</v>
+        <v>263.8679809570312</v>
       </c>
       <c r="IO3" t="n">
-        <v>299.00048828125</v>
+        <v>260.7833251953125</v>
       </c>
       <c r="IP3" t="n">
-        <v>306.3812866210938</v>
+        <v>263.4722290039062</v>
       </c>
       <c r="IQ3" t="n">
-        <v>296.131103515625</v>
+        <v>263.1510314941406</v>
       </c>
       <c r="IR3" t="n">
-        <v>289.1827392578125</v>
+        <v>265.082763671875</v>
       </c>
       <c r="IS3" t="n">
-        <v>293.5826416015625</v>
+        <v>269.9058532714844</v>
       </c>
       <c r="IT3" t="n">
-        <v>293.6617126464844</v>
+        <v>261.4944763183594</v>
       </c>
       <c r="IU3" t="n">
-        <v>295.2877502441406</v>
+        <v>262.1830139160156</v>
       </c>
       <c r="IV3" t="n">
-        <v>282.9988098144531</v>
+        <v>261.4176025390625</v>
       </c>
       <c r="IW3" t="n">
-        <v>274.2169799804688</v>
+        <v>256.4452209472656</v>
       </c>
       <c r="IX3" t="n">
-        <v>276.498046875</v>
+        <v>256.5181579589844</v>
       </c>
       <c r="IY3" t="n">
-        <v>311.6251831054688</v>
+        <v>257.1600646972656</v>
       </c>
       <c r="IZ3" t="n">
-        <v>300.4281616210938</v>
+        <v>259.2369689941406</v>
       </c>
       <c r="JA3" t="n">
-        <v>299.2449035644531</v>
+        <v>259.4408569335938</v>
       </c>
       <c r="JB3" t="n">
-        <v>299.9654235839844</v>
+        <v>259.5136413574219</v>
       </c>
       <c r="JC3" t="n">
-        <v>299.8248291015625</v>
+        <v>259.7807922363281</v>
       </c>
       <c r="JD3" t="n">
-        <v>300.7048950195312</v>
+        <v>259.5304565429688</v>
       </c>
       <c r="JE3" t="n">
-        <v>301.6225280761719</v>
+        <v>261.4612731933594</v>
       </c>
       <c r="JF3" t="n">
-        <v>301.1907653808594</v>
+        <v>266.2546081542969</v>
       </c>
       <c r="JG3" t="n">
-        <v>301.0218200683594</v>
+        <v>266.1626281738281</v>
       </c>
       <c r="JH3" t="n">
-        <v>300.5926818847656</v>
+        <v>254.8864440917969</v>
       </c>
       <c r="JI3" t="n">
-        <v>301.7973327636719</v>
+        <v>257.2973022460938</v>
       </c>
       <c r="JJ3" t="n">
-        <v>300.9670715332031</v>
+        <v>258.2182922363281</v>
       </c>
       <c r="JK3" t="n">
-        <v>301.7723388671875</v>
+        <v>263.0663452148438</v>
       </c>
       <c r="JL3" t="n">
-        <v>301.1230163574219</v>
+        <v>258.7369995117188</v>
       </c>
       <c r="JM3" t="n">
-        <v>301.2821044921875</v>
+        <v>274.5595092773438</v>
       </c>
       <c r="JN3" t="n">
-        <v>299.6716918945312</v>
+        <v>264.8165893554688</v>
       </c>
       <c r="JO3" t="n">
-        <v>283.3706970214844</v>
+        <v>265.5509948730469</v>
       </c>
       <c r="JP3" t="n">
-        <v>281.471923828125</v>
+        <v>263.9893798828125</v>
       </c>
       <c r="JQ3" t="n">
-        <v>283.2735290527344</v>
+        <v>262.1475219726562</v>
       </c>
       <c r="JR3" t="n">
-        <v>299.068115234375</v>
+        <v>258.3040466308594</v>
       </c>
       <c r="JS3" t="n">
-        <v>298.8779602050781</v>
+        <v>259.8556823730469</v>
       </c>
       <c r="JT3" t="n">
-        <v>301.3818664550781</v>
+        <v>259.3932495117188</v>
       </c>
       <c r="JU3" t="n">
-        <v>300.5887451171875</v>
+        <v>259.6243591308594</v>
       </c>
       <c r="JV3" t="n">
-        <v>300.1430969238281</v>
+        <v>259.8038940429688</v>
       </c>
       <c r="JW3" t="n">
-        <v>300.0098876953125</v>
+        <v>260.0213012695312</v>
       </c>
       <c r="JX3" t="n">
-        <v>299.8587951660156</v>
+        <v>260.2397155761719</v>
       </c>
       <c r="JY3" t="n">
-        <v>300.224853515625</v>
+        <v>260.5643310546875</v>
       </c>
       <c r="JZ3" t="n">
-        <v>300.3453979492188</v>
+        <v>260.6665649414062</v>
       </c>
       <c r="KA3" t="n">
-        <v>302.2267456054688</v>
+        <v>262.6275939941406</v>
       </c>
       <c r="KB3" t="n">
-        <v>304.6164855957031</v>
+        <v>266.8839416503906</v>
       </c>
       <c r="KC3" t="n">
-        <v>312.7539672851562</v>
+        <v>267.236083984375</v>
       </c>
       <c r="KD3" t="n">
-        <v>360.92919921875</v>
+        <v>267.6942138671875</v>
       </c>
       <c r="KE3" t="n">
-        <v>371.6916198730469</v>
+        <v>268.1517639160156</v>
       </c>
       <c r="KF3" t="n">
-        <v>385.5819091796875</v>
+        <v>290.29296875</v>
       </c>
       <c r="KG3" t="n">
-        <v>386.7745361328125</v>
+        <v>290.3038024902344</v>
       </c>
       <c r="KH3" t="n">
-        <v>381.3788757324219</v>
+        <v>279.5655212402344</v>
       </c>
       <c r="KI3" t="n">
-        <v>379.368408203125</v>
+        <v>267.0320739746094</v>
       </c>
       <c r="KJ3" t="n">
-        <v>375.680908203125</v>
+        <v>268.4425048828125</v>
       </c>
       <c r="KK3" t="n">
-        <v>376.9886169433594</v>
+        <v>270.9220886230469</v>
       </c>
       <c r="KL3" t="n">
-        <v>391.322509765625</v>
+        <v>275.3128967285156</v>
       </c>
       <c r="KM3" t="n">
-        <v>399.5917358398438</v>
+        <v>282.5046081542969</v>
       </c>
       <c r="KN3" t="n">
-        <v>412.13720703125</v>
+        <v>300.83447265625</v>
       </c>
       <c r="KO3" t="n">
-        <v>412.6180419921875</v>
+        <v>310.5808410644531</v>
       </c>
       <c r="KP3" t="n">
-        <v>408.8249206542969</v>
+        <v>320.4819030761719</v>
       </c>
       <c r="KQ3" t="n">
-        <v>398.0760803222656</v>
+        <v>322.3621215820312</v>
       </c>
       <c r="KR3" t="n">
-        <v>380.0107116699219</v>
+        <v>321.8749084472656</v>
       </c>
       <c r="KS3" t="n">
-        <v>356.5030517578125</v>
+        <v>320.0670776367188</v>
       </c>
       <c r="KT3" t="n">
-        <v>347.3045654296875</v>
+        <v>323.7752685546875</v>
       </c>
       <c r="KU3" t="n">
-        <v>344.7241821289062</v>
+        <v>336.6080932617188</v>
       </c>
       <c r="KV3" t="n">
-        <v>356.2636108398438</v>
+        <v>350.3188171386719</v>
       </c>
       <c r="KW3" t="n">
-        <v>357.7538146972656</v>
+        <v>359.7835693359375</v>
       </c>
       <c r="KX3" t="n">
-        <v>366.9071960449219</v>
+        <v>359.8988037109375</v>
       </c>
       <c r="KY3" t="n">
-        <v>397.1727294921875</v>
+        <v>358.3438720703125</v>
       </c>
       <c r="KZ3" t="n">
-        <v>414.6837463378906</v>
+        <v>359.9984130859375</v>
       </c>
       <c r="LA3" t="n">
-        <v>468.2577819824219</v>
+        <v>363.54736328125</v>
       </c>
       <c r="LB3" t="n">
-        <v>483.8756103515625</v>
+        <v>376.87451171875</v>
       </c>
       <c r="LC3" t="n">
-        <v>485.5003051757812</v>
+        <v>399.2719116210938</v>
       </c>
       <c r="LD3" t="n">
-        <v>495.3786926269531</v>
+        <v>426.2281494140625</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>426.3179931640625</v>
+      </c>
+      <c r="LF3" t="n">
+        <v>387.0384826660156</v>
+      </c>
+      <c r="LG3" t="n">
+        <v>332.5688171386719</v>
+      </c>
+      <c r="LH3" t="n">
+        <v>266.0335388183594</v>
+      </c>
+      <c r="LI3" t="n">
+        <v>202.8918609619141</v>
+      </c>
+      <c r="LJ3" t="n">
+        <v>179.6282501220703</v>
+      </c>
+      <c r="LK3" t="n">
+        <v>144.6104583740234</v>
+      </c>
+      <c r="LL3" t="n">
+        <v>97.29798889160156</v>
+      </c>
+      <c r="LM3" t="n">
+        <v>106.5541839599609</v>
+      </c>
+      <c r="LN3" t="n">
+        <v>92.40005493164062</v>
+      </c>
+      <c r="LO3" t="n">
+        <v>68.05210113525391</v>
+      </c>
+      <c r="LP3" t="n">
+        <v>-12.68509197235107</v>
+      </c>
+      <c r="LQ3" t="n">
+        <v>26.82540893554688</v>
+      </c>
+      <c r="LR3" t="n">
+        <v>994.1940307617188</v>
+      </c>
+      <c r="LS3" t="n">
+        <v>888.091552734375</v>
+      </c>
+      <c r="LT3" t="n">
+        <v>961.1104125976562</v>
+      </c>
+      <c r="LU3" t="n">
+        <v>980.5789794921875</v>
+      </c>
+      <c r="LV3" t="n">
+        <v>960.325439453125</v>
+      </c>
+      <c r="LW3" t="n">
+        <v>936.583740234375</v>
+      </c>
+      <c r="LX3" t="n">
+        <v>946.7686767578125</v>
+      </c>
+      <c r="LY3" t="n">
+        <v>978.373291015625</v>
+      </c>
+      <c r="LZ3" t="n">
+        <v>1016.603515625</v>
+      </c>
+      <c r="MA3" t="n">
+        <v>1045.507202148438</v>
+      </c>
+      <c r="MB3" t="n">
+        <v>-55.71052551269531</v>
+      </c>
+      <c r="MC3" t="n">
+        <v>-58.22732925415039</v>
+      </c>
+      <c r="MD3" t="n">
+        <v>-39.48467254638672</v>
+      </c>
+      <c r="ME3" t="n">
+        <v>-32.6406364440918</v>
+      </c>
+      <c r="MF3" t="n">
+        <v>-40.692626953125</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>397.7721862792969</v>
+        <v>717.169921875</v>
       </c>
       <c r="B4" t="n">
-        <v>436.3253173828125</v>
+        <v>757.9002075195312</v>
       </c>
       <c r="C4" t="n">
-        <v>477.7939147949219</v>
+        <v>793.134521484375</v>
       </c>
       <c r="D4" t="n">
-        <v>518.6740112304688</v>
+        <v>825.47900390625</v>
       </c>
       <c r="E4" t="n">
-        <v>563.8724365234375</v>
+        <v>859.3154907226562</v>
       </c>
       <c r="F4" t="n">
-        <v>623.5825805664062</v>
+        <v>887.8793334960938</v>
       </c>
       <c r="G4" t="n">
-        <v>685.4103393554688</v>
+        <v>923.0162963867188</v>
       </c>
       <c r="H4" t="n">
-        <v>749.837646484375</v>
+        <v>949.1783447265625</v>
       </c>
       <c r="I4" t="n">
-        <v>816.6734619140625</v>
+        <v>971.1222534179688</v>
       </c>
       <c r="J4" t="n">
-        <v>888.1683349609375</v>
+        <v>996.1830444335938</v>
       </c>
       <c r="K4" t="n">
-        <v>954.12646484375</v>
+        <v>1020.9873046875</v>
       </c>
       <c r="L4" t="n">
-        <v>1026.567260742188</v>
+        <v>1053.335327148438</v>
       </c>
       <c r="M4" t="n">
-        <v>1085.949340820312</v>
+        <v>1089.238647460938</v>
       </c>
       <c r="N4" t="n">
-        <v>1144.000122070312</v>
+        <v>1122.838989257812</v>
       </c>
       <c r="O4" t="n">
-        <v>1206.601318359375</v>
+        <v>1143.718505859375</v>
       </c>
       <c r="P4" t="n">
-        <v>1265.681884765625</v>
+        <v>1161.346923828125</v>
       </c>
       <c r="Q4" t="n">
-        <v>1317.909790039062</v>
+        <v>1188.155639648438</v>
       </c>
       <c r="R4" t="n">
-        <v>1382.224609375</v>
+        <v>1216.000732421875</v>
       </c>
       <c r="S4" t="n">
-        <v>1431.144897460938</v>
+        <v>1240.247680664062</v>
       </c>
       <c r="T4" t="n">
-        <v>1467.331176757812</v>
+        <v>1269.092041015625</v>
       </c>
       <c r="U4" t="n">
-        <v>1516.302001953125</v>
+        <v>1294.5693359375</v>
       </c>
       <c r="V4" t="n">
-        <v>1546.207397460938</v>
+        <v>1321.546142578125</v>
       </c>
       <c r="W4" t="n">
-        <v>1561.228515625</v>
+        <v>1349.029418945312</v>
       </c>
       <c r="X4" t="n">
-        <v>1568.883911132812</v>
+        <v>1377.086791992188</v>
       </c>
       <c r="Y4" t="n">
-        <v>1583.75830078125</v>
+        <v>1399.720703125</v>
       </c>
       <c r="Z4" t="n">
-        <v>1600.671630859375</v>
+        <v>1429.994995117188</v>
       </c>
       <c r="AA4" t="n">
-        <v>1614.29296875</v>
+        <v>1471.45458984375</v>
       </c>
       <c r="AB4" t="n">
-        <v>1618.159301757812</v>
+        <v>1503.894409179688</v>
       </c>
       <c r="AC4" t="n">
-        <v>1626.444458007812</v>
+        <v>1542.6591796875</v>
       </c>
       <c r="AD4" t="n">
-        <v>1641.803100585938</v>
+        <v>1584.53369140625</v>
       </c>
       <c r="AE4" t="n">
-        <v>1662.823974609375</v>
+        <v>1612.532592773438</v>
       </c>
       <c r="AF4" t="n">
-        <v>1675.719604492188</v>
+        <v>1650.20751953125</v>
       </c>
       <c r="AG4" t="n">
-        <v>1682.66259765625</v>
+        <v>1685.297729492188</v>
       </c>
       <c r="AH4" t="n">
-        <v>1689.225219726562</v>
+        <v>1719.531372070312</v>
       </c>
       <c r="AI4" t="n">
-        <v>1705.18798828125</v>
+        <v>1739.531616210938</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1711.98046875</v>
+        <v>1761.5107421875</v>
       </c>
       <c r="AK4" t="n">
-        <v>1720.249755859375</v>
+        <v>1787.4423828125</v>
       </c>
       <c r="AL4" t="n">
-        <v>1718.758544921875</v>
+        <v>1808.452758789062</v>
       </c>
       <c r="AM4" t="n">
-        <v>1724.500244140625</v>
+        <v>1819.15283203125</v>
       </c>
       <c r="AN4" t="n">
-        <v>1722.656005859375</v>
+        <v>1829.649169921875</v>
       </c>
       <c r="AO4" t="n">
-        <v>1729.033935546875</v>
+        <v>1841.033813476562</v>
       </c>
       <c r="AP4" t="n">
-        <v>1743.916625976562</v>
+        <v>1860.971923828125</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1754.30615234375</v>
+        <v>1873.39990234375</v>
       </c>
       <c r="AR4" t="n">
-        <v>1759.379150390625</v>
+        <v>1879.177001953125</v>
       </c>
       <c r="AS4" t="n">
-        <v>1760.969116210938</v>
+        <v>1881.382568359375</v>
       </c>
       <c r="AT4" t="n">
-        <v>1765.893676757812</v>
+        <v>1879.624267578125</v>
       </c>
       <c r="AU4" t="n">
-        <v>1770.296142578125</v>
+        <v>1894.751708984375</v>
       </c>
       <c r="AV4" t="n">
-        <v>1775.455322265625</v>
+        <v>1903.410400390625</v>
       </c>
       <c r="AW4" t="n">
-        <v>1783.493041992188</v>
+        <v>1932.733154296875</v>
       </c>
       <c r="AX4" t="n">
-        <v>1790.099365234375</v>
+        <v>1957.765991210938</v>
       </c>
       <c r="AY4" t="n">
-        <v>1791.797119140625</v>
+        <v>1983.421142578125</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1797.013671875</v>
+        <v>1982.5244140625</v>
       </c>
       <c r="BA4" t="n">
-        <v>1803.52392578125</v>
+        <v>1985.661743164062</v>
       </c>
       <c r="BB4" t="n">
-        <v>1802.631225585938</v>
+        <v>2006.8984375</v>
       </c>
       <c r="BC4" t="n">
-        <v>1805.2978515625</v>
+        <v>2020.691772460938</v>
       </c>
       <c r="BD4" t="n">
-        <v>1804.383911132812</v>
+        <v>2032.700561523438</v>
       </c>
       <c r="BE4" t="n">
-        <v>1806.780883789062</v>
+        <v>2047.33349609375</v>
       </c>
       <c r="BF4" t="n">
-        <v>1815.215209960938</v>
+        <v>2030.982788085938</v>
       </c>
       <c r="BG4" t="n">
-        <v>1821.14013671875</v>
+        <v>2015.924194335938</v>
       </c>
       <c r="BH4" t="n">
-        <v>1828.56884765625</v>
+        <v>2051.58740234375</v>
       </c>
       <c r="BI4" t="n">
-        <v>1819.400634765625</v>
+        <v>2078.1171875</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1802.3154296875</v>
+        <v>2068.122802734375</v>
       </c>
       <c r="BK4" t="n">
-        <v>1805.839111328125</v>
+        <v>2075.596923828125</v>
       </c>
       <c r="BL4" t="n">
-        <v>1800.466552734375</v>
+        <v>2095.7392578125</v>
       </c>
       <c r="BM4" t="n">
-        <v>1793.102905273438</v>
+        <v>2099.0703125</v>
       </c>
       <c r="BN4" t="n">
-        <v>1807.451416015625</v>
+        <v>2098.612548828125</v>
       </c>
       <c r="BO4" t="n">
-        <v>1804.5390625</v>
+        <v>2077.96337890625</v>
       </c>
       <c r="BP4" t="n">
-        <v>1797.3544921875</v>
+        <v>2068.29931640625</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1831.581909179688</v>
+        <v>2078.160888671875</v>
       </c>
       <c r="BR4" t="n">
-        <v>1856.325927734375</v>
+        <v>2076.65380859375</v>
       </c>
       <c r="BS4" t="n">
-        <v>1868.1103515625</v>
+        <v>2071.56396484375</v>
       </c>
       <c r="BT4" t="n">
-        <v>1879.41455078125</v>
+        <v>2066.73095703125</v>
       </c>
       <c r="BU4" t="n">
-        <v>1884.338623046875</v>
+        <v>2068.845703125</v>
       </c>
       <c r="BV4" t="n">
-        <v>1914.015014648438</v>
+        <v>2066.790283203125</v>
       </c>
       <c r="BW4" t="n">
-        <v>1939.890869140625</v>
+        <v>2074.548828125</v>
       </c>
       <c r="BX4" t="n">
-        <v>1953.180908203125</v>
+        <v>2072.309814453125</v>
       </c>
       <c r="BY4" t="n">
-        <v>1957.020629882812</v>
+        <v>2046.432495117188</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1957.446166992188</v>
+        <v>2060.5078125</v>
       </c>
       <c r="CA4" t="n">
-        <v>1955.039306640625</v>
+        <v>2053.36767578125</v>
       </c>
       <c r="CB4" t="n">
-        <v>1953.126831054688</v>
+        <v>2056.44873046875</v>
       </c>
       <c r="CC4" t="n">
-        <v>1952.556396484375</v>
+        <v>2057.2353515625</v>
       </c>
       <c r="CD4" t="n">
-        <v>1952.20361328125</v>
+        <v>2058.80029296875</v>
       </c>
       <c r="CE4" t="n">
-        <v>1950.191650390625</v>
+        <v>2038.486572265625</v>
       </c>
       <c r="CF4" t="n">
-        <v>1947.910522460938</v>
+        <v>2013.715576171875</v>
       </c>
       <c r="CG4" t="n">
-        <v>1942.691040039062</v>
+        <v>1997.520385742188</v>
       </c>
       <c r="CH4" t="n">
-        <v>1920.12939453125</v>
+        <v>1989.083740234375</v>
       </c>
       <c r="CI4" t="n">
-        <v>1892.482055664062</v>
+        <v>1986.67822265625</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1870.4326171875</v>
+        <v>1979.978637695312</v>
       </c>
       <c r="CK4" t="n">
-        <v>1854.886352539062</v>
+        <v>1980.18896484375</v>
       </c>
       <c r="CL4" t="n">
-        <v>1840.858276367188</v>
+        <v>1977.55810546875</v>
       </c>
       <c r="CM4" t="n">
-        <v>1828.185668945312</v>
+        <v>1974.411865234375</v>
       </c>
       <c r="CN4" t="n">
-        <v>1811.819946289062</v>
+        <v>1973.500122070312</v>
       </c>
       <c r="CO4" t="n">
-        <v>1798.459594726562</v>
+        <v>1975.771850585938</v>
       </c>
       <c r="CP4" t="n">
-        <v>1804.252563476562</v>
+        <v>1979.767944335938</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1784.375610351562</v>
+        <v>1983.032348632812</v>
       </c>
       <c r="CR4" t="n">
-        <v>1772.281860351562</v>
+        <v>1982.683349609375</v>
       </c>
       <c r="CS4" t="n">
-        <v>1773.347045898438</v>
+        <v>1991.304443359375</v>
       </c>
       <c r="CT4" t="n">
-        <v>1784.271118164062</v>
+        <v>1992.309692382812</v>
       </c>
       <c r="CU4" t="n">
-        <v>1790.976318359375</v>
+        <v>1995.863647460938</v>
       </c>
       <c r="CV4" t="n">
-        <v>1814.04345703125</v>
+        <v>1990.384521484375</v>
       </c>
       <c r="CW4" t="n">
-        <v>1809.55615234375</v>
+        <v>1996.665161132812</v>
       </c>
       <c r="CX4" t="n">
-        <v>1823.0478515625</v>
+        <v>1996.126831054688</v>
       </c>
       <c r="CY4" t="n">
-        <v>1832.518676757812</v>
+        <v>1999.267700195312</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1839.411376953125</v>
+        <v>2004.0791015625</v>
       </c>
       <c r="DA4" t="n">
-        <v>1829.447143554688</v>
+        <v>2007.749389648438</v>
       </c>
       <c r="DB4" t="n">
-        <v>1829.276733398438</v>
+        <v>2004.197387695312</v>
       </c>
       <c r="DC4" t="n">
-        <v>1830.95361328125</v>
+        <v>2001.43798828125</v>
       </c>
       <c r="DD4" t="n">
-        <v>1826.242919921875</v>
+        <v>1981.823120117188</v>
       </c>
       <c r="DE4" t="n">
-        <v>1824.631958007812</v>
+        <v>1983.05029296875</v>
       </c>
       <c r="DF4" t="n">
-        <v>1824.179443359375</v>
+        <v>2002.83447265625</v>
       </c>
       <c r="DG4" t="n">
-        <v>1822.814697265625</v>
+        <v>2046.6943359375</v>
       </c>
       <c r="DH4" t="n">
-        <v>1821.535888671875</v>
+        <v>2049.4189453125</v>
       </c>
       <c r="DI4" t="n">
-        <v>1824.9208984375</v>
+        <v>2070.1982421875</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1811.014404296875</v>
+        <v>2081.046875</v>
       </c>
       <c r="DK4" t="n">
-        <v>1760.886596679688</v>
+        <v>2100.42578125</v>
       </c>
       <c r="DL4" t="n">
-        <v>1775.535888671875</v>
+        <v>2113.639892578125</v>
       </c>
       <c r="DM4" t="n">
-        <v>1797.263427734375</v>
+        <v>2131.673583984375</v>
       </c>
       <c r="DN4" t="n">
-        <v>1810.286376953125</v>
+        <v>2126.5703125</v>
       </c>
       <c r="DO4" t="n">
-        <v>1822.235107421875</v>
+        <v>2126.503662109375</v>
       </c>
       <c r="DP4" t="n">
-        <v>1835.012573242188</v>
+        <v>2126.5390625</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1853.1884765625</v>
+        <v>2127.2529296875</v>
       </c>
       <c r="DR4" t="n">
-        <v>1864.60791015625</v>
+        <v>2128.53662109375</v>
       </c>
       <c r="DS4" t="n">
-        <v>1868.954956054688</v>
+        <v>2129.94580078125</v>
       </c>
       <c r="DT4" t="n">
-        <v>1881.270141601562</v>
+        <v>2130.073974609375</v>
       </c>
       <c r="DU4" t="n">
-        <v>1883.867309570312</v>
+        <v>2130.236328125</v>
       </c>
       <c r="DV4" t="n">
-        <v>1883.873291015625</v>
+        <v>2129.049560546875</v>
       </c>
       <c r="DW4" t="n">
-        <v>1882.757690429688</v>
+        <v>2123.421875</v>
       </c>
       <c r="DX4" t="n">
-        <v>1881.904296875</v>
+        <v>2111.382080078125</v>
       </c>
       <c r="DY4" t="n">
-        <v>1878.550537109375</v>
+        <v>2083.548828125</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1876.414794921875</v>
+        <v>2041.7724609375</v>
       </c>
       <c r="EA4" t="n">
-        <v>1870.315307617188</v>
+        <v>2042.148803710938</v>
       </c>
       <c r="EB4" t="n">
-        <v>1863.759399414062</v>
+        <v>2035.614379882812</v>
       </c>
       <c r="EC4" t="n">
-        <v>1855.05810546875</v>
+        <v>2035.578369140625</v>
       </c>
       <c r="ED4" t="n">
-        <v>1844.580078125</v>
+        <v>2016.941650390625</v>
       </c>
       <c r="EE4" t="n">
-        <v>1837.827392578125</v>
+        <v>1996.994262695312</v>
       </c>
       <c r="EF4" t="n">
-        <v>1807.938842773438</v>
+        <v>1978.671264648438</v>
       </c>
       <c r="EG4" t="n">
-        <v>1810.597534179688</v>
+        <v>1974.0126953125</v>
       </c>
       <c r="EH4" t="n">
-        <v>1814.400268554688</v>
+        <v>1979.711059570312</v>
       </c>
       <c r="EI4" t="n">
-        <v>1787.755859375</v>
+        <v>2005.160400390625</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1781.8828125</v>
+        <v>2003.273681640625</v>
       </c>
       <c r="EK4" t="n">
-        <v>1798.141845703125</v>
+        <v>2007.185180664062</v>
       </c>
       <c r="EL4" t="n">
-        <v>1800.19775390625</v>
+        <v>1988.576904296875</v>
       </c>
       <c r="EM4" t="n">
-        <v>1794.800903320312</v>
+        <v>2013.502197265625</v>
       </c>
       <c r="EN4" t="n">
-        <v>1810.449829101562</v>
+        <v>2009.5869140625</v>
       </c>
       <c r="EO4" t="n">
-        <v>1808.043701171875</v>
+        <v>2015.84130859375</v>
       </c>
       <c r="EP4" t="n">
-        <v>1797.39208984375</v>
+        <v>2045.739624023438</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1808.488525390625</v>
+        <v>2070.989501953125</v>
       </c>
       <c r="ER4" t="n">
-        <v>1827.620361328125</v>
+        <v>2118.1171875</v>
       </c>
       <c r="ES4" t="n">
-        <v>1827.422607421875</v>
+        <v>2132.81201171875</v>
       </c>
       <c r="ET4" t="n">
-        <v>1828.721557617188</v>
+        <v>2156.460693359375</v>
       </c>
       <c r="EU4" t="n">
-        <v>1823.575439453125</v>
+        <v>2199.752685546875</v>
       </c>
       <c r="EV4" t="n">
-        <v>1820.344970703125</v>
+        <v>2199.673583984375</v>
       </c>
       <c r="EW4" t="n">
-        <v>1808.70751953125</v>
+        <v>2198.55029296875</v>
       </c>
       <c r="EX4" t="n">
-        <v>1782.80712890625</v>
+        <v>2197.56591796875</v>
       </c>
       <c r="EY4" t="n">
-        <v>1790.937744140625</v>
+        <v>2197.70166015625</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1768.420166015625</v>
+        <v>2197.142822265625</v>
       </c>
       <c r="FA4" t="n">
-        <v>1785.364013671875</v>
+        <v>2195.90625</v>
       </c>
       <c r="FB4" t="n">
-        <v>1783.50341796875</v>
+        <v>2189.4736328125</v>
       </c>
       <c r="FC4" t="n">
-        <v>1777.481079101562</v>
+        <v>2162.7236328125</v>
       </c>
       <c r="FD4" t="n">
-        <v>1802.698120117188</v>
+        <v>2146.770263671875</v>
       </c>
       <c r="FE4" t="n">
-        <v>1825.6865234375</v>
+        <v>2114.526611328125</v>
       </c>
       <c r="FF4" t="n">
-        <v>1835.639282226562</v>
+        <v>2086.662841796875</v>
       </c>
       <c r="FG4" t="n">
-        <v>1850.00830078125</v>
+        <v>2062.69580078125</v>
       </c>
       <c r="FH4" t="n">
-        <v>1856.226684570312</v>
+        <v>2012.903686523438</v>
       </c>
       <c r="FI4" t="n">
-        <v>1858.96728515625</v>
+        <v>2026.357788085938</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1869.059814453125</v>
+        <v>1983.510131835938</v>
       </c>
       <c r="FK4" t="n">
-        <v>1869.532348632812</v>
+        <v>1982.947265625</v>
       </c>
       <c r="FL4" t="n">
-        <v>1868.933837890625</v>
+        <v>1948.430053710938</v>
       </c>
       <c r="FM4" t="n">
-        <v>1866.7314453125</v>
+        <v>1933.85595703125</v>
       </c>
       <c r="FN4" t="n">
-        <v>1855.537719726562</v>
+        <v>1950.581298828125</v>
       </c>
       <c r="FO4" t="n">
-        <v>1851.65625</v>
+        <v>1938.442138671875</v>
       </c>
       <c r="FP4" t="n">
-        <v>1835.945678710938</v>
+        <v>1951.769409179688</v>
       </c>
       <c r="FQ4" t="n">
-        <v>1823.328857421875</v>
+        <v>1965.766723632812</v>
       </c>
       <c r="FR4" t="n">
-        <v>1797.671997070312</v>
+        <v>1982.585083007812</v>
       </c>
       <c r="FS4" t="n">
-        <v>1799.787109375</v>
+        <v>1991.95849609375</v>
       </c>
       <c r="FT4" t="n">
-        <v>1786.37109375</v>
+        <v>2097.36962890625</v>
       </c>
       <c r="FU4" t="n">
-        <v>1775.939697265625</v>
+        <v>2224.78369140625</v>
       </c>
       <c r="FV4" t="n">
-        <v>1794.271118164062</v>
+        <v>2234.64306640625</v>
       </c>
       <c r="FW4" t="n">
-        <v>1788.552856445312</v>
+        <v>2233.6279296875</v>
       </c>
       <c r="FX4" t="n">
-        <v>1782.245971679688</v>
+        <v>2238.30224609375</v>
       </c>
       <c r="FY4" t="n">
-        <v>1793.434326171875</v>
+        <v>2244.7861328125</v>
       </c>
       <c r="FZ4" t="n">
-        <v>1803.46142578125</v>
+        <v>2242.270263671875</v>
       </c>
       <c r="GA4" t="n">
-        <v>1803.308837890625</v>
+        <v>2241.244384765625</v>
       </c>
       <c r="GB4" t="n">
-        <v>1827.750732421875</v>
+        <v>2233.34130859375</v>
       </c>
       <c r="GC4" t="n">
-        <v>1832.123901367188</v>
+        <v>2225.37841796875</v>
       </c>
       <c r="GD4" t="n">
-        <v>1822.848266601562</v>
+        <v>2217.03173828125</v>
       </c>
       <c r="GE4" t="n">
-        <v>1819.531494140625</v>
+        <v>2200.325439453125</v>
       </c>
       <c r="GF4" t="n">
-        <v>1818.699462890625</v>
+        <v>2168.621337890625</v>
       </c>
       <c r="GG4" t="n">
-        <v>1817.957397460938</v>
+        <v>2111.7998046875</v>
       </c>
       <c r="GH4" t="n">
-        <v>1817.363647460938</v>
+        <v>2074.256103515625</v>
       </c>
       <c r="GI4" t="n">
-        <v>1815.999389648438</v>
+        <v>2020.84716796875</v>
       </c>
       <c r="GJ4" t="n">
-        <v>1780.0830078125</v>
+        <v>2014.249633789062</v>
       </c>
       <c r="GK4" t="n">
-        <v>1771.404418945312</v>
+        <v>2001.953979492188</v>
       </c>
       <c r="GL4" t="n">
-        <v>1765.031005859375</v>
+        <v>1983.002685546875</v>
       </c>
       <c r="GM4" t="n">
-        <v>1781.192016601562</v>
+        <v>1997.182861328125</v>
       </c>
       <c r="GN4" t="n">
-        <v>1786.145751953125</v>
+        <v>1995.981811523438</v>
       </c>
       <c r="GO4" t="n">
-        <v>1779.160034179688</v>
+        <v>1995.185424804688</v>
       </c>
       <c r="GP4" t="n">
-        <v>1827.945922851562</v>
+        <v>1993.237915039062</v>
       </c>
       <c r="GQ4" t="n">
-        <v>1851.907104492188</v>
+        <v>1995.722412109375</v>
       </c>
       <c r="GR4" t="n">
-        <v>1863.775634765625</v>
+        <v>1998.151733398438</v>
       </c>
       <c r="GS4" t="n">
-        <v>1886.502807617188</v>
+        <v>2001.183959960938</v>
       </c>
       <c r="GT4" t="n">
-        <v>1892.03076171875</v>
+        <v>2011.611938476562</v>
       </c>
       <c r="GU4" t="n">
-        <v>1891.495483398438</v>
+        <v>1974.192016601562</v>
       </c>
       <c r="GV4" t="n">
-        <v>1889.922485351562</v>
+        <v>2029.99462890625</v>
       </c>
       <c r="GW4" t="n">
-        <v>1875.250244140625</v>
+        <v>2099.94287109375</v>
       </c>
       <c r="GX4" t="n">
-        <v>1849.83203125</v>
+        <v>2181.10498046875</v>
       </c>
       <c r="GY4" t="n">
-        <v>1820.853759765625</v>
+        <v>2226.880859375</v>
       </c>
       <c r="GZ4" t="n">
-        <v>1799.098876953125</v>
+        <v>2272.042236328125</v>
       </c>
       <c r="HA4" t="n">
-        <v>1774.497314453125</v>
+        <v>2274.114501953125</v>
       </c>
       <c r="HB4" t="n">
-        <v>1774.994018554688</v>
+        <v>2281.346435546875</v>
       </c>
       <c r="HC4" t="n">
-        <v>1783.8857421875</v>
+        <v>2264.9833984375</v>
       </c>
       <c r="HD4" t="n">
-        <v>1764.989013671875</v>
+        <v>2259.3896484375</v>
       </c>
       <c r="HE4" t="n">
-        <v>1774.378540039062</v>
+        <v>2253.650634765625</v>
       </c>
       <c r="HF4" t="n">
-        <v>1792.46533203125</v>
+        <v>2253.63525390625</v>
       </c>
       <c r="HG4" t="n">
-        <v>1795.729248046875</v>
+        <v>2252.47998046875</v>
       </c>
       <c r="HH4" t="n">
-        <v>1812.188720703125</v>
+        <v>2249.4560546875</v>
       </c>
       <c r="HI4" t="n">
-        <v>1831.5927734375</v>
+        <v>2206.456787109375</v>
       </c>
       <c r="HJ4" t="n">
-        <v>1823.585693359375</v>
+        <v>2181.821044921875</v>
       </c>
       <c r="HK4" t="n">
-        <v>1815.20849609375</v>
+        <v>2144.38671875</v>
       </c>
       <c r="HL4" t="n">
-        <v>1802.56884765625</v>
+        <v>2102.615478515625</v>
       </c>
       <c r="HM4" t="n">
-        <v>1801.462280273438</v>
+        <v>2056.459716796875</v>
       </c>
       <c r="HN4" t="n">
-        <v>1802.12939453125</v>
+        <v>2027.734008789062</v>
       </c>
       <c r="HO4" t="n">
-        <v>1803.288330078125</v>
+        <v>2022.454833984375</v>
       </c>
       <c r="HP4" t="n">
-        <v>1770.178588867188</v>
+        <v>1996.074340820312</v>
       </c>
       <c r="HQ4" t="n">
-        <v>1781.60302734375</v>
+        <v>1981.813354492188</v>
       </c>
       <c r="HR4" t="n">
-        <v>1781.226806640625</v>
+        <v>1982.577758789062</v>
       </c>
       <c r="HS4" t="n">
-        <v>1797.697265625</v>
+        <v>1985.562133789062</v>
       </c>
       <c r="HT4" t="n">
-        <v>1760.795166015625</v>
+        <v>1975.611694335938</v>
       </c>
       <c r="HU4" t="n">
-        <v>1788.052124023438</v>
+        <v>1993.0517578125</v>
       </c>
       <c r="HV4" t="n">
-        <v>1813.465576171875</v>
+        <v>2004.730224609375</v>
       </c>
       <c r="HW4" t="n">
-        <v>1845.575439453125</v>
+        <v>2157.82373046875</v>
       </c>
       <c r="HX4" t="n">
-        <v>1859.743408203125</v>
+        <v>2213.12548828125</v>
       </c>
       <c r="HY4" t="n">
-        <v>1883.440185546875</v>
+        <v>2296.470703125</v>
       </c>
       <c r="HZ4" t="n">
-        <v>1899.674560546875</v>
+        <v>2339.35009765625</v>
       </c>
       <c r="IA4" t="n">
-        <v>1894.58056640625</v>
+        <v>2324.181396484375</v>
       </c>
       <c r="IB4" t="n">
-        <v>1891.0302734375</v>
+        <v>2300.056884765625</v>
       </c>
       <c r="IC4" t="n">
-        <v>1888.002807617188</v>
+        <v>2297.640625</v>
       </c>
       <c r="ID4" t="n">
-        <v>1873.104736328125</v>
+        <v>2289.036376953125</v>
       </c>
       <c r="IE4" t="n">
-        <v>1862.58984375</v>
+        <v>2287.31396484375</v>
       </c>
       <c r="IF4" t="n">
-        <v>1845.926025390625</v>
+        <v>2284.250732421875</v>
       </c>
       <c r="IG4" t="n">
-        <v>1828.079833984375</v>
+        <v>2280.97216796875</v>
       </c>
       <c r="IH4" t="n">
-        <v>1818.526977539062</v>
+        <v>2248.88232421875</v>
       </c>
       <c r="II4" t="n">
-        <v>1812.449340820312</v>
+        <v>2174.820556640625</v>
       </c>
       <c r="IJ4" t="n">
-        <v>1773.7451171875</v>
+        <v>2135.112060546875</v>
       </c>
       <c r="IK4" t="n">
-        <v>1809.629272460938</v>
+        <v>2055.091064453125</v>
       </c>
       <c r="IL4" t="n">
-        <v>1783.7421875</v>
+        <v>2016.1875</v>
       </c>
       <c r="IM4" t="n">
-        <v>1776.185302734375</v>
+        <v>1904.590942382812</v>
       </c>
       <c r="IN4" t="n">
-        <v>1792.38720703125</v>
+        <v>1941.922119140625</v>
       </c>
       <c r="IO4" t="n">
-        <v>1726.745483398438</v>
+        <v>1980.040649414062</v>
       </c>
       <c r="IP4" t="n">
-        <v>1715.226318359375</v>
+        <v>1974.87255859375</v>
       </c>
       <c r="IQ4" t="n">
-        <v>1760.91162109375</v>
+        <v>1966.60498046875</v>
       </c>
       <c r="IR4" t="n">
-        <v>1779.914672851562</v>
+        <v>1971.560302734375</v>
       </c>
       <c r="IS4" t="n">
-        <v>1808.315307617188</v>
+        <v>1981.619995117188</v>
       </c>
       <c r="IT4" t="n">
-        <v>1811.53857421875</v>
+        <v>2095.564453125</v>
       </c>
       <c r="IU4" t="n">
-        <v>1779.3828125</v>
+        <v>2151.8427734375</v>
       </c>
       <c r="IV4" t="n">
-        <v>1795.740356445312</v>
+        <v>2205.157958984375</v>
       </c>
       <c r="IW4" t="n">
-        <v>1766.775756835938</v>
+        <v>2274.692138671875</v>
       </c>
       <c r="IX4" t="n">
-        <v>1790.561645507812</v>
+        <v>2310.54150390625</v>
       </c>
       <c r="IY4" t="n">
-        <v>1766.889404296875</v>
+        <v>2275.812255859375</v>
       </c>
       <c r="IZ4" t="n">
-        <v>1812.76806640625</v>
+        <v>2262.127197265625</v>
       </c>
       <c r="JA4" t="n">
-        <v>1848.44677734375</v>
+        <v>2260.96337890625</v>
       </c>
       <c r="JB4" t="n">
-        <v>1868.97998046875</v>
+        <v>2244.07470703125</v>
       </c>
       <c r="JC4" t="n">
-        <v>1902.203002929688</v>
+        <v>2204.158447265625</v>
       </c>
       <c r="JD4" t="n">
-        <v>1915.593383789062</v>
+        <v>2167.714599609375</v>
       </c>
       <c r="JE4" t="n">
-        <v>1908.597290039062</v>
+        <v>2051.723388671875</v>
       </c>
       <c r="JF4" t="n">
-        <v>1907.80029296875</v>
+        <v>1994.125244140625</v>
       </c>
       <c r="JG4" t="n">
-        <v>1903.037963867188</v>
+        <v>1923.8056640625</v>
       </c>
       <c r="JH4" t="n">
-        <v>1876.30615234375</v>
+        <v>1960.615600585938</v>
       </c>
       <c r="JI4" t="n">
-        <v>1852.6279296875</v>
+        <v>1978.8955078125</v>
       </c>
       <c r="JJ4" t="n">
-        <v>1850.549560546875</v>
+        <v>1948.89111328125</v>
       </c>
       <c r="JK4" t="n">
-        <v>1835.393676757812</v>
+        <v>1965.261474609375</v>
       </c>
       <c r="JL4" t="n">
-        <v>1819.51416015625</v>
+        <v>1955.979248046875</v>
       </c>
       <c r="JM4" t="n">
-        <v>1802.038696289062</v>
+        <v>1982.4365234375</v>
       </c>
       <c r="JN4" t="n">
-        <v>1792.255859375</v>
+        <v>2046.501953125</v>
       </c>
       <c r="JO4" t="n">
-        <v>1768.57080078125</v>
+        <v>2115.4013671875</v>
       </c>
       <c r="JP4" t="n">
-        <v>1777.696655273438</v>
+        <v>2196.148193359375</v>
       </c>
       <c r="JQ4" t="n">
-        <v>1768.197631835938</v>
+        <v>2251.82861328125</v>
       </c>
       <c r="JR4" t="n">
-        <v>1777.491455078125</v>
+        <v>2272.224609375</v>
       </c>
       <c r="JS4" t="n">
-        <v>1782.662231445312</v>
+        <v>2272.701171875</v>
       </c>
       <c r="JT4" t="n">
-        <v>1814.1904296875</v>
+        <v>2274.173095703125</v>
       </c>
       <c r="JU4" t="n">
-        <v>1808.955688476562</v>
+        <v>2256.47265625</v>
       </c>
       <c r="JV4" t="n">
-        <v>1804.943237304688</v>
+        <v>2250.702880859375</v>
       </c>
       <c r="JW4" t="n">
-        <v>1803.786743164062</v>
+        <v>2250.951416015625</v>
       </c>
       <c r="JX4" t="n">
-        <v>1801.33203125</v>
+        <v>2251.496826171875</v>
       </c>
       <c r="JY4" t="n">
-        <v>1800.079833984375</v>
+        <v>2251.680419921875</v>
       </c>
       <c r="JZ4" t="n">
-        <v>1794.919677734375</v>
+        <v>2249.78515625</v>
       </c>
       <c r="KA4" t="n">
-        <v>1780.050903320312</v>
+        <v>2223.6591796875</v>
       </c>
       <c r="KB4" t="n">
-        <v>1767.795288085938</v>
+        <v>2199.443115234375</v>
       </c>
       <c r="KC4" t="n">
-        <v>1753.320190429688</v>
+        <v>2157.411865234375</v>
       </c>
       <c r="KD4" t="n">
-        <v>1704.466918945312</v>
+        <v>2120.042724609375</v>
       </c>
       <c r="KE4" t="n">
-        <v>1726.28173828125</v>
+        <v>2059.963623046875</v>
       </c>
       <c r="KF4" t="n">
-        <v>1771.42822265625</v>
+        <v>2041.024658203125</v>
       </c>
       <c r="KG4" t="n">
-        <v>1917.174682617188</v>
+        <v>2020.975463867188</v>
       </c>
       <c r="KH4" t="n">
-        <v>1998.787963867188</v>
+        <v>2005.83154296875</v>
       </c>
       <c r="KI4" t="n">
-        <v>2007.946411132812</v>
+        <v>1997.060546875</v>
       </c>
       <c r="KJ4" t="n">
-        <v>2030.117797851562</v>
+        <v>1987.44140625</v>
       </c>
       <c r="KK4" t="n">
-        <v>1986.196166992188</v>
+        <v>1982.074462890625</v>
       </c>
       <c r="KL4" t="n">
-        <v>1849.576782226562</v>
+        <v>2000.24951171875</v>
       </c>
       <c r="KM4" t="n">
-        <v>1747.605346679688</v>
+        <v>2016.051147460938</v>
       </c>
       <c r="KN4" t="n">
-        <v>1605.711303710938</v>
+        <v>2036.633178710938</v>
       </c>
       <c r="KO4" t="n">
-        <v>1382.971435546875</v>
+        <v>2090.3251953125</v>
       </c>
       <c r="KP4" t="n">
-        <v>1244.14599609375</v>
+        <v>2186.9228515625</v>
       </c>
       <c r="KQ4" t="n">
-        <v>1115.1708984375</v>
+        <v>2237.61669921875</v>
       </c>
       <c r="KR4" t="n">
-        <v>1012.918395996094</v>
+        <v>2314.538818359375</v>
       </c>
       <c r="KS4" t="n">
-        <v>918.3045654296875</v>
+        <v>2282.762451171875</v>
       </c>
       <c r="KT4" t="n">
-        <v>851.106201171875</v>
+        <v>2188.496337890625</v>
       </c>
       <c r="KU4" t="n">
-        <v>732.2072143554688</v>
+        <v>2058.66259765625</v>
       </c>
       <c r="KV4" t="n">
-        <v>646.3539428710938</v>
+        <v>1858.190551757812</v>
       </c>
       <c r="KW4" t="n">
-        <v>571.0709838867188</v>
+        <v>1718.177856445312</v>
       </c>
       <c r="KX4" t="n">
-        <v>478.6685180664062</v>
+        <v>1563.819946289062</v>
       </c>
       <c r="KY4" t="n">
-        <v>429.4335327148438</v>
+        <v>1475.1181640625</v>
       </c>
       <c r="KZ4" t="n">
-        <v>391.4810485839844</v>
+        <v>1380.082275390625</v>
       </c>
       <c r="LA4" t="n">
-        <v>354.0681762695312</v>
+        <v>1295.025268554688</v>
       </c>
       <c r="LB4" t="n">
-        <v>344.379638671875</v>
+        <v>1201.568725585938</v>
       </c>
       <c r="LC4" t="n">
-        <v>343.4631652832031</v>
+        <v>1060.033813476562</v>
       </c>
       <c r="LD4" t="n">
-        <v>342.7660827636719</v>
+        <v>902.0070190429688</v>
+      </c>
+      <c r="LE4" t="n">
+        <v>711.5589599609375</v>
+      </c>
+      <c r="LF4" t="n">
+        <v>534.0808715820312</v>
+      </c>
+      <c r="LG4" t="n">
+        <v>450.6739807128906</v>
+      </c>
+      <c r="LH4" t="n">
+        <v>369.7731323242188</v>
+      </c>
+      <c r="LI4" t="n">
+        <v>244.3684387207031</v>
+      </c>
+      <c r="LJ4" t="n">
+        <v>566.6689453125</v>
+      </c>
+      <c r="LK4" t="n">
+        <v>509.921875</v>
+      </c>
+      <c r="LL4" t="n">
+        <v>384.9930419921875</v>
+      </c>
+      <c r="LM4" t="n">
+        <v>479.15478515625</v>
+      </c>
+      <c r="LN4" t="n">
+        <v>504.6287841796875</v>
+      </c>
+      <c r="LO4" t="n">
+        <v>348.9891052246094</v>
+      </c>
+      <c r="LP4" t="n">
+        <v>273.3692321777344</v>
+      </c>
+      <c r="LQ4" t="n">
+        <v>309.1627807617188</v>
+      </c>
+      <c r="LR4" t="n">
+        <v>323.5361938476562</v>
+      </c>
+      <c r="LS4" t="n">
+        <v>373.7160339355469</v>
+      </c>
+      <c r="LT4" t="n">
+        <v>336.0170288085938</v>
+      </c>
+      <c r="LU4" t="n">
+        <v>327.3270874023438</v>
+      </c>
+      <c r="LV4" t="n">
+        <v>335.6170959472656</v>
+      </c>
+      <c r="LW4" t="n">
+        <v>342.1890869140625</v>
+      </c>
+      <c r="LX4" t="n">
+        <v>341.7094116210938</v>
+      </c>
+      <c r="LY4" t="n">
+        <v>340.2200622558594</v>
+      </c>
+      <c r="LZ4" t="n">
+        <v>324.006591796875</v>
+      </c>
+      <c r="MA4" t="n">
+        <v>310.5675964355469</v>
+      </c>
+      <c r="MB4" t="n">
+        <v>295.20361328125</v>
+      </c>
+      <c r="MC4" t="n">
+        <v>284.9207458496094</v>
+      </c>
+      <c r="MD4" t="n">
+        <v>288.4169311523438</v>
+      </c>
+      <c r="ME4" t="n">
+        <v>288.0130004882812</v>
+      </c>
+      <c r="MF4" t="n">
+        <v>292.6235046386719</v>
       </c>
     </row>
   </sheetData>
